--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -247,21 +247,21 @@
     <t>Servette</t>
   </si>
   <si>
+    <t>Sion</t>
+  </si>
+  <si>
     <t>Grasshopper</t>
   </si>
   <si>
+    <t>Basel</t>
+  </si>
+  <si>
     <t>Zürich</t>
   </si>
   <si>
     <t>St. Gallen</t>
   </si>
   <si>
-    <t>Sion</t>
-  </si>
-  <si>
-    <t>Basel</t>
-  </si>
-  <si>
     <t>['61', '90+2']</t>
   </si>
   <si>
@@ -283,6 +283,15 @@
     <t>['32', '40', '79']</t>
   </si>
   <si>
+    <t>['7', '10', '83', '90']</t>
+  </si>
+  <si>
+    <t>['54', '70']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -299,6 +308,12 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['42', '85']</t>
+  </si>
+  <si>
+    <t>['8', '69']</t>
   </si>
 </sst>
 </file>
@@ -660,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP8"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +910,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -919,7 +934,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1101,7 +1116,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1125,7 +1140,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1307,7 +1322,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1513,7 +1528,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1537,7 +1552,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1719,7 +1734,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -1743,7 +1758,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1949,7 +1964,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2155,7 +2170,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2312,6 +2327,624 @@
       </c>
       <c r="BP8">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7467067</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45500.54166666666</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>2.3</v>
+      </c>
+      <c r="S9">
+        <v>3.2</v>
+      </c>
+      <c r="T9">
+        <v>1.33</v>
+      </c>
+      <c r="U9">
+        <v>3.25</v>
+      </c>
+      <c r="V9">
+        <v>2.5</v>
+      </c>
+      <c r="W9">
+        <v>1.5</v>
+      </c>
+      <c r="X9">
+        <v>6.5</v>
+      </c>
+      <c r="Y9">
+        <v>1.11</v>
+      </c>
+      <c r="Z9">
+        <v>2.45</v>
+      </c>
+      <c r="AA9">
+        <v>3.4</v>
+      </c>
+      <c r="AB9">
+        <v>2.65</v>
+      </c>
+      <c r="AC9">
+        <v>1.02</v>
+      </c>
+      <c r="AD9">
+        <v>10.5</v>
+      </c>
+      <c r="AE9">
+        <v>1.2</v>
+      </c>
+      <c r="AF9">
+        <v>4.1</v>
+      </c>
+      <c r="AG9">
+        <v>1.67</v>
+      </c>
+      <c r="AH9">
+        <v>2.05</v>
+      </c>
+      <c r="AI9">
+        <v>1.57</v>
+      </c>
+      <c r="AJ9">
+        <v>2.25</v>
+      </c>
+      <c r="AK9">
+        <v>1.42</v>
+      </c>
+      <c r="AL9">
+        <v>1.27</v>
+      </c>
+      <c r="AM9">
+        <v>1.52</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>3</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>12</v>
+      </c>
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>7</v>
+      </c>
+      <c r="AY9">
+        <v>14</v>
+      </c>
+      <c r="AZ9">
+        <v>10</v>
+      </c>
+      <c r="BA9">
+        <v>7</v>
+      </c>
+      <c r="BB9">
+        <v>7</v>
+      </c>
+      <c r="BC9">
+        <v>14</v>
+      </c>
+      <c r="BD9">
+        <v>1.91</v>
+      </c>
+      <c r="BE9">
+        <v>8</v>
+      </c>
+      <c r="BF9">
+        <v>2.1</v>
+      </c>
+      <c r="BG9">
+        <v>1.25</v>
+      </c>
+      <c r="BH9">
+        <v>3.7</v>
+      </c>
+      <c r="BI9">
+        <v>1.45</v>
+      </c>
+      <c r="BJ9">
+        <v>2.55</v>
+      </c>
+      <c r="BK9">
+        <v>1.73</v>
+      </c>
+      <c r="BL9">
+        <v>2</v>
+      </c>
+      <c r="BM9">
+        <v>2.1</v>
+      </c>
+      <c r="BN9">
+        <v>1.65</v>
+      </c>
+      <c r="BO9">
+        <v>2.85</v>
+      </c>
+      <c r="BP9">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7467066</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45500.54166666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10">
+        <v>2.85</v>
+      </c>
+      <c r="R10">
+        <v>2.25</v>
+      </c>
+      <c r="S10">
+        <v>3.1</v>
+      </c>
+      <c r="T10">
+        <v>1.28</v>
+      </c>
+      <c r="U10">
+        <v>3.35</v>
+      </c>
+      <c r="V10">
+        <v>2.25</v>
+      </c>
+      <c r="W10">
+        <v>1.57</v>
+      </c>
+      <c r="X10">
+        <v>4.95</v>
+      </c>
+      <c r="Y10">
+        <v>1.15</v>
+      </c>
+      <c r="Z10">
+        <v>2.35</v>
+      </c>
+      <c r="AA10">
+        <v>3.6</v>
+      </c>
+      <c r="AB10">
+        <v>2.7</v>
+      </c>
+      <c r="AC10">
+        <v>1.03</v>
+      </c>
+      <c r="AD10">
+        <v>19</v>
+      </c>
+      <c r="AE10">
+        <v>1.18</v>
+      </c>
+      <c r="AF10">
+        <v>4.75</v>
+      </c>
+      <c r="AG10">
+        <v>1.5</v>
+      </c>
+      <c r="AH10">
+        <v>2.4</v>
+      </c>
+      <c r="AI10">
+        <v>1.44</v>
+      </c>
+      <c r="AJ10">
+        <v>2.55</v>
+      </c>
+      <c r="AK10">
+        <v>1.45</v>
+      </c>
+      <c r="AL10">
+        <v>1.22</v>
+      </c>
+      <c r="AM10">
+        <v>1.55</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>6</v>
+      </c>
+      <c r="AV10">
+        <v>9</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>2</v>
+      </c>
+      <c r="AY10">
+        <v>9</v>
+      </c>
+      <c r="AZ10">
+        <v>11</v>
+      </c>
+      <c r="BA10">
+        <v>9</v>
+      </c>
+      <c r="BB10">
+        <v>4</v>
+      </c>
+      <c r="BC10">
+        <v>13</v>
+      </c>
+      <c r="BD10">
+        <v>1.75</v>
+      </c>
+      <c r="BE10">
+        <v>8.5</v>
+      </c>
+      <c r="BF10">
+        <v>2.43</v>
+      </c>
+      <c r="BG10">
+        <v>1.14</v>
+      </c>
+      <c r="BH10">
+        <v>4.7</v>
+      </c>
+      <c r="BI10">
+        <v>1.28</v>
+      </c>
+      <c r="BJ10">
+        <v>3.18</v>
+      </c>
+      <c r="BK10">
+        <v>1.53</v>
+      </c>
+      <c r="BL10">
+        <v>2.34</v>
+      </c>
+      <c r="BM10">
+        <v>1.9</v>
+      </c>
+      <c r="BN10">
+        <v>1.84</v>
+      </c>
+      <c r="BO10">
+        <v>2.44</v>
+      </c>
+      <c r="BP10">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7467068</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45500.64583333334</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>2.9</v>
+      </c>
+      <c r="R11">
+        <v>2.2</v>
+      </c>
+      <c r="S11">
+        <v>3.1</v>
+      </c>
+      <c r="T11">
+        <v>1.3</v>
+      </c>
+      <c r="U11">
+        <v>3.25</v>
+      </c>
+      <c r="V11">
+        <v>2.3</v>
+      </c>
+      <c r="W11">
+        <v>1.55</v>
+      </c>
+      <c r="X11">
+        <v>5.35</v>
+      </c>
+      <c r="Y11">
+        <v>1.14</v>
+      </c>
+      <c r="Z11">
+        <v>2.45</v>
+      </c>
+      <c r="AA11">
+        <v>3.6</v>
+      </c>
+      <c r="AB11">
+        <v>2.55</v>
+      </c>
+      <c r="AC11">
+        <v>1.04</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>1.2</v>
+      </c>
+      <c r="AF11">
+        <v>4.33</v>
+      </c>
+      <c r="AG11">
+        <v>1.55</v>
+      </c>
+      <c r="AH11">
+        <v>2.3</v>
+      </c>
+      <c r="AI11">
+        <v>1.48</v>
+      </c>
+      <c r="AJ11">
+        <v>2.45</v>
+      </c>
+      <c r="AK11">
+        <v>1.45</v>
+      </c>
+      <c r="AL11">
+        <v>1.22</v>
+      </c>
+      <c r="AM11">
+        <v>1.53</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>9</v>
+      </c>
+      <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>14</v>
+      </c>
+      <c r="AZ11">
+        <v>6</v>
+      </c>
+      <c r="BA11">
+        <v>4</v>
+      </c>
+      <c r="BB11">
+        <v>2</v>
+      </c>
+      <c r="BC11">
+        <v>6</v>
+      </c>
+      <c r="BD11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>8</v>
+      </c>
+      <c r="BF11">
+        <v>2</v>
+      </c>
+      <c r="BG11">
+        <v>1.21</v>
+      </c>
+      <c r="BH11">
+        <v>3.74</v>
+      </c>
+      <c r="BI11">
+        <v>1.42</v>
+      </c>
+      <c r="BJ11">
+        <v>2.65</v>
+      </c>
+      <c r="BK11">
+        <v>1.8</v>
+      </c>
+      <c r="BL11">
+        <v>2</v>
+      </c>
+      <c r="BM11">
+        <v>2.21</v>
+      </c>
+      <c r="BN11">
+        <v>1.59</v>
+      </c>
+      <c r="BO11">
+        <v>2.93</v>
+      </c>
+      <c r="BP11">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,12 +256,12 @@
     <t>Basel</t>
   </si>
   <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
     <t>Zürich</t>
   </si>
   <si>
-    <t>St. Gallen</t>
-  </si>
-  <si>
     <t>['61', '90+2']</t>
   </si>
   <si>
@@ -292,6 +292,15 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['12', '22', '46']</t>
+  </si>
+  <si>
+    <t>['9', '18', '51', '55']</t>
+  </si>
+  <si>
+    <t>['13', '32', '59', '90+5']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -314,6 +323,12 @@
   </si>
   <si>
     <t>['8', '69']</t>
+  </si>
+  <si>
+    <t>['34', '63']</t>
+  </si>
+  <si>
+    <t>['30', '51']</t>
   </si>
 </sst>
 </file>
@@ -675,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +949,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1116,7 +1131,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1140,7 +1155,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1322,7 +1337,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1552,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1758,7 +1773,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1964,7 +1979,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2170,7 +2185,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2582,7 +2597,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2788,7 +2803,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -2945,6 +2960,624 @@
       </c>
       <c r="BP11">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7467069</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45501.38541666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12">
+        <v>2.05</v>
+      </c>
+      <c r="R12">
+        <v>2.4</v>
+      </c>
+      <c r="S12">
+        <v>5.5</v>
+      </c>
+      <c r="T12">
+        <v>1.3</v>
+      </c>
+      <c r="U12">
+        <v>3.4</v>
+      </c>
+      <c r="V12">
+        <v>2.5</v>
+      </c>
+      <c r="W12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
+      <c r="Y12">
+        <v>1.13</v>
+      </c>
+      <c r="Z12">
+        <v>1.49</v>
+      </c>
+      <c r="AA12">
+        <v>3.95</v>
+      </c>
+      <c r="AB12">
+        <v>6.1</v>
+      </c>
+      <c r="AC12">
+        <v>1.01</v>
+      </c>
+      <c r="AD12">
+        <v>13</v>
+      </c>
+      <c r="AE12">
+        <v>1.17</v>
+      </c>
+      <c r="AF12">
+        <v>4.5</v>
+      </c>
+      <c r="AG12">
+        <v>1.61</v>
+      </c>
+      <c r="AH12">
+        <v>2.32</v>
+      </c>
+      <c r="AI12">
+        <v>1.73</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>1.09</v>
+      </c>
+      <c r="AL12">
+        <v>1.2</v>
+      </c>
+      <c r="AM12">
+        <v>2.55</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>2.07</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>2.07</v>
+      </c>
+      <c r="AU12">
+        <v>5</v>
+      </c>
+      <c r="AV12">
+        <v>5</v>
+      </c>
+      <c r="AW12">
+        <v>3</v>
+      </c>
+      <c r="AX12">
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>9</v>
+      </c>
+      <c r="BA12">
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>7</v>
+      </c>
+      <c r="BD12">
+        <v>1.18</v>
+      </c>
+      <c r="BE12">
+        <v>11</v>
+      </c>
+      <c r="BF12">
+        <v>6.16</v>
+      </c>
+      <c r="BG12">
+        <v>1.11</v>
+      </c>
+      <c r="BH12">
+        <v>5.25</v>
+      </c>
+      <c r="BI12">
+        <v>1.24</v>
+      </c>
+      <c r="BJ12">
+        <v>3.48</v>
+      </c>
+      <c r="BK12">
+        <v>1.45</v>
+      </c>
+      <c r="BL12">
+        <v>2.55</v>
+      </c>
+      <c r="BM12">
+        <v>2</v>
+      </c>
+      <c r="BN12">
+        <v>1.8</v>
+      </c>
+      <c r="BO12">
+        <v>2.23</v>
+      </c>
+      <c r="BP12">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7467070</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45501.47916666666</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13">
+        <v>2.88</v>
+      </c>
+      <c r="R13">
+        <v>2.4</v>
+      </c>
+      <c r="S13">
+        <v>3.2</v>
+      </c>
+      <c r="T13">
+        <v>1.29</v>
+      </c>
+      <c r="U13">
+        <v>3.5</v>
+      </c>
+      <c r="V13">
+        <v>2.25</v>
+      </c>
+      <c r="W13">
+        <v>1.57</v>
+      </c>
+      <c r="X13">
+        <v>5.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.14</v>
+      </c>
+      <c r="Z13">
+        <v>2.2</v>
+      </c>
+      <c r="AA13">
+        <v>3.5</v>
+      </c>
+      <c r="AB13">
+        <v>2.6</v>
+      </c>
+      <c r="AC13">
+        <v>1.01</v>
+      </c>
+      <c r="AD13">
+        <v>12</v>
+      </c>
+      <c r="AE13">
+        <v>1.15</v>
+      </c>
+      <c r="AF13">
+        <v>4.8</v>
+      </c>
+      <c r="AG13">
+        <v>1.53</v>
+      </c>
+      <c r="AH13">
+        <v>2.35</v>
+      </c>
+      <c r="AI13">
+        <v>1.44</v>
+      </c>
+      <c r="AJ13">
+        <v>2.63</v>
+      </c>
+      <c r="AK13">
+        <v>1.42</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>1.55</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1.79</v>
+      </c>
+      <c r="AT13">
+        <v>1.79</v>
+      </c>
+      <c r="AU13">
+        <v>10</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>6</v>
+      </c>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+      <c r="AZ13">
+        <v>12</v>
+      </c>
+      <c r="BA13">
+        <v>6</v>
+      </c>
+      <c r="BB13">
+        <v>9</v>
+      </c>
+      <c r="BC13">
+        <v>15</v>
+      </c>
+      <c r="BD13">
+        <v>2</v>
+      </c>
+      <c r="BE13">
+        <v>6.8</v>
+      </c>
+      <c r="BF13">
+        <v>2.24</v>
+      </c>
+      <c r="BG13">
+        <v>1.13</v>
+      </c>
+      <c r="BH13">
+        <v>4.85</v>
+      </c>
+      <c r="BI13">
+        <v>1.28</v>
+      </c>
+      <c r="BJ13">
+        <v>3.2</v>
+      </c>
+      <c r="BK13">
+        <v>1.52</v>
+      </c>
+      <c r="BL13">
+        <v>2.36</v>
+      </c>
+      <c r="BM13">
+        <v>1.88</v>
+      </c>
+      <c r="BN13">
+        <v>1.86</v>
+      </c>
+      <c r="BO13">
+        <v>2.39</v>
+      </c>
+      <c r="BP13">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7467071</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45501.47916666666</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14">
+        <v>2.1</v>
+      </c>
+      <c r="R14">
+        <v>2.5</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>1.29</v>
+      </c>
+      <c r="U14">
+        <v>3.5</v>
+      </c>
+      <c r="V14">
+        <v>2.25</v>
+      </c>
+      <c r="W14">
+        <v>1.57</v>
+      </c>
+      <c r="X14">
+        <v>5.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.14</v>
+      </c>
+      <c r="Z14">
+        <v>1.53</v>
+      </c>
+      <c r="AA14">
+        <v>4.1</v>
+      </c>
+      <c r="AB14">
+        <v>4.6</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>11</v>
+      </c>
+      <c r="AE14">
+        <v>1.18</v>
+      </c>
+      <c r="AF14">
+        <v>4.75</v>
+      </c>
+      <c r="AG14">
+        <v>1.55</v>
+      </c>
+      <c r="AH14">
+        <v>2.3</v>
+      </c>
+      <c r="AI14">
+        <v>1.67</v>
+      </c>
+      <c r="AJ14">
+        <v>2.1</v>
+      </c>
+      <c r="AK14">
+        <v>1.17</v>
+      </c>
+      <c r="AL14">
+        <v>1.17</v>
+      </c>
+      <c r="AM14">
+        <v>2.3</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>15</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14">
+        <v>14</v>
+      </c>
+      <c r="AX14">
+        <v>3</v>
+      </c>
+      <c r="AY14">
+        <v>29</v>
+      </c>
+      <c r="AZ14">
+        <v>8</v>
+      </c>
+      <c r="BA14">
+        <v>6</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>10</v>
+      </c>
+      <c r="BD14">
+        <v>1.41</v>
+      </c>
+      <c r="BE14">
+        <v>9</v>
+      </c>
+      <c r="BF14">
+        <v>3.49</v>
+      </c>
+      <c r="BG14">
+        <v>1.17</v>
+      </c>
+      <c r="BH14">
+        <v>4.15</v>
+      </c>
+      <c r="BI14">
+        <v>1.35</v>
+      </c>
+      <c r="BJ14">
+        <v>2.84</v>
+      </c>
+      <c r="BK14">
+        <v>1.64</v>
+      </c>
+      <c r="BL14">
+        <v>2.12</v>
+      </c>
+      <c r="BM14">
+        <v>2.08</v>
+      </c>
+      <c r="BN14">
+        <v>1.7</v>
+      </c>
+      <c r="BO14">
+        <v>2.69</v>
+      </c>
+      <c r="BP14">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -3102,22 +3102,22 @@
         <v>2.07</v>
       </c>
       <c r="AU12">
+        <v>7</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
         <v>5</v>
       </c>
-      <c r="AV12">
-        <v>5</v>
-      </c>
-      <c r="AW12">
-        <v>3</v>
-      </c>
-      <c r="AX12">
-        <v>4</v>
-      </c>
       <c r="AY12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA12">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -301,6 +301,18 @@
     <t>['13', '32', '59', '90+5']</t>
   </si>
   <si>
+    <t>['73', '78', '84']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['37', '77', '80']</t>
+  </si>
+  <si>
+    <t>['18', '54']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -329,6 +341,18 @@
   </si>
   <si>
     <t>['30', '51']</t>
+  </si>
+  <si>
+    <t>['25', '36', '58']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['1', '20', '50', '70']</t>
+  </si>
+  <si>
+    <t>['7', '76']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +973,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1155,7 +1179,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1236,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1439,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1567,7 +1591,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1645,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1773,7 +1797,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1851,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1979,7 +2003,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2057,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2185,7 +2209,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2597,7 +2621,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2675,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2803,7 +2827,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3009,7 +3033,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3090,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3421,7 +3445,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3578,6 +3602,1242 @@
       </c>
       <c r="BP14">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7467072</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45507.54166666666</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15">
+        <v>3.05</v>
+      </c>
+      <c r="R15">
+        <v>2.2</v>
+      </c>
+      <c r="S15">
+        <v>3.05</v>
+      </c>
+      <c r="T15">
+        <v>1.35</v>
+      </c>
+      <c r="U15">
+        <v>2.95</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>1.48</v>
+      </c>
+      <c r="X15">
+        <v>6.15</v>
+      </c>
+      <c r="Y15">
+        <v>1.1</v>
+      </c>
+      <c r="Z15">
+        <v>2.55</v>
+      </c>
+      <c r="AA15">
+        <v>3.3</v>
+      </c>
+      <c r="AB15">
+        <v>2.6</v>
+      </c>
+      <c r="AC15">
+        <v>1.04</v>
+      </c>
+      <c r="AD15">
+        <v>14</v>
+      </c>
+      <c r="AE15">
+        <v>1.24</v>
+      </c>
+      <c r="AF15">
+        <v>4.13</v>
+      </c>
+      <c r="AG15">
+        <v>1.67</v>
+      </c>
+      <c r="AH15">
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <v>1.57</v>
+      </c>
+      <c r="AJ15">
+        <v>2.2</v>
+      </c>
+      <c r="AK15">
+        <v>1.5</v>
+      </c>
+      <c r="AL15">
+        <v>1.3</v>
+      </c>
+      <c r="AM15">
+        <v>1.52</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0.5</v>
+      </c>
+      <c r="AQ15">
+        <v>1.5</v>
+      </c>
+      <c r="AR15">
+        <v>1.44</v>
+      </c>
+      <c r="AS15">
+        <v>1.34</v>
+      </c>
+      <c r="AT15">
+        <v>2.78</v>
+      </c>
+      <c r="AU15">
+        <v>3</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>5</v>
+      </c>
+      <c r="AY15">
+        <v>8</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>9</v>
+      </c>
+      <c r="BB15">
+        <v>4</v>
+      </c>
+      <c r="BC15">
+        <v>13</v>
+      </c>
+      <c r="BD15">
+        <v>1.64</v>
+      </c>
+      <c r="BE15">
+        <v>8.5</v>
+      </c>
+      <c r="BF15">
+        <v>2.66</v>
+      </c>
+      <c r="BG15">
+        <v>1.14</v>
+      </c>
+      <c r="BH15">
+        <v>4.6</v>
+      </c>
+      <c r="BI15">
+        <v>1.3</v>
+      </c>
+      <c r="BJ15">
+        <v>3.08</v>
+      </c>
+      <c r="BK15">
+        <v>1.6</v>
+      </c>
+      <c r="BL15">
+        <v>2.2</v>
+      </c>
+      <c r="BM15">
+        <v>2</v>
+      </c>
+      <c r="BN15">
+        <v>1.8</v>
+      </c>
+      <c r="BO15">
+        <v>2.4</v>
+      </c>
+      <c r="BP15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7467073</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45507.54166666666</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16">
+        <v>3.2</v>
+      </c>
+      <c r="R16">
+        <v>2.3</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>1.33</v>
+      </c>
+      <c r="U16">
+        <v>3.25</v>
+      </c>
+      <c r="V16">
+        <v>2.5</v>
+      </c>
+      <c r="W16">
+        <v>1.5</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>1.13</v>
+      </c>
+      <c r="Z16">
+        <v>2.75</v>
+      </c>
+      <c r="AA16">
+        <v>3.3</v>
+      </c>
+      <c r="AB16">
+        <v>2.4</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>10</v>
+      </c>
+      <c r="AE16">
+        <v>1.22</v>
+      </c>
+      <c r="AF16">
+        <v>4.2</v>
+      </c>
+      <c r="AG16">
+        <v>1.55</v>
+      </c>
+      <c r="AH16">
+        <v>2.2</v>
+      </c>
+      <c r="AI16">
+        <v>1.53</v>
+      </c>
+      <c r="AJ16">
+        <v>2.38</v>
+      </c>
+      <c r="AK16">
+        <v>1.53</v>
+      </c>
+      <c r="AL16">
+        <v>1.25</v>
+      </c>
+      <c r="AM16">
+        <v>1.45</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <v>3</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16">
+        <v>1.5</v>
+      </c>
+      <c r="AR16">
+        <v>2.11</v>
+      </c>
+      <c r="AS16">
+        <v>1.31</v>
+      </c>
+      <c r="AT16">
+        <v>3.42</v>
+      </c>
+      <c r="AU16">
+        <v>6</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>11</v>
+      </c>
+      <c r="AZ16">
+        <v>6</v>
+      </c>
+      <c r="BA16">
+        <v>7</v>
+      </c>
+      <c r="BB16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
+        <v>12</v>
+      </c>
+      <c r="BD16">
+        <v>2.54</v>
+      </c>
+      <c r="BE16">
+        <v>8</v>
+      </c>
+      <c r="BF16">
+        <v>1.69</v>
+      </c>
+      <c r="BG16">
+        <v>1.23</v>
+      </c>
+      <c r="BH16">
+        <v>3.56</v>
+      </c>
+      <c r="BI16">
+        <v>1.5</v>
+      </c>
+      <c r="BJ16">
+        <v>2.4</v>
+      </c>
+      <c r="BK16">
+        <v>1.8</v>
+      </c>
+      <c r="BL16">
+        <v>2</v>
+      </c>
+      <c r="BM16">
+        <v>2.2</v>
+      </c>
+      <c r="BN16">
+        <v>1.6</v>
+      </c>
+      <c r="BO16">
+        <v>3.04</v>
+      </c>
+      <c r="BP16">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7467074</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45507.64583333334</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17">
+        <v>2.75</v>
+      </c>
+      <c r="R17">
+        <v>2.25</v>
+      </c>
+      <c r="S17">
+        <v>3.6</v>
+      </c>
+      <c r="T17">
+        <v>1.33</v>
+      </c>
+      <c r="U17">
+        <v>3.25</v>
+      </c>
+      <c r="V17">
+        <v>2.63</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
+        <v>6.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.11</v>
+      </c>
+      <c r="Z17">
+        <v>2.2</v>
+      </c>
+      <c r="AA17">
+        <v>3.4</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <v>1.05</v>
+      </c>
+      <c r="AD17">
+        <v>9.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.25</v>
+      </c>
+      <c r="AF17">
+        <v>3.95</v>
+      </c>
+      <c r="AG17">
+        <v>1.65</v>
+      </c>
+      <c r="AH17">
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <v>1.62</v>
+      </c>
+      <c r="AJ17">
+        <v>2.2</v>
+      </c>
+      <c r="AK17">
+        <v>1.36</v>
+      </c>
+      <c r="AL17">
+        <v>1.25</v>
+      </c>
+      <c r="AM17">
+        <v>1.65</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <v>1.5</v>
+      </c>
+      <c r="AQ17">
+        <v>1.5</v>
+      </c>
+      <c r="AR17">
+        <v>1.15</v>
+      </c>
+      <c r="AS17">
+        <v>1.4</v>
+      </c>
+      <c r="AT17">
+        <v>2.55</v>
+      </c>
+      <c r="AU17">
+        <v>5</v>
+      </c>
+      <c r="AV17">
+        <v>3</v>
+      </c>
+      <c r="AW17">
+        <v>3</v>
+      </c>
+      <c r="AX17">
+        <v>9</v>
+      </c>
+      <c r="AY17">
+        <v>8</v>
+      </c>
+      <c r="AZ17">
+        <v>12</v>
+      </c>
+      <c r="BA17">
+        <v>3</v>
+      </c>
+      <c r="BB17">
+        <v>8</v>
+      </c>
+      <c r="BC17">
+        <v>11</v>
+      </c>
+      <c r="BD17">
+        <v>1.69</v>
+      </c>
+      <c r="BE17">
+        <v>8.5</v>
+      </c>
+      <c r="BF17">
+        <v>2.53</v>
+      </c>
+      <c r="BG17">
+        <v>1.22</v>
+      </c>
+      <c r="BH17">
+        <v>4</v>
+      </c>
+      <c r="BI17">
+        <v>1.45</v>
+      </c>
+      <c r="BJ17">
+        <v>2.55</v>
+      </c>
+      <c r="BK17">
+        <v>1.73</v>
+      </c>
+      <c r="BL17">
+        <v>2</v>
+      </c>
+      <c r="BM17">
+        <v>2.1</v>
+      </c>
+      <c r="BN17">
+        <v>1.65</v>
+      </c>
+      <c r="BO17">
+        <v>2.7</v>
+      </c>
+      <c r="BP17">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7467075</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45508.38541666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>2.4</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>1.25</v>
+      </c>
+      <c r="U18">
+        <v>3.75</v>
+      </c>
+      <c r="V18">
+        <v>2.25</v>
+      </c>
+      <c r="W18">
+        <v>1.57</v>
+      </c>
+      <c r="X18">
+        <v>5.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.14</v>
+      </c>
+      <c r="Z18">
+        <v>2.6</v>
+      </c>
+      <c r="AA18">
+        <v>3.45</v>
+      </c>
+      <c r="AB18">
+        <v>2.52</v>
+      </c>
+      <c r="AC18">
+        <v>1.04</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>1.17</v>
+      </c>
+      <c r="AF18">
+        <v>5</v>
+      </c>
+      <c r="AG18">
+        <v>1.7</v>
+      </c>
+      <c r="AH18">
+        <v>2.03</v>
+      </c>
+      <c r="AI18">
+        <v>1.44</v>
+      </c>
+      <c r="AJ18">
+        <v>2.63</v>
+      </c>
+      <c r="AK18">
+        <v>1.47</v>
+      </c>
+      <c r="AL18">
+        <v>1.28</v>
+      </c>
+      <c r="AM18">
+        <v>1.45</v>
+      </c>
+      <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>1.5</v>
+      </c>
+      <c r="AQ18">
+        <v>1.5</v>
+      </c>
+      <c r="AR18">
+        <v>1.45</v>
+      </c>
+      <c r="AS18">
+        <v>2.01</v>
+      </c>
+      <c r="AT18">
+        <v>3.46</v>
+      </c>
+      <c r="AU18">
+        <v>7</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>12</v>
+      </c>
+      <c r="AZ18">
+        <v>4</v>
+      </c>
+      <c r="BA18">
+        <v>8</v>
+      </c>
+      <c r="BB18">
+        <v>2</v>
+      </c>
+      <c r="BC18">
+        <v>10</v>
+      </c>
+      <c r="BD18">
+        <v>1.91</v>
+      </c>
+      <c r="BE18">
+        <v>8</v>
+      </c>
+      <c r="BF18">
+        <v>2.2</v>
+      </c>
+      <c r="BG18">
+        <v>1.12</v>
+      </c>
+      <c r="BH18">
+        <v>4.95</v>
+      </c>
+      <c r="BI18">
+        <v>1.26</v>
+      </c>
+      <c r="BJ18">
+        <v>3.34</v>
+      </c>
+      <c r="BK18">
+        <v>1.65</v>
+      </c>
+      <c r="BL18">
+        <v>2.1</v>
+      </c>
+      <c r="BM18">
+        <v>2</v>
+      </c>
+      <c r="BN18">
+        <v>1.73</v>
+      </c>
+      <c r="BO18">
+        <v>2.5</v>
+      </c>
+      <c r="BP18">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7467145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45508.47916666666</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19">
+        <v>2.6</v>
+      </c>
+      <c r="R19">
+        <v>2.4</v>
+      </c>
+      <c r="S19">
+        <v>3.75</v>
+      </c>
+      <c r="T19">
+        <v>1.29</v>
+      </c>
+      <c r="U19">
+        <v>3.5</v>
+      </c>
+      <c r="V19">
+        <v>2.38</v>
+      </c>
+      <c r="W19">
+        <v>1.53</v>
+      </c>
+      <c r="X19">
+        <v>5.5</v>
+      </c>
+      <c r="Y19">
+        <v>1.14</v>
+      </c>
+      <c r="Z19">
+        <v>1.91</v>
+      </c>
+      <c r="AA19">
+        <v>3.96</v>
+      </c>
+      <c r="AB19">
+        <v>3.43</v>
+      </c>
+      <c r="AC19">
+        <v>1.04</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19">
+        <v>1.15</v>
+      </c>
+      <c r="AF19">
+        <v>4.5</v>
+      </c>
+      <c r="AG19">
+        <v>1.57</v>
+      </c>
+      <c r="AH19">
+        <v>2.25</v>
+      </c>
+      <c r="AI19">
+        <v>1.5</v>
+      </c>
+      <c r="AJ19">
+        <v>2.5</v>
+      </c>
+      <c r="AK19">
+        <v>1.28</v>
+      </c>
+      <c r="AL19">
+        <v>1.23</v>
+      </c>
+      <c r="AM19">
+        <v>1.79</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>0.5</v>
+      </c>
+      <c r="AQ19">
+        <v>2</v>
+      </c>
+      <c r="AR19">
+        <v>1.85</v>
+      </c>
+      <c r="AS19">
+        <v>1.76</v>
+      </c>
+      <c r="AT19">
+        <v>3.61</v>
+      </c>
+      <c r="AU19">
+        <v>3</v>
+      </c>
+      <c r="AV19">
+        <v>6</v>
+      </c>
+      <c r="AW19">
+        <v>8</v>
+      </c>
+      <c r="AX19">
+        <v>9</v>
+      </c>
+      <c r="AY19">
+        <v>11</v>
+      </c>
+      <c r="AZ19">
+        <v>15</v>
+      </c>
+      <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
+        <v>10</v>
+      </c>
+      <c r="BC19">
+        <v>14</v>
+      </c>
+      <c r="BD19">
+        <v>1.64</v>
+      </c>
+      <c r="BE19">
+        <v>8.5</v>
+      </c>
+      <c r="BF19">
+        <v>2.66</v>
+      </c>
+      <c r="BG19">
+        <v>1.14</v>
+      </c>
+      <c r="BH19">
+        <v>4.6</v>
+      </c>
+      <c r="BI19">
+        <v>1.3</v>
+      </c>
+      <c r="BJ19">
+        <v>3.08</v>
+      </c>
+      <c r="BK19">
+        <v>1.65</v>
+      </c>
+      <c r="BL19">
+        <v>2.1</v>
+      </c>
+      <c r="BM19">
+        <v>2</v>
+      </c>
+      <c r="BN19">
+        <v>1.73</v>
+      </c>
+      <c r="BO19">
+        <v>2.5</v>
+      </c>
+      <c r="BP19">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7467076</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45508.47916666666</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20">
+        <v>2.4</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.25</v>
+      </c>
+      <c r="U20">
+        <v>3.75</v>
+      </c>
+      <c r="V20">
+        <v>2.2</v>
+      </c>
+      <c r="W20">
+        <v>1.62</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>1.17</v>
+      </c>
+      <c r="Z20">
+        <v>1.88</v>
+      </c>
+      <c r="AA20">
+        <v>3.88</v>
+      </c>
+      <c r="AB20">
+        <v>3.57</v>
+      </c>
+      <c r="AC20">
+        <v>1.04</v>
+      </c>
+      <c r="AD20">
+        <v>10</v>
+      </c>
+      <c r="AE20">
+        <v>1.11</v>
+      </c>
+      <c r="AF20">
+        <v>5.1</v>
+      </c>
+      <c r="AG20">
+        <v>1.48</v>
+      </c>
+      <c r="AH20">
+        <v>2.47</v>
+      </c>
+      <c r="AI20">
+        <v>1.44</v>
+      </c>
+      <c r="AJ20">
+        <v>2.63</v>
+      </c>
+      <c r="AK20">
+        <v>1.27</v>
+      </c>
+      <c r="AL20">
+        <v>1.28</v>
+      </c>
+      <c r="AM20">
+        <v>1.88</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>1.02</v>
+      </c>
+      <c r="AS20">
+        <v>1.63</v>
+      </c>
+      <c r="AT20">
+        <v>2.65</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
+        <v>10</v>
+      </c>
+      <c r="AY20">
+        <v>10</v>
+      </c>
+      <c r="AZ20">
+        <v>12</v>
+      </c>
+      <c r="BA20">
+        <v>8</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
+        <v>11</v>
+      </c>
+      <c r="BD20">
+        <v>1.69</v>
+      </c>
+      <c r="BE20">
+        <v>8.5</v>
+      </c>
+      <c r="BF20">
+        <v>2.62</v>
+      </c>
+      <c r="BG20">
+        <v>1.14</v>
+      </c>
+      <c r="BH20">
+        <v>4.7</v>
+      </c>
+      <c r="BI20">
+        <v>1.28</v>
+      </c>
+      <c r="BJ20">
+        <v>3.18</v>
+      </c>
+      <c r="BK20">
+        <v>1.65</v>
+      </c>
+      <c r="BL20">
+        <v>2.1</v>
+      </c>
+      <c r="BM20">
+        <v>2</v>
+      </c>
+      <c r="BN20">
+        <v>1.73</v>
+      </c>
+      <c r="BO20">
+        <v>2.5</v>
+      </c>
+      <c r="BP20">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -3744,13 +3744,13 @@
         <v>2.78</v>
       </c>
       <c r="AU15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX15">
         <v>5</v>
@@ -3759,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="AZ15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA15">
         <v>9</v>
@@ -3950,22 +3950,22 @@
         <v>3.42</v>
       </c>
       <c r="AU16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16">
         <v>5</v>
       </c>
       <c r="AX16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA16">
         <v>7</v>
@@ -4156,7 +4156,7 @@
         <v>2.55</v>
       </c>
       <c r="AU17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV17">
         <v>3</v>
@@ -4165,13 +4165,13 @@
         <v>3</v>
       </c>
       <c r="AX17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17">
         <v>3</v>
@@ -4362,22 +4362,22 @@
         <v>3.46</v>
       </c>
       <c r="AU18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA18">
         <v>8</v>
@@ -4574,16 +4574,16 @@
         <v>6</v>
       </c>
       <c r="AW19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA19">
         <v>4</v>
@@ -4780,13 +4780,13 @@
         <v>2</v>
       </c>
       <c r="AW20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX20">
         <v>10</v>
       </c>
       <c r="AY20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ20">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,12 @@
     <t>['18', '54']</t>
   </si>
   <si>
+    <t>['50', '85']</t>
+  </si>
+  <si>
+    <t>['5', '78']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -353,6 +359,9 @@
   </si>
   <si>
     <t>['7', '76']</t>
+  </si>
+  <si>
+    <t>['9', '49']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP20"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,7 +982,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1179,7 +1188,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1257,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1591,7 +1600,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1797,7 +1806,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2003,7 +2012,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2209,7 +2218,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2290,7 +2299,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2621,7 +2630,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2827,7 +2836,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3033,7 +3042,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3320,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3445,7 +3454,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3651,7 +3660,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3857,7 +3866,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4269,7 +4278,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4475,7 +4484,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4838,6 +4847,418 @@
       </c>
       <c r="BP20">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7467078</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45514.54166666666</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21">
+        <v>2.4</v>
+      </c>
+      <c r="R21">
+        <v>2.38</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>1.3</v>
+      </c>
+      <c r="U21">
+        <v>3.4</v>
+      </c>
+      <c r="V21">
+        <v>2.5</v>
+      </c>
+      <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>1.13</v>
+      </c>
+      <c r="Z21">
+        <v>1.93</v>
+      </c>
+      <c r="AA21">
+        <v>3.69</v>
+      </c>
+      <c r="AB21">
+        <v>3.6</v>
+      </c>
+      <c r="AC21">
+        <v>1.04</v>
+      </c>
+      <c r="AD21">
+        <v>10</v>
+      </c>
+      <c r="AE21">
+        <v>1.22</v>
+      </c>
+      <c r="AF21">
+        <v>4.2</v>
+      </c>
+      <c r="AG21">
+        <v>1.61</v>
+      </c>
+      <c r="AH21">
+        <v>2.05</v>
+      </c>
+      <c r="AI21">
+        <v>1.57</v>
+      </c>
+      <c r="AJ21">
+        <v>2.25</v>
+      </c>
+      <c r="AK21">
+        <v>1.25</v>
+      </c>
+      <c r="AL21">
+        <v>1.22</v>
+      </c>
+      <c r="AM21">
+        <v>1.85</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>1.73</v>
+      </c>
+      <c r="AS21">
+        <v>1.05</v>
+      </c>
+      <c r="AT21">
+        <v>2.78</v>
+      </c>
+      <c r="AU21">
+        <v>7</v>
+      </c>
+      <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
+        <v>7</v>
+      </c>
+      <c r="AX21">
+        <v>3</v>
+      </c>
+      <c r="AY21">
+        <v>14</v>
+      </c>
+      <c r="AZ21">
+        <v>5</v>
+      </c>
+      <c r="BA21">
+        <v>5</v>
+      </c>
+      <c r="BB21">
+        <v>2</v>
+      </c>
+      <c r="BC21">
+        <v>7</v>
+      </c>
+      <c r="BD21">
+        <v>1.51</v>
+      </c>
+      <c r="BE21">
+        <v>8.5</v>
+      </c>
+      <c r="BF21">
+        <v>3.07</v>
+      </c>
+      <c r="BG21">
+        <v>1.21</v>
+      </c>
+      <c r="BH21">
+        <v>3.74</v>
+      </c>
+      <c r="BI21">
+        <v>1.45</v>
+      </c>
+      <c r="BJ21">
+        <v>2.55</v>
+      </c>
+      <c r="BK21">
+        <v>1.73</v>
+      </c>
+      <c r="BL21">
+        <v>2</v>
+      </c>
+      <c r="BM21">
+        <v>2.21</v>
+      </c>
+      <c r="BN21">
+        <v>1.59</v>
+      </c>
+      <c r="BO21">
+        <v>2.91</v>
+      </c>
+      <c r="BP21">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7467079</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45514.64583333334</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22">
+        <v>4.33</v>
+      </c>
+      <c r="R22">
+        <v>2.6</v>
+      </c>
+      <c r="S22">
+        <v>2.2</v>
+      </c>
+      <c r="T22">
+        <v>1.22</v>
+      </c>
+      <c r="U22">
+        <v>4</v>
+      </c>
+      <c r="V22">
+        <v>2.1</v>
+      </c>
+      <c r="W22">
+        <v>1.67</v>
+      </c>
+      <c r="X22">
+        <v>4.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.18</v>
+      </c>
+      <c r="Z22">
+        <v>4.24</v>
+      </c>
+      <c r="AA22">
+        <v>4.24</v>
+      </c>
+      <c r="AB22">
+        <v>1.67</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>11</v>
+      </c>
+      <c r="AE22">
+        <v>1.12</v>
+      </c>
+      <c r="AF22">
+        <v>5.75</v>
+      </c>
+      <c r="AG22">
+        <v>1.4</v>
+      </c>
+      <c r="AH22">
+        <v>2.75</v>
+      </c>
+      <c r="AI22">
+        <v>1.5</v>
+      </c>
+      <c r="AJ22">
+        <v>2.5</v>
+      </c>
+      <c r="AK22">
+        <v>2.15</v>
+      </c>
+      <c r="AL22">
+        <v>1.17</v>
+      </c>
+      <c r="AM22">
+        <v>1.2</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22">
+        <v>0.33</v>
+      </c>
+      <c r="AR22">
+        <v>0.55</v>
+      </c>
+      <c r="AS22">
+        <v>1.77</v>
+      </c>
+      <c r="AT22">
+        <v>2.32</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>7</v>
+      </c>
+      <c r="AW22">
+        <v>11</v>
+      </c>
+      <c r="AX22">
+        <v>5</v>
+      </c>
+      <c r="AY22">
+        <v>16</v>
+      </c>
+      <c r="AZ22">
+        <v>12</v>
+      </c>
+      <c r="BA22">
+        <v>4</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>9</v>
+      </c>
+      <c r="BD22">
+        <v>2.75</v>
+      </c>
+      <c r="BE22">
+        <v>9</v>
+      </c>
+      <c r="BF22">
+        <v>1.55</v>
+      </c>
+      <c r="BG22">
+        <v>1.1</v>
+      </c>
+      <c r="BH22">
+        <v>5.45</v>
+      </c>
+      <c r="BI22">
+        <v>1.22</v>
+      </c>
+      <c r="BJ22">
+        <v>3.64</v>
+      </c>
+      <c r="BK22">
+        <v>1.43</v>
+      </c>
+      <c r="BL22">
+        <v>2.62</v>
+      </c>
+      <c r="BM22">
+        <v>1.8</v>
+      </c>
+      <c r="BN22">
+        <v>2</v>
+      </c>
+      <c r="BO22">
+        <v>2.2</v>
+      </c>
+      <c r="BP22">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,15 @@
     <t>['5', '78']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['39', '90+7']</t>
+  </si>
+  <si>
+    <t>['3', '43']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -362,6 +371,12 @@
   </si>
   <si>
     <t>['9', '49']</t>
+  </si>
+  <si>
+    <t>['12', '74', '88']</t>
+  </si>
+  <si>
+    <t>['37', '46', '63', '76', '81', '87']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +997,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1060,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1188,7 +1203,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1600,7 +1615,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1806,7 +1821,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1887,7 +1902,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2012,7 +2027,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2218,7 +2233,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2296,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -2630,7 +2645,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2711,7 +2726,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2836,7 +2851,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3042,7 +3057,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3120,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3454,7 +3469,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3660,7 +3675,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3741,7 +3756,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -3866,7 +3881,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -3944,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4278,7 +4293,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4484,7 +4499,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5102,7 +5117,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5259,6 +5274,830 @@
       </c>
       <c r="BP22">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7467080</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45515.38541666666</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23">
+        <v>2.2</v>
+      </c>
+      <c r="R23">
+        <v>2.5</v>
+      </c>
+      <c r="S23">
+        <v>4.75</v>
+      </c>
+      <c r="T23">
+        <v>1.29</v>
+      </c>
+      <c r="U23">
+        <v>3.5</v>
+      </c>
+      <c r="V23">
+        <v>2.25</v>
+      </c>
+      <c r="W23">
+        <v>1.57</v>
+      </c>
+      <c r="X23">
+        <v>5.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.14</v>
+      </c>
+      <c r="Z23">
+        <v>1.64</v>
+      </c>
+      <c r="AA23">
+        <v>4.2</v>
+      </c>
+      <c r="AB23">
+        <v>4.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>10.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.14</v>
+      </c>
+      <c r="AF23">
+        <v>4.7</v>
+      </c>
+      <c r="AG23">
+        <v>1.71</v>
+      </c>
+      <c r="AH23">
+        <v>2</v>
+      </c>
+      <c r="AI23">
+        <v>1.57</v>
+      </c>
+      <c r="AJ23">
+        <v>2.25</v>
+      </c>
+      <c r="AK23">
+        <v>1.15</v>
+      </c>
+      <c r="AL23">
+        <v>1.18</v>
+      </c>
+      <c r="AM23">
+        <v>2.15</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>3</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>1.97</v>
+      </c>
+      <c r="AS23">
+        <v>1.06</v>
+      </c>
+      <c r="AT23">
+        <v>3.03</v>
+      </c>
+      <c r="AU23">
+        <v>7</v>
+      </c>
+      <c r="AV23">
+        <v>4</v>
+      </c>
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="AX23">
+        <v>5</v>
+      </c>
+      <c r="AY23">
+        <v>9</v>
+      </c>
+      <c r="AZ23">
+        <v>9</v>
+      </c>
+      <c r="BA23">
+        <v>6</v>
+      </c>
+      <c r="BB23">
+        <v>6</v>
+      </c>
+      <c r="BC23">
+        <v>12</v>
+      </c>
+      <c r="BD23">
+        <v>1.51</v>
+      </c>
+      <c r="BE23">
+        <v>7.3</v>
+      </c>
+      <c r="BF23">
+        <v>3.4</v>
+      </c>
+      <c r="BG23">
+        <v>1.12</v>
+      </c>
+      <c r="BH23">
+        <v>5.1</v>
+      </c>
+      <c r="BI23">
+        <v>1.25</v>
+      </c>
+      <c r="BJ23">
+        <v>3.42</v>
+      </c>
+      <c r="BK23">
+        <v>1.5</v>
+      </c>
+      <c r="BL23">
+        <v>2.5</v>
+      </c>
+      <c r="BM23">
+        <v>1.83</v>
+      </c>
+      <c r="BN23">
+        <v>1.97</v>
+      </c>
+      <c r="BO23">
+        <v>2.24</v>
+      </c>
+      <c r="BP23">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7467082</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45515.47916666666</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24">
+        <v>2.5</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>3.4</v>
+      </c>
+      <c r="V24">
+        <v>2.5</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.13</v>
+      </c>
+      <c r="Z24">
+        <v>2.14</v>
+      </c>
+      <c r="AA24">
+        <v>3.48</v>
+      </c>
+      <c r="AB24">
+        <v>3.28</v>
+      </c>
+      <c r="AC24">
+        <v>1.04</v>
+      </c>
+      <c r="AD24">
+        <v>10</v>
+      </c>
+      <c r="AE24">
+        <v>1.2</v>
+      </c>
+      <c r="AF24">
+        <v>4.2</v>
+      </c>
+      <c r="AG24">
+        <v>1.81</v>
+      </c>
+      <c r="AH24">
+        <v>1.9</v>
+      </c>
+      <c r="AI24">
+        <v>1.62</v>
+      </c>
+      <c r="AJ24">
+        <v>2.2</v>
+      </c>
+      <c r="AK24">
+        <v>1.22</v>
+      </c>
+      <c r="AL24">
+        <v>1.2</v>
+      </c>
+      <c r="AM24">
+        <v>1.85</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>3.42</v>
+      </c>
+      <c r="AS24">
+        <v>0.88</v>
+      </c>
+      <c r="AT24">
+        <v>4.3</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
+        <v>7</v>
+      </c>
+      <c r="AY24">
+        <v>11</v>
+      </c>
+      <c r="AZ24">
+        <v>10</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>8</v>
+      </c>
+      <c r="BC24">
+        <v>14</v>
+      </c>
+      <c r="BD24">
+        <v>1.53</v>
+      </c>
+      <c r="BE24">
+        <v>7.2</v>
+      </c>
+      <c r="BF24">
+        <v>3.41</v>
+      </c>
+      <c r="BG24">
+        <v>1.18</v>
+      </c>
+      <c r="BH24">
+        <v>4.05</v>
+      </c>
+      <c r="BI24">
+        <v>1.36</v>
+      </c>
+      <c r="BJ24">
+        <v>2.78</v>
+      </c>
+      <c r="BK24">
+        <v>1.95</v>
+      </c>
+      <c r="BL24">
+        <v>1.85</v>
+      </c>
+      <c r="BM24">
+        <v>2.1</v>
+      </c>
+      <c r="BN24">
+        <v>1.7</v>
+      </c>
+      <c r="BO24">
+        <v>2.76</v>
+      </c>
+      <c r="BP24">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7467077</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45515.47916666666</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25">
+        <v>2.5</v>
+      </c>
+      <c r="R25">
+        <v>2.4</v>
+      </c>
+      <c r="S25">
+        <v>3.75</v>
+      </c>
+      <c r="T25">
+        <v>1.29</v>
+      </c>
+      <c r="U25">
+        <v>3.5</v>
+      </c>
+      <c r="V25">
+        <v>2.38</v>
+      </c>
+      <c r="W25">
+        <v>1.53</v>
+      </c>
+      <c r="X25">
+        <v>5.5</v>
+      </c>
+      <c r="Y25">
+        <v>1.14</v>
+      </c>
+      <c r="Z25">
+        <v>1.86</v>
+      </c>
+      <c r="AA25">
+        <v>3.8</v>
+      </c>
+      <c r="AB25">
+        <v>3.85</v>
+      </c>
+      <c r="AC25">
+        <v>1.04</v>
+      </c>
+      <c r="AD25">
+        <v>10</v>
+      </c>
+      <c r="AE25">
+        <v>1.2</v>
+      </c>
+      <c r="AF25">
+        <v>4.5</v>
+      </c>
+      <c r="AG25">
+        <v>1.68</v>
+      </c>
+      <c r="AH25">
+        <v>2.07</v>
+      </c>
+      <c r="AI25">
+        <v>1.53</v>
+      </c>
+      <c r="AJ25">
+        <v>2.38</v>
+      </c>
+      <c r="AK25">
+        <v>1.28</v>
+      </c>
+      <c r="AL25">
+        <v>1.22</v>
+      </c>
+      <c r="AM25">
+        <v>1.8</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>2</v>
+      </c>
+      <c r="AR25">
+        <v>1.94</v>
+      </c>
+      <c r="AS25">
+        <v>1.59</v>
+      </c>
+      <c r="AT25">
+        <v>3.53</v>
+      </c>
+      <c r="AU25">
+        <v>7</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>3</v>
+      </c>
+      <c r="AY25">
+        <v>15</v>
+      </c>
+      <c r="AZ25">
+        <v>9</v>
+      </c>
+      <c r="BA25">
+        <v>7</v>
+      </c>
+      <c r="BB25">
+        <v>6</v>
+      </c>
+      <c r="BC25">
+        <v>13</v>
+      </c>
+      <c r="BD25">
+        <v>1.66</v>
+      </c>
+      <c r="BE25">
+        <v>6.9</v>
+      </c>
+      <c r="BF25">
+        <v>2.96</v>
+      </c>
+      <c r="BG25">
+        <v>1.19</v>
+      </c>
+      <c r="BH25">
+        <v>3.92</v>
+      </c>
+      <c r="BI25">
+        <v>1.4</v>
+      </c>
+      <c r="BJ25">
+        <v>2.72</v>
+      </c>
+      <c r="BK25">
+        <v>1.71</v>
+      </c>
+      <c r="BL25">
+        <v>2.09</v>
+      </c>
+      <c r="BM25">
+        <v>2.15</v>
+      </c>
+      <c r="BN25">
+        <v>1.68</v>
+      </c>
+      <c r="BO25">
+        <v>2.79</v>
+      </c>
+      <c r="BP25">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7467081</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45515.47916666666</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26">
+        <v>2.3</v>
+      </c>
+      <c r="R26">
+        <v>2.4</v>
+      </c>
+      <c r="S26">
+        <v>4.5</v>
+      </c>
+      <c r="T26">
+        <v>1.3</v>
+      </c>
+      <c r="U26">
+        <v>3.4</v>
+      </c>
+      <c r="V26">
+        <v>2.38</v>
+      </c>
+      <c r="W26">
+        <v>1.53</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+      <c r="Y26">
+        <v>1.13</v>
+      </c>
+      <c r="Z26">
+        <v>1.69</v>
+      </c>
+      <c r="AA26">
+        <v>4.02</v>
+      </c>
+      <c r="AB26">
+        <v>4.53</v>
+      </c>
+      <c r="AC26">
+        <v>1.04</v>
+      </c>
+      <c r="AD26">
+        <v>10</v>
+      </c>
+      <c r="AE26">
+        <v>1.2</v>
+      </c>
+      <c r="AF26">
+        <v>4.33</v>
+      </c>
+      <c r="AG26">
+        <v>1.7</v>
+      </c>
+      <c r="AH26">
+        <v>2.03</v>
+      </c>
+      <c r="AI26">
+        <v>1.62</v>
+      </c>
+      <c r="AJ26">
+        <v>2.2</v>
+      </c>
+      <c r="AK26">
+        <v>1.17</v>
+      </c>
+      <c r="AL26">
+        <v>1.18</v>
+      </c>
+      <c r="AM26">
+        <v>2.05</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>1.5</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>1.85</v>
+      </c>
+      <c r="AS26">
+        <v>1.29</v>
+      </c>
+      <c r="AT26">
+        <v>3.14</v>
+      </c>
+      <c r="AU26">
+        <v>8</v>
+      </c>
+      <c r="AV26">
+        <v>11</v>
+      </c>
+      <c r="AW26">
+        <v>9</v>
+      </c>
+      <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>17</v>
+      </c>
+      <c r="AZ26">
+        <v>17</v>
+      </c>
+      <c r="BA26">
+        <v>11</v>
+      </c>
+      <c r="BB26">
+        <v>5</v>
+      </c>
+      <c r="BC26">
+        <v>16</v>
+      </c>
+      <c r="BD26">
+        <v>1.3</v>
+      </c>
+      <c r="BE26">
+        <v>8.5</v>
+      </c>
+      <c r="BF26">
+        <v>5.1</v>
+      </c>
+      <c r="BG26">
+        <v>1.13</v>
+      </c>
+      <c r="BH26">
+        <v>4.75</v>
+      </c>
+      <c r="BI26">
+        <v>1.28</v>
+      </c>
+      <c r="BJ26">
+        <v>3.18</v>
+      </c>
+      <c r="BK26">
+        <v>1.56</v>
+      </c>
+      <c r="BL26">
+        <v>2.36</v>
+      </c>
+      <c r="BM26">
+        <v>2</v>
+      </c>
+      <c r="BN26">
+        <v>1.8</v>
+      </c>
+      <c r="BO26">
+        <v>2.42</v>
+      </c>
+      <c r="BP26">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,12 @@
     <t>['3', '43']</t>
   </si>
   <si>
+    <t>['3', '51', '77']</t>
+  </si>
+  <si>
+    <t>['1', '62', '90']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -377,6 +383,9 @@
   </si>
   <si>
     <t>['37', '46', '63', '76', '81', '87']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -738,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +1006,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1203,7 +1212,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1615,7 +1624,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1696,7 +1705,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1821,7 +1830,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2027,7 +2036,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2105,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2233,7 +2242,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2645,7 +2654,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2723,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -2851,7 +2860,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3057,7 +3066,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3469,7 +3478,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3675,7 +3684,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3753,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>2</v>
@@ -3881,7 +3890,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4165,10 +4174,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4293,7 +4302,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4499,7 +4508,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5117,7 +5126,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5735,7 +5744,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5941,7 +5950,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6098,6 +6107,418 @@
       </c>
       <c r="BP26">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7467084</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45528.54166666666</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27">
+        <v>2.07</v>
+      </c>
+      <c r="R27">
+        <v>2.56</v>
+      </c>
+      <c r="S27">
+        <v>4.55</v>
+      </c>
+      <c r="T27">
+        <v>1.23</v>
+      </c>
+      <c r="U27">
+        <v>3.92</v>
+      </c>
+      <c r="V27">
+        <v>2.1</v>
+      </c>
+      <c r="W27">
+        <v>1.69</v>
+      </c>
+      <c r="X27">
+        <v>4.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.18</v>
+      </c>
+      <c r="Z27">
+        <v>1.61</v>
+      </c>
+      <c r="AA27">
+        <v>4.4</v>
+      </c>
+      <c r="AB27">
+        <v>4.3</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>24</v>
+      </c>
+      <c r="AE27">
+        <v>1.1</v>
+      </c>
+      <c r="AF27">
+        <v>5.45</v>
+      </c>
+      <c r="AG27">
+        <v>1.41</v>
+      </c>
+      <c r="AH27">
+        <v>2.69</v>
+      </c>
+      <c r="AI27">
+        <v>1.5</v>
+      </c>
+      <c r="AJ27">
+        <v>2.48</v>
+      </c>
+      <c r="AK27">
+        <v>1.19</v>
+      </c>
+      <c r="AL27">
+        <v>1.21</v>
+      </c>
+      <c r="AM27">
+        <v>2.3</v>
+      </c>
+      <c r="AN27">
+        <v>1.5</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1.37</v>
+      </c>
+      <c r="AS27">
+        <v>0.89</v>
+      </c>
+      <c r="AT27">
+        <v>2.26</v>
+      </c>
+      <c r="AU27">
+        <v>5</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
+        <v>4</v>
+      </c>
+      <c r="AY27">
+        <v>11</v>
+      </c>
+      <c r="AZ27">
+        <v>9</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
+        <v>8</v>
+      </c>
+      <c r="BD27">
+        <v>1.37</v>
+      </c>
+      <c r="BE27">
+        <v>9.5</v>
+      </c>
+      <c r="BF27">
+        <v>3.69</v>
+      </c>
+      <c r="BG27">
+        <v>1.11</v>
+      </c>
+      <c r="BH27">
+        <v>5.2</v>
+      </c>
+      <c r="BI27">
+        <v>1.25</v>
+      </c>
+      <c r="BJ27">
+        <v>3.42</v>
+      </c>
+      <c r="BK27">
+        <v>1.47</v>
+      </c>
+      <c r="BL27">
+        <v>2.5</v>
+      </c>
+      <c r="BM27">
+        <v>1.77</v>
+      </c>
+      <c r="BN27">
+        <v>1.95</v>
+      </c>
+      <c r="BO27">
+        <v>2.2</v>
+      </c>
+      <c r="BP27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7467085</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45528.64583333334</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28">
+        <v>3.4</v>
+      </c>
+      <c r="R28">
+        <v>2.3</v>
+      </c>
+      <c r="S28">
+        <v>2.88</v>
+      </c>
+      <c r="T28">
+        <v>1.33</v>
+      </c>
+      <c r="U28">
+        <v>3.25</v>
+      </c>
+      <c r="V28">
+        <v>2.63</v>
+      </c>
+      <c r="W28">
+        <v>1.44</v>
+      </c>
+      <c r="X28">
+        <v>6.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.11</v>
+      </c>
+      <c r="Z28">
+        <v>2.69</v>
+      </c>
+      <c r="AA28">
+        <v>3.7</v>
+      </c>
+      <c r="AB28">
+        <v>2.28</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>10.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.2</v>
+      </c>
+      <c r="AF28">
+        <v>4.1</v>
+      </c>
+      <c r="AG28">
+        <v>1.68</v>
+      </c>
+      <c r="AH28">
+        <v>2.07</v>
+      </c>
+      <c r="AI28">
+        <v>1.62</v>
+      </c>
+      <c r="AJ28">
+        <v>2.2</v>
+      </c>
+      <c r="AK28">
+        <v>1.57</v>
+      </c>
+      <c r="AL28">
+        <v>1.3</v>
+      </c>
+      <c r="AM28">
+        <v>1.35</v>
+      </c>
+      <c r="AN28">
+        <v>0.5</v>
+      </c>
+      <c r="AO28">
+        <v>1.5</v>
+      </c>
+      <c r="AP28">
+        <v>1.33</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1.22</v>
+      </c>
+      <c r="AS28">
+        <v>1.47</v>
+      </c>
+      <c r="AT28">
+        <v>2.69</v>
+      </c>
+      <c r="AU28">
+        <v>9</v>
+      </c>
+      <c r="AV28">
+        <v>3</v>
+      </c>
+      <c r="AW28">
+        <v>2</v>
+      </c>
+      <c r="AX28">
+        <v>5</v>
+      </c>
+      <c r="AY28">
+        <v>11</v>
+      </c>
+      <c r="AZ28">
+        <v>8</v>
+      </c>
+      <c r="BA28">
+        <v>3</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>6</v>
+      </c>
+      <c r="BD28">
+        <v>1.82</v>
+      </c>
+      <c r="BE28">
+        <v>8</v>
+      </c>
+      <c r="BF28">
+        <v>2.39</v>
+      </c>
+      <c r="BG28">
+        <v>1.16</v>
+      </c>
+      <c r="BH28">
+        <v>4.3</v>
+      </c>
+      <c r="BI28">
+        <v>1.33</v>
+      </c>
+      <c r="BJ28">
+        <v>2.91</v>
+      </c>
+      <c r="BK28">
+        <v>1.61</v>
+      </c>
+      <c r="BL28">
+        <v>2.17</v>
+      </c>
+      <c r="BM28">
+        <v>2.04</v>
+      </c>
+      <c r="BN28">
+        <v>1.73</v>
+      </c>
+      <c r="BO28">
+        <v>2.65</v>
+      </c>
+      <c r="BP28">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>['1', '62', '90']</t>
+  </si>
+  <si>
+    <t>['8', '55']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -747,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1006,7 +1009,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1212,7 +1215,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1624,7 +1627,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1830,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2036,7 +2039,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2242,7 +2245,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2654,7 +2657,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2860,7 +2863,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -2938,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3066,7 +3069,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3147,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3478,7 +3481,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3684,7 +3687,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3890,7 +3893,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4302,7 +4305,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4508,7 +4511,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4795,7 +4798,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5126,7 +5129,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5744,7 +5747,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5950,7 +5953,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6362,7 +6365,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6519,6 +6522,212 @@
       </c>
       <c r="BP28">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7467086</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45529.47916666666</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>2.38</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>1.3</v>
+      </c>
+      <c r="U29">
+        <v>3.2</v>
+      </c>
+      <c r="V29">
+        <v>2.4</v>
+      </c>
+      <c r="W29">
+        <v>1.5</v>
+      </c>
+      <c r="X29">
+        <v>5.75</v>
+      </c>
+      <c r="Y29">
+        <v>1.12</v>
+      </c>
+      <c r="Z29">
+        <v>1.51</v>
+      </c>
+      <c r="AA29">
+        <v>4.4</v>
+      </c>
+      <c r="AB29">
+        <v>5.5</v>
+      </c>
+      <c r="AC29">
+        <v>1.03</v>
+      </c>
+      <c r="AD29">
+        <v>11</v>
+      </c>
+      <c r="AE29">
+        <v>1.2</v>
+      </c>
+      <c r="AF29">
+        <v>4.33</v>
+      </c>
+      <c r="AG29">
+        <v>1.6</v>
+      </c>
+      <c r="AH29">
+        <v>2.2</v>
+      </c>
+      <c r="AI29">
+        <v>1.7</v>
+      </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>1.14</v>
+      </c>
+      <c r="AL29">
+        <v>1.17</v>
+      </c>
+      <c r="AM29">
+        <v>2.4</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0.5</v>
+      </c>
+      <c r="AP29">
+        <v>1.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0.33</v>
+      </c>
+      <c r="AR29">
+        <v>2.04</v>
+      </c>
+      <c r="AS29">
+        <v>1.45</v>
+      </c>
+      <c r="AT29">
+        <v>3.49</v>
+      </c>
+      <c r="AU29">
+        <v>9</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29">
+        <v>8</v>
+      </c>
+      <c r="AX29">
+        <v>1</v>
+      </c>
+      <c r="AY29">
+        <v>17</v>
+      </c>
+      <c r="AZ29">
+        <v>4</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>2</v>
+      </c>
+      <c r="BC29">
+        <v>6</v>
+      </c>
+      <c r="BD29">
+        <v>1.45</v>
+      </c>
+      <c r="BE29">
+        <v>9</v>
+      </c>
+      <c r="BF29">
+        <v>3.28</v>
+      </c>
+      <c r="BG29">
+        <v>1.12</v>
+      </c>
+      <c r="BH29">
+        <v>5.05</v>
+      </c>
+      <c r="BI29">
+        <v>1.26</v>
+      </c>
+      <c r="BJ29">
+        <v>3.34</v>
+      </c>
+      <c r="BK29">
+        <v>1.47</v>
+      </c>
+      <c r="BL29">
+        <v>2.5</v>
+      </c>
+      <c r="BM29">
+        <v>1.77</v>
+      </c>
+      <c r="BN29">
+        <v>1.95</v>
+      </c>
+      <c r="BO29">
+        <v>2.2</v>
+      </c>
+      <c r="BP29">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -6270,13 +6270,13 @@
         <v>9</v>
       </c>
       <c r="BA27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB27">
         <v>2</v>
       </c>
       <c r="BC27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD27">
         <v>1.37</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,15 @@
     <t>['8', '55']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['49', '82']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -389,6 +398,12 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1024,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1215,7 +1230,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1293,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1627,7 +1642,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1705,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1833,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1914,7 +1929,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2039,7 +2054,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2245,7 +2260,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2529,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2657,7 +2672,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2863,7 +2878,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3069,7 +3084,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3481,7 +3496,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3687,7 +3702,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3768,7 +3783,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -3893,7 +3908,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4305,7 +4320,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4511,7 +4526,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4589,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5001,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5129,7 +5144,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5207,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>0.33</v>
@@ -5622,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR24">
         <v>3.42</v>
@@ -5747,7 +5762,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5953,7 +5968,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6034,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.85</v>
@@ -6365,7 +6380,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6728,6 +6743,624 @@
       </c>
       <c r="BP29">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7467088</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30">
+        <v>3.25</v>
+      </c>
+      <c r="R30">
+        <v>2.3</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>1.33</v>
+      </c>
+      <c r="U30">
+        <v>3.25</v>
+      </c>
+      <c r="V30">
+        <v>2.5</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>6.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.11</v>
+      </c>
+      <c r="Z30">
+        <v>999.99</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>999.99</v>
+      </c>
+      <c r="AC30">
+        <v>1.02</v>
+      </c>
+      <c r="AD30">
+        <v>10</v>
+      </c>
+      <c r="AE30">
+        <v>1.22</v>
+      </c>
+      <c r="AF30">
+        <v>3.8</v>
+      </c>
+      <c r="AG30">
+        <v>1.65</v>
+      </c>
+      <c r="AH30">
+        <v>2.17</v>
+      </c>
+      <c r="AI30">
+        <v>1.57</v>
+      </c>
+      <c r="AJ30">
+        <v>2.25</v>
+      </c>
+      <c r="AK30">
+        <v>1.57</v>
+      </c>
+      <c r="AL30">
+        <v>1.3</v>
+      </c>
+      <c r="AM30">
+        <v>1.44</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>2</v>
+      </c>
+      <c r="AP30">
+        <v>2.33</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>1.76</v>
+      </c>
+      <c r="AS30">
+        <v>1.63</v>
+      </c>
+      <c r="AT30">
+        <v>3.39</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <v>7</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>4</v>
+      </c>
+      <c r="AY30">
+        <v>8</v>
+      </c>
+      <c r="AZ30">
+        <v>11</v>
+      </c>
+      <c r="BA30">
+        <v>3</v>
+      </c>
+      <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
+        <v>5</v>
+      </c>
+      <c r="BD30">
+        <v>1.75</v>
+      </c>
+      <c r="BE30">
+        <v>8.5</v>
+      </c>
+      <c r="BF30">
+        <v>2.41</v>
+      </c>
+      <c r="BG30">
+        <v>1.16</v>
+      </c>
+      <c r="BH30">
+        <v>4.33</v>
+      </c>
+      <c r="BI30">
+        <v>1.33</v>
+      </c>
+      <c r="BJ30">
+        <v>2.93</v>
+      </c>
+      <c r="BK30">
+        <v>1.6</v>
+      </c>
+      <c r="BL30">
+        <v>2.19</v>
+      </c>
+      <c r="BM30">
+        <v>2.01</v>
+      </c>
+      <c r="BN30">
+        <v>1.75</v>
+      </c>
+      <c r="BO30">
+        <v>2.58</v>
+      </c>
+      <c r="BP30">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7467089</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q31">
+        <v>3.3</v>
+      </c>
+      <c r="R31">
+        <v>2.15</v>
+      </c>
+      <c r="S31">
+        <v>2.88</v>
+      </c>
+      <c r="T31">
+        <v>1.35</v>
+      </c>
+      <c r="U31">
+        <v>2.95</v>
+      </c>
+      <c r="V31">
+        <v>2.55</v>
+      </c>
+      <c r="W31">
+        <v>1.45</v>
+      </c>
+      <c r="X31">
+        <v>5.5</v>
+      </c>
+      <c r="Y31">
+        <v>1.11</v>
+      </c>
+      <c r="Z31">
+        <v>999.99</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>999.99</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>9.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.25</v>
+      </c>
+      <c r="AF31">
+        <v>3.9</v>
+      </c>
+      <c r="AG31">
+        <v>1.73</v>
+      </c>
+      <c r="AH31">
+        <v>2.04</v>
+      </c>
+      <c r="AI31">
+        <v>1.55</v>
+      </c>
+      <c r="AJ31">
+        <v>2.25</v>
+      </c>
+      <c r="AK31">
+        <v>1.57</v>
+      </c>
+      <c r="AL31">
+        <v>1.25</v>
+      </c>
+      <c r="AM31">
+        <v>1.4</v>
+      </c>
+      <c r="AN31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>1.33</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.23</v>
+      </c>
+      <c r="AS31">
+        <v>1.19</v>
+      </c>
+      <c r="AT31">
+        <v>2.42</v>
+      </c>
+      <c r="AU31">
+        <v>4</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>3</v>
+      </c>
+      <c r="AX31">
+        <v>4</v>
+      </c>
+      <c r="AY31">
+        <v>7</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>2</v>
+      </c>
+      <c r="BB31">
+        <v>5</v>
+      </c>
+      <c r="BC31">
+        <v>7</v>
+      </c>
+      <c r="BD31">
+        <v>2.22</v>
+      </c>
+      <c r="BE31">
+        <v>6.75</v>
+      </c>
+      <c r="BF31">
+        <v>2.02</v>
+      </c>
+      <c r="BG31">
+        <v>1.13</v>
+      </c>
+      <c r="BH31">
+        <v>4.8</v>
+      </c>
+      <c r="BI31">
+        <v>1.28</v>
+      </c>
+      <c r="BJ31">
+        <v>3.2</v>
+      </c>
+      <c r="BK31">
+        <v>1.56</v>
+      </c>
+      <c r="BL31">
+        <v>2.36</v>
+      </c>
+      <c r="BM31">
+        <v>1.92</v>
+      </c>
+      <c r="BN31">
+        <v>1.88</v>
+      </c>
+      <c r="BO31">
+        <v>2.38</v>
+      </c>
+      <c r="BP31">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7467090</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45535.64583333334</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32">
+        <v>2.2</v>
+      </c>
+      <c r="R32">
+        <v>2.4</v>
+      </c>
+      <c r="S32">
+        <v>3.95</v>
+      </c>
+      <c r="T32">
+        <v>1.22</v>
+      </c>
+      <c r="U32">
+        <v>3.7</v>
+      </c>
+      <c r="V32">
+        <v>2.05</v>
+      </c>
+      <c r="W32">
+        <v>1.7</v>
+      </c>
+      <c r="X32">
+        <v>4.4</v>
+      </c>
+      <c r="Y32">
+        <v>1.19</v>
+      </c>
+      <c r="Z32">
+        <v>999.99</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>999.99</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>17</v>
+      </c>
+      <c r="AE32">
+        <v>1.1</v>
+      </c>
+      <c r="AF32">
+        <v>5.55</v>
+      </c>
+      <c r="AG32">
+        <v>1.4</v>
+      </c>
+      <c r="AH32">
+        <v>2.73</v>
+      </c>
+      <c r="AI32">
+        <v>1.4</v>
+      </c>
+      <c r="AJ32">
+        <v>2.65</v>
+      </c>
+      <c r="AK32">
+        <v>1.25</v>
+      </c>
+      <c r="AL32">
+        <v>1.18</v>
+      </c>
+      <c r="AM32">
+        <v>2</v>
+      </c>
+      <c r="AN32">
+        <v>0.5</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.67</v>
+      </c>
+      <c r="AQ32">
+        <v>0.33</v>
+      </c>
+      <c r="AR32">
+        <v>1.68</v>
+      </c>
+      <c r="AS32">
+        <v>1.12</v>
+      </c>
+      <c r="AT32">
+        <v>2.8</v>
+      </c>
+      <c r="AU32">
+        <v>2</v>
+      </c>
+      <c r="AV32">
+        <v>9</v>
+      </c>
+      <c r="AW32">
+        <v>3</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>5</v>
+      </c>
+      <c r="AZ32">
+        <v>15</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>7</v>
+      </c>
+      <c r="BC32">
+        <v>8</v>
+      </c>
+      <c r="BD32">
+        <v>1.37</v>
+      </c>
+      <c r="BE32">
+        <v>8</v>
+      </c>
+      <c r="BF32">
+        <v>4.2</v>
+      </c>
+      <c r="BG32">
+        <v>1.11</v>
+      </c>
+      <c r="BH32">
+        <v>5.25</v>
+      </c>
+      <c r="BI32">
+        <v>1.24</v>
+      </c>
+      <c r="BJ32">
+        <v>3.48</v>
+      </c>
+      <c r="BK32">
+        <v>1.5</v>
+      </c>
+      <c r="BL32">
+        <v>2.49</v>
+      </c>
+      <c r="BM32">
+        <v>1.98</v>
+      </c>
+      <c r="BN32">
+        <v>1.82</v>
+      </c>
+      <c r="BO32">
+        <v>2.3</v>
+      </c>
+      <c r="BP32">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,12 @@
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -404,6 +410,12 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['19']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1036,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1102,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1230,7 +1242,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1514,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1642,7 +1654,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1848,7 +1860,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2054,7 +2066,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2135,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2260,7 +2272,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2672,7 +2684,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2753,7 +2765,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2878,7 +2890,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3084,7 +3096,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3496,7 +3508,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3574,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3702,7 +3714,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3908,7 +3920,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -3986,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4320,7 +4332,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4401,7 +4413,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4526,7 +4538,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4810,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -5144,7 +5156,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5634,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ24">
         <v>0.33</v>
@@ -5762,7 +5774,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5840,10 +5852,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.94</v>
@@ -5968,7 +5980,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6380,7 +6392,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6792,7 +6804,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -6998,7 +7010,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7361,6 +7373,624 @@
       </c>
       <c r="BP32">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7467091</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45536.38541666666</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q33">
+        <v>3.85</v>
+      </c>
+      <c r="R33">
+        <v>2.3</v>
+      </c>
+      <c r="S33">
+        <v>2.38</v>
+      </c>
+      <c r="T33">
+        <v>1.28</v>
+      </c>
+      <c r="U33">
+        <v>3.35</v>
+      </c>
+      <c r="V33">
+        <v>2.25</v>
+      </c>
+      <c r="W33">
+        <v>1.57</v>
+      </c>
+      <c r="X33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>1.15</v>
+      </c>
+      <c r="Z33">
+        <v>3.6</v>
+      </c>
+      <c r="AA33">
+        <v>3.75</v>
+      </c>
+      <c r="AB33">
+        <v>1.84</v>
+      </c>
+      <c r="AC33">
+        <v>1.01</v>
+      </c>
+      <c r="AD33">
+        <v>13</v>
+      </c>
+      <c r="AE33">
+        <v>1.13</v>
+      </c>
+      <c r="AF33">
+        <v>4.75</v>
+      </c>
+      <c r="AG33">
+        <v>1.48</v>
+      </c>
+      <c r="AH33">
+        <v>2.47</v>
+      </c>
+      <c r="AI33">
+        <v>1.5</v>
+      </c>
+      <c r="AJ33">
+        <v>2.5</v>
+      </c>
+      <c r="AK33">
+        <v>1.88</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>1.3</v>
+      </c>
+      <c r="AN33">
+        <v>2</v>
+      </c>
+      <c r="AO33">
+        <v>1.5</v>
+      </c>
+      <c r="AP33">
+        <v>1.33</v>
+      </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AR33">
+        <v>1.17</v>
+      </c>
+      <c r="AS33">
+        <v>1.35</v>
+      </c>
+      <c r="AT33">
+        <v>2.52</v>
+      </c>
+      <c r="AU33">
+        <v>5</v>
+      </c>
+      <c r="AV33">
+        <v>8</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
+        <v>10</v>
+      </c>
+      <c r="AY33">
+        <v>12</v>
+      </c>
+      <c r="AZ33">
+        <v>18</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>7</v>
+      </c>
+      <c r="BC33">
+        <v>12</v>
+      </c>
+      <c r="BD33">
+        <v>3.8</v>
+      </c>
+      <c r="BE33">
+        <v>7.6</v>
+      </c>
+      <c r="BF33">
+        <v>1.43</v>
+      </c>
+      <c r="BG33">
+        <v>1.14</v>
+      </c>
+      <c r="BH33">
+        <v>4.55</v>
+      </c>
+      <c r="BI33">
+        <v>1.3</v>
+      </c>
+      <c r="BJ33">
+        <v>3.08</v>
+      </c>
+      <c r="BK33">
+        <v>1.58</v>
+      </c>
+      <c r="BL33">
+        <v>2.32</v>
+      </c>
+      <c r="BM33">
+        <v>1.94</v>
+      </c>
+      <c r="BN33">
+        <v>1.85</v>
+      </c>
+      <c r="BO33">
+        <v>2.43</v>
+      </c>
+      <c r="BP33">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7467093</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>110</v>
+      </c>
+      <c r="P34" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34">
+        <v>2.4</v>
+      </c>
+      <c r="R34">
+        <v>2.4</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <v>1.29</v>
+      </c>
+      <c r="U34">
+        <v>3.5</v>
+      </c>
+      <c r="V34">
+        <v>2.38</v>
+      </c>
+      <c r="W34">
+        <v>1.53</v>
+      </c>
+      <c r="X34">
+        <v>5.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.14</v>
+      </c>
+      <c r="Z34">
+        <v>1.85</v>
+      </c>
+      <c r="AA34">
+        <v>3.75</v>
+      </c>
+      <c r="AB34">
+        <v>3.4</v>
+      </c>
+      <c r="AC34">
+        <v>1.04</v>
+      </c>
+      <c r="AD34">
+        <v>10</v>
+      </c>
+      <c r="AE34">
+        <v>1.14</v>
+      </c>
+      <c r="AF34">
+        <v>4.6</v>
+      </c>
+      <c r="AG34">
+        <v>1.55</v>
+      </c>
+      <c r="AH34">
+        <v>2.3</v>
+      </c>
+      <c r="AI34">
+        <v>1.53</v>
+      </c>
+      <c r="AJ34">
+        <v>2.38</v>
+      </c>
+      <c r="AK34">
+        <v>1.28</v>
+      </c>
+      <c r="AL34">
+        <v>1.25</v>
+      </c>
+      <c r="AM34">
+        <v>1.91</v>
+      </c>
+      <c r="AN34">
+        <v>3</v>
+      </c>
+      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="AP34">
+        <v>2.33</v>
+      </c>
+      <c r="AQ34">
+        <v>1.67</v>
+      </c>
+      <c r="AR34">
+        <v>2.41</v>
+      </c>
+      <c r="AS34">
+        <v>1.45</v>
+      </c>
+      <c r="AT34">
+        <v>3.86</v>
+      </c>
+      <c r="AU34">
+        <v>2</v>
+      </c>
+      <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>6</v>
+      </c>
+      <c r="AZ34">
+        <v>10</v>
+      </c>
+      <c r="BA34">
+        <v>3</v>
+      </c>
+      <c r="BB34">
+        <v>5</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
+        <v>1.62</v>
+      </c>
+      <c r="BE34">
+        <v>8.1</v>
+      </c>
+      <c r="BF34">
+        <v>2.49</v>
+      </c>
+      <c r="BG34">
+        <v>1.17</v>
+      </c>
+      <c r="BH34">
+        <v>4.7</v>
+      </c>
+      <c r="BI34">
+        <v>1.33</v>
+      </c>
+      <c r="BJ34">
+        <v>3.1</v>
+      </c>
+      <c r="BK34">
+        <v>1.56</v>
+      </c>
+      <c r="BL34">
+        <v>2.39</v>
+      </c>
+      <c r="BM34">
+        <v>1.91</v>
+      </c>
+      <c r="BN34">
+        <v>1.88</v>
+      </c>
+      <c r="BO34">
+        <v>2.4</v>
+      </c>
+      <c r="BP34">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7467092</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45536.47916666666</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>111</v>
+      </c>
+      <c r="P35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35">
+        <v>2.7</v>
+      </c>
+      <c r="R35">
+        <v>2.38</v>
+      </c>
+      <c r="S35">
+        <v>3.2</v>
+      </c>
+      <c r="T35">
+        <v>1.25</v>
+      </c>
+      <c r="U35">
+        <v>3.6</v>
+      </c>
+      <c r="V35">
+        <v>2.15</v>
+      </c>
+      <c r="W35">
+        <v>1.62</v>
+      </c>
+      <c r="X35">
+        <v>4.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.16</v>
+      </c>
+      <c r="Z35">
+        <v>2.15</v>
+      </c>
+      <c r="AA35">
+        <v>3.75</v>
+      </c>
+      <c r="AB35">
+        <v>2.7</v>
+      </c>
+      <c r="AC35">
+        <v>1.02</v>
+      </c>
+      <c r="AD35">
+        <v>21</v>
+      </c>
+      <c r="AE35">
+        <v>1.15</v>
+      </c>
+      <c r="AF35">
+        <v>5.45</v>
+      </c>
+      <c r="AG35">
+        <v>1.44</v>
+      </c>
+      <c r="AH35">
+        <v>2.6</v>
+      </c>
+      <c r="AI35">
+        <v>1.44</v>
+      </c>
+      <c r="AJ35">
+        <v>2.63</v>
+      </c>
+      <c r="AK35">
+        <v>1.35</v>
+      </c>
+      <c r="AL35">
+        <v>1.27</v>
+      </c>
+      <c r="AM35">
+        <v>1.62</v>
+      </c>
+      <c r="AN35">
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>1.75</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.92</v>
+      </c>
+      <c r="AS35">
+        <v>1.6</v>
+      </c>
+      <c r="AT35">
+        <v>3.52</v>
+      </c>
+      <c r="AU35">
+        <v>7</v>
+      </c>
+      <c r="AV35">
+        <v>7</v>
+      </c>
+      <c r="AW35">
+        <v>2</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>9</v>
+      </c>
+      <c r="AZ35">
+        <v>12</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>9</v>
+      </c>
+      <c r="BD35">
+        <v>1.75</v>
+      </c>
+      <c r="BE35">
+        <v>8.5</v>
+      </c>
+      <c r="BF35">
+        <v>2.3</v>
+      </c>
+      <c r="BG35">
+        <v>1.18</v>
+      </c>
+      <c r="BH35">
+        <v>4.5</v>
+      </c>
+      <c r="BI35">
+        <v>1.34</v>
+      </c>
+      <c r="BJ35">
+        <v>3.1</v>
+      </c>
+      <c r="BK35">
+        <v>1.58</v>
+      </c>
+      <c r="BL35">
+        <v>2.34</v>
+      </c>
+      <c r="BM35">
+        <v>1.94</v>
+      </c>
+      <c r="BN35">
+        <v>1.85</v>
+      </c>
+      <c r="BO35">
+        <v>2.45</v>
+      </c>
+      <c r="BP35">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -7121,13 +7121,13 @@
         <v>8</v>
       </c>
       <c r="BA31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB31">
         <v>5</v>
       </c>
       <c r="BC31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD31">
         <v>2.22</v>
@@ -7330,10 +7330,10 @@
         <v>1</v>
       </c>
       <c r="BB32">
+        <v>6</v>
+      </c>
+      <c r="BC32">
         <v>7</v>
-      </c>
-      <c r="BC32">
-        <v>8</v>
       </c>
       <c r="BD32">
         <v>1.37</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['39', '77']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1938,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -4410,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -7991,6 +7994,212 @@
       </c>
       <c r="BP35">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7467083</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45553.60416666666</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>2.38</v>
+      </c>
+      <c r="S36">
+        <v>3.1</v>
+      </c>
+      <c r="T36">
+        <v>1.3</v>
+      </c>
+      <c r="U36">
+        <v>3.4</v>
+      </c>
+      <c r="V36">
+        <v>2.38</v>
+      </c>
+      <c r="W36">
+        <v>1.53</v>
+      </c>
+      <c r="X36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>1.13</v>
+      </c>
+      <c r="Z36">
+        <v>2.5</v>
+      </c>
+      <c r="AA36">
+        <v>3.4</v>
+      </c>
+      <c r="AB36">
+        <v>2.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>13</v>
+      </c>
+      <c r="AE36">
+        <v>1.14</v>
+      </c>
+      <c r="AF36">
+        <v>4.8</v>
+      </c>
+      <c r="AG36">
+        <v>1.65</v>
+      </c>
+      <c r="AH36">
+        <v>2.1</v>
+      </c>
+      <c r="AI36">
+        <v>1.53</v>
+      </c>
+      <c r="AJ36">
+        <v>2.38</v>
+      </c>
+      <c r="AK36">
+        <v>1.49</v>
+      </c>
+      <c r="AL36">
+        <v>1.28</v>
+      </c>
+      <c r="AM36">
+        <v>1.55</v>
+      </c>
+      <c r="AN36">
+        <v>1.5</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>3</v>
+      </c>
+      <c r="AR36">
+        <v>1.64</v>
+      </c>
+      <c r="AS36">
+        <v>1.08</v>
+      </c>
+      <c r="AT36">
+        <v>2.72</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AV36">
+        <v>8</v>
+      </c>
+      <c r="AW36">
+        <v>6</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
+        <v>11</v>
+      </c>
+      <c r="AZ36">
+        <v>12</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>6</v>
+      </c>
+      <c r="BC36">
+        <v>12</v>
+      </c>
+      <c r="BD36">
+        <v>1.75</v>
+      </c>
+      <c r="BE36">
+        <v>8</v>
+      </c>
+      <c r="BF36">
+        <v>2.44</v>
+      </c>
+      <c r="BG36">
+        <v>1.24</v>
+      </c>
+      <c r="BH36">
+        <v>3.48</v>
+      </c>
+      <c r="BI36">
+        <v>1.47</v>
+      </c>
+      <c r="BJ36">
+        <v>2.49</v>
+      </c>
+      <c r="BK36">
+        <v>1.85</v>
+      </c>
+      <c r="BL36">
+        <v>1.95</v>
+      </c>
+      <c r="BM36">
+        <v>2.33</v>
+      </c>
+      <c r="BN36">
+        <v>1.53</v>
+      </c>
+      <c r="BO36">
+        <v>3.08</v>
+      </c>
+      <c r="BP36">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,12 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['23', '54']</t>
+  </si>
+  <si>
+    <t>['20', '31']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -419,6 +425,15 @@
   </si>
   <si>
     <t>['39', '77']</t>
+  </si>
+  <si>
+    <t>['34', '45+11']</t>
+  </si>
+  <si>
+    <t>['56', '80', '88']</t>
+  </si>
+  <si>
+    <t>['31', '55']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,7 +1054,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1245,7 +1260,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1326,7 +1341,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1657,7 +1672,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1863,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2069,7 +2084,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2150,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2275,7 +2290,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2687,7 +2702,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2765,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2893,7 +2908,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -2971,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3099,7 +3114,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3383,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>0.33</v>
@@ -3511,7 +3526,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3717,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3795,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>1.75</v>
@@ -3923,7 +3938,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4004,7 +4019,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4335,7 +4350,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4541,7 +4556,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4622,7 +4637,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5159,7 +5174,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5443,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5777,7 +5792,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5858,7 +5873,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.94</v>
@@ -5983,7 +5998,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6395,7 +6410,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6473,7 +6488,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6679,7 +6694,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0.33</v>
@@ -6807,7 +6822,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7013,7 +7028,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7425,7 +7440,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q33">
         <v>3.85</v>
@@ -7506,7 +7521,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -7631,7 +7646,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>2.4</v>
@@ -7712,7 +7727,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>2.41</v>
@@ -7837,7 +7852,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>2.7</v>
@@ -8043,7 +8058,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8200,6 +8215,624 @@
       </c>
       <c r="BP36">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7467094</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45556.54166666666</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>2.3</v>
+      </c>
+      <c r="S37">
+        <v>2.5</v>
+      </c>
+      <c r="T37">
+        <v>1.33</v>
+      </c>
+      <c r="U37">
+        <v>3.25</v>
+      </c>
+      <c r="V37">
+        <v>2.63</v>
+      </c>
+      <c r="W37">
+        <v>1.44</v>
+      </c>
+      <c r="X37">
+        <v>6.5</v>
+      </c>
+      <c r="Y37">
+        <v>1.11</v>
+      </c>
+      <c r="Z37">
+        <v>3.6</v>
+      </c>
+      <c r="AA37">
+        <v>3.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.95</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>11</v>
+      </c>
+      <c r="AE37">
+        <v>1.22</v>
+      </c>
+      <c r="AF37">
+        <v>4</v>
+      </c>
+      <c r="AG37">
+        <v>1.7</v>
+      </c>
+      <c r="AH37">
+        <v>2.05</v>
+      </c>
+      <c r="AI37">
+        <v>1.67</v>
+      </c>
+      <c r="AJ37">
+        <v>2.1</v>
+      </c>
+      <c r="AK37">
+        <v>1.8</v>
+      </c>
+      <c r="AL37">
+        <v>1.22</v>
+      </c>
+      <c r="AM37">
+        <v>1.3</v>
+      </c>
+      <c r="AN37">
+        <v>1.33</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>1.25</v>
+      </c>
+      <c r="AQ37">
+        <v>1.75</v>
+      </c>
+      <c r="AR37">
+        <v>1.38</v>
+      </c>
+      <c r="AS37">
+        <v>1.52</v>
+      </c>
+      <c r="AT37">
+        <v>2.9</v>
+      </c>
+      <c r="AU37">
+        <v>9</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>7</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>16</v>
+      </c>
+      <c r="AZ37">
+        <v>12</v>
+      </c>
+      <c r="BA37">
+        <v>9</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>13</v>
+      </c>
+      <c r="BD37">
+        <v>2.47</v>
+      </c>
+      <c r="BE37">
+        <v>6.75</v>
+      </c>
+      <c r="BF37">
+        <v>1.85</v>
+      </c>
+      <c r="BG37">
+        <v>1.13</v>
+      </c>
+      <c r="BH37">
+        <v>4.25</v>
+      </c>
+      <c r="BI37">
+        <v>1.29</v>
+      </c>
+      <c r="BJ37">
+        <v>2.92</v>
+      </c>
+      <c r="BK37">
+        <v>1.61</v>
+      </c>
+      <c r="BL37">
+        <v>2.25</v>
+      </c>
+      <c r="BM37">
+        <v>2.01</v>
+      </c>
+      <c r="BN37">
+        <v>1.79</v>
+      </c>
+      <c r="BO37">
+        <v>2.51</v>
+      </c>
+      <c r="BP37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7467095</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45556.54166666666</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q38">
+        <v>2.4</v>
+      </c>
+      <c r="R38">
+        <v>2.5</v>
+      </c>
+      <c r="S38">
+        <v>3.75</v>
+      </c>
+      <c r="T38">
+        <v>1.25</v>
+      </c>
+      <c r="U38">
+        <v>3.75</v>
+      </c>
+      <c r="V38">
+        <v>2.2</v>
+      </c>
+      <c r="W38">
+        <v>1.62</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>1.17</v>
+      </c>
+      <c r="Z38">
+        <v>1.87</v>
+      </c>
+      <c r="AA38">
+        <v>3.75</v>
+      </c>
+      <c r="AB38">
+        <v>3.6</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>13</v>
+      </c>
+      <c r="AE38">
+        <v>1.12</v>
+      </c>
+      <c r="AF38">
+        <v>5.1</v>
+      </c>
+      <c r="AG38">
+        <v>1.55</v>
+      </c>
+      <c r="AH38">
+        <v>2.3</v>
+      </c>
+      <c r="AI38">
+        <v>1.44</v>
+      </c>
+      <c r="AJ38">
+        <v>2.63</v>
+      </c>
+      <c r="AK38">
+        <v>1.22</v>
+      </c>
+      <c r="AL38">
+        <v>1.2</v>
+      </c>
+      <c r="AM38">
+        <v>1.87</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>1.67</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1.76</v>
+      </c>
+      <c r="AS38">
+        <v>1.41</v>
+      </c>
+      <c r="AT38">
+        <v>3.17</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>8</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>10</v>
+      </c>
+      <c r="AZ38">
+        <v>12</v>
+      </c>
+      <c r="BA38">
+        <v>5</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>9</v>
+      </c>
+      <c r="BD38">
+        <v>1.65</v>
+      </c>
+      <c r="BE38">
+        <v>9</v>
+      </c>
+      <c r="BF38">
+        <v>2.45</v>
+      </c>
+      <c r="BG38">
+        <v>1.12</v>
+      </c>
+      <c r="BH38">
+        <v>5.6</v>
+      </c>
+      <c r="BI38">
+        <v>1.25</v>
+      </c>
+      <c r="BJ38">
+        <v>3.7</v>
+      </c>
+      <c r="BK38">
+        <v>1.39</v>
+      </c>
+      <c r="BL38">
+        <v>2.77</v>
+      </c>
+      <c r="BM38">
+        <v>2</v>
+      </c>
+      <c r="BN38">
+        <v>1.8</v>
+      </c>
+      <c r="BO38">
+        <v>2.13</v>
+      </c>
+      <c r="BP38">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7467096</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45556.64583333334</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39">
+        <v>2.6</v>
+      </c>
+      <c r="R39">
+        <v>2.25</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>1.36</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2.63</v>
+      </c>
+      <c r="W39">
+        <v>1.44</v>
+      </c>
+      <c r="X39">
+        <v>7</v>
+      </c>
+      <c r="Y39">
+        <v>1.1</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>3.4</v>
+      </c>
+      <c r="AB39">
+        <v>3.4</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>9.9</v>
+      </c>
+      <c r="AE39">
+        <v>1.25</v>
+      </c>
+      <c r="AF39">
+        <v>3.6</v>
+      </c>
+      <c r="AG39">
+        <v>1.8</v>
+      </c>
+      <c r="AH39">
+        <v>1.91</v>
+      </c>
+      <c r="AI39">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39">
+        <v>2.1</v>
+      </c>
+      <c r="AK39">
+        <v>1.3</v>
+      </c>
+      <c r="AL39">
+        <v>1.22</v>
+      </c>
+      <c r="AM39">
+        <v>1.75</v>
+      </c>
+      <c r="AN39">
+        <v>1.5</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>2.33</v>
+      </c>
+      <c r="AR39">
+        <v>2.16</v>
+      </c>
+      <c r="AS39">
+        <v>1.85</v>
+      </c>
+      <c r="AT39">
+        <v>4.01</v>
+      </c>
+      <c r="AU39">
+        <v>2</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>4</v>
+      </c>
+      <c r="AY39">
+        <v>4</v>
+      </c>
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>2</v>
+      </c>
+      <c r="BC39">
+        <v>6</v>
+      </c>
+      <c r="BD39">
+        <v>1.69</v>
+      </c>
+      <c r="BE39">
+        <v>6.85</v>
+      </c>
+      <c r="BF39">
+        <v>2.81</v>
+      </c>
+      <c r="BG39">
+        <v>1.16</v>
+      </c>
+      <c r="BH39">
+        <v>3.85</v>
+      </c>
+      <c r="BI39">
+        <v>1.35</v>
+      </c>
+      <c r="BJ39">
+        <v>2.65</v>
+      </c>
+      <c r="BK39">
+        <v>1.85</v>
+      </c>
+      <c r="BL39">
+        <v>1.95</v>
+      </c>
+      <c r="BM39">
+        <v>2.07</v>
+      </c>
+      <c r="BN39">
+        <v>1.74</v>
+      </c>
+      <c r="BO39">
+        <v>2.75</v>
+      </c>
+      <c r="BP39">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,12 +322,12 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['3', '43']</t>
+  </si>
+  <si>
     <t>['39', '90+7']</t>
   </si>
   <si>
-    <t>['3', '43']</t>
-  </si>
-  <si>
     <t>['3', '51', '77']</t>
   </si>
   <si>
@@ -337,27 +337,33 @@
     <t>['8', '55']</t>
   </si>
   <si>
+    <t>['49', '82']</t>
+  </si>
+  <si>
     <t>['26']</t>
   </si>
   <si>
-    <t>['49', '82']</t>
-  </si>
-  <si>
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['56']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['23', '54']</t>
   </si>
   <si>
     <t>['20', '31']</t>
   </si>
   <si>
+    <t>['2', '20', '56']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -412,12 +418,12 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['5']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['21']</t>
   </si>
   <si>
@@ -430,10 +436,16 @@
     <t>['34', '45+11']</t>
   </si>
   <si>
+    <t>['31', '55']</t>
+  </si>
+  <si>
     <t>['56', '80', '88']</t>
   </si>
   <si>
-    <t>['31', '55']</t>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['32', '49', '56', '85']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1066,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1260,7 +1272,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1544,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -1672,7 +1684,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1878,7 +1890,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1956,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -2084,7 +2096,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2290,7 +2302,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2371,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2574,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.33</v>
@@ -2702,7 +2714,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2908,7 +2920,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -2989,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3114,7 +3126,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3195,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3401,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3526,7 +3538,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3732,7 +3744,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3938,7 +3950,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4350,7 +4362,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4428,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4556,7 +4568,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4840,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5046,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5174,7 +5186,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5255,7 +5267,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -5544,7 +5556,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7467082</v>
+        <v>7467077</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5559,70 +5571,70 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>2</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O24" t="s">
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
       </c>
       <c r="R24">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T24">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V24">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W24">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X24">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y24">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z24">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="AA24">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="AB24">
-        <v>3.28</v>
+        <v>3.85</v>
       </c>
       <c r="AC24">
         <v>1.04</v>
@@ -5634,115 +5646,115 @@
         <v>1.2</v>
       </c>
       <c r="AF24">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AG24">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AH24">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="AI24">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AJ24">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AK24">
+        <v>1.28</v>
+      </c>
+      <c r="AL24">
         <v>1.22</v>
       </c>
-      <c r="AL24">
-        <v>1.2</v>
-      </c>
       <c r="AM24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AN24">
         <v>3</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AR24">
-        <v>3.42</v>
+        <v>1.94</v>
       </c>
       <c r="AS24">
-        <v>0.88</v>
+        <v>1.59</v>
       </c>
       <c r="AT24">
-        <v>4.3</v>
+        <v>3.53</v>
       </c>
       <c r="AU24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>8</v>
+      </c>
+      <c r="AX24">
         <v>3</v>
       </c>
-      <c r="AW24">
+      <c r="AY24">
+        <v>15</v>
+      </c>
+      <c r="AZ24">
+        <v>9</v>
+      </c>
+      <c r="BA24">
         <v>7</v>
       </c>
-      <c r="AX24">
-        <v>7</v>
-      </c>
-      <c r="AY24">
-        <v>11</v>
-      </c>
-      <c r="AZ24">
-        <v>10</v>
-      </c>
-      <c r="BA24">
+      <c r="BB24">
         <v>6</v>
       </c>
-      <c r="BB24">
-        <v>8</v>
-      </c>
       <c r="BC24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD24">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="BE24">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="BF24">
-        <v>3.41</v>
+        <v>2.96</v>
       </c>
       <c r="BG24">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH24">
-        <v>4.05</v>
+        <v>3.92</v>
       </c>
       <c r="BI24">
+        <v>1.4</v>
+      </c>
+      <c r="BJ24">
+        <v>2.72</v>
+      </c>
+      <c r="BK24">
+        <v>1.71</v>
+      </c>
+      <c r="BL24">
+        <v>2.09</v>
+      </c>
+      <c r="BM24">
+        <v>2.15</v>
+      </c>
+      <c r="BN24">
+        <v>1.68</v>
+      </c>
+      <c r="BO24">
+        <v>2.79</v>
+      </c>
+      <c r="BP24">
         <v>1.36</v>
-      </c>
-      <c r="BJ24">
-        <v>2.78</v>
-      </c>
-      <c r="BK24">
-        <v>1.95</v>
-      </c>
-      <c r="BL24">
-        <v>1.85</v>
-      </c>
-      <c r="BM24">
-        <v>2.1</v>
-      </c>
-      <c r="BN24">
-        <v>1.7</v>
-      </c>
-      <c r="BO24">
-        <v>2.76</v>
-      </c>
-      <c r="BP24">
-        <v>1.39</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5750,7 +5762,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7467077</v>
+        <v>7467081</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5765,49 +5777,49 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q25">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R25">
         <v>2.4</v>
       </c>
       <c r="S25">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T25">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U25">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V25">
         <v>2.38</v>
@@ -5816,19 +5828,19 @@
         <v>1.53</v>
       </c>
       <c r="X25">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y25">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z25">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="AA25">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="AB25">
-        <v>3.85</v>
+        <v>4.53</v>
       </c>
       <c r="AC25">
         <v>1.04</v>
@@ -5840,115 +5852,115 @@
         <v>1.2</v>
       </c>
       <c r="AF25">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AG25">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AH25">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AI25">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AJ25">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AK25">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AL25">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM25">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AN25">
         <v>3</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
         <v>1.75</v>
       </c>
-      <c r="AQ25">
-        <v>2</v>
-      </c>
       <c r="AR25">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="AS25">
-        <v>1.59</v>
+        <v>1.29</v>
       </c>
       <c r="AT25">
-        <v>3.53</v>
+        <v>3.14</v>
       </c>
       <c r="AU25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV25">
+        <v>11</v>
+      </c>
+      <c r="AW25">
+        <v>9</v>
+      </c>
+      <c r="AX25">
         <v>6</v>
       </c>
-      <c r="AW25">
-        <v>8</v>
-      </c>
-      <c r="AX25">
-        <v>3</v>
-      </c>
       <c r="AY25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ25">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BB25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BD25">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="BE25">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="BF25">
-        <v>2.96</v>
+        <v>5.1</v>
       </c>
       <c r="BG25">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="BH25">
-        <v>3.92</v>
+        <v>4.75</v>
       </c>
       <c r="BI25">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="BJ25">
-        <v>2.72</v>
+        <v>3.18</v>
       </c>
       <c r="BK25">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="BL25">
-        <v>2.09</v>
+        <v>2.36</v>
       </c>
       <c r="BM25">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BN25">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="BO25">
-        <v>2.79</v>
+        <v>2.42</v>
       </c>
       <c r="BP25">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -5956,7 +5968,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7467081</v>
+        <v>7467082</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5971,43 +5983,43 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" t="s">
         <v>83</v>
       </c>
-      <c r="P26" t="s">
-        <v>130</v>
-      </c>
       <c r="Q26">
+        <v>2.5</v>
+      </c>
+      <c r="R26">
         <v>2.3</v>
       </c>
-      <c r="R26">
-        <v>2.4</v>
-      </c>
       <c r="S26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T26">
         <v>1.3</v>
@@ -6016,10 +6028,10 @@
         <v>3.4</v>
       </c>
       <c r="V26">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W26">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X26">
         <v>6</v>
@@ -6028,13 +6040,13 @@
         <v>1.13</v>
       </c>
       <c r="Z26">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="AA26">
-        <v>4.02</v>
+        <v>3.48</v>
       </c>
       <c r="AB26">
-        <v>4.53</v>
+        <v>3.28</v>
       </c>
       <c r="AC26">
         <v>1.04</v>
@@ -6046,13 +6058,13 @@
         <v>1.2</v>
       </c>
       <c r="AF26">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="AG26">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AH26">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AI26">
         <v>1.62</v>
@@ -6061,100 +6073,100 @@
         <v>2.2</v>
       </c>
       <c r="AK26">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AL26">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AM26">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AN26">
         <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
+        <v>3.42</v>
+      </c>
+      <c r="AS26">
+        <v>0.88</v>
+      </c>
+      <c r="AT26">
+        <v>4.3</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>3</v>
+      </c>
+      <c r="AW26">
+        <v>7</v>
+      </c>
+      <c r="AX26">
+        <v>7</v>
+      </c>
+      <c r="AY26">
+        <v>11</v>
+      </c>
+      <c r="AZ26">
+        <v>10</v>
+      </c>
+      <c r="BA26">
+        <v>6</v>
+      </c>
+      <c r="BB26">
+        <v>8</v>
+      </c>
+      <c r="BC26">
+        <v>14</v>
+      </c>
+      <c r="BD26">
+        <v>1.53</v>
+      </c>
+      <c r="BE26">
+        <v>7.2</v>
+      </c>
+      <c r="BF26">
+        <v>3.41</v>
+      </c>
+      <c r="BG26">
+        <v>1.18</v>
+      </c>
+      <c r="BH26">
+        <v>4.05</v>
+      </c>
+      <c r="BI26">
+        <v>1.36</v>
+      </c>
+      <c r="BJ26">
+        <v>2.78</v>
+      </c>
+      <c r="BK26">
+        <v>1.95</v>
+      </c>
+      <c r="BL26">
         <v>1.85</v>
       </c>
-      <c r="AS26">
-        <v>1.29</v>
-      </c>
-      <c r="AT26">
-        <v>3.14</v>
-      </c>
-      <c r="AU26">
-        <v>8</v>
-      </c>
-      <c r="AV26">
-        <v>11</v>
-      </c>
-      <c r="AW26">
-        <v>9</v>
-      </c>
-      <c r="AX26">
-        <v>6</v>
-      </c>
-      <c r="AY26">
-        <v>17</v>
-      </c>
-      <c r="AZ26">
-        <v>17</v>
-      </c>
-      <c r="BA26">
-        <v>11</v>
-      </c>
-      <c r="BB26">
-        <v>5</v>
-      </c>
-      <c r="BC26">
-        <v>16</v>
-      </c>
-      <c r="BD26">
-        <v>1.3</v>
-      </c>
-      <c r="BE26">
-        <v>8.5</v>
-      </c>
-      <c r="BF26">
-        <v>5.1</v>
-      </c>
-      <c r="BG26">
-        <v>1.13</v>
-      </c>
-      <c r="BH26">
-        <v>4.75</v>
-      </c>
-      <c r="BI26">
-        <v>1.28</v>
-      </c>
-      <c r="BJ26">
-        <v>3.18</v>
-      </c>
-      <c r="BK26">
-        <v>1.56</v>
-      </c>
-      <c r="BL26">
-        <v>2.36</v>
-      </c>
       <c r="BM26">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BN26">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BO26">
-        <v>2.42</v>
+        <v>2.76</v>
       </c>
       <c r="BP26">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6410,7 +6422,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6697,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6780,7 +6792,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7467088</v>
+        <v>7467089</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6795,58 +6807,58 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q30">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R30">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T30">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U30">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="V30">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="W30">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y30">
         <v>1.11</v>
@@ -6861,25 +6873,25 @@
         <v>999.99</v>
       </c>
       <c r="AC30">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE30">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF30">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AG30">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AH30">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="AI30">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AJ30">
         <v>2.25</v>
@@ -6888,97 +6900,97 @@
         <v>1.57</v>
       </c>
       <c r="AL30">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM30">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>1.76</v>
+        <v>1.23</v>
       </c>
       <c r="AS30">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AT30">
-        <v>3.39</v>
+        <v>2.42</v>
       </c>
       <c r="AU30">
         <v>4</v>
       </c>
       <c r="AV30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX30">
         <v>4</v>
       </c>
       <c r="AY30">
+        <v>7</v>
+      </c>
+      <c r="AZ30">
         <v>8</v>
-      </c>
-      <c r="AZ30">
-        <v>11</v>
       </c>
       <c r="BA30">
         <v>3</v>
       </c>
       <c r="BB30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD30">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="BE30">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF30">
-        <v>2.41</v>
+        <v>2.02</v>
       </c>
       <c r="BG30">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="BH30">
-        <v>4.33</v>
+        <v>4.8</v>
       </c>
       <c r="BI30">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BJ30">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BK30">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="BL30">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="BM30">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="BN30">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="BO30">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="BP30">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -6986,7 +6998,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7467089</v>
+        <v>7467088</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7001,58 +7013,58 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q31">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R31">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S31">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U31">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="V31">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="W31">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X31">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y31">
         <v>1.11</v>
@@ -7067,25 +7079,25 @@
         <v>999.99</v>
       </c>
       <c r="AC31">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD31">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF31">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AG31">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AH31">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="AI31">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AJ31">
         <v>2.25</v>
@@ -7094,97 +7106,97 @@
         <v>1.57</v>
       </c>
       <c r="AL31">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM31">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
       <c r="AS31">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AT31">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
       <c r="AU31">
         <v>4</v>
       </c>
       <c r="AV31">
+        <v>7</v>
+      </c>
+      <c r="AW31">
         <v>4</v>
-      </c>
-      <c r="AW31">
-        <v>3</v>
       </c>
       <c r="AX31">
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA31">
         <v>3</v>
       </c>
       <c r="BB31">
+        <v>2</v>
+      </c>
+      <c r="BC31">
         <v>5</v>
       </c>
-      <c r="BC31">
-        <v>8</v>
-      </c>
       <c r="BD31">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="BE31">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="BF31">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="BG31">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="BH31">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="BI31">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BJ31">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="BK31">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BL31">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="BM31">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="BN31">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="BO31">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="BP31">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7440,7 +7452,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>3.85</v>
@@ -7518,7 +7530,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7604,7 +7616,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7467093</v>
+        <v>7467092</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7619,19 +7631,19 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7646,163 +7658,163 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q34">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="R34">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T34">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U34">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="V34">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="W34">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X34">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y34">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z34">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="AA34">
         <v>3.75</v>
       </c>
       <c r="AB34">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AC34">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AE34">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AF34">
-        <v>4.6</v>
+        <v>5.45</v>
       </c>
       <c r="AG34">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AH34">
+        <v>2.6</v>
+      </c>
+      <c r="AI34">
+        <v>1.44</v>
+      </c>
+      <c r="AJ34">
+        <v>2.63</v>
+      </c>
+      <c r="AK34">
+        <v>1.35</v>
+      </c>
+      <c r="AL34">
+        <v>1.27</v>
+      </c>
+      <c r="AM34">
+        <v>1.62</v>
+      </c>
+      <c r="AN34">
+        <v>2</v>
+      </c>
+      <c r="AO34">
+        <v>1.5</v>
+      </c>
+      <c r="AP34">
+        <v>1.75</v>
+      </c>
+      <c r="AQ34">
+        <v>1.33</v>
+      </c>
+      <c r="AR34">
+        <v>1.92</v>
+      </c>
+      <c r="AS34">
+        <v>1.6</v>
+      </c>
+      <c r="AT34">
+        <v>3.52</v>
+      </c>
+      <c r="AU34">
+        <v>7</v>
+      </c>
+      <c r="AV34">
+        <v>7</v>
+      </c>
+      <c r="AW34">
+        <v>2</v>
+      </c>
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>9</v>
+      </c>
+      <c r="AZ34">
+        <v>12</v>
+      </c>
+      <c r="BA34">
+        <v>7</v>
+      </c>
+      <c r="BB34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <v>9</v>
+      </c>
+      <c r="BD34">
+        <v>1.75</v>
+      </c>
+      <c r="BE34">
+        <v>8.5</v>
+      </c>
+      <c r="BF34">
         <v>2.3</v>
       </c>
-      <c r="AI34">
-        <v>1.53</v>
-      </c>
-      <c r="AJ34">
-        <v>2.38</v>
-      </c>
-      <c r="AK34">
-        <v>1.28</v>
-      </c>
-      <c r="AL34">
-        <v>1.25</v>
-      </c>
-      <c r="AM34">
-        <v>1.91</v>
-      </c>
-      <c r="AN34">
-        <v>3</v>
-      </c>
-      <c r="AO34">
-        <v>2</v>
-      </c>
-      <c r="AP34">
-        <v>2.33</v>
-      </c>
-      <c r="AQ34">
-        <v>2</v>
-      </c>
-      <c r="AR34">
-        <v>2.41</v>
-      </c>
-      <c r="AS34">
-        <v>1.45</v>
-      </c>
-      <c r="AT34">
-        <v>3.86</v>
-      </c>
-      <c r="AU34">
-        <v>2</v>
-      </c>
-      <c r="AV34">
-        <v>6</v>
-      </c>
-      <c r="AW34">
-        <v>4</v>
-      </c>
-      <c r="AX34">
-        <v>4</v>
-      </c>
-      <c r="AY34">
-        <v>6</v>
-      </c>
-      <c r="AZ34">
-        <v>10</v>
-      </c>
-      <c r="BA34">
-        <v>3</v>
-      </c>
-      <c r="BB34">
-        <v>5</v>
-      </c>
-      <c r="BC34">
-        <v>8</v>
-      </c>
-      <c r="BD34">
-        <v>1.62</v>
-      </c>
-      <c r="BE34">
-        <v>8.1</v>
-      </c>
-      <c r="BF34">
-        <v>2.49</v>
-      </c>
       <c r="BG34">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH34">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="BI34">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BJ34">
         <v>3.1</v>
       </c>
       <c r="BK34">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BL34">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="BM34">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="BN34">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BO34">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BP34">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7810,7 +7822,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7467092</v>
+        <v>7467093</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7825,19 +7837,19 @@
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7852,163 +7864,163 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q35">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="R35">
+        <v>2.4</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>1.29</v>
+      </c>
+      <c r="U35">
+        <v>3.5</v>
+      </c>
+      <c r="V35">
         <v>2.38</v>
       </c>
-      <c r="S35">
-        <v>3.2</v>
-      </c>
-      <c r="T35">
-        <v>1.25</v>
-      </c>
-      <c r="U35">
-        <v>3.6</v>
-      </c>
-      <c r="V35">
-        <v>2.15</v>
-      </c>
       <c r="W35">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X35">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y35">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z35">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AA35">
         <v>3.75</v>
       </c>
       <c r="AB35">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC35">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD35">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE35">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AF35">
-        <v>5.45</v>
+        <v>4.6</v>
       </c>
       <c r="AG35">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AH35">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AI35">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AJ35">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AK35">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AL35">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AM35">
+        <v>1.91</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>2</v>
+      </c>
+      <c r="AP35">
+        <v>2.33</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>2.41</v>
+      </c>
+      <c r="AS35">
+        <v>1.45</v>
+      </c>
+      <c r="AT35">
+        <v>3.86</v>
+      </c>
+      <c r="AU35">
+        <v>2</v>
+      </c>
+      <c r="AV35">
+        <v>6</v>
+      </c>
+      <c r="AW35">
+        <v>4</v>
+      </c>
+      <c r="AX35">
+        <v>4</v>
+      </c>
+      <c r="AY35">
+        <v>6</v>
+      </c>
+      <c r="AZ35">
+        <v>10</v>
+      </c>
+      <c r="BA35">
+        <v>3</v>
+      </c>
+      <c r="BB35">
+        <v>5</v>
+      </c>
+      <c r="BC35">
+        <v>8</v>
+      </c>
+      <c r="BD35">
         <v>1.62</v>
       </c>
-      <c r="AN35">
-        <v>2</v>
-      </c>
-      <c r="AO35">
-        <v>1.5</v>
-      </c>
-      <c r="AP35">
-        <v>1.75</v>
-      </c>
-      <c r="AQ35">
+      <c r="BE35">
+        <v>8.1</v>
+      </c>
+      <c r="BF35">
+        <v>2.49</v>
+      </c>
+      <c r="BG35">
+        <v>1.17</v>
+      </c>
+      <c r="BH35">
+        <v>4.7</v>
+      </c>
+      <c r="BI35">
         <v>1.33</v>
-      </c>
-      <c r="AR35">
-        <v>1.92</v>
-      </c>
-      <c r="AS35">
-        <v>1.6</v>
-      </c>
-      <c r="AT35">
-        <v>3.52</v>
-      </c>
-      <c r="AU35">
-        <v>7</v>
-      </c>
-      <c r="AV35">
-        <v>7</v>
-      </c>
-      <c r="AW35">
-        <v>2</v>
-      </c>
-      <c r="AX35">
-        <v>5</v>
-      </c>
-      <c r="AY35">
-        <v>9</v>
-      </c>
-      <c r="AZ35">
-        <v>12</v>
-      </c>
-      <c r="BA35">
-        <v>7</v>
-      </c>
-      <c r="BB35">
-        <v>2</v>
-      </c>
-      <c r="BC35">
-        <v>9</v>
-      </c>
-      <c r="BD35">
-        <v>1.75</v>
-      </c>
-      <c r="BE35">
-        <v>8.5</v>
-      </c>
-      <c r="BF35">
-        <v>2.3</v>
-      </c>
-      <c r="BG35">
-        <v>1.18</v>
-      </c>
-      <c r="BH35">
-        <v>4.5</v>
-      </c>
-      <c r="BI35">
-        <v>1.34</v>
       </c>
       <c r="BJ35">
         <v>3.1</v>
       </c>
       <c r="BK35">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BL35">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="BM35">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="BN35">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BO35">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BP35">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8058,7 +8070,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8136,10 +8148,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8231,7 +8243,7 @@
         <v>69</v>
       </c>
       <c r="E37" s="2">
-        <v>45556.54166666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F37">
         <v>7</v>
@@ -8264,7 +8276,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8357,22 +8369,22 @@
         <v>2.9</v>
       </c>
       <c r="AU37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY37">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ37">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA37">
         <v>9</v>
@@ -8428,7 +8440,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7467095</v>
+        <v>7467096</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8437,196 +8449,196 @@
         <v>69</v>
       </c>
       <c r="E38" s="2">
-        <v>45556.54166666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F38">
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P38" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q38">
+        <v>2.6</v>
+      </c>
+      <c r="R38">
+        <v>2.25</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
         <v>3</v>
       </c>
-      <c r="N38">
-        <v>5</v>
-      </c>
-      <c r="O38" t="s">
-        <v>113</v>
-      </c>
-      <c r="P38" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q38">
-        <v>2.4</v>
-      </c>
-      <c r="R38">
-        <v>2.5</v>
-      </c>
-      <c r="S38">
-        <v>3.75</v>
-      </c>
-      <c r="T38">
-        <v>1.25</v>
-      </c>
-      <c r="U38">
-        <v>3.75</v>
-      </c>
       <c r="V38">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W38">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="X38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y38">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="Z38">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AA38">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AB38">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC38">
         <v>1.01</v>
       </c>
       <c r="AD38">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="AE38">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF38">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="AG38">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AH38">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AI38">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AJ38">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AK38">
+        <v>1.3</v>
+      </c>
+      <c r="AL38">
         <v>1.22</v>
       </c>
-      <c r="AL38">
-        <v>1.2</v>
-      </c>
       <c r="AM38">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO38">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR38">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="AS38">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="AT38">
-        <v>3.17</v>
+        <v>4.01</v>
       </c>
       <c r="AU38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV38">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX38">
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AZ38">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC38">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD38">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="BE38">
-        <v>9</v>
+        <v>6.85</v>
       </c>
       <c r="BF38">
-        <v>2.45</v>
+        <v>2.81</v>
       </c>
       <c r="BG38">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="BH38">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="BI38">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="BJ38">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="BK38">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="BL38">
-        <v>2.77</v>
+        <v>1.95</v>
       </c>
       <c r="BM38">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN38">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="BO38">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="BP38">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8634,7 +8646,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7467096</v>
+        <v>7467095</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8643,196 +8655,814 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45556.64583333334</v>
+        <v>45556.54166666666</v>
       </c>
       <c r="F39">
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q39">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T39">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="U39">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V39">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W39">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y39">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AA39">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AC39">
         <v>1.01</v>
       </c>
       <c r="AD39">
-        <v>9.9</v>
+        <v>13</v>
       </c>
       <c r="AE39">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AF39">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="AG39">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AH39">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="AI39">
+        <v>1.44</v>
+      </c>
+      <c r="AJ39">
+        <v>2.63</v>
+      </c>
+      <c r="AK39">
+        <v>1.22</v>
+      </c>
+      <c r="AL39">
+        <v>1.2</v>
+      </c>
+      <c r="AM39">
+        <v>1.87</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
         <v>1.67</v>
       </c>
-      <c r="AJ39">
-        <v>2.1</v>
-      </c>
-      <c r="AK39">
-        <v>1.3</v>
-      </c>
-      <c r="AL39">
-        <v>1.22</v>
-      </c>
-      <c r="AM39">
-        <v>1.75</v>
-      </c>
-      <c r="AN39">
-        <v>1.5</v>
-      </c>
-      <c r="AO39">
-        <v>2</v>
-      </c>
       <c r="AP39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR39">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="AS39">
-        <v>1.85</v>
+        <v>1.41</v>
       </c>
       <c r="AT39">
-        <v>4.01</v>
+        <v>3.17</v>
       </c>
       <c r="AU39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX39">
         <v>4</v>
       </c>
       <c r="AY39">
+        <v>10</v>
+      </c>
+      <c r="AZ39">
+        <v>12</v>
+      </c>
+      <c r="BA39">
+        <v>5</v>
+      </c>
+      <c r="BB39">
         <v>4</v>
       </c>
-      <c r="AZ39">
+      <c r="BC39">
+        <v>9</v>
+      </c>
+      <c r="BD39">
+        <v>1.65</v>
+      </c>
+      <c r="BE39">
+        <v>9</v>
+      </c>
+      <c r="BF39">
+        <v>2.45</v>
+      </c>
+      <c r="BG39">
+        <v>1.12</v>
+      </c>
+      <c r="BH39">
+        <v>5.6</v>
+      </c>
+      <c r="BI39">
+        <v>1.25</v>
+      </c>
+      <c r="BJ39">
+        <v>3.7</v>
+      </c>
+      <c r="BK39">
+        <v>1.39</v>
+      </c>
+      <c r="BL39">
+        <v>2.77</v>
+      </c>
+      <c r="BM39">
+        <v>2</v>
+      </c>
+      <c r="BN39">
+        <v>1.8</v>
+      </c>
+      <c r="BO39">
+        <v>2.13</v>
+      </c>
+      <c r="BP39">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7467098</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q40">
+        <v>3.4</v>
+      </c>
+      <c r="R40">
+        <v>2.25</v>
+      </c>
+      <c r="S40">
+        <v>2.88</v>
+      </c>
+      <c r="T40">
+        <v>1.33</v>
+      </c>
+      <c r="U40">
+        <v>3.25</v>
+      </c>
+      <c r="V40">
+        <v>2.63</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>6.5</v>
+      </c>
+      <c r="Y40">
+        <v>1.11</v>
+      </c>
+      <c r="Z40">
+        <v>2.85</v>
+      </c>
+      <c r="AA40">
+        <v>3.7</v>
+      </c>
+      <c r="AB40">
+        <v>2.2</v>
+      </c>
+      <c r="AC40">
+        <v>1.05</v>
+      </c>
+      <c r="AD40">
+        <v>11</v>
+      </c>
+      <c r="AE40">
+        <v>1.19</v>
+      </c>
+      <c r="AF40">
+        <v>3.72</v>
+      </c>
+      <c r="AG40">
+        <v>1.65</v>
+      </c>
+      <c r="AH40">
+        <v>2.12</v>
+      </c>
+      <c r="AI40">
+        <v>1.62</v>
+      </c>
+      <c r="AJ40">
+        <v>2.2</v>
+      </c>
+      <c r="AK40">
+        <v>1.58</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.43</v>
+      </c>
+      <c r="AN40">
+        <v>2.33</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <v>2</v>
+      </c>
+      <c r="AQ40">
+        <v>2.33</v>
+      </c>
+      <c r="AR40">
+        <v>1.53</v>
+      </c>
+      <c r="AS40">
+        <v>1.37</v>
+      </c>
+      <c r="AT40">
+        <v>2.9</v>
+      </c>
+      <c r="AU40">
+        <v>2</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>10</v>
+      </c>
+      <c r="AY40">
+        <v>6</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>1</v>
+      </c>
+      <c r="BB40">
+        <v>6</v>
+      </c>
+      <c r="BC40">
+        <v>7</v>
+      </c>
+      <c r="BD40">
+        <v>1.95</v>
+      </c>
+      <c r="BE40">
         <v>8</v>
       </c>
-      <c r="BA39">
+      <c r="BF40">
+        <v>2.05</v>
+      </c>
+      <c r="BG40">
+        <v>1.29</v>
+      </c>
+      <c r="BH40">
+        <v>3.4</v>
+      </c>
+      <c r="BI40">
+        <v>1.52</v>
+      </c>
+      <c r="BJ40">
+        <v>2.44</v>
+      </c>
+      <c r="BK40">
+        <v>1.9</v>
+      </c>
+      <c r="BL40">
+        <v>1.9</v>
+      </c>
+      <c r="BM40">
+        <v>2.36</v>
+      </c>
+      <c r="BN40">
+        <v>1.55</v>
+      </c>
+      <c r="BO40">
+        <v>3.1</v>
+      </c>
+      <c r="BP40">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7467097</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45557.38541666666</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
         <v>4</v>
       </c>
-      <c r="BB39">
-        <v>2</v>
-      </c>
-      <c r="BC39">
+      <c r="O41" t="s">
+        <v>114</v>
+      </c>
+      <c r="P41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q41">
+        <v>2.2</v>
+      </c>
+      <c r="R41">
+        <v>2.4</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>1.3</v>
+      </c>
+      <c r="U41">
+        <v>3.4</v>
+      </c>
+      <c r="V41">
+        <v>2.5</v>
+      </c>
+      <c r="W41">
+        <v>1.5</v>
+      </c>
+      <c r="X41">
         <v>6</v>
       </c>
-      <c r="BD39">
-        <v>1.69</v>
-      </c>
-      <c r="BE39">
-        <v>6.85</v>
-      </c>
-      <c r="BF39">
-        <v>2.81</v>
-      </c>
-      <c r="BG39">
+      <c r="Y41">
+        <v>1.13</v>
+      </c>
+      <c r="Z41">
+        <v>1.65</v>
+      </c>
+      <c r="AA41">
+        <v>4.1</v>
+      </c>
+      <c r="AB41">
+        <v>4.6</v>
+      </c>
+      <c r="AC41">
+        <v>1.04</v>
+      </c>
+      <c r="AD41">
+        <v>16.25</v>
+      </c>
+      <c r="AE41">
         <v>1.16</v>
       </c>
-      <c r="BH39">
-        <v>3.85</v>
-      </c>
-      <c r="BI39">
-        <v>1.35</v>
-      </c>
-      <c r="BJ39">
-        <v>2.65</v>
-      </c>
-      <c r="BK39">
-        <v>1.85</v>
-      </c>
-      <c r="BL39">
-        <v>1.95</v>
-      </c>
-      <c r="BM39">
+      <c r="AF41">
+        <v>4</v>
+      </c>
+      <c r="AG41">
+        <v>1.68</v>
+      </c>
+      <c r="AH41">
         <v>2.07</v>
       </c>
-      <c r="BN39">
-        <v>1.74</v>
-      </c>
-      <c r="BO39">
-        <v>2.75</v>
-      </c>
-      <c r="BP39">
-        <v>1.37</v>
+      <c r="AI41">
+        <v>1.67</v>
+      </c>
+      <c r="AJ41">
+        <v>2.1</v>
+      </c>
+      <c r="AK41">
+        <v>1.17</v>
+      </c>
+      <c r="AL41">
+        <v>1.23</v>
+      </c>
+      <c r="AM41">
+        <v>2.3</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>0.33</v>
+      </c>
+      <c r="AP41">
+        <v>1.5</v>
+      </c>
+      <c r="AQ41">
+        <v>0.25</v>
+      </c>
+      <c r="AR41">
+        <v>1.54</v>
+      </c>
+      <c r="AS41">
+        <v>1.2</v>
+      </c>
+      <c r="AT41">
+        <v>2.74</v>
+      </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>11</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>18</v>
+      </c>
+      <c r="AZ41">
+        <v>11</v>
+      </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>6</v>
+      </c>
+      <c r="BD41">
+        <v>1.33</v>
+      </c>
+      <c r="BE41">
+        <v>10</v>
+      </c>
+      <c r="BF41">
+        <v>3.6</v>
+      </c>
+      <c r="BG41">
+        <v>1.16</v>
+      </c>
+      <c r="BH41">
+        <v>4.7</v>
+      </c>
+      <c r="BI41">
+        <v>1.32</v>
+      </c>
+      <c r="BJ41">
+        <v>3.2</v>
+      </c>
+      <c r="BK41">
+        <v>1.55</v>
+      </c>
+      <c r="BL41">
+        <v>2.38</v>
+      </c>
+      <c r="BM41">
+        <v>1.92</v>
+      </c>
+      <c r="BN41">
+        <v>1.87</v>
+      </c>
+      <c r="BO41">
+        <v>2.41</v>
+      </c>
+      <c r="BP41">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7467099</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45557.47916666666</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q42">
+        <v>4.33</v>
+      </c>
+      <c r="R42">
+        <v>2.5</v>
+      </c>
+      <c r="S42">
+        <v>2.25</v>
+      </c>
+      <c r="T42">
+        <v>1.29</v>
+      </c>
+      <c r="U42">
+        <v>3.5</v>
+      </c>
+      <c r="V42">
+        <v>2.25</v>
+      </c>
+      <c r="W42">
+        <v>1.57</v>
+      </c>
+      <c r="X42">
+        <v>5.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.14</v>
+      </c>
+      <c r="Z42">
+        <v>3.8</v>
+      </c>
+      <c r="AA42">
+        <v>3.9</v>
+      </c>
+      <c r="AB42">
+        <v>1.8</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>13</v>
+      </c>
+      <c r="AE42">
+        <v>1.18</v>
+      </c>
+      <c r="AF42">
+        <v>4.5</v>
+      </c>
+      <c r="AG42">
+        <v>1.65</v>
+      </c>
+      <c r="AH42">
+        <v>2.12</v>
+      </c>
+      <c r="AI42">
+        <v>1.57</v>
+      </c>
+      <c r="AJ42">
+        <v>2.25</v>
+      </c>
+      <c r="AK42">
+        <v>2.1</v>
+      </c>
+      <c r="AL42">
+        <v>1.18</v>
+      </c>
+      <c r="AM42">
+        <v>1.17</v>
+      </c>
+      <c r="AN42">
+        <v>1.33</v>
+      </c>
+      <c r="AO42">
+        <v>0.33</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.16</v>
+      </c>
+      <c r="AS42">
+        <v>1.82</v>
+      </c>
+      <c r="AT42">
+        <v>2.98</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>9</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>6</v>
+      </c>
+      <c r="AY42">
+        <v>10</v>
+      </c>
+      <c r="AZ42">
+        <v>15</v>
+      </c>
+      <c r="BA42">
+        <v>4</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
+        <v>9</v>
+      </c>
+      <c r="BD42">
+        <v>2.7</v>
+      </c>
+      <c r="BE42">
+        <v>9</v>
+      </c>
+      <c r="BF42">
+        <v>1.55</v>
+      </c>
+      <c r="BG42">
+        <v>1.13</v>
+      </c>
+      <c r="BH42">
+        <v>5.3</v>
+      </c>
+      <c r="BI42">
+        <v>1.27</v>
+      </c>
+      <c r="BJ42">
+        <v>3.6</v>
+      </c>
+      <c r="BK42">
+        <v>1.49</v>
+      </c>
+      <c r="BL42">
+        <v>2.54</v>
+      </c>
+      <c r="BM42">
+        <v>1.8</v>
+      </c>
+      <c r="BN42">
+        <v>2</v>
+      </c>
+      <c r="BO42">
+        <v>2.21</v>
+      </c>
+      <c r="BP42">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['27', '70', '79', '83']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -446,6 +449,9 @@
   </si>
   <si>
     <t>['32', '49', '56', '85']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1072,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1272,7 +1278,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1353,7 +1359,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1684,7 +1690,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1890,7 +1896,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2096,7 +2102,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2302,7 +2308,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2714,7 +2720,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2920,7 +2926,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3126,7 +3132,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3410,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3538,7 +3544,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3744,7 +3750,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3950,7 +3956,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4362,7 +4368,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4568,7 +4574,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4649,7 +4655,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5186,7 +5192,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5470,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -5598,7 +5604,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5804,7 +5810,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6422,7 +6428,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6834,7 +6840,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7040,7 +7046,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7452,7 +7458,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>3.85</v>
@@ -7658,7 +7664,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7864,7 +7870,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8070,7 +8076,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8276,7 +8282,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8482,7 +8488,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8563,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>2.16</v>
@@ -8688,7 +8694,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -8766,7 +8772,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9100,7 +9106,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9306,7 +9312,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9463,6 +9469,212 @@
       </c>
       <c r="BP42">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7467087</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q43">
+        <v>2.45</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>3.6</v>
+      </c>
+      <c r="T43">
+        <v>1.25</v>
+      </c>
+      <c r="U43">
+        <v>3.55</v>
+      </c>
+      <c r="V43">
+        <v>2.1</v>
+      </c>
+      <c r="W43">
+        <v>1.65</v>
+      </c>
+      <c r="X43">
+        <v>4.33</v>
+      </c>
+      <c r="Y43">
+        <v>1.2</v>
+      </c>
+      <c r="Z43">
+        <v>2.14</v>
+      </c>
+      <c r="AA43">
+        <v>3.5</v>
+      </c>
+      <c r="AB43">
+        <v>2.9</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>17</v>
+      </c>
+      <c r="AE43">
+        <v>1.15</v>
+      </c>
+      <c r="AF43">
+        <v>5.25</v>
+      </c>
+      <c r="AG43">
+        <v>1.45</v>
+      </c>
+      <c r="AH43">
+        <v>2.55</v>
+      </c>
+      <c r="AI43">
+        <v>1.4</v>
+      </c>
+      <c r="AJ43">
+        <v>2.65</v>
+      </c>
+      <c r="AK43">
+        <v>1.3</v>
+      </c>
+      <c r="AL43">
+        <v>1.22</v>
+      </c>
+      <c r="AM43">
+        <v>1.77</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>2.33</v>
+      </c>
+      <c r="AP43">
+        <v>2.25</v>
+      </c>
+      <c r="AQ43">
+        <v>1.75</v>
+      </c>
+      <c r="AR43">
+        <v>1.61</v>
+      </c>
+      <c r="AS43">
+        <v>1.85</v>
+      </c>
+      <c r="AT43">
+        <v>3.46</v>
+      </c>
+      <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>2</v>
+      </c>
+      <c r="AY43">
+        <v>11</v>
+      </c>
+      <c r="AZ43">
+        <v>4</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <v>5</v>
+      </c>
+      <c r="BD43">
+        <v>1.95</v>
+      </c>
+      <c r="BE43">
+        <v>6.75</v>
+      </c>
+      <c r="BF43">
+        <v>2.31</v>
+      </c>
+      <c r="BG43">
+        <v>1.1</v>
+      </c>
+      <c r="BH43">
+        <v>4.8</v>
+      </c>
+      <c r="BI43">
+        <v>1.24</v>
+      </c>
+      <c r="BJ43">
+        <v>3.22</v>
+      </c>
+      <c r="BK43">
+        <v>1.52</v>
+      </c>
+      <c r="BL43">
+        <v>2.44</v>
+      </c>
+      <c r="BM43">
+        <v>1.87</v>
+      </c>
+      <c r="BN43">
+        <v>1.92</v>
+      </c>
+      <c r="BO43">
+        <v>2.33</v>
+      </c>
+      <c r="BP43">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,21 @@
     <t>['27', '70', '79', '83']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['73', '81']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -452,6 +467,12 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1093,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1150,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1278,7 +1299,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1356,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1565,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1690,7 +1711,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1768,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1896,7 +1917,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1977,7 +1998,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2102,7 +2123,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2180,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2308,7 +2329,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2386,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2595,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2720,7 +2741,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2926,7 +2947,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3132,7 +3153,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3210,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>0.25</v>
@@ -3544,7 +3565,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3622,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3750,7 +3771,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3831,7 +3852,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -3956,7 +3977,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4034,7 +4055,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4240,10 +4261,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4368,7 +4389,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4449,7 +4470,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4574,7 +4595,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4652,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
         <v>1.75</v>
@@ -5192,7 +5213,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5270,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5479,7 +5500,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -5604,7 +5625,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5682,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -5810,7 +5831,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -5888,10 +5909,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6094,10 +6115,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>3.42</v>
@@ -6300,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6428,7 +6449,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6509,7 +6530,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -6840,7 +6861,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6918,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>1.23</v>
@@ -7046,7 +7067,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7127,7 +7148,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7330,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7458,7 +7479,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>3.85</v>
@@ -7664,7 +7685,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7742,10 +7763,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -7870,7 +7891,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -7948,7 +7969,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8076,7 +8097,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8282,7 +8303,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8488,7 +8509,7 @@
         <v>83</v>
       </c>
       <c r="P38" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8694,7 +8715,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>2.4</v>
@@ -9106,7 +9127,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9312,7 +9333,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9518,7 +9539,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9675,6 +9696,1242 @@
       </c>
       <c r="BP43">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7467100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45563.54166666666</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>2.55</v>
+      </c>
+      <c r="S44">
+        <v>2.23</v>
+      </c>
+      <c r="T44">
+        <v>1.19</v>
+      </c>
+      <c r="U44">
+        <v>4.2</v>
+      </c>
+      <c r="V44">
+        <v>2.05</v>
+      </c>
+      <c r="W44">
+        <v>1.68</v>
+      </c>
+      <c r="X44">
+        <v>4.2</v>
+      </c>
+      <c r="Y44">
+        <v>1.2</v>
+      </c>
+      <c r="Z44">
+        <v>3.85</v>
+      </c>
+      <c r="AA44">
+        <v>4.17</v>
+      </c>
+      <c r="AB44">
+        <v>1.79</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>25</v>
+      </c>
+      <c r="AE44">
+        <v>1.11</v>
+      </c>
+      <c r="AF44">
+        <v>6.1</v>
+      </c>
+      <c r="AG44">
+        <v>1.39</v>
+      </c>
+      <c r="AH44">
+        <v>2.77</v>
+      </c>
+      <c r="AI44">
+        <v>1.38</v>
+      </c>
+      <c r="AJ44">
+        <v>2.85</v>
+      </c>
+      <c r="AK44">
+        <v>1.97</v>
+      </c>
+      <c r="AL44">
+        <v>1.21</v>
+      </c>
+      <c r="AM44">
+        <v>1.22</v>
+      </c>
+      <c r="AN44">
+        <v>1.33</v>
+      </c>
+      <c r="AO44">
+        <v>1.33</v>
+      </c>
+      <c r="AP44">
+        <v>1.75</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.17</v>
+      </c>
+      <c r="AS44">
+        <v>1.6</v>
+      </c>
+      <c r="AT44">
+        <v>2.77</v>
+      </c>
+      <c r="AU44">
+        <v>2</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
+      <c r="AX44">
+        <v>5</v>
+      </c>
+      <c r="AY44">
+        <v>3</v>
+      </c>
+      <c r="AZ44">
+        <v>12</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>9</v>
+      </c>
+      <c r="BC44">
+        <v>12</v>
+      </c>
+      <c r="BD44">
+        <v>2.66</v>
+      </c>
+      <c r="BE44">
+        <v>8.5</v>
+      </c>
+      <c r="BF44">
+        <v>1.64</v>
+      </c>
+      <c r="BG44">
+        <v>1.09</v>
+      </c>
+      <c r="BH44">
+        <v>4.95</v>
+      </c>
+      <c r="BI44">
+        <v>1.31</v>
+      </c>
+      <c r="BJ44">
+        <v>3.1</v>
+      </c>
+      <c r="BK44">
+        <v>1.49</v>
+      </c>
+      <c r="BL44">
+        <v>2.53</v>
+      </c>
+      <c r="BM44">
+        <v>1.82</v>
+      </c>
+      <c r="BN44">
+        <v>1.98</v>
+      </c>
+      <c r="BO44">
+        <v>2.22</v>
+      </c>
+      <c r="BP44">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7467102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45563.54166666666</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q45">
+        <v>2.43</v>
+      </c>
+      <c r="R45">
+        <v>2.44</v>
+      </c>
+      <c r="S45">
+        <v>4.15</v>
+      </c>
+      <c r="T45">
+        <v>1.3</v>
+      </c>
+      <c r="U45">
+        <v>3.2</v>
+      </c>
+      <c r="V45">
+        <v>2.45</v>
+      </c>
+      <c r="W45">
+        <v>1.54</v>
+      </c>
+      <c r="X45">
+        <v>5.55</v>
+      </c>
+      <c r="Y45">
+        <v>1.13</v>
+      </c>
+      <c r="Z45">
+        <v>1.84</v>
+      </c>
+      <c r="AA45">
+        <v>3.93</v>
+      </c>
+      <c r="AB45">
+        <v>3.8</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>1.2</v>
+      </c>
+      <c r="AF45">
+        <v>4.33</v>
+      </c>
+      <c r="AG45">
+        <v>1.54</v>
+      </c>
+      <c r="AH45">
+        <v>2.31</v>
+      </c>
+      <c r="AI45">
+        <v>1.53</v>
+      </c>
+      <c r="AJ45">
+        <v>2.3</v>
+      </c>
+      <c r="AK45">
+        <v>1.25</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>1.9</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>0.33</v>
+      </c>
+      <c r="AP45">
+        <v>2.25</v>
+      </c>
+      <c r="AQ45">
+        <v>0.25</v>
+      </c>
+      <c r="AR45">
+        <v>2.03</v>
+      </c>
+      <c r="AS45">
+        <v>1.48</v>
+      </c>
+      <c r="AT45">
+        <v>3.51</v>
+      </c>
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>13</v>
+      </c>
+      <c r="AZ45">
+        <v>7</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>9</v>
+      </c>
+      <c r="BD45">
+        <v>1.51</v>
+      </c>
+      <c r="BE45">
+        <v>8.5</v>
+      </c>
+      <c r="BF45">
+        <v>3.07</v>
+      </c>
+      <c r="BG45">
+        <v>1.17</v>
+      </c>
+      <c r="BH45">
+        <v>4.5</v>
+      </c>
+      <c r="BI45">
+        <v>1.28</v>
+      </c>
+      <c r="BJ45">
+        <v>3.35</v>
+      </c>
+      <c r="BK45">
+        <v>1.57</v>
+      </c>
+      <c r="BL45">
+        <v>2.33</v>
+      </c>
+      <c r="BM45">
+        <v>1.9</v>
+      </c>
+      <c r="BN45">
+        <v>1.9</v>
+      </c>
+      <c r="BO45">
+        <v>2.43</v>
+      </c>
+      <c r="BP45">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7467103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45563.64583333334</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q46">
+        <v>1.95</v>
+      </c>
+      <c r="R46">
+        <v>2.45</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.25</v>
+      </c>
+      <c r="U46">
+        <v>3.5</v>
+      </c>
+      <c r="V46">
+        <v>2.25</v>
+      </c>
+      <c r="W46">
+        <v>1.57</v>
+      </c>
+      <c r="X46">
+        <v>5.05</v>
+      </c>
+      <c r="Y46">
+        <v>1.15</v>
+      </c>
+      <c r="Z46">
+        <v>1.55</v>
+      </c>
+      <c r="AA46">
+        <v>4.3</v>
+      </c>
+      <c r="AB46">
+        <v>4.75</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>20</v>
+      </c>
+      <c r="AE46">
+        <v>1.17</v>
+      </c>
+      <c r="AF46">
+        <v>5</v>
+      </c>
+      <c r="AG46">
+        <v>1.48</v>
+      </c>
+      <c r="AH46">
+        <v>2.47</v>
+      </c>
+      <c r="AI46">
+        <v>1.57</v>
+      </c>
+      <c r="AJ46">
+        <v>2.2</v>
+      </c>
+      <c r="AK46">
+        <v>1.14</v>
+      </c>
+      <c r="AL46">
+        <v>1.15</v>
+      </c>
+      <c r="AM46">
+        <v>2.45</v>
+      </c>
+      <c r="AN46">
+        <v>0.67</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0.5</v>
+      </c>
+      <c r="AQ46">
+        <v>0.75</v>
+      </c>
+      <c r="AR46">
+        <v>1.42</v>
+      </c>
+      <c r="AS46">
+        <v>1.21</v>
+      </c>
+      <c r="AT46">
+        <v>2.63</v>
+      </c>
+      <c r="AU46">
+        <v>5</v>
+      </c>
+      <c r="AV46">
+        <v>7</v>
+      </c>
+      <c r="AW46">
+        <v>11</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <v>16</v>
+      </c>
+      <c r="AZ46">
+        <v>11</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
+        <v>5</v>
+      </c>
+      <c r="BC46">
+        <v>11</v>
+      </c>
+      <c r="BD46">
+        <v>1.55</v>
+      </c>
+      <c r="BE46">
+        <v>8.5</v>
+      </c>
+      <c r="BF46">
+        <v>2.91</v>
+      </c>
+      <c r="BG46">
+        <v>1.07</v>
+      </c>
+      <c r="BH46">
+        <v>5.5</v>
+      </c>
+      <c r="BI46">
+        <v>1.18</v>
+      </c>
+      <c r="BJ46">
+        <v>3.7</v>
+      </c>
+      <c r="BK46">
+        <v>1.38</v>
+      </c>
+      <c r="BL46">
+        <v>2.71</v>
+      </c>
+      <c r="BM46">
+        <v>2</v>
+      </c>
+      <c r="BN46">
+        <v>1.8</v>
+      </c>
+      <c r="BO46">
+        <v>2.17</v>
+      </c>
+      <c r="BP46">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7467104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45564.38541666666</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q47">
+        <v>2.43</v>
+      </c>
+      <c r="R47">
+        <v>2.28</v>
+      </c>
+      <c r="S47">
+        <v>4.1</v>
+      </c>
+      <c r="T47">
+        <v>1.28</v>
+      </c>
+      <c r="U47">
+        <v>3.3</v>
+      </c>
+      <c r="V47">
+        <v>2.55</v>
+      </c>
+      <c r="W47">
+        <v>1.46</v>
+      </c>
+      <c r="X47">
+        <v>5.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.11</v>
+      </c>
+      <c r="Z47">
+        <v>1.95</v>
+      </c>
+      <c r="AA47">
+        <v>3.3</v>
+      </c>
+      <c r="AB47">
+        <v>3.3</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>12.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.16</v>
+      </c>
+      <c r="AF47">
+        <v>3.95</v>
+      </c>
+      <c r="AG47">
+        <v>1.67</v>
+      </c>
+      <c r="AH47">
+        <v>2</v>
+      </c>
+      <c r="AI47">
+        <v>1.6</v>
+      </c>
+      <c r="AJ47">
+        <v>2.23</v>
+      </c>
+      <c r="AK47">
+        <v>1.21</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>2.11</v>
+      </c>
+      <c r="AN47">
+        <v>2.33</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>2.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0.75</v>
+      </c>
+      <c r="AR47">
+        <v>1.94</v>
+      </c>
+      <c r="AS47">
+        <v>1.34</v>
+      </c>
+      <c r="AT47">
+        <v>3.28</v>
+      </c>
+      <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>3</v>
+      </c>
+      <c r="AX47">
+        <v>9</v>
+      </c>
+      <c r="AY47">
+        <v>6</v>
+      </c>
+      <c r="AZ47">
+        <v>14</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>10</v>
+      </c>
+      <c r="BC47">
+        <v>14</v>
+      </c>
+      <c r="BD47">
+        <v>1.64</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>2.64</v>
+      </c>
+      <c r="BG47">
+        <v>1.19</v>
+      </c>
+      <c r="BH47">
+        <v>3.62</v>
+      </c>
+      <c r="BI47">
+        <v>1.45</v>
+      </c>
+      <c r="BJ47">
+        <v>2.55</v>
+      </c>
+      <c r="BK47">
+        <v>1.72</v>
+      </c>
+      <c r="BL47">
+        <v>2</v>
+      </c>
+      <c r="BM47">
+        <v>2.1</v>
+      </c>
+      <c r="BN47">
+        <v>1.65</v>
+      </c>
+      <c r="BO47">
+        <v>2.8</v>
+      </c>
+      <c r="BP47">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7467105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>120</v>
+      </c>
+      <c r="P48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>2.3</v>
+      </c>
+      <c r="S48">
+        <v>3.25</v>
+      </c>
+      <c r="T48">
+        <v>1.3</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>2.4</v>
+      </c>
+      <c r="W48">
+        <v>1.5</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.11</v>
+      </c>
+      <c r="Z48">
+        <v>2.4</v>
+      </c>
+      <c r="AA48">
+        <v>3.5</v>
+      </c>
+      <c r="AB48">
+        <v>2.4</v>
+      </c>
+      <c r="AC48">
+        <v>1.04</v>
+      </c>
+      <c r="AD48">
+        <v>10</v>
+      </c>
+      <c r="AE48">
+        <v>1.22</v>
+      </c>
+      <c r="AF48">
+        <v>4.2</v>
+      </c>
+      <c r="AG48">
+        <v>1.55</v>
+      </c>
+      <c r="AH48">
+        <v>2.2</v>
+      </c>
+      <c r="AI48">
+        <v>1.53</v>
+      </c>
+      <c r="AJ48">
+        <v>2.38</v>
+      </c>
+      <c r="AK48">
+        <v>1.42</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.55</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>1.75</v>
+      </c>
+      <c r="AP48">
+        <v>2.25</v>
+      </c>
+      <c r="AQ48">
+        <v>1.4</v>
+      </c>
+      <c r="AR48">
+        <v>1.38</v>
+      </c>
+      <c r="AS48">
+        <v>1.58</v>
+      </c>
+      <c r="AT48">
+        <v>2.96</v>
+      </c>
+      <c r="AU48">
+        <v>11</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>10</v>
+      </c>
+      <c r="AX48">
+        <v>10</v>
+      </c>
+      <c r="AY48">
+        <v>21</v>
+      </c>
+      <c r="AZ48">
+        <v>12</v>
+      </c>
+      <c r="BA48">
+        <v>14</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>16</v>
+      </c>
+      <c r="BD48">
+        <v>1.64</v>
+      </c>
+      <c r="BE48">
+        <v>8.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.64</v>
+      </c>
+      <c r="BG48">
+        <v>1.11</v>
+      </c>
+      <c r="BH48">
+        <v>4.55</v>
+      </c>
+      <c r="BI48">
+        <v>1.26</v>
+      </c>
+      <c r="BJ48">
+        <v>3.08</v>
+      </c>
+      <c r="BK48">
+        <v>1.55</v>
+      </c>
+      <c r="BL48">
+        <v>2.37</v>
+      </c>
+      <c r="BM48">
+        <v>1.95</v>
+      </c>
+      <c r="BN48">
+        <v>1.85</v>
+      </c>
+      <c r="BO48">
+        <v>2.39</v>
+      </c>
+      <c r="BP48">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7467101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49">
+        <v>2.05</v>
+      </c>
+      <c r="R49">
+        <v>2.5</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>1.28</v>
+      </c>
+      <c r="U49">
+        <v>3.4</v>
+      </c>
+      <c r="V49">
+        <v>2.25</v>
+      </c>
+      <c r="W49">
+        <v>1.57</v>
+      </c>
+      <c r="X49">
+        <v>5.5</v>
+      </c>
+      <c r="Y49">
+        <v>1.14</v>
+      </c>
+      <c r="Z49">
+        <v>1.53</v>
+      </c>
+      <c r="AA49">
+        <v>4.2</v>
+      </c>
+      <c r="AB49">
+        <v>4.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>19.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.18</v>
+      </c>
+      <c r="AF49">
+        <v>4.93</v>
+      </c>
+      <c r="AG49">
+        <v>1.45</v>
+      </c>
+      <c r="AH49">
+        <v>2.55</v>
+      </c>
+      <c r="AI49">
+        <v>1.62</v>
+      </c>
+      <c r="AJ49">
+        <v>2.2</v>
+      </c>
+      <c r="AK49">
+        <v>1.16</v>
+      </c>
+      <c r="AL49">
+        <v>1.2</v>
+      </c>
+      <c r="AM49">
+        <v>2.42</v>
+      </c>
+      <c r="AN49">
+        <v>1.75</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>1.86</v>
+      </c>
+      <c r="AS49">
+        <v>1.03</v>
+      </c>
+      <c r="AT49">
+        <v>2.89</v>
+      </c>
+      <c r="AU49">
+        <v>8</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>8</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>16</v>
+      </c>
+      <c r="AZ49">
+        <v>8</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>6</v>
+      </c>
+      <c r="BD49">
+        <v>1.41</v>
+      </c>
+      <c r="BE49">
+        <v>8.5</v>
+      </c>
+      <c r="BF49">
+        <v>3.5</v>
+      </c>
+      <c r="BG49">
+        <v>1.27</v>
+      </c>
+      <c r="BH49">
+        <v>3.4</v>
+      </c>
+      <c r="BI49">
+        <v>1.5</v>
+      </c>
+      <c r="BJ49">
+        <v>2.5</v>
+      </c>
+      <c r="BK49">
+        <v>1.88</v>
+      </c>
+      <c r="BL49">
+        <v>1.92</v>
+      </c>
+      <c r="BM49">
+        <v>2.29</v>
+      </c>
+      <c r="BN49">
+        <v>1.59</v>
+      </c>
+      <c r="BO49">
+        <v>2.9</v>
+      </c>
+      <c r="BP49">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -454,10 +454,10 @@
     <t>['34', '45+11']</t>
   </si>
   <si>
+    <t>['56', '80', '88']</t>
+  </si>
+  <si>
     <t>['31', '55']</t>
-  </si>
-  <si>
-    <t>['56', '80', '88']</t>
   </si>
   <si>
     <t>['77']</t>
@@ -8467,7 +8467,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7467096</v>
+        <v>7467095</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8482,190 +8482,190 @@
         <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O38" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="P38" t="s">
         <v>146</v>
       </c>
       <c r="Q38">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T38">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="U38">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V38">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W38">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y38">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z38">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AA38">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AC38">
         <v>1.01</v>
       </c>
       <c r="AD38">
-        <v>9.9</v>
+        <v>13</v>
       </c>
       <c r="AE38">
+        <v>1.12</v>
+      </c>
+      <c r="AF38">
+        <v>5.1</v>
+      </c>
+      <c r="AG38">
+        <v>1.55</v>
+      </c>
+      <c r="AH38">
+        <v>2.3</v>
+      </c>
+      <c r="AI38">
+        <v>1.44</v>
+      </c>
+      <c r="AJ38">
+        <v>2.63</v>
+      </c>
+      <c r="AK38">
+        <v>1.22</v>
+      </c>
+      <c r="AL38">
+        <v>1.2</v>
+      </c>
+      <c r="AM38">
+        <v>1.87</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>1.67</v>
+      </c>
+      <c r="AP38">
+        <v>2.25</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1.76</v>
+      </c>
+      <c r="AS38">
+        <v>1.41</v>
+      </c>
+      <c r="AT38">
+        <v>3.17</v>
+      </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
+      <c r="AV38">
+        <v>8</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>5</v>
+      </c>
+      <c r="AY38">
+        <v>9</v>
+      </c>
+      <c r="AZ38">
+        <v>13</v>
+      </c>
+      <c r="BA38">
+        <v>5</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>9</v>
+      </c>
+      <c r="BD38">
+        <v>1.65</v>
+      </c>
+      <c r="BE38">
+        <v>9</v>
+      </c>
+      <c r="BF38">
+        <v>2.45</v>
+      </c>
+      <c r="BG38">
+        <v>1.12</v>
+      </c>
+      <c r="BH38">
+        <v>5.6</v>
+      </c>
+      <c r="BI38">
         <v>1.25</v>
       </c>
-      <c r="AF38">
-        <v>3.6</v>
-      </c>
-      <c r="AG38">
+      <c r="BJ38">
+        <v>3.7</v>
+      </c>
+      <c r="BK38">
+        <v>1.39</v>
+      </c>
+      <c r="BL38">
+        <v>2.77</v>
+      </c>
+      <c r="BM38">
+        <v>2</v>
+      </c>
+      <c r="BN38">
         <v>1.8</v>
       </c>
-      <c r="AH38">
-        <v>1.91</v>
-      </c>
-      <c r="AI38">
-        <v>1.67</v>
-      </c>
-      <c r="AJ38">
-        <v>2.1</v>
-      </c>
-      <c r="AK38">
-        <v>1.3</v>
-      </c>
-      <c r="AL38">
-        <v>1.22</v>
-      </c>
-      <c r="AM38">
-        <v>1.75</v>
-      </c>
-      <c r="AN38">
-        <v>1.5</v>
-      </c>
-      <c r="AO38">
-        <v>2</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38">
-        <v>1.75</v>
-      </c>
-      <c r="AR38">
-        <v>2.16</v>
-      </c>
-      <c r="AS38">
-        <v>1.85</v>
-      </c>
-      <c r="AT38">
-        <v>4.01</v>
-      </c>
-      <c r="AU38">
-        <v>2</v>
-      </c>
-      <c r="AV38">
-        <v>2</v>
-      </c>
-      <c r="AW38">
-        <v>1</v>
-      </c>
-      <c r="AX38">
-        <v>4</v>
-      </c>
-      <c r="AY38">
-        <v>3</v>
-      </c>
-      <c r="AZ38">
-        <v>6</v>
-      </c>
-      <c r="BA38">
-        <v>4</v>
-      </c>
-      <c r="BB38">
-        <v>2</v>
-      </c>
-      <c r="BC38">
-        <v>6</v>
-      </c>
-      <c r="BD38">
-        <v>1.69</v>
-      </c>
-      <c r="BE38">
-        <v>6.85</v>
-      </c>
-      <c r="BF38">
-        <v>2.81</v>
-      </c>
-      <c r="BG38">
-        <v>1.16</v>
-      </c>
-      <c r="BH38">
-        <v>3.85</v>
-      </c>
-      <c r="BI38">
-        <v>1.35</v>
-      </c>
-      <c r="BJ38">
-        <v>2.65</v>
-      </c>
-      <c r="BK38">
-        <v>1.85</v>
-      </c>
-      <c r="BL38">
-        <v>1.95</v>
-      </c>
-      <c r="BM38">
-        <v>2.07</v>
-      </c>
-      <c r="BN38">
-        <v>1.74</v>
-      </c>
       <c r="BO38">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="BP38">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8673,7 +8673,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7467095</v>
+        <v>7467096</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8682,196 +8682,196 @@
         <v>69</v>
       </c>
       <c r="E39" s="2">
-        <v>45556.54166666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F39">
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="P39" t="s">
         <v>147</v>
       </c>
       <c r="Q39">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S39">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T39">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="U39">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W39">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="X39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y39">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="Z39">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AA39">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AB39">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AC39">
         <v>1.01</v>
       </c>
       <c r="AD39">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="AE39">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF39">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="AG39">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AH39">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AI39">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AJ39">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AK39">
+        <v>1.3</v>
+      </c>
+      <c r="AL39">
         <v>1.22</v>
       </c>
-      <c r="AL39">
-        <v>1.2</v>
-      </c>
       <c r="AM39">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="AS39">
-        <v>1.41</v>
+        <v>1.85</v>
       </c>
       <c r="AT39">
-        <v>3.17</v>
+        <v>4.01</v>
       </c>
       <c r="AU39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX39">
         <v>4</v>
       </c>
       <c r="AY39">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AZ39">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD39">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="BE39">
-        <v>9</v>
+        <v>6.85</v>
       </c>
       <c r="BF39">
-        <v>2.45</v>
+        <v>2.81</v>
       </c>
       <c r="BG39">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="BH39">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="BI39">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="BJ39">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="BK39">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="BL39">
-        <v>2.77</v>
+        <v>1.95</v>
       </c>
       <c r="BM39">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN39">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="BO39">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="BP39">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8879,7 +8879,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7467098</v>
+        <v>7467097</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8894,190 +8894,190 @@
         <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="Q40">
+        <v>2.2</v>
+      </c>
+      <c r="R40">
+        <v>2.4</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>1.3</v>
+      </c>
+      <c r="U40">
         <v>3.4</v>
       </c>
-      <c r="R40">
-        <v>2.25</v>
-      </c>
-      <c r="S40">
-        <v>2.88</v>
-      </c>
-      <c r="T40">
+      <c r="V40">
+        <v>2.5</v>
+      </c>
+      <c r="W40">
+        <v>1.5</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>1.13</v>
+      </c>
+      <c r="Z40">
+        <v>1.65</v>
+      </c>
+      <c r="AA40">
+        <v>4.1</v>
+      </c>
+      <c r="AB40">
+        <v>4.6</v>
+      </c>
+      <c r="AC40">
+        <v>1.04</v>
+      </c>
+      <c r="AD40">
+        <v>16.25</v>
+      </c>
+      <c r="AE40">
+        <v>1.16</v>
+      </c>
+      <c r="AF40">
+        <v>4</v>
+      </c>
+      <c r="AG40">
+        <v>1.68</v>
+      </c>
+      <c r="AH40">
+        <v>2.07</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.17</v>
+      </c>
+      <c r="AL40">
+        <v>1.23</v>
+      </c>
+      <c r="AM40">
+        <v>2.3</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0.33</v>
+      </c>
+      <c r="AP40">
+        <v>1.5</v>
+      </c>
+      <c r="AQ40">
+        <v>0.25</v>
+      </c>
+      <c r="AR40">
+        <v>1.54</v>
+      </c>
+      <c r="AS40">
+        <v>1.2</v>
+      </c>
+      <c r="AT40">
+        <v>2.74</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>10</v>
+      </c>
+      <c r="AX40">
+        <v>5</v>
+      </c>
+      <c r="AY40">
+        <v>14</v>
+      </c>
+      <c r="AZ40">
+        <v>8</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>2</v>
+      </c>
+      <c r="BC40">
+        <v>6</v>
+      </c>
+      <c r="BD40">
         <v>1.33</v>
       </c>
-      <c r="U40">
-        <v>3.25</v>
-      </c>
-      <c r="V40">
-        <v>2.63</v>
-      </c>
-      <c r="W40">
-        <v>1.44</v>
-      </c>
-      <c r="X40">
-        <v>6.5</v>
-      </c>
-      <c r="Y40">
-        <v>1.11</v>
-      </c>
-      <c r="Z40">
-        <v>2.85</v>
-      </c>
-      <c r="AA40">
-        <v>3.7</v>
-      </c>
-      <c r="AB40">
-        <v>2.2</v>
-      </c>
-      <c r="AC40">
-        <v>1.05</v>
-      </c>
-      <c r="AD40">
-        <v>11</v>
-      </c>
-      <c r="AE40">
-        <v>1.19</v>
-      </c>
-      <c r="AF40">
-        <v>3.72</v>
-      </c>
-      <c r="AG40">
-        <v>1.65</v>
-      </c>
-      <c r="AH40">
-        <v>2.12</v>
-      </c>
-      <c r="AI40">
-        <v>1.62</v>
-      </c>
-      <c r="AJ40">
-        <v>2.2</v>
-      </c>
-      <c r="AK40">
-        <v>1.58</v>
-      </c>
-      <c r="AL40">
-        <v>1.3</v>
-      </c>
-      <c r="AM40">
-        <v>1.43</v>
-      </c>
-      <c r="AN40">
-        <v>2.33</v>
-      </c>
-      <c r="AO40">
-        <v>3</v>
-      </c>
-      <c r="AP40">
-        <v>2</v>
-      </c>
-      <c r="AQ40">
-        <v>2.33</v>
-      </c>
-      <c r="AR40">
+      <c r="BE40">
+        <v>10</v>
+      </c>
+      <c r="BF40">
+        <v>3.6</v>
+      </c>
+      <c r="BG40">
+        <v>1.16</v>
+      </c>
+      <c r="BH40">
+        <v>4.7</v>
+      </c>
+      <c r="BI40">
+        <v>1.32</v>
+      </c>
+      <c r="BJ40">
+        <v>3.2</v>
+      </c>
+      <c r="BK40">
+        <v>1.55</v>
+      </c>
+      <c r="BL40">
+        <v>2.38</v>
+      </c>
+      <c r="BM40">
+        <v>1.92</v>
+      </c>
+      <c r="BN40">
+        <v>1.87</v>
+      </c>
+      <c r="BO40">
+        <v>2.41</v>
+      </c>
+      <c r="BP40">
         <v>1.53</v>
-      </c>
-      <c r="AS40">
-        <v>1.37</v>
-      </c>
-      <c r="AT40">
-        <v>2.9</v>
-      </c>
-      <c r="AU40">
-        <v>2</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>4</v>
-      </c>
-      <c r="AX40">
-        <v>10</v>
-      </c>
-      <c r="AY40">
-        <v>6</v>
-      </c>
-      <c r="AZ40">
-        <v>10</v>
-      </c>
-      <c r="BA40">
-        <v>1</v>
-      </c>
-      <c r="BB40">
-        <v>6</v>
-      </c>
-      <c r="BC40">
-        <v>7</v>
-      </c>
-      <c r="BD40">
-        <v>1.95</v>
-      </c>
-      <c r="BE40">
-        <v>8</v>
-      </c>
-      <c r="BF40">
-        <v>2.05</v>
-      </c>
-      <c r="BG40">
-        <v>1.29</v>
-      </c>
-      <c r="BH40">
-        <v>3.4</v>
-      </c>
-      <c r="BI40">
-        <v>1.52</v>
-      </c>
-      <c r="BJ40">
-        <v>2.44</v>
-      </c>
-      <c r="BK40">
-        <v>1.9</v>
-      </c>
-      <c r="BL40">
-        <v>1.9</v>
-      </c>
-      <c r="BM40">
-        <v>2.36</v>
-      </c>
-      <c r="BN40">
-        <v>1.55</v>
-      </c>
-      <c r="BO40">
-        <v>3.1</v>
-      </c>
-      <c r="BP40">
-        <v>1.34</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9085,7 +9085,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7467097</v>
+        <v>7467098</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9094,196 +9094,196 @@
         <v>69</v>
       </c>
       <c r="E41" s="2">
-        <v>45557.38541666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F41">
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q41">
+        <v>3.4</v>
+      </c>
+      <c r="R41">
+        <v>2.25</v>
+      </c>
+      <c r="S41">
+        <v>2.88</v>
+      </c>
+      <c r="T41">
+        <v>1.33</v>
+      </c>
+      <c r="U41">
+        <v>3.25</v>
+      </c>
+      <c r="V41">
+        <v>2.63</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>6.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.11</v>
+      </c>
+      <c r="Z41">
+        <v>2.85</v>
+      </c>
+      <c r="AA41">
+        <v>3.7</v>
+      </c>
+      <c r="AB41">
+        <v>2.2</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>11</v>
+      </c>
+      <c r="AE41">
+        <v>1.19</v>
+      </c>
+      <c r="AF41">
+        <v>3.72</v>
+      </c>
+      <c r="AG41">
+        <v>1.65</v>
+      </c>
+      <c r="AH41">
+        <v>2.12</v>
+      </c>
+      <c r="AI41">
+        <v>1.62</v>
+      </c>
+      <c r="AJ41">
+        <v>2.2</v>
+      </c>
+      <c r="AK41">
+        <v>1.58</v>
+      </c>
+      <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>1.43</v>
+      </c>
+      <c r="AN41">
+        <v>2.33</v>
+      </c>
+      <c r="AO41">
         <v>3</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
+      <c r="AP41">
+        <v>2</v>
+      </c>
+      <c r="AQ41">
+        <v>2.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.53</v>
+      </c>
+      <c r="AS41">
+        <v>1.37</v>
+      </c>
+      <c r="AT41">
+        <v>2.9</v>
+      </c>
+      <c r="AU41">
+        <v>2</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
         <v>4</v>
       </c>
-      <c r="O41" t="s">
-        <v>114</v>
-      </c>
-      <c r="P41" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q41">
-        <v>2.2</v>
-      </c>
-      <c r="R41">
-        <v>2.4</v>
-      </c>
-      <c r="S41">
-        <v>5</v>
-      </c>
-      <c r="T41">
-        <v>1.3</v>
-      </c>
-      <c r="U41">
+      <c r="AX41">
+        <v>10</v>
+      </c>
+      <c r="AY41">
+        <v>6</v>
+      </c>
+      <c r="AZ41">
+        <v>10</v>
+      </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>6</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
+        <v>1.95</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>2.05</v>
+      </c>
+      <c r="BG41">
+        <v>1.29</v>
+      </c>
+      <c r="BH41">
         <v>3.4</v>
       </c>
-      <c r="V41">
-        <v>2.5</v>
-      </c>
-      <c r="W41">
-        <v>1.5</v>
-      </c>
-      <c r="X41">
-        <v>6</v>
-      </c>
-      <c r="Y41">
-        <v>1.13</v>
-      </c>
-      <c r="Z41">
-        <v>1.65</v>
-      </c>
-      <c r="AA41">
-        <v>4.1</v>
-      </c>
-      <c r="AB41">
-        <v>4.6</v>
-      </c>
-      <c r="AC41">
-        <v>1.04</v>
-      </c>
-      <c r="AD41">
-        <v>16.25</v>
-      </c>
-      <c r="AE41">
-        <v>1.16</v>
-      </c>
-      <c r="AF41">
-        <v>4</v>
-      </c>
-      <c r="AG41">
-        <v>1.68</v>
-      </c>
-      <c r="AH41">
-        <v>2.07</v>
-      </c>
-      <c r="AI41">
-        <v>1.67</v>
-      </c>
-      <c r="AJ41">
-        <v>2.1</v>
-      </c>
-      <c r="AK41">
-        <v>1.17</v>
-      </c>
-      <c r="AL41">
-        <v>1.23</v>
-      </c>
-      <c r="AM41">
-        <v>2.3</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0.33</v>
-      </c>
-      <c r="AP41">
-        <v>1.5</v>
-      </c>
-      <c r="AQ41">
-        <v>0.25</v>
-      </c>
-      <c r="AR41">
-        <v>1.54</v>
-      </c>
-      <c r="AS41">
-        <v>1.2</v>
-      </c>
-      <c r="AT41">
-        <v>2.74</v>
-      </c>
-      <c r="AU41">
-        <v>7</v>
-      </c>
-      <c r="AV41">
-        <v>5</v>
-      </c>
-      <c r="AW41">
-        <v>11</v>
-      </c>
-      <c r="AX41">
-        <v>6</v>
-      </c>
-      <c r="AY41">
-        <v>18</v>
-      </c>
-      <c r="AZ41">
-        <v>11</v>
-      </c>
-      <c r="BA41">
-        <v>4</v>
-      </c>
-      <c r="BB41">
-        <v>2</v>
-      </c>
-      <c r="BC41">
-        <v>6</v>
-      </c>
-      <c r="BD41">
-        <v>1.33</v>
-      </c>
-      <c r="BE41">
-        <v>10</v>
-      </c>
-      <c r="BF41">
-        <v>3.6</v>
-      </c>
-      <c r="BG41">
-        <v>1.16</v>
-      </c>
-      <c r="BH41">
-        <v>4.7</v>
-      </c>
       <c r="BI41">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="BJ41">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="BK41">
+        <v>1.9</v>
+      </c>
+      <c r="BL41">
+        <v>1.9</v>
+      </c>
+      <c r="BM41">
+        <v>2.36</v>
+      </c>
+      <c r="BN41">
         <v>1.55</v>
       </c>
-      <c r="BL41">
-        <v>2.38</v>
-      </c>
-      <c r="BM41">
-        <v>1.92</v>
-      </c>
-      <c r="BN41">
-        <v>1.87</v>
-      </c>
       <c r="BO41">
-        <v>2.41</v>
+        <v>3.1</v>
       </c>
       <c r="BP41">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9506,7 +9506,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="2">
-        <v>45559.64583333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -9623,31 +9623,31 @@
         <v>1.75</v>
       </c>
       <c r="AR43">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AS43">
         <v>1.85</v>
       </c>
       <c r="AT43">
-        <v>3.46</v>
+        <v>3.61</v>
       </c>
       <c r="AU43">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW43">
+        <v>2</v>
+      </c>
+      <c r="AX43">
         <v>3</v>
       </c>
-      <c r="AX43">
-        <v>2</v>
-      </c>
       <c r="AY43">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -9712,7 +9712,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45563.54166666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -9838,22 +9838,22 @@
         <v>2.77</v>
       </c>
       <c r="AU44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ44">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA44">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,36 +352,6 @@
     <t>['56']</t>
   </si>
   <si>
-    <t>['23', '54']</t>
-  </si>
-  <si>
-    <t>['20', '31']</t>
-  </si>
-  <si>
-    <t>['2', '20', '56']</t>
-  </si>
-  <si>
-    <t>['47']</t>
-  </si>
-  <si>
-    <t>['27', '70', '79', '83']</t>
-  </si>
-  <si>
-    <t>['72']</t>
-  </si>
-  <si>
-    <t>['32']</t>
-  </si>
-  <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['78']</t>
-  </si>
-  <si>
-    <t>['73', '81']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -449,30 +419,6 @@
   </si>
   <si>
     <t>['39', '77']</t>
-  </si>
-  <si>
-    <t>['34', '45+11']</t>
-  </si>
-  <si>
-    <t>['56', '80', '88']</t>
-  </si>
-  <si>
-    <t>['31', '55']</t>
-  </si>
-  <si>
-    <t>['77']</t>
-  </si>
-  <si>
-    <t>['32', '49', '56', '85']</t>
-  </si>
-  <si>
-    <t>['29']</t>
-  </si>
-  <si>
-    <t>['4']</t>
-  </si>
-  <si>
-    <t>['58']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1039,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1171,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1299,7 +1245,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1377,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1583,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1711,7 +1657,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1789,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1917,7 +1863,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1995,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2123,7 +2069,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2201,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2329,7 +2275,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2407,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2613,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2741,7 +2687,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2819,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2947,7 +2893,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3025,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3153,7 +3099,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3231,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3437,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3565,7 +3511,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3643,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3771,7 +3717,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3849,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -3977,7 +3923,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4055,10 +4001,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4261,10 +4207,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4389,7 +4335,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4467,10 +4413,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4595,7 +4541,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4673,10 +4619,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4879,10 +4825,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5085,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5213,7 +5159,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5291,10 +5237,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -5497,10 +5443,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -5625,7 +5571,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5703,10 +5649,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -5831,7 +5777,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -5909,10 +5855,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6115,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>3.42</v>
@@ -6321,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6449,7 +6395,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6527,10 +6473,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -6733,10 +6679,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6861,7 +6807,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6939,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR30">
         <v>1.23</v>
@@ -7067,7 +7013,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7145,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7351,10 +7297,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7479,7 +7425,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>3.85</v>
@@ -7557,10 +7503,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -7685,7 +7631,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7763,10 +7709,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -7891,7 +7837,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -7969,10 +7915,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -8097,7 +8043,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8175,10 +8121,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8254,2684 +8200,6 @@
       </c>
       <c r="BP36">
         <v>1.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:68">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>7467094</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="2">
-        <v>45555.875</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-      <c r="G37" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>2</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <v>4</v>
-      </c>
-      <c r="O37" t="s">
-        <v>112</v>
-      </c>
-      <c r="P37" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q37">
-        <v>4</v>
-      </c>
-      <c r="R37">
-        <v>2.3</v>
-      </c>
-      <c r="S37">
-        <v>2.5</v>
-      </c>
-      <c r="T37">
-        <v>1.33</v>
-      </c>
-      <c r="U37">
-        <v>3.25</v>
-      </c>
-      <c r="V37">
-        <v>2.63</v>
-      </c>
-      <c r="W37">
-        <v>1.44</v>
-      </c>
-      <c r="X37">
-        <v>6.5</v>
-      </c>
-      <c r="Y37">
-        <v>1.11</v>
-      </c>
-      <c r="Z37">
-        <v>3.6</v>
-      </c>
-      <c r="AA37">
-        <v>3.5</v>
-      </c>
-      <c r="AB37">
-        <v>1.95</v>
-      </c>
-      <c r="AC37">
-        <v>1.01</v>
-      </c>
-      <c r="AD37">
-        <v>11</v>
-      </c>
-      <c r="AE37">
-        <v>1.22</v>
-      </c>
-      <c r="AF37">
-        <v>4</v>
-      </c>
-      <c r="AG37">
-        <v>1.7</v>
-      </c>
-      <c r="AH37">
-        <v>2.05</v>
-      </c>
-      <c r="AI37">
-        <v>1.67</v>
-      </c>
-      <c r="AJ37">
-        <v>2.1</v>
-      </c>
-      <c r="AK37">
-        <v>1.8</v>
-      </c>
-      <c r="AL37">
-        <v>1.22</v>
-      </c>
-      <c r="AM37">
-        <v>1.3</v>
-      </c>
-      <c r="AN37">
-        <v>1.33</v>
-      </c>
-      <c r="AO37">
-        <v>2</v>
-      </c>
-      <c r="AP37">
-        <v>1.25</v>
-      </c>
-      <c r="AQ37">
-        <v>1.75</v>
-      </c>
-      <c r="AR37">
-        <v>1.38</v>
-      </c>
-      <c r="AS37">
-        <v>1.52</v>
-      </c>
-      <c r="AT37">
-        <v>2.9</v>
-      </c>
-      <c r="AU37">
-        <v>6</v>
-      </c>
-      <c r="AV37">
-        <v>4</v>
-      </c>
-      <c r="AW37">
-        <v>5</v>
-      </c>
-      <c r="AX37">
-        <v>4</v>
-      </c>
-      <c r="AY37">
-        <v>11</v>
-      </c>
-      <c r="AZ37">
-        <v>8</v>
-      </c>
-      <c r="BA37">
-        <v>9</v>
-      </c>
-      <c r="BB37">
-        <v>4</v>
-      </c>
-      <c r="BC37">
-        <v>13</v>
-      </c>
-      <c r="BD37">
-        <v>2.47</v>
-      </c>
-      <c r="BE37">
-        <v>6.75</v>
-      </c>
-      <c r="BF37">
-        <v>1.85</v>
-      </c>
-      <c r="BG37">
-        <v>1.13</v>
-      </c>
-      <c r="BH37">
-        <v>4.25</v>
-      </c>
-      <c r="BI37">
-        <v>1.29</v>
-      </c>
-      <c r="BJ37">
-        <v>2.92</v>
-      </c>
-      <c r="BK37">
-        <v>1.61</v>
-      </c>
-      <c r="BL37">
-        <v>2.25</v>
-      </c>
-      <c r="BM37">
-        <v>2.01</v>
-      </c>
-      <c r="BN37">
-        <v>1.79</v>
-      </c>
-      <c r="BO37">
-        <v>2.51</v>
-      </c>
-      <c r="BP37">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:68">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>7467095</v>
-      </c>
-      <c r="C38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="2">
-        <v>45555.875</v>
-      </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>2</v>
-      </c>
-      <c r="M38">
-        <v>3</v>
-      </c>
-      <c r="N38">
-        <v>5</v>
-      </c>
-      <c r="O38" t="s">
-        <v>113</v>
-      </c>
-      <c r="P38" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q38">
-        <v>2.4</v>
-      </c>
-      <c r="R38">
-        <v>2.5</v>
-      </c>
-      <c r="S38">
-        <v>3.75</v>
-      </c>
-      <c r="T38">
-        <v>1.25</v>
-      </c>
-      <c r="U38">
-        <v>3.75</v>
-      </c>
-      <c r="V38">
-        <v>2.2</v>
-      </c>
-      <c r="W38">
-        <v>1.62</v>
-      </c>
-      <c r="X38">
-        <v>5</v>
-      </c>
-      <c r="Y38">
-        <v>1.17</v>
-      </c>
-      <c r="Z38">
-        <v>1.87</v>
-      </c>
-      <c r="AA38">
-        <v>3.75</v>
-      </c>
-      <c r="AB38">
-        <v>3.6</v>
-      </c>
-      <c r="AC38">
-        <v>1.01</v>
-      </c>
-      <c r="AD38">
-        <v>13</v>
-      </c>
-      <c r="AE38">
-        <v>1.12</v>
-      </c>
-      <c r="AF38">
-        <v>5.1</v>
-      </c>
-      <c r="AG38">
-        <v>1.55</v>
-      </c>
-      <c r="AH38">
-        <v>2.3</v>
-      </c>
-      <c r="AI38">
-        <v>1.44</v>
-      </c>
-      <c r="AJ38">
-        <v>2.63</v>
-      </c>
-      <c r="AK38">
-        <v>1.22</v>
-      </c>
-      <c r="AL38">
-        <v>1.2</v>
-      </c>
-      <c r="AM38">
-        <v>1.87</v>
-      </c>
-      <c r="AN38">
-        <v>3</v>
-      </c>
-      <c r="AO38">
-        <v>1.67</v>
-      </c>
-      <c r="AP38">
-        <v>2.25</v>
-      </c>
-      <c r="AQ38">
-        <v>2</v>
-      </c>
-      <c r="AR38">
-        <v>1.76</v>
-      </c>
-      <c r="AS38">
-        <v>1.41</v>
-      </c>
-      <c r="AT38">
-        <v>3.17</v>
-      </c>
-      <c r="AU38">
-        <v>3</v>
-      </c>
-      <c r="AV38">
-        <v>8</v>
-      </c>
-      <c r="AW38">
-        <v>6</v>
-      </c>
-      <c r="AX38">
-        <v>5</v>
-      </c>
-      <c r="AY38">
-        <v>9</v>
-      </c>
-      <c r="AZ38">
-        <v>13</v>
-      </c>
-      <c r="BA38">
-        <v>5</v>
-      </c>
-      <c r="BB38">
-        <v>4</v>
-      </c>
-      <c r="BC38">
-        <v>9</v>
-      </c>
-      <c r="BD38">
-        <v>1.65</v>
-      </c>
-      <c r="BE38">
-        <v>9</v>
-      </c>
-      <c r="BF38">
-        <v>2.45</v>
-      </c>
-      <c r="BG38">
-        <v>1.12</v>
-      </c>
-      <c r="BH38">
-        <v>5.6</v>
-      </c>
-      <c r="BI38">
-        <v>1.25</v>
-      </c>
-      <c r="BJ38">
-        <v>3.7</v>
-      </c>
-      <c r="BK38">
-        <v>1.39</v>
-      </c>
-      <c r="BL38">
-        <v>2.77</v>
-      </c>
-      <c r="BM38">
-        <v>2</v>
-      </c>
-      <c r="BN38">
-        <v>1.8</v>
-      </c>
-      <c r="BO38">
-        <v>2.13</v>
-      </c>
-      <c r="BP38">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:68">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>7467096</v>
-      </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="2">
-        <v>45555.875</v>
-      </c>
-      <c r="F39">
-        <v>7</v>
-      </c>
-      <c r="G39" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s">
-        <v>81</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-      <c r="N39">
-        <v>2</v>
-      </c>
-      <c r="O39" t="s">
-        <v>83</v>
-      </c>
-      <c r="P39" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q39">
-        <v>2.6</v>
-      </c>
-      <c r="R39">
-        <v>2.25</v>
-      </c>
-      <c r="S39">
-        <v>4</v>
-      </c>
-      <c r="T39">
-        <v>1.36</v>
-      </c>
-      <c r="U39">
-        <v>3</v>
-      </c>
-      <c r="V39">
-        <v>2.63</v>
-      </c>
-      <c r="W39">
-        <v>1.44</v>
-      </c>
-      <c r="X39">
-        <v>7</v>
-      </c>
-      <c r="Y39">
-        <v>1.1</v>
-      </c>
-      <c r="Z39">
-        <v>2</v>
-      </c>
-      <c r="AA39">
-        <v>3.4</v>
-      </c>
-      <c r="AB39">
-        <v>3.4</v>
-      </c>
-      <c r="AC39">
-        <v>1.01</v>
-      </c>
-      <c r="AD39">
-        <v>9.9</v>
-      </c>
-      <c r="AE39">
-        <v>1.25</v>
-      </c>
-      <c r="AF39">
-        <v>3.6</v>
-      </c>
-      <c r="AG39">
-        <v>1.8</v>
-      </c>
-      <c r="AH39">
-        <v>1.91</v>
-      </c>
-      <c r="AI39">
-        <v>1.67</v>
-      </c>
-      <c r="AJ39">
-        <v>2.1</v>
-      </c>
-      <c r="AK39">
-        <v>1.3</v>
-      </c>
-      <c r="AL39">
-        <v>1.22</v>
-      </c>
-      <c r="AM39">
-        <v>1.75</v>
-      </c>
-      <c r="AN39">
-        <v>1.5</v>
-      </c>
-      <c r="AO39">
-        <v>2</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39">
-        <v>1.75</v>
-      </c>
-      <c r="AR39">
-        <v>2.16</v>
-      </c>
-      <c r="AS39">
-        <v>1.85</v>
-      </c>
-      <c r="AT39">
-        <v>4.01</v>
-      </c>
-      <c r="AU39">
-        <v>2</v>
-      </c>
-      <c r="AV39">
-        <v>2</v>
-      </c>
-      <c r="AW39">
-        <v>1</v>
-      </c>
-      <c r="AX39">
-        <v>4</v>
-      </c>
-      <c r="AY39">
-        <v>3</v>
-      </c>
-      <c r="AZ39">
-        <v>6</v>
-      </c>
-      <c r="BA39">
-        <v>4</v>
-      </c>
-      <c r="BB39">
-        <v>2</v>
-      </c>
-      <c r="BC39">
-        <v>6</v>
-      </c>
-      <c r="BD39">
-        <v>1.69</v>
-      </c>
-      <c r="BE39">
-        <v>6.85</v>
-      </c>
-      <c r="BF39">
-        <v>2.81</v>
-      </c>
-      <c r="BG39">
-        <v>1.16</v>
-      </c>
-      <c r="BH39">
-        <v>3.85</v>
-      </c>
-      <c r="BI39">
-        <v>1.35</v>
-      </c>
-      <c r="BJ39">
-        <v>2.65</v>
-      </c>
-      <c r="BK39">
-        <v>1.85</v>
-      </c>
-      <c r="BL39">
-        <v>1.95</v>
-      </c>
-      <c r="BM39">
-        <v>2.07</v>
-      </c>
-      <c r="BN39">
-        <v>1.74</v>
-      </c>
-      <c r="BO39">
-        <v>2.75</v>
-      </c>
-      <c r="BP39">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:68">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>7467097</v>
-      </c>
-      <c r="C40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F40">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>4</v>
-      </c>
-      <c r="O40" t="s">
-        <v>114</v>
-      </c>
-      <c r="P40" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q40">
-        <v>2.2</v>
-      </c>
-      <c r="R40">
-        <v>2.4</v>
-      </c>
-      <c r="S40">
-        <v>5</v>
-      </c>
-      <c r="T40">
-        <v>1.3</v>
-      </c>
-      <c r="U40">
-        <v>3.4</v>
-      </c>
-      <c r="V40">
-        <v>2.5</v>
-      </c>
-      <c r="W40">
-        <v>1.5</v>
-      </c>
-      <c r="X40">
-        <v>6</v>
-      </c>
-      <c r="Y40">
-        <v>1.13</v>
-      </c>
-      <c r="Z40">
-        <v>1.65</v>
-      </c>
-      <c r="AA40">
-        <v>4.1</v>
-      </c>
-      <c r="AB40">
-        <v>4.6</v>
-      </c>
-      <c r="AC40">
-        <v>1.04</v>
-      </c>
-      <c r="AD40">
-        <v>16.25</v>
-      </c>
-      <c r="AE40">
-        <v>1.16</v>
-      </c>
-      <c r="AF40">
-        <v>4</v>
-      </c>
-      <c r="AG40">
-        <v>1.68</v>
-      </c>
-      <c r="AH40">
-        <v>2.07</v>
-      </c>
-      <c r="AI40">
-        <v>1.67</v>
-      </c>
-      <c r="AJ40">
-        <v>2.1</v>
-      </c>
-      <c r="AK40">
-        <v>1.17</v>
-      </c>
-      <c r="AL40">
-        <v>1.23</v>
-      </c>
-      <c r="AM40">
-        <v>2.3</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0.33</v>
-      </c>
-      <c r="AP40">
-        <v>1.5</v>
-      </c>
-      <c r="AQ40">
-        <v>0.25</v>
-      </c>
-      <c r="AR40">
-        <v>1.54</v>
-      </c>
-      <c r="AS40">
-        <v>1.2</v>
-      </c>
-      <c r="AT40">
-        <v>2.74</v>
-      </c>
-      <c r="AU40">
-        <v>4</v>
-      </c>
-      <c r="AV40">
-        <v>3</v>
-      </c>
-      <c r="AW40">
-        <v>10</v>
-      </c>
-      <c r="AX40">
-        <v>5</v>
-      </c>
-      <c r="AY40">
-        <v>14</v>
-      </c>
-      <c r="AZ40">
-        <v>8</v>
-      </c>
-      <c r="BA40">
-        <v>4</v>
-      </c>
-      <c r="BB40">
-        <v>2</v>
-      </c>
-      <c r="BC40">
-        <v>6</v>
-      </c>
-      <c r="BD40">
-        <v>1.33</v>
-      </c>
-      <c r="BE40">
-        <v>10</v>
-      </c>
-      <c r="BF40">
-        <v>3.6</v>
-      </c>
-      <c r="BG40">
-        <v>1.16</v>
-      </c>
-      <c r="BH40">
-        <v>4.7</v>
-      </c>
-      <c r="BI40">
-        <v>1.32</v>
-      </c>
-      <c r="BJ40">
-        <v>3.2</v>
-      </c>
-      <c r="BK40">
-        <v>1.55</v>
-      </c>
-      <c r="BL40">
-        <v>2.38</v>
-      </c>
-      <c r="BM40">
-        <v>1.92</v>
-      </c>
-      <c r="BN40">
-        <v>1.87</v>
-      </c>
-      <c r="BO40">
-        <v>2.41</v>
-      </c>
-      <c r="BP40">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:68">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>7467098</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="2">
-        <v>45556.875</v>
-      </c>
-      <c r="F41">
-        <v>7</v>
-      </c>
-      <c r="G41" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>83</v>
-      </c>
-      <c r="P41" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q41">
-        <v>3.4</v>
-      </c>
-      <c r="R41">
-        <v>2.25</v>
-      </c>
-      <c r="S41">
-        <v>2.88</v>
-      </c>
-      <c r="T41">
-        <v>1.33</v>
-      </c>
-      <c r="U41">
-        <v>3.25</v>
-      </c>
-      <c r="V41">
-        <v>2.63</v>
-      </c>
-      <c r="W41">
-        <v>1.44</v>
-      </c>
-      <c r="X41">
-        <v>6.5</v>
-      </c>
-      <c r="Y41">
-        <v>1.11</v>
-      </c>
-      <c r="Z41">
-        <v>2.85</v>
-      </c>
-      <c r="AA41">
-        <v>3.7</v>
-      </c>
-      <c r="AB41">
-        <v>2.2</v>
-      </c>
-      <c r="AC41">
-        <v>1.05</v>
-      </c>
-      <c r="AD41">
-        <v>11</v>
-      </c>
-      <c r="AE41">
-        <v>1.19</v>
-      </c>
-      <c r="AF41">
-        <v>3.72</v>
-      </c>
-      <c r="AG41">
-        <v>1.65</v>
-      </c>
-      <c r="AH41">
-        <v>2.12</v>
-      </c>
-      <c r="AI41">
-        <v>1.62</v>
-      </c>
-      <c r="AJ41">
-        <v>2.2</v>
-      </c>
-      <c r="AK41">
-        <v>1.58</v>
-      </c>
-      <c r="AL41">
-        <v>1.3</v>
-      </c>
-      <c r="AM41">
-        <v>1.43</v>
-      </c>
-      <c r="AN41">
-        <v>2.33</v>
-      </c>
-      <c r="AO41">
-        <v>3</v>
-      </c>
-      <c r="AP41">
-        <v>2</v>
-      </c>
-      <c r="AQ41">
-        <v>2.33</v>
-      </c>
-      <c r="AR41">
-        <v>1.53</v>
-      </c>
-      <c r="AS41">
-        <v>1.37</v>
-      </c>
-      <c r="AT41">
-        <v>2.9</v>
-      </c>
-      <c r="AU41">
-        <v>2</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>4</v>
-      </c>
-      <c r="AX41">
-        <v>10</v>
-      </c>
-      <c r="AY41">
-        <v>6</v>
-      </c>
-      <c r="AZ41">
-        <v>10</v>
-      </c>
-      <c r="BA41">
-        <v>1</v>
-      </c>
-      <c r="BB41">
-        <v>6</v>
-      </c>
-      <c r="BC41">
-        <v>7</v>
-      </c>
-      <c r="BD41">
-        <v>1.95</v>
-      </c>
-      <c r="BE41">
-        <v>8</v>
-      </c>
-      <c r="BF41">
-        <v>2.05</v>
-      </c>
-      <c r="BG41">
-        <v>1.29</v>
-      </c>
-      <c r="BH41">
-        <v>3.4</v>
-      </c>
-      <c r="BI41">
-        <v>1.52</v>
-      </c>
-      <c r="BJ41">
-        <v>2.44</v>
-      </c>
-      <c r="BK41">
-        <v>1.9</v>
-      </c>
-      <c r="BL41">
-        <v>1.9</v>
-      </c>
-      <c r="BM41">
-        <v>2.36</v>
-      </c>
-      <c r="BN41">
-        <v>1.55</v>
-      </c>
-      <c r="BO41">
-        <v>3.1</v>
-      </c>
-      <c r="BP41">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:68">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>7467099</v>
-      </c>
-      <c r="C42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="2">
-        <v>45557.47916666666</v>
-      </c>
-      <c r="F42">
-        <v>7</v>
-      </c>
-      <c r="G42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>5</v>
-      </c>
-      <c r="O42" t="s">
-        <v>115</v>
-      </c>
-      <c r="P42" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q42">
-        <v>4.33</v>
-      </c>
-      <c r="R42">
-        <v>2.5</v>
-      </c>
-      <c r="S42">
-        <v>2.25</v>
-      </c>
-      <c r="T42">
-        <v>1.29</v>
-      </c>
-      <c r="U42">
-        <v>3.5</v>
-      </c>
-      <c r="V42">
-        <v>2.25</v>
-      </c>
-      <c r="W42">
-        <v>1.57</v>
-      </c>
-      <c r="X42">
-        <v>5.5</v>
-      </c>
-      <c r="Y42">
-        <v>1.14</v>
-      </c>
-      <c r="Z42">
-        <v>3.8</v>
-      </c>
-      <c r="AA42">
-        <v>3.9</v>
-      </c>
-      <c r="AB42">
-        <v>1.8</v>
-      </c>
-      <c r="AC42">
-        <v>1.01</v>
-      </c>
-      <c r="AD42">
-        <v>13</v>
-      </c>
-      <c r="AE42">
-        <v>1.18</v>
-      </c>
-      <c r="AF42">
-        <v>4.5</v>
-      </c>
-      <c r="AG42">
-        <v>1.65</v>
-      </c>
-      <c r="AH42">
-        <v>2.12</v>
-      </c>
-      <c r="AI42">
-        <v>1.57</v>
-      </c>
-      <c r="AJ42">
-        <v>2.25</v>
-      </c>
-      <c r="AK42">
-        <v>2.1</v>
-      </c>
-      <c r="AL42">
-        <v>1.18</v>
-      </c>
-      <c r="AM42">
-        <v>1.17</v>
-      </c>
-      <c r="AN42">
-        <v>1.33</v>
-      </c>
-      <c r="AO42">
-        <v>0.33</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42">
-        <v>1</v>
-      </c>
-      <c r="AR42">
-        <v>1.16</v>
-      </c>
-      <c r="AS42">
-        <v>1.82</v>
-      </c>
-      <c r="AT42">
-        <v>2.98</v>
-      </c>
-      <c r="AU42">
-        <v>5</v>
-      </c>
-      <c r="AV42">
-        <v>9</v>
-      </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-      <c r="AX42">
-        <v>6</v>
-      </c>
-      <c r="AY42">
-        <v>10</v>
-      </c>
-      <c r="AZ42">
-        <v>15</v>
-      </c>
-      <c r="BA42">
-        <v>4</v>
-      </c>
-      <c r="BB42">
-        <v>5</v>
-      </c>
-      <c r="BC42">
-        <v>9</v>
-      </c>
-      <c r="BD42">
-        <v>2.7</v>
-      </c>
-      <c r="BE42">
-        <v>9</v>
-      </c>
-      <c r="BF42">
-        <v>1.55</v>
-      </c>
-      <c r="BG42">
-        <v>1.13</v>
-      </c>
-      <c r="BH42">
-        <v>5.3</v>
-      </c>
-      <c r="BI42">
-        <v>1.27</v>
-      </c>
-      <c r="BJ42">
-        <v>3.6</v>
-      </c>
-      <c r="BK42">
-        <v>1.49</v>
-      </c>
-      <c r="BL42">
-        <v>2.54</v>
-      </c>
-      <c r="BM42">
-        <v>1.8</v>
-      </c>
-      <c r="BN42">
-        <v>2</v>
-      </c>
-      <c r="BO42">
-        <v>2.21</v>
-      </c>
-      <c r="BP42">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:68">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>7467087</v>
-      </c>
-      <c r="C43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="2">
-        <v>45558.875</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <v>4</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>5</v>
-      </c>
-      <c r="O43" t="s">
-        <v>116</v>
-      </c>
-      <c r="P43" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q43">
-        <v>2.45</v>
-      </c>
-      <c r="R43">
-        <v>2.3</v>
-      </c>
-      <c r="S43">
-        <v>3.6</v>
-      </c>
-      <c r="T43">
-        <v>1.25</v>
-      </c>
-      <c r="U43">
-        <v>3.55</v>
-      </c>
-      <c r="V43">
-        <v>2.1</v>
-      </c>
-      <c r="W43">
-        <v>1.65</v>
-      </c>
-      <c r="X43">
-        <v>4.33</v>
-      </c>
-      <c r="Y43">
-        <v>1.2</v>
-      </c>
-      <c r="Z43">
-        <v>2.14</v>
-      </c>
-      <c r="AA43">
-        <v>3.5</v>
-      </c>
-      <c r="AB43">
-        <v>2.9</v>
-      </c>
-      <c r="AC43">
-        <v>1.01</v>
-      </c>
-      <c r="AD43">
-        <v>17</v>
-      </c>
-      <c r="AE43">
-        <v>1.15</v>
-      </c>
-      <c r="AF43">
-        <v>5.25</v>
-      </c>
-      <c r="AG43">
-        <v>1.45</v>
-      </c>
-      <c r="AH43">
-        <v>2.55</v>
-      </c>
-      <c r="AI43">
-        <v>1.4</v>
-      </c>
-      <c r="AJ43">
-        <v>2.65</v>
-      </c>
-      <c r="AK43">
-        <v>1.3</v>
-      </c>
-      <c r="AL43">
-        <v>1.22</v>
-      </c>
-      <c r="AM43">
-        <v>1.77</v>
-      </c>
-      <c r="AN43">
-        <v>2</v>
-      </c>
-      <c r="AO43">
-        <v>2.33</v>
-      </c>
-      <c r="AP43">
-        <v>2.25</v>
-      </c>
-      <c r="AQ43">
-        <v>1.75</v>
-      </c>
-      <c r="AR43">
-        <v>1.76</v>
-      </c>
-      <c r="AS43">
-        <v>1.85</v>
-      </c>
-      <c r="AT43">
-        <v>3.61</v>
-      </c>
-      <c r="AU43">
-        <v>4</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>2</v>
-      </c>
-      <c r="AX43">
-        <v>3</v>
-      </c>
-      <c r="AY43">
-        <v>6</v>
-      </c>
-      <c r="AZ43">
-        <v>3</v>
-      </c>
-      <c r="BA43">
-        <v>3</v>
-      </c>
-      <c r="BB43">
-        <v>2</v>
-      </c>
-      <c r="BC43">
-        <v>5</v>
-      </c>
-      <c r="BD43">
-        <v>1.95</v>
-      </c>
-      <c r="BE43">
-        <v>6.75</v>
-      </c>
-      <c r="BF43">
-        <v>2.31</v>
-      </c>
-      <c r="BG43">
-        <v>1.1</v>
-      </c>
-      <c r="BH43">
-        <v>4.8</v>
-      </c>
-      <c r="BI43">
-        <v>1.24</v>
-      </c>
-      <c r="BJ43">
-        <v>3.22</v>
-      </c>
-      <c r="BK43">
-        <v>1.52</v>
-      </c>
-      <c r="BL43">
-        <v>2.44</v>
-      </c>
-      <c r="BM43">
-        <v>1.87</v>
-      </c>
-      <c r="BN43">
-        <v>1.92</v>
-      </c>
-      <c r="BO43">
-        <v>2.33</v>
-      </c>
-      <c r="BP43">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:68">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>7467100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="2">
-        <v>45562.875</v>
-      </c>
-      <c r="F44">
-        <v>8</v>
-      </c>
-      <c r="G44" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44" t="s">
-        <v>117</v>
-      </c>
-      <c r="P44" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q44">
-        <v>4</v>
-      </c>
-      <c r="R44">
-        <v>2.55</v>
-      </c>
-      <c r="S44">
-        <v>2.23</v>
-      </c>
-      <c r="T44">
-        <v>1.19</v>
-      </c>
-      <c r="U44">
-        <v>4.2</v>
-      </c>
-      <c r="V44">
-        <v>2.05</v>
-      </c>
-      <c r="W44">
-        <v>1.68</v>
-      </c>
-      <c r="X44">
-        <v>4.2</v>
-      </c>
-      <c r="Y44">
-        <v>1.2</v>
-      </c>
-      <c r="Z44">
-        <v>3.85</v>
-      </c>
-      <c r="AA44">
-        <v>4.17</v>
-      </c>
-      <c r="AB44">
-        <v>1.79</v>
-      </c>
-      <c r="AC44">
-        <v>1.01</v>
-      </c>
-      <c r="AD44">
-        <v>25</v>
-      </c>
-      <c r="AE44">
-        <v>1.11</v>
-      </c>
-      <c r="AF44">
-        <v>6.1</v>
-      </c>
-      <c r="AG44">
-        <v>1.39</v>
-      </c>
-      <c r="AH44">
-        <v>2.77</v>
-      </c>
-      <c r="AI44">
-        <v>1.38</v>
-      </c>
-      <c r="AJ44">
-        <v>2.85</v>
-      </c>
-      <c r="AK44">
-        <v>1.97</v>
-      </c>
-      <c r="AL44">
-        <v>1.21</v>
-      </c>
-      <c r="AM44">
-        <v>1.22</v>
-      </c>
-      <c r="AN44">
-        <v>1.33</v>
-      </c>
-      <c r="AO44">
-        <v>1.33</v>
-      </c>
-      <c r="AP44">
-        <v>1.75</v>
-      </c>
-      <c r="AQ44">
-        <v>1</v>
-      </c>
-      <c r="AR44">
-        <v>1.17</v>
-      </c>
-      <c r="AS44">
-        <v>1.6</v>
-      </c>
-      <c r="AT44">
-        <v>2.77</v>
-      </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
-      <c r="AV44">
-        <v>6</v>
-      </c>
-      <c r="AW44">
-        <v>2</v>
-      </c>
-      <c r="AX44">
-        <v>4</v>
-      </c>
-      <c r="AY44">
-        <v>2</v>
-      </c>
-      <c r="AZ44">
-        <v>10</v>
-      </c>
-      <c r="BA44">
-        <v>3</v>
-      </c>
-      <c r="BB44">
-        <v>9</v>
-      </c>
-      <c r="BC44">
-        <v>12</v>
-      </c>
-      <c r="BD44">
-        <v>2.66</v>
-      </c>
-      <c r="BE44">
-        <v>8.5</v>
-      </c>
-      <c r="BF44">
-        <v>1.64</v>
-      </c>
-      <c r="BG44">
-        <v>1.09</v>
-      </c>
-      <c r="BH44">
-        <v>4.95</v>
-      </c>
-      <c r="BI44">
-        <v>1.31</v>
-      </c>
-      <c r="BJ44">
-        <v>3.1</v>
-      </c>
-      <c r="BK44">
-        <v>1.49</v>
-      </c>
-      <c r="BL44">
-        <v>2.53</v>
-      </c>
-      <c r="BM44">
-        <v>1.82</v>
-      </c>
-      <c r="BN44">
-        <v>1.98</v>
-      </c>
-      <c r="BO44">
-        <v>2.22</v>
-      </c>
-      <c r="BP44">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:68">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>7467102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="2">
-        <v>45563.54166666666</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
-      </c>
-      <c r="G45" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45" t="s">
-        <v>118</v>
-      </c>
-      <c r="P45" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q45">
-        <v>2.43</v>
-      </c>
-      <c r="R45">
-        <v>2.44</v>
-      </c>
-      <c r="S45">
-        <v>4.15</v>
-      </c>
-      <c r="T45">
-        <v>1.3</v>
-      </c>
-      <c r="U45">
-        <v>3.2</v>
-      </c>
-      <c r="V45">
-        <v>2.45</v>
-      </c>
-      <c r="W45">
-        <v>1.54</v>
-      </c>
-      <c r="X45">
-        <v>5.55</v>
-      </c>
-      <c r="Y45">
-        <v>1.13</v>
-      </c>
-      <c r="Z45">
-        <v>1.84</v>
-      </c>
-      <c r="AA45">
-        <v>3.93</v>
-      </c>
-      <c r="AB45">
-        <v>3.8</v>
-      </c>
-      <c r="AC45">
-        <v>1.04</v>
-      </c>
-      <c r="AD45">
-        <v>10</v>
-      </c>
-      <c r="AE45">
-        <v>1.2</v>
-      </c>
-      <c r="AF45">
-        <v>4.33</v>
-      </c>
-      <c r="AG45">
-        <v>1.54</v>
-      </c>
-      <c r="AH45">
-        <v>2.31</v>
-      </c>
-      <c r="AI45">
-        <v>1.53</v>
-      </c>
-      <c r="AJ45">
-        <v>2.3</v>
-      </c>
-      <c r="AK45">
-        <v>1.25</v>
-      </c>
-      <c r="AL45">
-        <v>1.22</v>
-      </c>
-      <c r="AM45">
-        <v>1.9</v>
-      </c>
-      <c r="AN45">
-        <v>2</v>
-      </c>
-      <c r="AO45">
-        <v>0.33</v>
-      </c>
-      <c r="AP45">
-        <v>2.25</v>
-      </c>
-      <c r="AQ45">
-        <v>0.25</v>
-      </c>
-      <c r="AR45">
-        <v>2.03</v>
-      </c>
-      <c r="AS45">
-        <v>1.48</v>
-      </c>
-      <c r="AT45">
-        <v>3.51</v>
-      </c>
-      <c r="AU45">
-        <v>7</v>
-      </c>
-      <c r="AV45">
-        <v>2</v>
-      </c>
-      <c r="AW45">
-        <v>6</v>
-      </c>
-      <c r="AX45">
-        <v>5</v>
-      </c>
-      <c r="AY45">
-        <v>13</v>
-      </c>
-      <c r="AZ45">
-        <v>7</v>
-      </c>
-      <c r="BA45">
-        <v>5</v>
-      </c>
-      <c r="BB45">
-        <v>4</v>
-      </c>
-      <c r="BC45">
-        <v>9</v>
-      </c>
-      <c r="BD45">
-        <v>1.51</v>
-      </c>
-      <c r="BE45">
-        <v>8.5</v>
-      </c>
-      <c r="BF45">
-        <v>3.07</v>
-      </c>
-      <c r="BG45">
-        <v>1.17</v>
-      </c>
-      <c r="BH45">
-        <v>4.5</v>
-      </c>
-      <c r="BI45">
-        <v>1.28</v>
-      </c>
-      <c r="BJ45">
-        <v>3.35</v>
-      </c>
-      <c r="BK45">
-        <v>1.57</v>
-      </c>
-      <c r="BL45">
-        <v>2.33</v>
-      </c>
-      <c r="BM45">
-        <v>1.9</v>
-      </c>
-      <c r="BN45">
-        <v>1.9</v>
-      </c>
-      <c r="BO45">
-        <v>2.43</v>
-      </c>
-      <c r="BP45">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:68">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>7467103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="2">
-        <v>45563.64583333334</v>
-      </c>
-      <c r="F46">
-        <v>8</v>
-      </c>
-      <c r="G46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" t="s">
-        <v>83</v>
-      </c>
-      <c r="P46" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q46">
-        <v>1.95</v>
-      </c>
-      <c r="R46">
-        <v>2.45</v>
-      </c>
-      <c r="S46">
-        <v>5</v>
-      </c>
-      <c r="T46">
-        <v>1.25</v>
-      </c>
-      <c r="U46">
-        <v>3.5</v>
-      </c>
-      <c r="V46">
-        <v>2.25</v>
-      </c>
-      <c r="W46">
-        <v>1.57</v>
-      </c>
-      <c r="X46">
-        <v>5.05</v>
-      </c>
-      <c r="Y46">
-        <v>1.15</v>
-      </c>
-      <c r="Z46">
-        <v>1.55</v>
-      </c>
-      <c r="AA46">
-        <v>4.3</v>
-      </c>
-      <c r="AB46">
-        <v>4.75</v>
-      </c>
-      <c r="AC46">
-        <v>1.02</v>
-      </c>
-      <c r="AD46">
-        <v>20</v>
-      </c>
-      <c r="AE46">
-        <v>1.17</v>
-      </c>
-      <c r="AF46">
-        <v>5</v>
-      </c>
-      <c r="AG46">
-        <v>1.48</v>
-      </c>
-      <c r="AH46">
-        <v>2.47</v>
-      </c>
-      <c r="AI46">
-        <v>1.57</v>
-      </c>
-      <c r="AJ46">
-        <v>2.2</v>
-      </c>
-      <c r="AK46">
-        <v>1.14</v>
-      </c>
-      <c r="AL46">
-        <v>1.15</v>
-      </c>
-      <c r="AM46">
-        <v>2.45</v>
-      </c>
-      <c r="AN46">
-        <v>0.67</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>0.5</v>
-      </c>
-      <c r="AQ46">
-        <v>0.75</v>
-      </c>
-      <c r="AR46">
-        <v>1.42</v>
-      </c>
-      <c r="AS46">
-        <v>1.21</v>
-      </c>
-      <c r="AT46">
-        <v>2.63</v>
-      </c>
-      <c r="AU46">
-        <v>5</v>
-      </c>
-      <c r="AV46">
-        <v>7</v>
-      </c>
-      <c r="AW46">
-        <v>11</v>
-      </c>
-      <c r="AX46">
-        <v>4</v>
-      </c>
-      <c r="AY46">
-        <v>16</v>
-      </c>
-      <c r="AZ46">
-        <v>11</v>
-      </c>
-      <c r="BA46">
-        <v>6</v>
-      </c>
-      <c r="BB46">
-        <v>5</v>
-      </c>
-      <c r="BC46">
-        <v>11</v>
-      </c>
-      <c r="BD46">
-        <v>1.55</v>
-      </c>
-      <c r="BE46">
-        <v>8.5</v>
-      </c>
-      <c r="BF46">
-        <v>2.91</v>
-      </c>
-      <c r="BG46">
-        <v>1.07</v>
-      </c>
-      <c r="BH46">
-        <v>5.5</v>
-      </c>
-      <c r="BI46">
-        <v>1.18</v>
-      </c>
-      <c r="BJ46">
-        <v>3.7</v>
-      </c>
-      <c r="BK46">
-        <v>1.38</v>
-      </c>
-      <c r="BL46">
-        <v>2.71</v>
-      </c>
-      <c r="BM46">
-        <v>2</v>
-      </c>
-      <c r="BN46">
-        <v>1.8</v>
-      </c>
-      <c r="BO46">
-        <v>2.17</v>
-      </c>
-      <c r="BP46">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:68">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>7467104</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="2">
-        <v>45564.38541666666</v>
-      </c>
-      <c r="F47">
-        <v>8</v>
-      </c>
-      <c r="G47" t="s">
-        <v>81</v>
-      </c>
-      <c r="H47" t="s">
-        <v>77</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47" t="s">
-        <v>119</v>
-      </c>
-      <c r="P47" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q47">
-        <v>2.43</v>
-      </c>
-      <c r="R47">
-        <v>2.28</v>
-      </c>
-      <c r="S47">
-        <v>4.1</v>
-      </c>
-      <c r="T47">
-        <v>1.28</v>
-      </c>
-      <c r="U47">
-        <v>3.3</v>
-      </c>
-      <c r="V47">
-        <v>2.55</v>
-      </c>
-      <c r="W47">
-        <v>1.46</v>
-      </c>
-      <c r="X47">
-        <v>5.5</v>
-      </c>
-      <c r="Y47">
-        <v>1.11</v>
-      </c>
-      <c r="Z47">
-        <v>1.95</v>
-      </c>
-      <c r="AA47">
-        <v>3.3</v>
-      </c>
-      <c r="AB47">
-        <v>3.3</v>
-      </c>
-      <c r="AC47">
-        <v>1.01</v>
-      </c>
-      <c r="AD47">
-        <v>12.5</v>
-      </c>
-      <c r="AE47">
-        <v>1.16</v>
-      </c>
-      <c r="AF47">
-        <v>3.95</v>
-      </c>
-      <c r="AG47">
-        <v>1.67</v>
-      </c>
-      <c r="AH47">
-        <v>2</v>
-      </c>
-      <c r="AI47">
-        <v>1.6</v>
-      </c>
-      <c r="AJ47">
-        <v>2.23</v>
-      </c>
-      <c r="AK47">
-        <v>1.21</v>
-      </c>
-      <c r="AL47">
-        <v>1.25</v>
-      </c>
-      <c r="AM47">
-        <v>2.11</v>
-      </c>
-      <c r="AN47">
-        <v>2.33</v>
-      </c>
-      <c r="AO47">
-        <v>1</v>
-      </c>
-      <c r="AP47">
-        <v>2.5</v>
-      </c>
-      <c r="AQ47">
-        <v>0.75</v>
-      </c>
-      <c r="AR47">
-        <v>1.94</v>
-      </c>
-      <c r="AS47">
-        <v>1.34</v>
-      </c>
-      <c r="AT47">
-        <v>3.28</v>
-      </c>
-      <c r="AU47">
-        <v>3</v>
-      </c>
-      <c r="AV47">
-        <v>5</v>
-      </c>
-      <c r="AW47">
-        <v>3</v>
-      </c>
-      <c r="AX47">
-        <v>9</v>
-      </c>
-      <c r="AY47">
-        <v>6</v>
-      </c>
-      <c r="AZ47">
-        <v>14</v>
-      </c>
-      <c r="BA47">
-        <v>4</v>
-      </c>
-      <c r="BB47">
-        <v>10</v>
-      </c>
-      <c r="BC47">
-        <v>14</v>
-      </c>
-      <c r="BD47">
-        <v>1.64</v>
-      </c>
-      <c r="BE47">
-        <v>8.5</v>
-      </c>
-      <c r="BF47">
-        <v>2.64</v>
-      </c>
-      <c r="BG47">
-        <v>1.19</v>
-      </c>
-      <c r="BH47">
-        <v>3.62</v>
-      </c>
-      <c r="BI47">
-        <v>1.45</v>
-      </c>
-      <c r="BJ47">
-        <v>2.55</v>
-      </c>
-      <c r="BK47">
-        <v>1.72</v>
-      </c>
-      <c r="BL47">
-        <v>2</v>
-      </c>
-      <c r="BM47">
-        <v>2.1</v>
-      </c>
-      <c r="BN47">
-        <v>1.65</v>
-      </c>
-      <c r="BO47">
-        <v>2.8</v>
-      </c>
-      <c r="BP47">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:68">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>7467105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="2">
-        <v>45564.47916666666</v>
-      </c>
-      <c r="F48">
-        <v>8</v>
-      </c>
-      <c r="G48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="s">
-        <v>120</v>
-      </c>
-      <c r="P48" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q48">
-        <v>3</v>
-      </c>
-      <c r="R48">
-        <v>2.3</v>
-      </c>
-      <c r="S48">
-        <v>3.25</v>
-      </c>
-      <c r="T48">
-        <v>1.3</v>
-      </c>
-      <c r="U48">
-        <v>3</v>
-      </c>
-      <c r="V48">
-        <v>2.4</v>
-      </c>
-      <c r="W48">
-        <v>1.5</v>
-      </c>
-      <c r="X48">
-        <v>6.5</v>
-      </c>
-      <c r="Y48">
-        <v>1.11</v>
-      </c>
-      <c r="Z48">
-        <v>2.4</v>
-      </c>
-      <c r="AA48">
-        <v>3.5</v>
-      </c>
-      <c r="AB48">
-        <v>2.4</v>
-      </c>
-      <c r="AC48">
-        <v>1.04</v>
-      </c>
-      <c r="AD48">
-        <v>10</v>
-      </c>
-      <c r="AE48">
-        <v>1.22</v>
-      </c>
-      <c r="AF48">
-        <v>4.2</v>
-      </c>
-      <c r="AG48">
-        <v>1.55</v>
-      </c>
-      <c r="AH48">
-        <v>2.2</v>
-      </c>
-      <c r="AI48">
-        <v>1.53</v>
-      </c>
-      <c r="AJ48">
-        <v>2.38</v>
-      </c>
-      <c r="AK48">
-        <v>1.42</v>
-      </c>
-      <c r="AL48">
-        <v>1.25</v>
-      </c>
-      <c r="AM48">
-        <v>1.55</v>
-      </c>
-      <c r="AN48">
-        <v>2</v>
-      </c>
-      <c r="AO48">
-        <v>1.75</v>
-      </c>
-      <c r="AP48">
-        <v>2.25</v>
-      </c>
-      <c r="AQ48">
-        <v>1.4</v>
-      </c>
-      <c r="AR48">
-        <v>1.38</v>
-      </c>
-      <c r="AS48">
-        <v>1.58</v>
-      </c>
-      <c r="AT48">
-        <v>2.96</v>
-      </c>
-      <c r="AU48">
-        <v>11</v>
-      </c>
-      <c r="AV48">
-        <v>2</v>
-      </c>
-      <c r="AW48">
-        <v>10</v>
-      </c>
-      <c r="AX48">
-        <v>10</v>
-      </c>
-      <c r="AY48">
-        <v>21</v>
-      </c>
-      <c r="AZ48">
-        <v>12</v>
-      </c>
-      <c r="BA48">
-        <v>14</v>
-      </c>
-      <c r="BB48">
-        <v>2</v>
-      </c>
-      <c r="BC48">
-        <v>16</v>
-      </c>
-      <c r="BD48">
-        <v>1.64</v>
-      </c>
-      <c r="BE48">
-        <v>8.5</v>
-      </c>
-      <c r="BF48">
-        <v>2.64</v>
-      </c>
-      <c r="BG48">
-        <v>1.11</v>
-      </c>
-      <c r="BH48">
-        <v>4.55</v>
-      </c>
-      <c r="BI48">
-        <v>1.26</v>
-      </c>
-      <c r="BJ48">
-        <v>3.08</v>
-      </c>
-      <c r="BK48">
-        <v>1.55</v>
-      </c>
-      <c r="BL48">
-        <v>2.37</v>
-      </c>
-      <c r="BM48">
-        <v>1.95</v>
-      </c>
-      <c r="BN48">
-        <v>1.85</v>
-      </c>
-      <c r="BO48">
-        <v>2.39</v>
-      </c>
-      <c r="BP48">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:68">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>7467101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="2">
-        <v>45564.47916666666</v>
-      </c>
-      <c r="F49">
-        <v>8</v>
-      </c>
-      <c r="G49" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" t="s">
-        <v>72</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>2</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>3</v>
-      </c>
-      <c r="O49" t="s">
-        <v>121</v>
-      </c>
-      <c r="P49" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q49">
-        <v>2.05</v>
-      </c>
-      <c r="R49">
-        <v>2.5</v>
-      </c>
-      <c r="S49">
-        <v>5</v>
-      </c>
-      <c r="T49">
-        <v>1.28</v>
-      </c>
-      <c r="U49">
-        <v>3.4</v>
-      </c>
-      <c r="V49">
-        <v>2.25</v>
-      </c>
-      <c r="W49">
-        <v>1.57</v>
-      </c>
-      <c r="X49">
-        <v>5.5</v>
-      </c>
-      <c r="Y49">
-        <v>1.14</v>
-      </c>
-      <c r="Z49">
-        <v>1.53</v>
-      </c>
-      <c r="AA49">
-        <v>4.2</v>
-      </c>
-      <c r="AB49">
-        <v>4.5</v>
-      </c>
-      <c r="AC49">
-        <v>1.03</v>
-      </c>
-      <c r="AD49">
-        <v>19.5</v>
-      </c>
-      <c r="AE49">
-        <v>1.18</v>
-      </c>
-      <c r="AF49">
-        <v>4.93</v>
-      </c>
-      <c r="AG49">
-        <v>1.45</v>
-      </c>
-      <c r="AH49">
-        <v>2.55</v>
-      </c>
-      <c r="AI49">
-        <v>1.62</v>
-      </c>
-      <c r="AJ49">
-        <v>2.2</v>
-      </c>
-      <c r="AK49">
-        <v>1.16</v>
-      </c>
-      <c r="AL49">
-        <v>1.2</v>
-      </c>
-      <c r="AM49">
-        <v>2.42</v>
-      </c>
-      <c r="AN49">
-        <v>1.75</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>2</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>1.86</v>
-      </c>
-      <c r="AS49">
-        <v>1.03</v>
-      </c>
-      <c r="AT49">
-        <v>2.89</v>
-      </c>
-      <c r="AU49">
-        <v>8</v>
-      </c>
-      <c r="AV49">
-        <v>4</v>
-      </c>
-      <c r="AW49">
-        <v>8</v>
-      </c>
-      <c r="AX49">
-        <v>4</v>
-      </c>
-      <c r="AY49">
-        <v>16</v>
-      </c>
-      <c r="AZ49">
-        <v>8</v>
-      </c>
-      <c r="BA49">
-        <v>5</v>
-      </c>
-      <c r="BB49">
-        <v>1</v>
-      </c>
-      <c r="BC49">
-        <v>6</v>
-      </c>
-      <c r="BD49">
-        <v>1.41</v>
-      </c>
-      <c r="BE49">
-        <v>8.5</v>
-      </c>
-      <c r="BF49">
-        <v>3.5</v>
-      </c>
-      <c r="BG49">
-        <v>1.27</v>
-      </c>
-      <c r="BH49">
-        <v>3.4</v>
-      </c>
-      <c r="BI49">
-        <v>1.5</v>
-      </c>
-      <c r="BJ49">
-        <v>2.5</v>
-      </c>
-      <c r="BK49">
-        <v>1.88</v>
-      </c>
-      <c r="BL49">
-        <v>1.92</v>
-      </c>
-      <c r="BM49">
-        <v>2.29</v>
-      </c>
-      <c r="BN49">
-        <v>1.59</v>
-      </c>
-      <c r="BO49">
-        <v>2.9</v>
-      </c>
-      <c r="BP49">
-        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,36 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['23', '54']</t>
+  </si>
+  <si>
+    <t>['20', '31']</t>
+  </si>
+  <si>
+    <t>['2', '20', '56']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['27', '70', '79', '83']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['73', '81']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -419,6 +449,30 @@
   </si>
   <si>
     <t>['39', '77']</t>
+  </si>
+  <si>
+    <t>['34', '45+11']</t>
+  </si>
+  <si>
+    <t>['56', '80', '88']</t>
+  </si>
+  <si>
+    <t>['31', '55']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['32', '49', '56', '85']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,7 +1093,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1117,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1144,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>9</v>
@@ -1245,7 +1299,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1323,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1350,10 +1404,10 @@
         <v>9</v>
       </c>
       <c r="AY3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA3">
         <v>5</v>
@@ -1529,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1556,10 +1610,10 @@
         <v>8</v>
       </c>
       <c r="AY4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ4">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -1657,7 +1711,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1735,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1762,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="AY5">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ5">
         <v>11</v>
@@ -1863,7 +1917,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -1941,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1968,10 +2022,10 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA6">
         <v>4</v>
@@ -2069,7 +2123,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2147,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2174,10 +2228,10 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA7">
         <v>8</v>
@@ -2275,7 +2329,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2353,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2380,10 +2434,10 @@
         <v>9</v>
       </c>
       <c r="AY8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -2559,10 +2613,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2586,10 +2640,10 @@
         <v>7</v>
       </c>
       <c r="AY9">
+        <v>16</v>
+      </c>
+      <c r="AZ9">
         <v>14</v>
-      </c>
-      <c r="AZ9">
-        <v>10</v>
       </c>
       <c r="BA9">
         <v>7</v>
@@ -2687,7 +2741,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2765,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2792,10 +2846,10 @@
         <v>2</v>
       </c>
       <c r="AY10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA10">
         <v>9</v>
@@ -2893,7 +2947,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -2971,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -2998,10 +3052,10 @@
         <v>1</v>
       </c>
       <c r="AY11">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA11">
         <v>4</v>
@@ -3099,7 +3153,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3177,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3204,10 +3258,10 @@
         <v>5</v>
       </c>
       <c r="AY12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA12">
         <v>3</v>
@@ -3383,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3410,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="AY13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA13">
         <v>6</v>
@@ -3511,7 +3565,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3589,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3616,10 +3670,10 @@
         <v>3</v>
       </c>
       <c r="AY14">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AZ14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA14">
         <v>6</v>
@@ -3717,7 +3771,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3795,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -3822,10 +3876,10 @@
         <v>5</v>
       </c>
       <c r="AY15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15">
         <v>9</v>
@@ -3923,7 +3977,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4001,10 +4055,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
         <v>1.75</v>
-      </c>
-      <c r="AQ16">
-        <v>2</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4028,10 +4082,10 @@
         <v>3</v>
       </c>
       <c r="AY16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ16">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA16">
         <v>7</v>
@@ -4207,10 +4261,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4234,10 +4288,10 @@
         <v>10</v>
       </c>
       <c r="AY17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA17">
         <v>3</v>
@@ -4335,7 +4389,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4413,10 +4467,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4440,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="AY18">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA18">
         <v>8</v>
@@ -4541,7 +4595,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4619,10 +4673,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4646,10 +4700,10 @@
         <v>10</v>
       </c>
       <c r="AY19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ19">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BA19">
         <v>4</v>
@@ -4825,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -4852,10 +4906,10 @@
         <v>10</v>
       </c>
       <c r="AY20">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA20">
         <v>8</v>
@@ -5031,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5058,10 +5112,10 @@
         <v>3</v>
       </c>
       <c r="AY21">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA21">
         <v>5</v>
@@ -5159,7 +5213,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5237,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -5264,10 +5318,10 @@
         <v>5</v>
       </c>
       <c r="AY22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA22">
         <v>4</v>
@@ -5443,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -5470,10 +5524,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA23">
         <v>6</v>
@@ -5571,7 +5625,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5649,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -5676,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="AY24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ24">
         <v>9</v>
@@ -5777,7 +5831,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -5855,10 +5909,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -5882,10 +5936,10 @@
         <v>6</v>
       </c>
       <c r="AY25">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ25">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA25">
         <v>11</v>
@@ -6061,10 +6115,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR26">
         <v>3.42</v>
@@ -6088,10 +6142,10 @@
         <v>7</v>
       </c>
       <c r="AY26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ26">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -6267,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6294,10 +6348,10 @@
         <v>4</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ27">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA27">
         <v>5</v>
@@ -6395,7 +6449,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6473,10 +6527,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -6500,10 +6554,10 @@
         <v>5</v>
       </c>
       <c r="AY28">
+        <v>16</v>
+      </c>
+      <c r="AZ28">
         <v>11</v>
-      </c>
-      <c r="AZ28">
-        <v>8</v>
       </c>
       <c r="BA28">
         <v>3</v>
@@ -6679,10 +6733,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6706,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="AY29">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA29">
         <v>4</v>
@@ -6807,7 +6861,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6885,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>1.23</v>
@@ -6912,10 +6966,10 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7013,7 +7067,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7091,10 +7145,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7118,7 +7172,7 @@
         <v>4</v>
       </c>
       <c r="AY31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ31">
         <v>11</v>
@@ -7297,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7324,10 +7378,10 @@
         <v>6</v>
       </c>
       <c r="AY32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA32">
         <v>1</v>
@@ -7425,7 +7479,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>3.85</v>
@@ -7503,10 +7557,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -7530,10 +7584,10 @@
         <v>10</v>
       </c>
       <c r="AY33">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BA33">
         <v>5</v>
@@ -7631,7 +7685,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7709,10 +7763,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -7736,10 +7790,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ34">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA34">
         <v>7</v>
@@ -7837,7 +7891,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -7915,10 +7969,10 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -7942,10 +7996,10 @@
         <v>4</v>
       </c>
       <c r="AY35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA35">
         <v>3</v>
@@ -8043,7 +8097,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8121,10 +8175,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8148,10 +8202,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8200,6 +8254,2684 @@
       </c>
       <c r="BP36">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7467094</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45556.54166666666</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P37" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>2.3</v>
+      </c>
+      <c r="S37">
+        <v>2.5</v>
+      </c>
+      <c r="T37">
+        <v>1.33</v>
+      </c>
+      <c r="U37">
+        <v>3.25</v>
+      </c>
+      <c r="V37">
+        <v>2.63</v>
+      </c>
+      <c r="W37">
+        <v>1.44</v>
+      </c>
+      <c r="X37">
+        <v>6.5</v>
+      </c>
+      <c r="Y37">
+        <v>1.11</v>
+      </c>
+      <c r="Z37">
+        <v>3.6</v>
+      </c>
+      <c r="AA37">
+        <v>3.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.95</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>11</v>
+      </c>
+      <c r="AE37">
+        <v>1.22</v>
+      </c>
+      <c r="AF37">
+        <v>4</v>
+      </c>
+      <c r="AG37">
+        <v>1.7</v>
+      </c>
+      <c r="AH37">
+        <v>2.05</v>
+      </c>
+      <c r="AI37">
+        <v>1.67</v>
+      </c>
+      <c r="AJ37">
+        <v>2.1</v>
+      </c>
+      <c r="AK37">
+        <v>1.8</v>
+      </c>
+      <c r="AL37">
+        <v>1.22</v>
+      </c>
+      <c r="AM37">
+        <v>1.3</v>
+      </c>
+      <c r="AN37">
+        <v>1.33</v>
+      </c>
+      <c r="AO37">
+        <v>2</v>
+      </c>
+      <c r="AP37">
+        <v>1.25</v>
+      </c>
+      <c r="AQ37">
+        <v>1.75</v>
+      </c>
+      <c r="AR37">
+        <v>1.38</v>
+      </c>
+      <c r="AS37">
+        <v>1.52</v>
+      </c>
+      <c r="AT37">
+        <v>2.9</v>
+      </c>
+      <c r="AU37">
+        <v>9</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>7</v>
+      </c>
+      <c r="AX37">
+        <v>6</v>
+      </c>
+      <c r="AY37">
+        <v>19</v>
+      </c>
+      <c r="AZ37">
+        <v>19</v>
+      </c>
+      <c r="BA37">
+        <v>9</v>
+      </c>
+      <c r="BB37">
+        <v>4</v>
+      </c>
+      <c r="BC37">
+        <v>13</v>
+      </c>
+      <c r="BD37">
+        <v>2.47</v>
+      </c>
+      <c r="BE37">
+        <v>6.75</v>
+      </c>
+      <c r="BF37">
+        <v>1.85</v>
+      </c>
+      <c r="BG37">
+        <v>1.13</v>
+      </c>
+      <c r="BH37">
+        <v>4.25</v>
+      </c>
+      <c r="BI37">
+        <v>1.29</v>
+      </c>
+      <c r="BJ37">
+        <v>2.92</v>
+      </c>
+      <c r="BK37">
+        <v>1.61</v>
+      </c>
+      <c r="BL37">
+        <v>2.25</v>
+      </c>
+      <c r="BM37">
+        <v>2.01</v>
+      </c>
+      <c r="BN37">
+        <v>1.79</v>
+      </c>
+      <c r="BO37">
+        <v>2.51</v>
+      </c>
+      <c r="BP37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7467095</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45556.54166666666</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q38">
+        <v>2.4</v>
+      </c>
+      <c r="R38">
+        <v>2.5</v>
+      </c>
+      <c r="S38">
+        <v>3.75</v>
+      </c>
+      <c r="T38">
+        <v>1.25</v>
+      </c>
+      <c r="U38">
+        <v>3.75</v>
+      </c>
+      <c r="V38">
+        <v>2.2</v>
+      </c>
+      <c r="W38">
+        <v>1.62</v>
+      </c>
+      <c r="X38">
+        <v>5</v>
+      </c>
+      <c r="Y38">
+        <v>1.17</v>
+      </c>
+      <c r="Z38">
+        <v>1.87</v>
+      </c>
+      <c r="AA38">
+        <v>3.75</v>
+      </c>
+      <c r="AB38">
+        <v>3.6</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>13</v>
+      </c>
+      <c r="AE38">
+        <v>1.12</v>
+      </c>
+      <c r="AF38">
+        <v>5.1</v>
+      </c>
+      <c r="AG38">
+        <v>1.55</v>
+      </c>
+      <c r="AH38">
+        <v>2.3</v>
+      </c>
+      <c r="AI38">
+        <v>1.44</v>
+      </c>
+      <c r="AJ38">
+        <v>2.63</v>
+      </c>
+      <c r="AK38">
+        <v>1.22</v>
+      </c>
+      <c r="AL38">
+        <v>1.2</v>
+      </c>
+      <c r="AM38">
+        <v>1.87</v>
+      </c>
+      <c r="AN38">
+        <v>3</v>
+      </c>
+      <c r="AO38">
+        <v>1.67</v>
+      </c>
+      <c r="AP38">
+        <v>2.25</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1.76</v>
+      </c>
+      <c r="AS38">
+        <v>1.41</v>
+      </c>
+      <c r="AT38">
+        <v>3.17</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>8</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>14</v>
+      </c>
+      <c r="AZ38">
+        <v>14</v>
+      </c>
+      <c r="BA38">
+        <v>5</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>9</v>
+      </c>
+      <c r="BD38">
+        <v>1.65</v>
+      </c>
+      <c r="BE38">
+        <v>9</v>
+      </c>
+      <c r="BF38">
+        <v>2.45</v>
+      </c>
+      <c r="BG38">
+        <v>1.12</v>
+      </c>
+      <c r="BH38">
+        <v>5.6</v>
+      </c>
+      <c r="BI38">
+        <v>1.25</v>
+      </c>
+      <c r="BJ38">
+        <v>3.7</v>
+      </c>
+      <c r="BK38">
+        <v>1.39</v>
+      </c>
+      <c r="BL38">
+        <v>2.77</v>
+      </c>
+      <c r="BM38">
+        <v>2</v>
+      </c>
+      <c r="BN38">
+        <v>1.8</v>
+      </c>
+      <c r="BO38">
+        <v>2.13</v>
+      </c>
+      <c r="BP38">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7467096</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45556.64583333334</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>83</v>
+      </c>
+      <c r="P39" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q39">
+        <v>2.6</v>
+      </c>
+      <c r="R39">
+        <v>2.25</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>1.36</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>2.63</v>
+      </c>
+      <c r="W39">
+        <v>1.44</v>
+      </c>
+      <c r="X39">
+        <v>7</v>
+      </c>
+      <c r="Y39">
+        <v>1.1</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>3.4</v>
+      </c>
+      <c r="AB39">
+        <v>3.4</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>9.9</v>
+      </c>
+      <c r="AE39">
+        <v>1.25</v>
+      </c>
+      <c r="AF39">
+        <v>3.6</v>
+      </c>
+      <c r="AG39">
+        <v>1.8</v>
+      </c>
+      <c r="AH39">
+        <v>1.91</v>
+      </c>
+      <c r="AI39">
+        <v>1.67</v>
+      </c>
+      <c r="AJ39">
+        <v>2.1</v>
+      </c>
+      <c r="AK39">
+        <v>1.3</v>
+      </c>
+      <c r="AL39">
+        <v>1.22</v>
+      </c>
+      <c r="AM39">
+        <v>1.75</v>
+      </c>
+      <c r="AN39">
+        <v>1.5</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>1.75</v>
+      </c>
+      <c r="AR39">
+        <v>2.16</v>
+      </c>
+      <c r="AS39">
+        <v>1.85</v>
+      </c>
+      <c r="AT39">
+        <v>4.01</v>
+      </c>
+      <c r="AU39">
+        <v>2</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>4</v>
+      </c>
+      <c r="AY39">
+        <v>7</v>
+      </c>
+      <c r="AZ39">
+        <v>12</v>
+      </c>
+      <c r="BA39">
+        <v>4</v>
+      </c>
+      <c r="BB39">
+        <v>2</v>
+      </c>
+      <c r="BC39">
+        <v>6</v>
+      </c>
+      <c r="BD39">
+        <v>1.69</v>
+      </c>
+      <c r="BE39">
+        <v>6.85</v>
+      </c>
+      <c r="BF39">
+        <v>2.81</v>
+      </c>
+      <c r="BG39">
+        <v>1.16</v>
+      </c>
+      <c r="BH39">
+        <v>3.85</v>
+      </c>
+      <c r="BI39">
+        <v>1.35</v>
+      </c>
+      <c r="BJ39">
+        <v>2.65</v>
+      </c>
+      <c r="BK39">
+        <v>1.85</v>
+      </c>
+      <c r="BL39">
+        <v>1.95</v>
+      </c>
+      <c r="BM39">
+        <v>2.07</v>
+      </c>
+      <c r="BN39">
+        <v>1.74</v>
+      </c>
+      <c r="BO39">
+        <v>2.75</v>
+      </c>
+      <c r="BP39">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7467097</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45557.38541666666</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>114</v>
+      </c>
+      <c r="P40" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q40">
+        <v>2.2</v>
+      </c>
+      <c r="R40">
+        <v>2.4</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>1.3</v>
+      </c>
+      <c r="U40">
+        <v>3.4</v>
+      </c>
+      <c r="V40">
+        <v>2.5</v>
+      </c>
+      <c r="W40">
+        <v>1.5</v>
+      </c>
+      <c r="X40">
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>1.13</v>
+      </c>
+      <c r="Z40">
+        <v>1.65</v>
+      </c>
+      <c r="AA40">
+        <v>4.1</v>
+      </c>
+      <c r="AB40">
+        <v>4.6</v>
+      </c>
+      <c r="AC40">
+        <v>1.04</v>
+      </c>
+      <c r="AD40">
+        <v>16.25</v>
+      </c>
+      <c r="AE40">
+        <v>1.16</v>
+      </c>
+      <c r="AF40">
+        <v>4</v>
+      </c>
+      <c r="AG40">
+        <v>1.68</v>
+      </c>
+      <c r="AH40">
+        <v>2.07</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.17</v>
+      </c>
+      <c r="AL40">
+        <v>1.23</v>
+      </c>
+      <c r="AM40">
+        <v>2.3</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0.33</v>
+      </c>
+      <c r="AP40">
+        <v>1.5</v>
+      </c>
+      <c r="AQ40">
+        <v>0.25</v>
+      </c>
+      <c r="AR40">
+        <v>1.54</v>
+      </c>
+      <c r="AS40">
+        <v>1.2</v>
+      </c>
+      <c r="AT40">
+        <v>2.74</v>
+      </c>
+      <c r="AU40">
+        <v>7</v>
+      </c>
+      <c r="AV40">
+        <v>5</v>
+      </c>
+      <c r="AW40">
+        <v>11</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>21</v>
+      </c>
+      <c r="AZ40">
+        <v>12</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>2</v>
+      </c>
+      <c r="BC40">
+        <v>6</v>
+      </c>
+      <c r="BD40">
+        <v>1.33</v>
+      </c>
+      <c r="BE40">
+        <v>10</v>
+      </c>
+      <c r="BF40">
+        <v>3.6</v>
+      </c>
+      <c r="BG40">
+        <v>1.16</v>
+      </c>
+      <c r="BH40">
+        <v>4.7</v>
+      </c>
+      <c r="BI40">
+        <v>1.32</v>
+      </c>
+      <c r="BJ40">
+        <v>3.2</v>
+      </c>
+      <c r="BK40">
+        <v>1.55</v>
+      </c>
+      <c r="BL40">
+        <v>2.38</v>
+      </c>
+      <c r="BM40">
+        <v>1.92</v>
+      </c>
+      <c r="BN40">
+        <v>1.87</v>
+      </c>
+      <c r="BO40">
+        <v>2.41</v>
+      </c>
+      <c r="BP40">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7467098</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45557.47916666666</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q41">
+        <v>3.4</v>
+      </c>
+      <c r="R41">
+        <v>2.25</v>
+      </c>
+      <c r="S41">
+        <v>2.88</v>
+      </c>
+      <c r="T41">
+        <v>1.33</v>
+      </c>
+      <c r="U41">
+        <v>3.25</v>
+      </c>
+      <c r="V41">
+        <v>2.63</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>6.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.11</v>
+      </c>
+      <c r="Z41">
+        <v>2.85</v>
+      </c>
+      <c r="AA41">
+        <v>3.7</v>
+      </c>
+      <c r="AB41">
+        <v>2.2</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>11</v>
+      </c>
+      <c r="AE41">
+        <v>1.19</v>
+      </c>
+      <c r="AF41">
+        <v>3.72</v>
+      </c>
+      <c r="AG41">
+        <v>1.65</v>
+      </c>
+      <c r="AH41">
+        <v>2.12</v>
+      </c>
+      <c r="AI41">
+        <v>1.62</v>
+      </c>
+      <c r="AJ41">
+        <v>2.2</v>
+      </c>
+      <c r="AK41">
+        <v>1.58</v>
+      </c>
+      <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>1.43</v>
+      </c>
+      <c r="AN41">
+        <v>2.33</v>
+      </c>
+      <c r="AO41">
+        <v>3</v>
+      </c>
+      <c r="AP41">
+        <v>2</v>
+      </c>
+      <c r="AQ41">
+        <v>2.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.53</v>
+      </c>
+      <c r="AS41">
+        <v>1.37</v>
+      </c>
+      <c r="AT41">
+        <v>2.9</v>
+      </c>
+      <c r="AU41">
+        <v>2</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>10</v>
+      </c>
+      <c r="AY41">
+        <v>9</v>
+      </c>
+      <c r="AZ41">
+        <v>15</v>
+      </c>
+      <c r="BA41">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>6</v>
+      </c>
+      <c r="BC41">
+        <v>7</v>
+      </c>
+      <c r="BD41">
+        <v>1.95</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>2.05</v>
+      </c>
+      <c r="BG41">
+        <v>1.29</v>
+      </c>
+      <c r="BH41">
+        <v>3.4</v>
+      </c>
+      <c r="BI41">
+        <v>1.52</v>
+      </c>
+      <c r="BJ41">
+        <v>2.44</v>
+      </c>
+      <c r="BK41">
+        <v>1.9</v>
+      </c>
+      <c r="BL41">
+        <v>1.9</v>
+      </c>
+      <c r="BM41">
+        <v>2.36</v>
+      </c>
+      <c r="BN41">
+        <v>1.55</v>
+      </c>
+      <c r="BO41">
+        <v>3.1</v>
+      </c>
+      <c r="BP41">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7467099</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45557.47916666666</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42">
+        <v>4.33</v>
+      </c>
+      <c r="R42">
+        <v>2.5</v>
+      </c>
+      <c r="S42">
+        <v>2.25</v>
+      </c>
+      <c r="T42">
+        <v>1.29</v>
+      </c>
+      <c r="U42">
+        <v>3.5</v>
+      </c>
+      <c r="V42">
+        <v>2.25</v>
+      </c>
+      <c r="W42">
+        <v>1.57</v>
+      </c>
+      <c r="X42">
+        <v>5.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.14</v>
+      </c>
+      <c r="Z42">
+        <v>3.8</v>
+      </c>
+      <c r="AA42">
+        <v>3.9</v>
+      </c>
+      <c r="AB42">
+        <v>1.8</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>13</v>
+      </c>
+      <c r="AE42">
+        <v>1.18</v>
+      </c>
+      <c r="AF42">
+        <v>4.5</v>
+      </c>
+      <c r="AG42">
+        <v>1.65</v>
+      </c>
+      <c r="AH42">
+        <v>2.12</v>
+      </c>
+      <c r="AI42">
+        <v>1.57</v>
+      </c>
+      <c r="AJ42">
+        <v>2.25</v>
+      </c>
+      <c r="AK42">
+        <v>2.1</v>
+      </c>
+      <c r="AL42">
+        <v>1.18</v>
+      </c>
+      <c r="AM42">
+        <v>1.17</v>
+      </c>
+      <c r="AN42">
+        <v>1.33</v>
+      </c>
+      <c r="AO42">
+        <v>0.33</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.16</v>
+      </c>
+      <c r="AS42">
+        <v>1.82</v>
+      </c>
+      <c r="AT42">
+        <v>2.98</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>9</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>6</v>
+      </c>
+      <c r="AY42">
+        <v>13</v>
+      </c>
+      <c r="AZ42">
+        <v>19</v>
+      </c>
+      <c r="BA42">
+        <v>4</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
+        <v>9</v>
+      </c>
+      <c r="BD42">
+        <v>2.7</v>
+      </c>
+      <c r="BE42">
+        <v>9</v>
+      </c>
+      <c r="BF42">
+        <v>1.55</v>
+      </c>
+      <c r="BG42">
+        <v>1.13</v>
+      </c>
+      <c r="BH42">
+        <v>5.3</v>
+      </c>
+      <c r="BI42">
+        <v>1.27</v>
+      </c>
+      <c r="BJ42">
+        <v>3.6</v>
+      </c>
+      <c r="BK42">
+        <v>1.49</v>
+      </c>
+      <c r="BL42">
+        <v>2.54</v>
+      </c>
+      <c r="BM42">
+        <v>1.8</v>
+      </c>
+      <c r="BN42">
+        <v>2</v>
+      </c>
+      <c r="BO42">
+        <v>2.21</v>
+      </c>
+      <c r="BP42">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7467087</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45559.64583333334</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q43">
+        <v>2.45</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>3.6</v>
+      </c>
+      <c r="T43">
+        <v>1.25</v>
+      </c>
+      <c r="U43">
+        <v>3.55</v>
+      </c>
+      <c r="V43">
+        <v>2.1</v>
+      </c>
+      <c r="W43">
+        <v>1.65</v>
+      </c>
+      <c r="X43">
+        <v>4.33</v>
+      </c>
+      <c r="Y43">
+        <v>1.2</v>
+      </c>
+      <c r="Z43">
+        <v>2.14</v>
+      </c>
+      <c r="AA43">
+        <v>3.5</v>
+      </c>
+      <c r="AB43">
+        <v>2.9</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>17</v>
+      </c>
+      <c r="AE43">
+        <v>1.15</v>
+      </c>
+      <c r="AF43">
+        <v>5.25</v>
+      </c>
+      <c r="AG43">
+        <v>1.45</v>
+      </c>
+      <c r="AH43">
+        <v>2.55</v>
+      </c>
+      <c r="AI43">
+        <v>1.4</v>
+      </c>
+      <c r="AJ43">
+        <v>2.65</v>
+      </c>
+      <c r="AK43">
+        <v>1.3</v>
+      </c>
+      <c r="AL43">
+        <v>1.22</v>
+      </c>
+      <c r="AM43">
+        <v>1.77</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>2.33</v>
+      </c>
+      <c r="AP43">
+        <v>2.25</v>
+      </c>
+      <c r="AQ43">
+        <v>1.75</v>
+      </c>
+      <c r="AR43">
+        <v>1.61</v>
+      </c>
+      <c r="AS43">
+        <v>1.61</v>
+      </c>
+      <c r="AT43">
+        <v>3.22</v>
+      </c>
+      <c r="AU43">
+        <v>8</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>2</v>
+      </c>
+      <c r="AY43">
+        <v>13</v>
+      </c>
+      <c r="AZ43">
+        <v>6</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
+        <v>2</v>
+      </c>
+      <c r="BC43">
+        <v>5</v>
+      </c>
+      <c r="BD43">
+        <v>1.95</v>
+      </c>
+      <c r="BE43">
+        <v>6.75</v>
+      </c>
+      <c r="BF43">
+        <v>2.31</v>
+      </c>
+      <c r="BG43">
+        <v>1.1</v>
+      </c>
+      <c r="BH43">
+        <v>4.8</v>
+      </c>
+      <c r="BI43">
+        <v>1.24</v>
+      </c>
+      <c r="BJ43">
+        <v>3.22</v>
+      </c>
+      <c r="BK43">
+        <v>1.52</v>
+      </c>
+      <c r="BL43">
+        <v>2.44</v>
+      </c>
+      <c r="BM43">
+        <v>1.87</v>
+      </c>
+      <c r="BN43">
+        <v>1.92</v>
+      </c>
+      <c r="BO43">
+        <v>2.33</v>
+      </c>
+      <c r="BP43">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7467100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45563.54166666666</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>2.55</v>
+      </c>
+      <c r="S44">
+        <v>2.23</v>
+      </c>
+      <c r="T44">
+        <v>1.19</v>
+      </c>
+      <c r="U44">
+        <v>4.2</v>
+      </c>
+      <c r="V44">
+        <v>2.05</v>
+      </c>
+      <c r="W44">
+        <v>1.68</v>
+      </c>
+      <c r="X44">
+        <v>4.2</v>
+      </c>
+      <c r="Y44">
+        <v>1.2</v>
+      </c>
+      <c r="Z44">
+        <v>3.85</v>
+      </c>
+      <c r="AA44">
+        <v>4.17</v>
+      </c>
+      <c r="AB44">
+        <v>1.79</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>25</v>
+      </c>
+      <c r="AE44">
+        <v>1.11</v>
+      </c>
+      <c r="AF44">
+        <v>6.1</v>
+      </c>
+      <c r="AG44">
+        <v>1.39</v>
+      </c>
+      <c r="AH44">
+        <v>2.77</v>
+      </c>
+      <c r="AI44">
+        <v>1.38</v>
+      </c>
+      <c r="AJ44">
+        <v>2.85</v>
+      </c>
+      <c r="AK44">
+        <v>1.97</v>
+      </c>
+      <c r="AL44">
+        <v>1.21</v>
+      </c>
+      <c r="AM44">
+        <v>1.22</v>
+      </c>
+      <c r="AN44">
+        <v>1.33</v>
+      </c>
+      <c r="AO44">
+        <v>1.33</v>
+      </c>
+      <c r="AP44">
+        <v>1.75</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.17</v>
+      </c>
+      <c r="AS44">
+        <v>1.6</v>
+      </c>
+      <c r="AT44">
+        <v>2.77</v>
+      </c>
+      <c r="AU44">
+        <v>2</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
+      <c r="AX44">
+        <v>5</v>
+      </c>
+      <c r="AY44">
+        <v>7</v>
+      </c>
+      <c r="AZ44">
+        <v>19</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>9</v>
+      </c>
+      <c r="BC44">
+        <v>11</v>
+      </c>
+      <c r="BD44">
+        <v>2.66</v>
+      </c>
+      <c r="BE44">
+        <v>8.5</v>
+      </c>
+      <c r="BF44">
+        <v>1.64</v>
+      </c>
+      <c r="BG44">
+        <v>1.09</v>
+      </c>
+      <c r="BH44">
+        <v>4.95</v>
+      </c>
+      <c r="BI44">
+        <v>1.31</v>
+      </c>
+      <c r="BJ44">
+        <v>3.1</v>
+      </c>
+      <c r="BK44">
+        <v>1.49</v>
+      </c>
+      <c r="BL44">
+        <v>2.53</v>
+      </c>
+      <c r="BM44">
+        <v>1.82</v>
+      </c>
+      <c r="BN44">
+        <v>1.98</v>
+      </c>
+      <c r="BO44">
+        <v>2.22</v>
+      </c>
+      <c r="BP44">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7467102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45563.54166666666</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q45">
+        <v>2.43</v>
+      </c>
+      <c r="R45">
+        <v>2.44</v>
+      </c>
+      <c r="S45">
+        <v>4.15</v>
+      </c>
+      <c r="T45">
+        <v>1.3</v>
+      </c>
+      <c r="U45">
+        <v>3.2</v>
+      </c>
+      <c r="V45">
+        <v>2.45</v>
+      </c>
+      <c r="W45">
+        <v>1.54</v>
+      </c>
+      <c r="X45">
+        <v>5.55</v>
+      </c>
+      <c r="Y45">
+        <v>1.13</v>
+      </c>
+      <c r="Z45">
+        <v>1.84</v>
+      </c>
+      <c r="AA45">
+        <v>3.93</v>
+      </c>
+      <c r="AB45">
+        <v>3.8</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45">
+        <v>1.2</v>
+      </c>
+      <c r="AF45">
+        <v>4.33</v>
+      </c>
+      <c r="AG45">
+        <v>1.54</v>
+      </c>
+      <c r="AH45">
+        <v>2.31</v>
+      </c>
+      <c r="AI45">
+        <v>1.53</v>
+      </c>
+      <c r="AJ45">
+        <v>2.3</v>
+      </c>
+      <c r="AK45">
+        <v>1.25</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>1.9</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>0.33</v>
+      </c>
+      <c r="AP45">
+        <v>2.25</v>
+      </c>
+      <c r="AQ45">
+        <v>0.25</v>
+      </c>
+      <c r="AR45">
+        <v>2.03</v>
+      </c>
+      <c r="AS45">
+        <v>1.48</v>
+      </c>
+      <c r="AT45">
+        <v>3.51</v>
+      </c>
+      <c r="AU45">
+        <v>7</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>16</v>
+      </c>
+      <c r="AZ45">
+        <v>10</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>9</v>
+      </c>
+      <c r="BD45">
+        <v>1.51</v>
+      </c>
+      <c r="BE45">
+        <v>8.5</v>
+      </c>
+      <c r="BF45">
+        <v>3.07</v>
+      </c>
+      <c r="BG45">
+        <v>1.17</v>
+      </c>
+      <c r="BH45">
+        <v>4.5</v>
+      </c>
+      <c r="BI45">
+        <v>1.28</v>
+      </c>
+      <c r="BJ45">
+        <v>3.35</v>
+      </c>
+      <c r="BK45">
+        <v>1.57</v>
+      </c>
+      <c r="BL45">
+        <v>2.33</v>
+      </c>
+      <c r="BM45">
+        <v>1.9</v>
+      </c>
+      <c r="BN45">
+        <v>1.9</v>
+      </c>
+      <c r="BO45">
+        <v>2.43</v>
+      </c>
+      <c r="BP45">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7467103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45563.64583333334</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>83</v>
+      </c>
+      <c r="P46" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q46">
+        <v>1.95</v>
+      </c>
+      <c r="R46">
+        <v>2.45</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.25</v>
+      </c>
+      <c r="U46">
+        <v>3.5</v>
+      </c>
+      <c r="V46">
+        <v>2.25</v>
+      </c>
+      <c r="W46">
+        <v>1.57</v>
+      </c>
+      <c r="X46">
+        <v>5.05</v>
+      </c>
+      <c r="Y46">
+        <v>1.15</v>
+      </c>
+      <c r="Z46">
+        <v>1.55</v>
+      </c>
+      <c r="AA46">
+        <v>4.3</v>
+      </c>
+      <c r="AB46">
+        <v>4.75</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>20</v>
+      </c>
+      <c r="AE46">
+        <v>1.17</v>
+      </c>
+      <c r="AF46">
+        <v>5</v>
+      </c>
+      <c r="AG46">
+        <v>1.48</v>
+      </c>
+      <c r="AH46">
+        <v>2.47</v>
+      </c>
+      <c r="AI46">
+        <v>1.57</v>
+      </c>
+      <c r="AJ46">
+        <v>2.2</v>
+      </c>
+      <c r="AK46">
+        <v>1.14</v>
+      </c>
+      <c r="AL46">
+        <v>1.15</v>
+      </c>
+      <c r="AM46">
+        <v>2.45</v>
+      </c>
+      <c r="AN46">
+        <v>0.67</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0.5</v>
+      </c>
+      <c r="AQ46">
+        <v>0.75</v>
+      </c>
+      <c r="AR46">
+        <v>1.42</v>
+      </c>
+      <c r="AS46">
+        <v>1.21</v>
+      </c>
+      <c r="AT46">
+        <v>2.63</v>
+      </c>
+      <c r="AU46">
+        <v>5</v>
+      </c>
+      <c r="AV46">
+        <v>7</v>
+      </c>
+      <c r="AW46">
+        <v>11</v>
+      </c>
+      <c r="AX46">
+        <v>4</v>
+      </c>
+      <c r="AY46">
+        <v>22</v>
+      </c>
+      <c r="AZ46">
+        <v>13</v>
+      </c>
+      <c r="BA46">
+        <v>6</v>
+      </c>
+      <c r="BB46">
+        <v>5</v>
+      </c>
+      <c r="BC46">
+        <v>11</v>
+      </c>
+      <c r="BD46">
+        <v>1.55</v>
+      </c>
+      <c r="BE46">
+        <v>8.5</v>
+      </c>
+      <c r="BF46">
+        <v>2.91</v>
+      </c>
+      <c r="BG46">
+        <v>1.07</v>
+      </c>
+      <c r="BH46">
+        <v>5.5</v>
+      </c>
+      <c r="BI46">
+        <v>1.18</v>
+      </c>
+      <c r="BJ46">
+        <v>3.7</v>
+      </c>
+      <c r="BK46">
+        <v>1.38</v>
+      </c>
+      <c r="BL46">
+        <v>2.71</v>
+      </c>
+      <c r="BM46">
+        <v>2</v>
+      </c>
+      <c r="BN46">
+        <v>1.8</v>
+      </c>
+      <c r="BO46">
+        <v>2.17</v>
+      </c>
+      <c r="BP46">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7467104</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45564.38541666666</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>119</v>
+      </c>
+      <c r="P47" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q47">
+        <v>2.43</v>
+      </c>
+      <c r="R47">
+        <v>2.28</v>
+      </c>
+      <c r="S47">
+        <v>4.1</v>
+      </c>
+      <c r="T47">
+        <v>1.28</v>
+      </c>
+      <c r="U47">
+        <v>3.3</v>
+      </c>
+      <c r="V47">
+        <v>2.55</v>
+      </c>
+      <c r="W47">
+        <v>1.46</v>
+      </c>
+      <c r="X47">
+        <v>5.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.11</v>
+      </c>
+      <c r="Z47">
+        <v>1.95</v>
+      </c>
+      <c r="AA47">
+        <v>3.3</v>
+      </c>
+      <c r="AB47">
+        <v>3.3</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>12.5</v>
+      </c>
+      <c r="AE47">
+        <v>1.16</v>
+      </c>
+      <c r="AF47">
+        <v>3.95</v>
+      </c>
+      <c r="AG47">
+        <v>1.67</v>
+      </c>
+      <c r="AH47">
+        <v>2</v>
+      </c>
+      <c r="AI47">
+        <v>1.6</v>
+      </c>
+      <c r="AJ47">
+        <v>2.23</v>
+      </c>
+      <c r="AK47">
+        <v>1.21</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>2.11</v>
+      </c>
+      <c r="AN47">
+        <v>2.33</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>2.5</v>
+      </c>
+      <c r="AQ47">
+        <v>0.75</v>
+      </c>
+      <c r="AR47">
+        <v>1.94</v>
+      </c>
+      <c r="AS47">
+        <v>1.34</v>
+      </c>
+      <c r="AT47">
+        <v>3.28</v>
+      </c>
+      <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>3</v>
+      </c>
+      <c r="AX47">
+        <v>9</v>
+      </c>
+      <c r="AY47">
+        <v>10</v>
+      </c>
+      <c r="AZ47">
+        <v>17</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>10</v>
+      </c>
+      <c r="BC47">
+        <v>14</v>
+      </c>
+      <c r="BD47">
+        <v>1.64</v>
+      </c>
+      <c r="BE47">
+        <v>8.5</v>
+      </c>
+      <c r="BF47">
+        <v>2.64</v>
+      </c>
+      <c r="BG47">
+        <v>1.19</v>
+      </c>
+      <c r="BH47">
+        <v>3.62</v>
+      </c>
+      <c r="BI47">
+        <v>1.45</v>
+      </c>
+      <c r="BJ47">
+        <v>2.55</v>
+      </c>
+      <c r="BK47">
+        <v>1.72</v>
+      </c>
+      <c r="BL47">
+        <v>2</v>
+      </c>
+      <c r="BM47">
+        <v>2.1</v>
+      </c>
+      <c r="BN47">
+        <v>1.65</v>
+      </c>
+      <c r="BO47">
+        <v>2.8</v>
+      </c>
+      <c r="BP47">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7467105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>120</v>
+      </c>
+      <c r="P48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>2.3</v>
+      </c>
+      <c r="S48">
+        <v>3.25</v>
+      </c>
+      <c r="T48">
+        <v>1.3</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>2.4</v>
+      </c>
+      <c r="W48">
+        <v>1.5</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.11</v>
+      </c>
+      <c r="Z48">
+        <v>2.4</v>
+      </c>
+      <c r="AA48">
+        <v>3.5</v>
+      </c>
+      <c r="AB48">
+        <v>2.4</v>
+      </c>
+      <c r="AC48">
+        <v>1.04</v>
+      </c>
+      <c r="AD48">
+        <v>10</v>
+      </c>
+      <c r="AE48">
+        <v>1.22</v>
+      </c>
+      <c r="AF48">
+        <v>4.2</v>
+      </c>
+      <c r="AG48">
+        <v>1.55</v>
+      </c>
+      <c r="AH48">
+        <v>2.2</v>
+      </c>
+      <c r="AI48">
+        <v>1.53</v>
+      </c>
+      <c r="AJ48">
+        <v>2.38</v>
+      </c>
+      <c r="AK48">
+        <v>1.42</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.55</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>1.75</v>
+      </c>
+      <c r="AP48">
+        <v>2.25</v>
+      </c>
+      <c r="AQ48">
+        <v>1.4</v>
+      </c>
+      <c r="AR48">
+        <v>1.38</v>
+      </c>
+      <c r="AS48">
+        <v>1.58</v>
+      </c>
+      <c r="AT48">
+        <v>2.96</v>
+      </c>
+      <c r="AU48">
+        <v>11</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>10</v>
+      </c>
+      <c r="AX48">
+        <v>10</v>
+      </c>
+      <c r="AY48">
+        <v>29</v>
+      </c>
+      <c r="AZ48">
+        <v>13</v>
+      </c>
+      <c r="BA48">
+        <v>14</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>16</v>
+      </c>
+      <c r="BD48">
+        <v>1.64</v>
+      </c>
+      <c r="BE48">
+        <v>8.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.64</v>
+      </c>
+      <c r="BG48">
+        <v>1.11</v>
+      </c>
+      <c r="BH48">
+        <v>4.55</v>
+      </c>
+      <c r="BI48">
+        <v>1.26</v>
+      </c>
+      <c r="BJ48">
+        <v>3.08</v>
+      </c>
+      <c r="BK48">
+        <v>1.55</v>
+      </c>
+      <c r="BL48">
+        <v>2.37</v>
+      </c>
+      <c r="BM48">
+        <v>1.95</v>
+      </c>
+      <c r="BN48">
+        <v>1.85</v>
+      </c>
+      <c r="BO48">
+        <v>2.39</v>
+      </c>
+      <c r="BP48">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7467101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45564.47916666666</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q49">
+        <v>2.05</v>
+      </c>
+      <c r="R49">
+        <v>2.5</v>
+      </c>
+      <c r="S49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>1.28</v>
+      </c>
+      <c r="U49">
+        <v>3.4</v>
+      </c>
+      <c r="V49">
+        <v>2.25</v>
+      </c>
+      <c r="W49">
+        <v>1.57</v>
+      </c>
+      <c r="X49">
+        <v>5.5</v>
+      </c>
+      <c r="Y49">
+        <v>1.14</v>
+      </c>
+      <c r="Z49">
+        <v>1.53</v>
+      </c>
+      <c r="AA49">
+        <v>4.2</v>
+      </c>
+      <c r="AB49">
+        <v>4.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>19.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.18</v>
+      </c>
+      <c r="AF49">
+        <v>4.93</v>
+      </c>
+      <c r="AG49">
+        <v>1.45</v>
+      </c>
+      <c r="AH49">
+        <v>2.55</v>
+      </c>
+      <c r="AI49">
+        <v>1.62</v>
+      </c>
+      <c r="AJ49">
+        <v>2.2</v>
+      </c>
+      <c r="AK49">
+        <v>1.16</v>
+      </c>
+      <c r="AL49">
+        <v>1.2</v>
+      </c>
+      <c r="AM49">
+        <v>2.42</v>
+      </c>
+      <c r="AN49">
+        <v>1.75</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>1.86</v>
+      </c>
+      <c r="AS49">
+        <v>1.03</v>
+      </c>
+      <c r="AT49">
+        <v>2.89</v>
+      </c>
+      <c r="AU49">
+        <v>8</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>8</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>24</v>
+      </c>
+      <c r="AZ49">
+        <v>8</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>6</v>
+      </c>
+      <c r="BD49">
+        <v>1.41</v>
+      </c>
+      <c r="BE49">
+        <v>8.5</v>
+      </c>
+      <c r="BF49">
+        <v>3.5</v>
+      </c>
+      <c r="BG49">
+        <v>1.27</v>
+      </c>
+      <c r="BH49">
+        <v>3.4</v>
+      </c>
+      <c r="BI49">
+        <v>1.5</v>
+      </c>
+      <c r="BJ49">
+        <v>2.5</v>
+      </c>
+      <c r="BK49">
+        <v>1.88</v>
+      </c>
+      <c r="BL49">
+        <v>1.92</v>
+      </c>
+      <c r="BM49">
+        <v>2.29</v>
+      </c>
+      <c r="BN49">
+        <v>1.59</v>
+      </c>
+      <c r="BO49">
+        <v>2.9</v>
+      </c>
+      <c r="BP49">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,15 @@
     <t>['73', '81']</t>
   </si>
   <si>
+    <t>['30', '80']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -473,6 +482,12 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['8', '18']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1108,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1174,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1299,7 +1314,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1583,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1711,7 +1726,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1917,7 +1932,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2123,7 +2138,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2201,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2329,7 +2344,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2613,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2741,7 +2756,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2947,7 +2962,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3153,7 +3168,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3234,7 +3249,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3565,7 +3580,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3771,7 +3786,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3977,7 +3992,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4261,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>0.75</v>
@@ -4389,7 +4404,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4595,7 +4610,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4879,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5085,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5213,7 +5228,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5500,7 +5515,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -5625,7 +5640,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5831,7 +5846,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6118,7 +6133,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR26">
         <v>3.42</v>
@@ -6321,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6449,7 +6464,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6736,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6861,7 +6876,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6942,7 +6957,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>1.23</v>
@@ -7067,7 +7082,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7145,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>1.4</v>
@@ -7354,7 +7369,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7479,7 +7494,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>3.85</v>
@@ -7557,7 +7572,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -7685,7 +7700,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7891,7 +7906,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -8097,7 +8112,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8303,7 +8318,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8509,7 +8524,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8715,7 +8730,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8921,7 +8936,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9002,7 +9017,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR40">
         <v>1.54</v>
@@ -9205,7 +9220,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41">
         <v>2.33</v>
@@ -9333,7 +9348,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9411,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9539,7 +9554,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10032,7 +10047,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR45">
         <v>2.03</v>
@@ -10157,7 +10172,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10238,7 +10253,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR46">
         <v>1.42</v>
@@ -10647,7 +10662,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.4</v>
@@ -10775,7 +10790,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -10932,6 +10947,624 @@
       </c>
       <c r="BP49">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7467106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45570.54166666666</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q50">
+        <v>2.64</v>
+      </c>
+      <c r="R50">
+        <v>2.53</v>
+      </c>
+      <c r="S50">
+        <v>3.5</v>
+      </c>
+      <c r="T50">
+        <v>1.25</v>
+      </c>
+      <c r="U50">
+        <v>3.45</v>
+      </c>
+      <c r="V50">
+        <v>2.23</v>
+      </c>
+      <c r="W50">
+        <v>1.64</v>
+      </c>
+      <c r="X50">
+        <v>4.85</v>
+      </c>
+      <c r="Y50">
+        <v>1.16</v>
+      </c>
+      <c r="Z50">
+        <v>2.1</v>
+      </c>
+      <c r="AA50">
+        <v>3.8</v>
+      </c>
+      <c r="AB50">
+        <v>2.8</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>13</v>
+      </c>
+      <c r="AE50">
+        <v>1.17</v>
+      </c>
+      <c r="AF50">
+        <v>5</v>
+      </c>
+      <c r="AG50">
+        <v>1.47</v>
+      </c>
+      <c r="AH50">
+        <v>2.5</v>
+      </c>
+      <c r="AI50">
+        <v>1.42</v>
+      </c>
+      <c r="AJ50">
+        <v>2.6</v>
+      </c>
+      <c r="AK50">
+        <v>1.38</v>
+      </c>
+      <c r="AL50">
+        <v>1.22</v>
+      </c>
+      <c r="AM50">
+        <v>1.65</v>
+      </c>
+      <c r="AN50">
+        <v>2.25</v>
+      </c>
+      <c r="AO50">
+        <v>0.25</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>0.4</v>
+      </c>
+      <c r="AR50">
+        <v>1.66</v>
+      </c>
+      <c r="AS50">
+        <v>1.33</v>
+      </c>
+      <c r="AT50">
+        <v>2.99</v>
+      </c>
+      <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AV50">
+        <v>8</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>6</v>
+      </c>
+      <c r="AY50">
+        <v>13</v>
+      </c>
+      <c r="AZ50">
+        <v>18</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>6</v>
+      </c>
+      <c r="BC50">
+        <v>12</v>
+      </c>
+      <c r="BD50">
+        <v>1.82</v>
+      </c>
+      <c r="BE50">
+        <v>8</v>
+      </c>
+      <c r="BF50">
+        <v>2.33</v>
+      </c>
+      <c r="BG50">
+        <v>1.14</v>
+      </c>
+      <c r="BH50">
+        <v>4.9</v>
+      </c>
+      <c r="BI50">
+        <v>1.28</v>
+      </c>
+      <c r="BJ50">
+        <v>3.3</v>
+      </c>
+      <c r="BK50">
+        <v>1.5</v>
+      </c>
+      <c r="BL50">
+        <v>2.51</v>
+      </c>
+      <c r="BM50">
+        <v>1.8</v>
+      </c>
+      <c r="BN50">
+        <v>2</v>
+      </c>
+      <c r="BO50">
+        <v>2.27</v>
+      </c>
+      <c r="BP50">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7467107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45570.54166666666</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>123</v>
+      </c>
+      <c r="P51" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q51">
+        <v>2.09</v>
+      </c>
+      <c r="R51">
+        <v>2.49</v>
+      </c>
+      <c r="S51">
+        <v>5.43</v>
+      </c>
+      <c r="T51">
+        <v>1.33</v>
+      </c>
+      <c r="U51">
+        <v>3.1</v>
+      </c>
+      <c r="V51">
+        <v>2.51</v>
+      </c>
+      <c r="W51">
+        <v>1.52</v>
+      </c>
+      <c r="X51">
+        <v>5.8</v>
+      </c>
+      <c r="Y51">
+        <v>1.12</v>
+      </c>
+      <c r="Z51">
+        <v>1.55</v>
+      </c>
+      <c r="AA51">
+        <v>4</v>
+      </c>
+      <c r="AB51">
+        <v>4.8</v>
+      </c>
+      <c r="AC51">
+        <v>1.01</v>
+      </c>
+      <c r="AD51">
+        <v>11</v>
+      </c>
+      <c r="AE51">
+        <v>1.17</v>
+      </c>
+      <c r="AF51">
+        <v>4.5</v>
+      </c>
+      <c r="AG51">
+        <v>1.61</v>
+      </c>
+      <c r="AH51">
+        <v>2.23</v>
+      </c>
+      <c r="AI51">
+        <v>1.67</v>
+      </c>
+      <c r="AJ51">
+        <v>2.15</v>
+      </c>
+      <c r="AK51">
+        <v>1.14</v>
+      </c>
+      <c r="AL51">
+        <v>1.2</v>
+      </c>
+      <c r="AM51">
+        <v>2.3</v>
+      </c>
+      <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>0.25</v>
+      </c>
+      <c r="AP51">
+        <v>1.8</v>
+      </c>
+      <c r="AQ51">
+        <v>0.4</v>
+      </c>
+      <c r="AR51">
+        <v>1.38</v>
+      </c>
+      <c r="AS51">
+        <v>1.23</v>
+      </c>
+      <c r="AT51">
+        <v>2.61</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>9</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>22</v>
+      </c>
+      <c r="AZ51">
+        <v>5</v>
+      </c>
+      <c r="BA51">
+        <v>15</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>17</v>
+      </c>
+      <c r="BD51">
+        <v>1.34</v>
+      </c>
+      <c r="BE51">
+        <v>9.5</v>
+      </c>
+      <c r="BF51">
+        <v>3.86</v>
+      </c>
+      <c r="BG51">
+        <v>1.24</v>
+      </c>
+      <c r="BH51">
+        <v>3.6</v>
+      </c>
+      <c r="BI51">
+        <v>1.44</v>
+      </c>
+      <c r="BJ51">
+        <v>2.6</v>
+      </c>
+      <c r="BK51">
+        <v>1.73</v>
+      </c>
+      <c r="BL51">
+        <v>2</v>
+      </c>
+      <c r="BM51">
+        <v>2.16</v>
+      </c>
+      <c r="BN51">
+        <v>1.62</v>
+      </c>
+      <c r="BO51">
+        <v>2.75</v>
+      </c>
+      <c r="BP51">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7467108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45570.64583333334</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>124</v>
+      </c>
+      <c r="P52" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q52">
+        <v>3.63</v>
+      </c>
+      <c r="R52">
+        <v>2.33</v>
+      </c>
+      <c r="S52">
+        <v>2.81</v>
+      </c>
+      <c r="T52">
+        <v>1.33</v>
+      </c>
+      <c r="U52">
+        <v>3.3</v>
+      </c>
+      <c r="V52">
+        <v>2.63</v>
+      </c>
+      <c r="W52">
+        <v>1.48</v>
+      </c>
+      <c r="X52">
+        <v>6.25</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>2.81</v>
+      </c>
+      <c r="AA52">
+        <v>3.48</v>
+      </c>
+      <c r="AB52">
+        <v>2.4</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.2</v>
+      </c>
+      <c r="AF52">
+        <v>4</v>
+      </c>
+      <c r="AG52">
+        <v>1.64</v>
+      </c>
+      <c r="AH52">
+        <v>2.13</v>
+      </c>
+      <c r="AI52">
+        <v>1.6</v>
+      </c>
+      <c r="AJ52">
+        <v>2.3</v>
+      </c>
+      <c r="AK52">
+        <v>1.6</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.38</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
+        <v>0.75</v>
+      </c>
+      <c r="AP52">
+        <v>1.4</v>
+      </c>
+      <c r="AQ52">
+        <v>0.6</v>
+      </c>
+      <c r="AR52">
+        <v>1.22</v>
+      </c>
+      <c r="AS52">
+        <v>1.27</v>
+      </c>
+      <c r="AT52">
+        <v>2.49</v>
+      </c>
+      <c r="AU52">
+        <v>7</v>
+      </c>
+      <c r="AV52">
+        <v>7</v>
+      </c>
+      <c r="AW52">
+        <v>3</v>
+      </c>
+      <c r="AX52">
+        <v>10</v>
+      </c>
+      <c r="AY52">
+        <v>16</v>
+      </c>
+      <c r="AZ52">
+        <v>19</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>5</v>
+      </c>
+      <c r="BC52">
+        <v>9</v>
+      </c>
+      <c r="BD52">
+        <v>2.78</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>1.59</v>
+      </c>
+      <c r="BG52">
+        <v>1.18</v>
+      </c>
+      <c r="BH52">
+        <v>4.2</v>
+      </c>
+      <c r="BI52">
+        <v>1.35</v>
+      </c>
+      <c r="BJ52">
+        <v>2.9</v>
+      </c>
+      <c r="BK52">
+        <v>1.63</v>
+      </c>
+      <c r="BL52">
+        <v>2.23</v>
+      </c>
+      <c r="BM52">
+        <v>2</v>
+      </c>
+      <c r="BN52">
+        <v>1.78</v>
+      </c>
+      <c r="BO52">
+        <v>2.53</v>
+      </c>
+      <c r="BP52">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,13 +382,22 @@
     <t>['73', '81']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['30', '80']</t>
   </si>
   <si>
     <t>['81']</t>
   </si>
   <si>
-    <t>['87']</t>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -451,9 +460,6 @@
     <t>['5']</t>
   </si>
   <si>
-    <t>['21']</t>
-  </si>
-  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -488,6 +494,9 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1117,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1314,7 +1323,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1726,7 +1735,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1932,7 +1941,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2138,7 +2147,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2219,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2344,7 +2353,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2425,7 +2434,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2756,7 +2765,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2962,7 +2971,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3040,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3168,7 +3177,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3452,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3580,7 +3589,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3658,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3786,7 +3795,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3992,7 +4001,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4073,7 +4082,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4404,7 +4413,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4610,7 +4619,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5228,7 +5237,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5309,7 +5318,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -5512,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>0.6</v>
@@ -5640,7 +5649,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5846,7 +5855,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6130,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26">
         <v>0.4</v>
@@ -6464,7 +6473,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6748,7 +6757,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0.4</v>
@@ -6876,7 +6885,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7082,7 +7091,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7494,7 +7503,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="Q33">
         <v>3.85</v>
@@ -7575,7 +7584,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -7700,7 +7709,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7906,7 +7915,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="Q35">
         <v>2.4</v>
@@ -7984,7 +7993,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8112,7 +8121,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8193,7 +8202,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8318,7 +8327,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8399,7 +8408,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR37">
         <v>1.38</v>
@@ -8524,7 +8533,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8602,7 +8611,7 @@
         <v>1.67</v>
       </c>
       <c r="AP38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8730,7 +8739,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8808,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -8936,7 +8945,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9223,7 +9232,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9348,7 +9357,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9429,7 +9438,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>1.16</v>
@@ -9554,7 +9563,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9632,7 +9641,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.75</v>
@@ -10172,7 +10181,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10456,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
         <v>0.75</v>
@@ -10790,7 +10799,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -10954,7 +10963,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7467106</v>
+        <v>7467108</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10963,196 +10972,196 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45570.54166666666</v>
+        <v>45569.875</v>
       </c>
       <c r="F50">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O50" t="s">
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="Q50">
-        <v>2.64</v>
+        <v>3.63</v>
       </c>
       <c r="R50">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="S50">
-        <v>3.5</v>
+        <v>2.81</v>
       </c>
       <c r="T50">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U50">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="V50">
-        <v>2.23</v>
+        <v>2.63</v>
       </c>
       <c r="W50">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="X50">
-        <v>4.85</v>
+        <v>6.25</v>
       </c>
       <c r="Y50">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>2.1</v>
+        <v>2.81</v>
       </c>
       <c r="AA50">
-        <v>3.8</v>
+        <v>3.48</v>
       </c>
       <c r="AB50">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC50">
         <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE50">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF50">
+        <v>4</v>
+      </c>
+      <c r="AG50">
+        <v>1.64</v>
+      </c>
+      <c r="AH50">
+        <v>2.13</v>
+      </c>
+      <c r="AI50">
+        <v>1.6</v>
+      </c>
+      <c r="AJ50">
+        <v>2.3</v>
+      </c>
+      <c r="AK50">
+        <v>1.6</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.38</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>0.75</v>
+      </c>
+      <c r="AP50">
+        <v>1.4</v>
+      </c>
+      <c r="AQ50">
+        <v>0.6</v>
+      </c>
+      <c r="AR50">
+        <v>1.22</v>
+      </c>
+      <c r="AS50">
+        <v>1.27</v>
+      </c>
+      <c r="AT50">
+        <v>2.49</v>
+      </c>
+      <c r="AU50">
         <v>5</v>
       </c>
-      <c r="AG50">
-        <v>1.47</v>
-      </c>
-      <c r="AH50">
-        <v>2.5</v>
-      </c>
-      <c r="AI50">
-        <v>1.42</v>
-      </c>
-      <c r="AJ50">
-        <v>2.6</v>
-      </c>
-      <c r="AK50">
-        <v>1.38</v>
-      </c>
-      <c r="AL50">
-        <v>1.22</v>
-      </c>
-      <c r="AM50">
-        <v>1.65</v>
-      </c>
-      <c r="AN50">
-        <v>2.25</v>
-      </c>
-      <c r="AO50">
-        <v>0.25</v>
-      </c>
-      <c r="AP50">
-        <v>2</v>
-      </c>
-      <c r="AQ50">
-        <v>0.4</v>
-      </c>
-      <c r="AR50">
-        <v>1.66</v>
-      </c>
-      <c r="AS50">
-        <v>1.33</v>
-      </c>
-      <c r="AT50">
-        <v>2.99</v>
-      </c>
-      <c r="AU50">
+      <c r="AV50">
+        <v>7</v>
+      </c>
+      <c r="AW50">
+        <v>2</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>7</v>
+      </c>
+      <c r="AZ50">
+        <v>12</v>
+      </c>
+      <c r="BA50">
         <v>4</v>
       </c>
-      <c r="AV50">
-        <v>8</v>
-      </c>
-      <c r="AW50">
-        <v>3</v>
-      </c>
-      <c r="AX50">
-        <v>6</v>
-      </c>
-      <c r="AY50">
-        <v>13</v>
-      </c>
-      <c r="AZ50">
-        <v>18</v>
-      </c>
-      <c r="BA50">
-        <v>6</v>
-      </c>
       <c r="BB50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD50">
-        <v>1.82</v>
+        <v>2.78</v>
       </c>
       <c r="BE50">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF50">
-        <v>2.33</v>
+        <v>1.59</v>
       </c>
       <c r="BG50">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="BH50">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="BI50">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BJ50">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BK50">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="BL50">
-        <v>2.51</v>
+        <v>2.23</v>
       </c>
       <c r="BM50">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BN50">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="BO50">
-        <v>2.27</v>
+        <v>2.53</v>
       </c>
       <c r="BP50">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11160,7 +11169,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7467107</v>
+        <v>7467106</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11175,190 +11184,190 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O51" t="s">
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q51">
-        <v>2.09</v>
+        <v>2.64</v>
       </c>
       <c r="R51">
-        <v>2.49</v>
+        <v>2.53</v>
       </c>
       <c r="S51">
-        <v>5.43</v>
+        <v>3.5</v>
       </c>
       <c r="T51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U51">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="V51">
-        <v>2.51</v>
+        <v>2.23</v>
       </c>
       <c r="W51">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="X51">
-        <v>5.8</v>
+        <v>4.85</v>
       </c>
       <c r="Y51">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z51">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AA51">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB51">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="AC51">
         <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE51">
         <v>1.17</v>
       </c>
       <c r="AF51">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AG51">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AH51">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="AI51">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AJ51">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="AK51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AL51">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM51">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO51">
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.4</v>
       </c>
       <c r="AR51">
-        <v>1.38</v>
+        <v>1.66</v>
       </c>
       <c r="AS51">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AT51">
-        <v>2.61</v>
+        <v>2.99</v>
       </c>
       <c r="AU51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV51">
+        <v>8</v>
+      </c>
+      <c r="AW51">
         <v>3</v>
       </c>
-      <c r="AW51">
-        <v>9</v>
-      </c>
       <c r="AX51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AY51">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AZ51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="BA51">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BB51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC51">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BD51">
-        <v>1.34</v>
+        <v>1.82</v>
       </c>
       <c r="BE51">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF51">
-        <v>3.86</v>
+        <v>2.33</v>
       </c>
       <c r="BG51">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="BH51">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="BI51">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="BJ51">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="BK51">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="BL51">
-        <v>2</v>
+        <v>2.51</v>
       </c>
       <c r="BM51">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="BN51">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="BO51">
-        <v>2.75</v>
+        <v>2.27</v>
       </c>
       <c r="BP51">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11366,7 +11375,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7467108</v>
+        <v>7467107</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11375,196 +11384,814 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45570.64583333334</v>
+        <v>45570.54166666666</v>
       </c>
       <c r="F52">
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" t="s">
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="Q52">
-        <v>3.63</v>
+        <v>2.09</v>
       </c>
       <c r="R52">
-        <v>2.33</v>
+        <v>2.49</v>
       </c>
       <c r="S52">
-        <v>2.81</v>
+        <v>5.43</v>
       </c>
       <c r="T52">
         <v>1.33</v>
       </c>
       <c r="U52">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="V52">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="W52">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X52">
-        <v>6.25</v>
+        <v>5.8</v>
       </c>
       <c r="Y52">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z52">
-        <v>2.81</v>
+        <v>1.55</v>
       </c>
       <c r="AA52">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="AB52">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="AC52">
         <v>1.01</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE52">
+        <v>1.17</v>
+      </c>
+      <c r="AF52">
+        <v>4.5</v>
+      </c>
+      <c r="AG52">
+        <v>1.61</v>
+      </c>
+      <c r="AH52">
+        <v>2.23</v>
+      </c>
+      <c r="AI52">
+        <v>1.67</v>
+      </c>
+      <c r="AJ52">
+        <v>2.15</v>
+      </c>
+      <c r="AK52">
+        <v>1.14</v>
+      </c>
+      <c r="AL52">
         <v>1.2</v>
       </c>
-      <c r="AF52">
-        <v>4</v>
-      </c>
-      <c r="AG52">
-        <v>1.64</v>
-      </c>
-      <c r="AH52">
-        <v>2.13</v>
-      </c>
-      <c r="AI52">
-        <v>1.6</v>
-      </c>
-      <c r="AJ52">
+      <c r="AM52">
         <v>2.3</v>
       </c>
-      <c r="AK52">
-        <v>1.6</v>
-      </c>
-      <c r="AL52">
-        <v>1.25</v>
-      </c>
-      <c r="AM52">
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>0.25</v>
+      </c>
+      <c r="AP52">
+        <v>1.8</v>
+      </c>
+      <c r="AQ52">
+        <v>0.4</v>
+      </c>
+      <c r="AR52">
         <v>1.38</v>
       </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AO52">
-        <v>0.75</v>
-      </c>
-      <c r="AP52">
-        <v>1.4</v>
-      </c>
-      <c r="AQ52">
-        <v>0.6</v>
-      </c>
-      <c r="AR52">
-        <v>1.22</v>
-      </c>
       <c r="AS52">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT52">
-        <v>2.49</v>
+        <v>2.61</v>
       </c>
       <c r="AU52">
         <v>7</v>
       </c>
       <c r="AV52">
+        <v>3</v>
+      </c>
+      <c r="AW52">
+        <v>9</v>
+      </c>
+      <c r="AX52">
+        <v>1</v>
+      </c>
+      <c r="AY52">
+        <v>22</v>
+      </c>
+      <c r="AZ52">
+        <v>5</v>
+      </c>
+      <c r="BA52">
+        <v>15</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>17</v>
+      </c>
+      <c r="BD52">
+        <v>1.34</v>
+      </c>
+      <c r="BE52">
+        <v>9.5</v>
+      </c>
+      <c r="BF52">
+        <v>3.86</v>
+      </c>
+      <c r="BG52">
+        <v>1.24</v>
+      </c>
+      <c r="BH52">
+        <v>3.6</v>
+      </c>
+      <c r="BI52">
+        <v>1.44</v>
+      </c>
+      <c r="BJ52">
+        <v>2.6</v>
+      </c>
+      <c r="BK52">
+        <v>1.73</v>
+      </c>
+      <c r="BL52">
+        <v>2</v>
+      </c>
+      <c r="BM52">
+        <v>2.16</v>
+      </c>
+      <c r="BN52">
+        <v>1.62</v>
+      </c>
+      <c r="BO52">
+        <v>2.75</v>
+      </c>
+      <c r="BP52">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7467109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45571.38541666666</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>125</v>
+      </c>
+      <c r="P53" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q53">
+        <v>2.85</v>
+      </c>
+      <c r="R53">
+        <v>2.05</v>
+      </c>
+      <c r="S53">
+        <v>3.5</v>
+      </c>
+      <c r="T53">
+        <v>1.38</v>
+      </c>
+      <c r="U53">
+        <v>2.8</v>
+      </c>
+      <c r="V53">
+        <v>2.65</v>
+      </c>
+      <c r="W53">
+        <v>1.42</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.08</v>
+      </c>
+      <c r="Z53">
+        <v>2.2</v>
+      </c>
+      <c r="AA53">
+        <v>3.5</v>
+      </c>
+      <c r="AB53">
+        <v>3</v>
+      </c>
+      <c r="AC53">
+        <v>1.05</v>
+      </c>
+      <c r="AD53">
+        <v>9</v>
+      </c>
+      <c r="AE53">
+        <v>1.3</v>
+      </c>
+      <c r="AF53">
+        <v>3.45</v>
+      </c>
+      <c r="AG53">
+        <v>1.85</v>
+      </c>
+      <c r="AH53">
+        <v>1.85</v>
+      </c>
+      <c r="AI53">
+        <v>1.61</v>
+      </c>
+      <c r="AJ53">
+        <v>2.2</v>
+      </c>
+      <c r="AK53">
+        <v>1.33</v>
+      </c>
+      <c r="AL53">
+        <v>1.28</v>
+      </c>
+      <c r="AM53">
+        <v>1.62</v>
+      </c>
+      <c r="AN53">
+        <v>2.5</v>
+      </c>
+      <c r="AO53">
+        <v>2.33</v>
+      </c>
+      <c r="AP53">
+        <v>2.2</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>1.68</v>
+      </c>
+      <c r="AS53">
+        <v>1.34</v>
+      </c>
+      <c r="AT53">
+        <v>3.02</v>
+      </c>
+      <c r="AU53">
+        <v>3</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>3</v>
+      </c>
+      <c r="AY53">
+        <v>8</v>
+      </c>
+      <c r="AZ53">
+        <v>15</v>
+      </c>
+      <c r="BA53">
+        <v>6</v>
+      </c>
+      <c r="BB53">
         <v>7</v>
       </c>
-      <c r="AW52">
+      <c r="BC53">
+        <v>13</v>
+      </c>
+      <c r="BD53">
+        <v>1.82</v>
+      </c>
+      <c r="BE53">
+        <v>8</v>
+      </c>
+      <c r="BF53">
+        <v>2.33</v>
+      </c>
+      <c r="BG53">
+        <v>1.27</v>
+      </c>
+      <c r="BH53">
+        <v>3.4</v>
+      </c>
+      <c r="BI53">
+        <v>1.51</v>
+      </c>
+      <c r="BJ53">
+        <v>2.48</v>
+      </c>
+      <c r="BK53">
+        <v>1.9</v>
+      </c>
+      <c r="BL53">
+        <v>1.9</v>
+      </c>
+      <c r="BM53">
+        <v>2.34</v>
+      </c>
+      <c r="BN53">
+        <v>1.56</v>
+      </c>
+      <c r="BO53">
         <v>3</v>
       </c>
-      <c r="AX52">
+      <c r="BP53">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7467110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45571.47916666666</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>126</v>
+      </c>
+      <c r="P54" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>2.28</v>
+      </c>
+      <c r="S54">
+        <v>3.15</v>
+      </c>
+      <c r="T54">
+        <v>1.3</v>
+      </c>
+      <c r="U54">
+        <v>3.2</v>
+      </c>
+      <c r="V54">
+        <v>2.35</v>
+      </c>
+      <c r="W54">
+        <v>1.53</v>
+      </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1.13</v>
+      </c>
+      <c r="Z54">
+        <v>2.43</v>
+      </c>
+      <c r="AA54">
+        <v>3.35</v>
+      </c>
+      <c r="AB54">
+        <v>2.65</v>
+      </c>
+      <c r="AC54">
+        <v>1.04</v>
+      </c>
+      <c r="AD54">
         <v>10</v>
       </c>
-      <c r="AY52">
-        <v>16</v>
-      </c>
-      <c r="AZ52">
+      <c r="AE54">
+        <v>1.2</v>
+      </c>
+      <c r="AF54">
+        <v>4.33</v>
+      </c>
+      <c r="AG54">
+        <v>1.56</v>
+      </c>
+      <c r="AH54">
+        <v>2.33</v>
+      </c>
+      <c r="AI54">
+        <v>1.45</v>
+      </c>
+      <c r="AJ54">
+        <v>2.6</v>
+      </c>
+      <c r="AK54">
+        <v>1.42</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.5</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>1.5</v>
+      </c>
+      <c r="AQ54">
+        <v>0.8</v>
+      </c>
+      <c r="AR54">
+        <v>1.74</v>
+      </c>
+      <c r="AS54">
+        <v>1.92</v>
+      </c>
+      <c r="AT54">
+        <v>3.66</v>
+      </c>
+      <c r="AU54">
+        <v>7</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>4</v>
+      </c>
+      <c r="AY54">
+        <v>17</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>10</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>12</v>
+      </c>
+      <c r="BD54">
+        <v>2.05</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>2</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>1.53</v>
+      </c>
+      <c r="BL54">
+        <v>2.43</v>
+      </c>
+      <c r="BM54">
+        <v>1.82</v>
+      </c>
+      <c r="BN54">
+        <v>1.98</v>
+      </c>
+      <c r="BO54">
+        <v>2.32</v>
+      </c>
+      <c r="BP54">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7467111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45571.47916666666</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>127</v>
+      </c>
+      <c r="P55" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q55">
+        <v>2.65</v>
+      </c>
+      <c r="R55">
+        <v>2.38</v>
+      </c>
+      <c r="S55">
+        <v>3.4</v>
+      </c>
+      <c r="T55">
+        <v>1.22</v>
+      </c>
+      <c r="U55">
+        <v>3.85</v>
+      </c>
+      <c r="V55">
+        <v>2.18</v>
+      </c>
+      <c r="W55">
+        <v>1.6</v>
+      </c>
+      <c r="X55">
+        <v>5.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.14</v>
+      </c>
+      <c r="Z55">
+        <v>2.12</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>3.05</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>13</v>
+      </c>
+      <c r="AE55">
+        <v>1.1</v>
+      </c>
+      <c r="AF55">
+        <v>4.75</v>
+      </c>
+      <c r="AG55">
+        <v>1.47</v>
+      </c>
+      <c r="AH55">
+        <v>2.5</v>
+      </c>
+      <c r="AI55">
+        <v>1.38</v>
+      </c>
+      <c r="AJ55">
+        <v>2.8</v>
+      </c>
+      <c r="AK55">
+        <v>1.33</v>
+      </c>
+      <c r="AL55">
+        <v>1.26</v>
+      </c>
+      <c r="AM55">
+        <v>1.65</v>
+      </c>
+      <c r="AN55">
+        <v>2.25</v>
+      </c>
+      <c r="AO55">
+        <v>1.75</v>
+      </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
+      <c r="AQ55">
+        <v>1.6</v>
+      </c>
+      <c r="AR55">
+        <v>1.62</v>
+      </c>
+      <c r="AS55">
+        <v>1.54</v>
+      </c>
+      <c r="AT55">
+        <v>3.16</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>7</v>
+      </c>
+      <c r="AW55">
+        <v>7</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>13</v>
+      </c>
+      <c r="AZ55">
         <v>19</v>
       </c>
-      <c r="BA52">
-        <v>4</v>
-      </c>
-      <c r="BB52">
-        <v>5</v>
-      </c>
-      <c r="BC52">
-        <v>9</v>
-      </c>
-      <c r="BD52">
-        <v>2.78</v>
-      </c>
-      <c r="BE52">
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
+        <v>8</v>
+      </c>
+      <c r="BC55">
+        <v>14</v>
+      </c>
+      <c r="BD55">
+        <v>2.1</v>
+      </c>
+      <c r="BE55">
         <v>8.5</v>
       </c>
-      <c r="BF52">
+      <c r="BF55">
+        <v>1.95</v>
+      </c>
+      <c r="BG55">
+        <v>1.14</v>
+      </c>
+      <c r="BH55">
+        <v>4.9</v>
+      </c>
+      <c r="BI55">
+        <v>1.28</v>
+      </c>
+      <c r="BJ55">
+        <v>3.3</v>
+      </c>
+      <c r="BK55">
+        <v>1.51</v>
+      </c>
+      <c r="BL55">
+        <v>2.47</v>
+      </c>
+      <c r="BM55">
+        <v>1.98</v>
+      </c>
+      <c r="BN55">
+        <v>1.82</v>
+      </c>
+      <c r="BO55">
+        <v>2.29</v>
+      </c>
+      <c r="BP55">
         <v>1.59</v>
-      </c>
-      <c r="BG52">
-        <v>1.18</v>
-      </c>
-      <c r="BH52">
-        <v>4.2</v>
-      </c>
-      <c r="BI52">
-        <v>1.35</v>
-      </c>
-      <c r="BJ52">
-        <v>2.9</v>
-      </c>
-      <c r="BK52">
-        <v>1.63</v>
-      </c>
-      <c r="BL52">
-        <v>2.23</v>
-      </c>
-      <c r="BM52">
-        <v>2</v>
-      </c>
-      <c r="BN52">
-        <v>1.78</v>
-      </c>
-      <c r="BO52">
-        <v>2.53</v>
-      </c>
-      <c r="BP52">
-        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -382,13 +382,13 @@
     <t>['73', '81']</t>
   </si>
   <si>
+    <t>['30', '80']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['87']</t>
-  </si>
-  <si>
-    <t>['30', '80']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['35']</t>
@@ -10963,7 +10963,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7467108</v>
+        <v>7467106</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -10972,196 +10972,196 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45569.875</v>
+        <v>45570.54166666666</v>
       </c>
       <c r="F50">
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O50" t="s">
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="Q50">
-        <v>3.63</v>
+        <v>2.64</v>
       </c>
       <c r="R50">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="S50">
-        <v>2.81</v>
+        <v>3.5</v>
       </c>
       <c r="T50">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U50">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="V50">
-        <v>2.63</v>
+        <v>2.23</v>
       </c>
       <c r="W50">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="X50">
-        <v>6.25</v>
+        <v>4.85</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="Z50">
-        <v>2.81</v>
+        <v>2.1</v>
       </c>
       <c r="AA50">
-        <v>3.48</v>
+        <v>3.8</v>
       </c>
       <c r="AB50">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AC50">
         <v>1.01</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE50">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF50">
+        <v>5</v>
+      </c>
+      <c r="AG50">
+        <v>1.47</v>
+      </c>
+      <c r="AH50">
+        <v>2.5</v>
+      </c>
+      <c r="AI50">
+        <v>1.42</v>
+      </c>
+      <c r="AJ50">
+        <v>2.6</v>
+      </c>
+      <c r="AK50">
+        <v>1.38</v>
+      </c>
+      <c r="AL50">
+        <v>1.22</v>
+      </c>
+      <c r="AM50">
+        <v>1.65</v>
+      </c>
+      <c r="AN50">
+        <v>2.25</v>
+      </c>
+      <c r="AO50">
+        <v>0.25</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>0.4</v>
+      </c>
+      <c r="AR50">
+        <v>1.66</v>
+      </c>
+      <c r="AS50">
+        <v>1.33</v>
+      </c>
+      <c r="AT50">
+        <v>2.99</v>
+      </c>
+      <c r="AU50">
         <v>4</v>
       </c>
-      <c r="AG50">
-        <v>1.64</v>
-      </c>
-      <c r="AH50">
-        <v>2.13</v>
-      </c>
-      <c r="AI50">
+      <c r="AV50">
+        <v>8</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>6</v>
+      </c>
+      <c r="AY50">
+        <v>13</v>
+      </c>
+      <c r="AZ50">
+        <v>18</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>6</v>
+      </c>
+      <c r="BC50">
+        <v>12</v>
+      </c>
+      <c r="BD50">
+        <v>1.82</v>
+      </c>
+      <c r="BE50">
+        <v>8</v>
+      </c>
+      <c r="BF50">
+        <v>2.33</v>
+      </c>
+      <c r="BG50">
+        <v>1.14</v>
+      </c>
+      <c r="BH50">
+        <v>4.9</v>
+      </c>
+      <c r="BI50">
+        <v>1.28</v>
+      </c>
+      <c r="BJ50">
+        <v>3.3</v>
+      </c>
+      <c r="BK50">
+        <v>1.5</v>
+      </c>
+      <c r="BL50">
+        <v>2.51</v>
+      </c>
+      <c r="BM50">
+        <v>1.8</v>
+      </c>
+      <c r="BN50">
+        <v>2</v>
+      </c>
+      <c r="BO50">
+        <v>2.27</v>
+      </c>
+      <c r="BP50">
         <v>1.6</v>
-      </c>
-      <c r="AJ50">
-        <v>2.3</v>
-      </c>
-      <c r="AK50">
-        <v>1.6</v>
-      </c>
-      <c r="AL50">
-        <v>1.25</v>
-      </c>
-      <c r="AM50">
-        <v>1.38</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
-        <v>0.75</v>
-      </c>
-      <c r="AP50">
-        <v>1.4</v>
-      </c>
-      <c r="AQ50">
-        <v>0.6</v>
-      </c>
-      <c r="AR50">
-        <v>1.22</v>
-      </c>
-      <c r="AS50">
-        <v>1.27</v>
-      </c>
-      <c r="AT50">
-        <v>2.49</v>
-      </c>
-      <c r="AU50">
-        <v>5</v>
-      </c>
-      <c r="AV50">
-        <v>7</v>
-      </c>
-      <c r="AW50">
-        <v>2</v>
-      </c>
-      <c r="AX50">
-        <v>5</v>
-      </c>
-      <c r="AY50">
-        <v>7</v>
-      </c>
-      <c r="AZ50">
-        <v>12</v>
-      </c>
-      <c r="BA50">
-        <v>4</v>
-      </c>
-      <c r="BB50">
-        <v>5</v>
-      </c>
-      <c r="BC50">
-        <v>9</v>
-      </c>
-      <c r="BD50">
-        <v>2.78</v>
-      </c>
-      <c r="BE50">
-        <v>8.5</v>
-      </c>
-      <c r="BF50">
-        <v>1.59</v>
-      </c>
-      <c r="BG50">
-        <v>1.18</v>
-      </c>
-      <c r="BH50">
-        <v>4.2</v>
-      </c>
-      <c r="BI50">
-        <v>1.35</v>
-      </c>
-      <c r="BJ50">
-        <v>2.9</v>
-      </c>
-      <c r="BK50">
-        <v>1.63</v>
-      </c>
-      <c r="BL50">
-        <v>2.23</v>
-      </c>
-      <c r="BM50">
-        <v>2</v>
-      </c>
-      <c r="BN50">
-        <v>1.78</v>
-      </c>
-      <c r="BO50">
-        <v>2.53</v>
-      </c>
-      <c r="BP50">
-        <v>1.49</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11169,7 +11169,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7467106</v>
+        <v>7467107</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11184,190 +11184,190 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O51" t="s">
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q51">
-        <v>2.64</v>
+        <v>2.09</v>
       </c>
       <c r="R51">
-        <v>2.53</v>
+        <v>2.49</v>
       </c>
       <c r="S51">
-        <v>3.5</v>
+        <v>5.43</v>
       </c>
       <c r="T51">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U51">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="V51">
-        <v>2.23</v>
+        <v>2.51</v>
       </c>
       <c r="W51">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="X51">
-        <v>4.85</v>
+        <v>5.8</v>
       </c>
       <c r="Y51">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="Z51">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AA51">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB51">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="AC51">
         <v>1.01</v>
       </c>
       <c r="AD51">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE51">
         <v>1.17</v>
       </c>
       <c r="AF51">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AG51">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AH51">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="AI51">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AJ51">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="AK51">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AL51">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM51">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="AN51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO51">
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ51">
         <v>0.4</v>
       </c>
       <c r="AR51">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="AS51">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT51">
-        <v>2.99</v>
+        <v>2.61</v>
       </c>
       <c r="AU51">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV51">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY51">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ51">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="BA51">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BB51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC51">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BD51">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="BE51">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF51">
-        <v>2.33</v>
+        <v>3.86</v>
       </c>
       <c r="BG51">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="BH51">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="BI51">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="BJ51">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="BK51">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="BL51">
-        <v>2.51</v>
+        <v>2</v>
       </c>
       <c r="BM51">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="BN51">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="BO51">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
       <c r="BP51">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11375,7 +11375,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7467107</v>
+        <v>7467108</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11384,196 +11384,196 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45570.54166666666</v>
+        <v>45570.64583333334</v>
       </c>
       <c r="F52">
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
         <v>124</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="Q52">
-        <v>2.09</v>
+        <v>3.63</v>
       </c>
       <c r="R52">
-        <v>2.49</v>
+        <v>2.33</v>
       </c>
       <c r="S52">
-        <v>5.43</v>
+        <v>2.81</v>
       </c>
       <c r="T52">
         <v>1.33</v>
       </c>
       <c r="U52">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="V52">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="W52">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X52">
-        <v>5.8</v>
+        <v>6.25</v>
       </c>
       <c r="Y52">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z52">
-        <v>1.55</v>
+        <v>2.81</v>
       </c>
       <c r="AA52">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AB52">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="AC52">
         <v>1.01</v>
       </c>
       <c r="AD52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE52">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF52">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AG52">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AH52">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="AI52">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AJ52">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AK52">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="AL52">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM52">
-        <v>2.3</v>
+        <v>1.38</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AS52">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT52">
-        <v>2.61</v>
+        <v>2.49</v>
       </c>
       <c r="AU52">
         <v>7</v>
       </c>
       <c r="AV52">
+        <v>7</v>
+      </c>
+      <c r="AW52">
         <v>3</v>
       </c>
-      <c r="AW52">
+      <c r="AX52">
+        <v>10</v>
+      </c>
+      <c r="AY52">
+        <v>16</v>
+      </c>
+      <c r="AZ52">
+        <v>19</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>5</v>
+      </c>
+      <c r="BC52">
         <v>9</v>
       </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>22</v>
-      </c>
-      <c r="AZ52">
-        <v>5</v>
-      </c>
-      <c r="BA52">
-        <v>15</v>
-      </c>
-      <c r="BB52">
-        <v>2</v>
-      </c>
-      <c r="BC52">
-        <v>17</v>
-      </c>
       <c r="BD52">
-        <v>1.34</v>
+        <v>2.78</v>
       </c>
       <c r="BE52">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF52">
-        <v>3.86</v>
+        <v>1.59</v>
       </c>
       <c r="BG52">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BH52">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="BI52">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BJ52">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BK52">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="BL52">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="BM52">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="BN52">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="BO52">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="BP52">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="53" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2425,25 +2425,25 @@
         <v>1.73</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AU8">
         <v>10</v>
@@ -2631,25 +2631,25 @@
         <v>1.52</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AU9">
         <v>12</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AQ10">
         <v>2</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3046,22 +3046,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
         <v>2</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AU11">
         <v>9</v>
@@ -3255,19 +3255,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AT12">
-        <v>2.07</v>
+        <v>2.24</v>
       </c>
       <c r="AU12">
         <v>7</v>
@@ -3461,19 +3461,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AS13">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AT13">
-        <v>1.79</v>
+        <v>3.83</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -3661,25 +3661,25 @@
         <v>2.3</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AU14">
         <v>15</v>
@@ -3867,25 +3867,25 @@
         <v>1.52</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
+        <v>0.89</v>
+      </c>
+      <c r="AQ15">
+        <v>1.44</v>
+      </c>
+      <c r="AR15">
         <v>1.25</v>
       </c>
-      <c r="AQ15">
-        <v>1.4</v>
-      </c>
-      <c r="AR15">
-        <v>1.44</v>
-      </c>
       <c r="AS15">
-        <v>1.34</v>
+        <v>1.69</v>
       </c>
       <c r="AT15">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -4082,16 +4082,16 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AR16">
-        <v>2.11</v>
+        <v>1.59</v>
       </c>
       <c r="AS16">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="AU16">
         <v>8</v>
@@ -4279,7 +4279,7 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
         <v>3</v>
@@ -4288,16 +4288,16 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="AS17">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AT17">
-        <v>2.55</v>
+        <v>2.93</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4485,25 +4485,25 @@
         <v>1.45</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR18">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AS18">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="AT18">
-        <v>3.46</v>
+        <v>3.15</v>
       </c>
       <c r="AU18">
         <v>9</v>
@@ -4697,19 +4697,19 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS19">
-        <v>1.76</v>
+        <v>2.59</v>
       </c>
       <c r="AT19">
-        <v>3.61</v>
+        <v>4.39</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -4897,25 +4897,25 @@
         <v>1.88</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AS20">
-        <v>1.63</v>
+        <v>1.09</v>
       </c>
       <c r="AT20">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5103,25 +5103,25 @@
         <v>1.85</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AR21">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AS21">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AT21">
-        <v>2.78</v>
+        <v>2.69</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -5309,25 +5309,25 @@
         <v>1.2</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="AS22">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AT22">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5515,25 +5515,25 @@
         <v>2.15</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="AS23">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT23">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -5724,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
         <v>2</v>
@@ -5733,13 +5733,13 @@
         <v>2</v>
       </c>
       <c r="AR24">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="AS24">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AT24">
-        <v>3.53</v>
+        <v>3.09</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -5927,22 +5927,22 @@
         <v>2.05</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR25">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AS25">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="AT25">
         <v>3.14</v>
@@ -6133,25 +6133,25 @@
         <v>1.85</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
-        <v>3.42</v>
+        <v>2.37</v>
       </c>
       <c r="AS26">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="AT26">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6339,25 +6339,25 @@
         <v>2.3</v>
       </c>
       <c r="AN27">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27">
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AR27">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS27">
-        <v>0.89</v>
+        <v>1.03</v>
       </c>
       <c r="AT27">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6545,25 +6545,25 @@
         <v>1.35</v>
       </c>
       <c r="AN28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO28">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AS28">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AT28">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6751,25 +6751,25 @@
         <v>2.4</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="AS29">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT29">
-        <v>3.49</v>
+        <v>3.08</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -6957,25 +6957,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AS30">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AT30">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7163,25 +7163,25 @@
         <v>1.44</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="AS31">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="AT31">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -7369,25 +7369,25 @@
         <v>2</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ32">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AS32">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="AT32">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -7575,25 +7575,25 @@
         <v>1.3</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AO33">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AR33">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="AS33">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="AT33">
-        <v>2.52</v>
+        <v>2.85</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -7781,25 +7781,25 @@
         <v>1.62</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP34">
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR34">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AS34">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AT34">
-        <v>3.52</v>
+        <v>3.39</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -7987,25 +7987,25 @@
         <v>1.91</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO35">
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>2</v>
       </c>
       <c r="AR35">
-        <v>2.41</v>
+        <v>2.13</v>
       </c>
       <c r="AS35">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AT35">
-        <v>3.86</v>
+        <v>3.54</v>
       </c>
       <c r="AU35">
         <v>2</v>
@@ -8193,25 +8193,25 @@
         <v>1.55</v>
       </c>
       <c r="AN36">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AQ36">
         <v>2</v>
       </c>
       <c r="AR36">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS36">
-        <v>1.08</v>
+        <v>1.7</v>
       </c>
       <c r="AT36">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8399,25 +8399,25 @@
         <v>1.3</v>
       </c>
       <c r="AN37">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AQ37">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AR37">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AS37">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="AT37">
-        <v>2.9</v>
+        <v>3.07</v>
       </c>
       <c r="AU37">
         <v>9</v>
@@ -8605,25 +8605,25 @@
         <v>1.87</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>2</v>
       </c>
       <c r="AR38">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="AS38">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT38">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -8811,25 +8811,25 @@
         <v>1.75</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR39">
-        <v>2.16</v>
+        <v>1.77</v>
       </c>
       <c r="AS39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AT39">
-        <v>4.01</v>
+        <v>3.67</v>
       </c>
       <c r="AU39">
         <v>2</v>
@@ -9017,25 +9017,25 @@
         <v>2.3</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO40">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AQ40">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR40">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS40">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT40">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9223,25 +9223,25 @@
         <v>1.43</v>
       </c>
       <c r="AN41">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO41">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AP41">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>2</v>
       </c>
       <c r="AR41">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AS41">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AT41">
-        <v>2.9</v>
+        <v>3.13</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9429,25 +9429,25 @@
         <v>1.17</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AS42">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="AT42">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9635,25 +9635,25 @@
         <v>1.77</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO43">
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
       </c>
       <c r="AS43">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="AT43">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -9841,25 +9841,25 @@
         <v>1.22</v>
       </c>
       <c r="AN44">
-        <v>1.33</v>
+        <v>0.71</v>
       </c>
       <c r="AO44">
-        <v>1.33</v>
+        <v>1.86</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AR44">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AS44">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AT44">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10047,25 +10047,25 @@
         <v>1.9</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AO45">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR45">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="AS45">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AT45">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10253,25 +10253,25 @@
         <v>2.45</v>
       </c>
       <c r="AN46">
+        <v>0.86</v>
+      </c>
+      <c r="AO46">
+        <v>0.71</v>
+      </c>
+      <c r="AP46">
         <v>0.67</v>
       </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>0.5</v>
-      </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AR46">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="AS46">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AT46">
-        <v>2.63</v>
+        <v>3.12</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -10459,25 +10459,25 @@
         <v>2.11</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
-        <v>1.94</v>
+        <v>1.63</v>
       </c>
       <c r="AS47">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT47">
-        <v>3.28</v>
+        <v>2.99</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -10668,22 +10668,22 @@
         <v>2</v>
       </c>
       <c r="AO48">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AP48">
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AR48">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AS48">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT48">
-        <v>2.96</v>
+        <v>3.11</v>
       </c>
       <c r="AU48">
         <v>11</v>
@@ -10871,25 +10871,25 @@
         <v>2.42</v>
       </c>
       <c r="AN49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AP49">
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AR49">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AS49">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AT49">
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="AU49">
         <v>8</v>
@@ -11077,25 +11077,25 @@
         <v>1.65</v>
       </c>
       <c r="AN50">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AO50">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP50">
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="AR50">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="AS50">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT50">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11283,25 +11283,25 @@
         <v>2.3</v>
       </c>
       <c r="AN51">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO51">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AS51">
-        <v>1.23</v>
+        <v>1.12</v>
       </c>
       <c r="AT51">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -11489,25 +11489,25 @@
         <v>1.38</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AR52">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AS52">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT52">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11695,25 +11695,25 @@
         <v>1.62</v>
       </c>
       <c r="AN53">
-        <v>2.5</v>
+        <v>2.13</v>
       </c>
       <c r="AO53">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>2</v>
       </c>
       <c r="AR53">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="AS53">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="AU53">
         <v>3</v>
@@ -11901,25 +11901,25 @@
         <v>1.5</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AS54">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="AT54">
-        <v>3.66</v>
+        <v>3.32</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12107,25 +12107,25 @@
         <v>1.65</v>
       </c>
       <c r="AN55">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>1.56</v>
+      </c>
+      <c r="AQ55">
+        <v>1.89</v>
+      </c>
+      <c r="AR55">
+        <v>1.64</v>
+      </c>
+      <c r="AS55">
         <v>1.75</v>
       </c>
-      <c r="AP55">
-        <v>2</v>
-      </c>
-      <c r="AQ55">
-        <v>1.6</v>
-      </c>
-      <c r="AR55">
-        <v>1.62</v>
-      </c>
-      <c r="AS55">
-        <v>1.54</v>
-      </c>
       <c r="AT55">
-        <v>3.16</v>
+        <v>3.39</v>
       </c>
       <c r="AU55">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -1198,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2425,25 +2425,25 @@
         <v>1.73</v>
       </c>
       <c r="AN8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>10</v>
@@ -2631,25 +2631,25 @@
         <v>1.52</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AR9">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>12</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>2</v>
       </c>
       <c r="AR10">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3046,22 +3046,22 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>2</v>
       </c>
       <c r="AR11">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>9</v>
@@ -3255,19 +3255,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR12">
-        <v>1.69</v>
+        <v>2.07</v>
       </c>
       <c r="AS12">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.24</v>
+        <v>2.07</v>
       </c>
       <c r="AU12">
         <v>7</v>
@@ -3461,19 +3461,19 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="AT13">
-        <v>3.83</v>
+        <v>1.79</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -3661,25 +3661,25 @@
         <v>2.3</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>15</v>
@@ -3867,25 +3867,25 @@
         <v>1.52</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
+        <v>1.4</v>
+      </c>
+      <c r="AR15">
         <v>1.44</v>
       </c>
-      <c r="AR15">
-        <v>1.25</v>
-      </c>
       <c r="AS15">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="AT15">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="AU15">
         <v>2</v>
@@ -4082,16 +4082,16 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="AR16">
-        <v>1.59</v>
+        <v>2.11</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="AT16">
-        <v>3.26</v>
+        <v>3.42</v>
       </c>
       <c r="AU16">
         <v>8</v>
@@ -4279,7 +4279,7 @@
         <v>1.65</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>3</v>
@@ -4288,16 +4288,16 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="AS17">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>2.93</v>
+        <v>2.55</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4485,25 +4485,25 @@
         <v>1.45</v>
       </c>
       <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
         <v>1.5</v>
       </c>
-      <c r="AO18">
-        <v>1.5</v>
-      </c>
-      <c r="AP18">
-        <v>0.89</v>
-      </c>
       <c r="AQ18">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AS18">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="AT18">
-        <v>3.15</v>
+        <v>3.46</v>
       </c>
       <c r="AU18">
         <v>9</v>
@@ -4697,19 +4697,19 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS19">
-        <v>2.59</v>
+        <v>1.76</v>
       </c>
       <c r="AT19">
-        <v>4.39</v>
+        <v>3.61</v>
       </c>
       <c r="AU19">
         <v>3</v>
@@ -4897,25 +4897,25 @@
         <v>1.88</v>
       </c>
       <c r="AN20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR20">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AS20">
-        <v>1.09</v>
+        <v>1.63</v>
       </c>
       <c r="AT20">
-        <v>2.13</v>
+        <v>2.65</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5103,25 +5103,25 @@
         <v>1.85</v>
       </c>
       <c r="AN21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AR21">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="AS21">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AT21">
-        <v>2.69</v>
+        <v>2.78</v>
       </c>
       <c r="AU21">
         <v>7</v>
@@ -5309,25 +5309,25 @@
         <v>1.2</v>
       </c>
       <c r="AN22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="AS22">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AT22">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5515,25 +5515,25 @@
         <v>2.15</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AR23">
-        <v>1.72</v>
+        <v>1.97</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="AT23">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -5724,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP24">
         <v>2</v>
@@ -5733,13 +5733,13 @@
         <v>2</v>
       </c>
       <c r="AR24">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="AS24">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AT24">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -5927,22 +5927,22 @@
         <v>2.05</v>
       </c>
       <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1.5</v>
+      </c>
+      <c r="AP25">
         <v>2.25</v>
       </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25">
-        <v>1.89</v>
-      </c>
       <c r="AQ25">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AS25">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AT25">
         <v>3.14</v>
@@ -6133,25 +6133,25 @@
         <v>1.85</v>
       </c>
       <c r="AN26">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AR26">
-        <v>2.37</v>
+        <v>3.42</v>
       </c>
       <c r="AS26">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AT26">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6339,25 +6339,25 @@
         <v>2.3</v>
       </c>
       <c r="AN27">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27">
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS27">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="AT27">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6545,25 +6545,25 @@
         <v>1.35</v>
       </c>
       <c r="AN28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS28">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AT28">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6751,25 +6751,25 @@
         <v>2.4</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR29">
-        <v>1.74</v>
+        <v>2.04</v>
       </c>
       <c r="AS29">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT29">
-        <v>3.08</v>
+        <v>3.49</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -6957,25 +6957,25 @@
         <v>1.4</v>
       </c>
       <c r="AN30">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AS30">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AT30">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7163,25 +7163,25 @@
         <v>1.44</v>
       </c>
       <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>2</v>
+      </c>
+      <c r="AP31">
         <v>1.8</v>
       </c>
-      <c r="AO31">
-        <v>1.8</v>
-      </c>
-      <c r="AP31">
-        <v>1.33</v>
-      </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="AS31">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="AT31">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -7369,25 +7369,25 @@
         <v>2</v>
       </c>
       <c r="AN32">
+        <v>0.5</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
         <v>0.4</v>
       </c>
-      <c r="AO32">
-        <v>0.75</v>
-      </c>
-      <c r="AP32">
-        <v>0.67</v>
-      </c>
-      <c r="AQ32">
-        <v>0.89</v>
-      </c>
       <c r="AR32">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AS32">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="AT32">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="AU32">
         <v>2</v>
@@ -7575,25 +7575,25 @@
         <v>1.3</v>
       </c>
       <c r="AN33">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="AR33">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AS33">
-        <v>1.76</v>
+        <v>1.35</v>
       </c>
       <c r="AT33">
-        <v>2.85</v>
+        <v>2.52</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -7781,25 +7781,25 @@
         <v>1.62</v>
       </c>
       <c r="AN34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AR34">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AS34">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT34">
-        <v>3.39</v>
+        <v>3.52</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -7987,25 +7987,25 @@
         <v>1.91</v>
       </c>
       <c r="AN35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO35">
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>2</v>
       </c>
       <c r="AR35">
-        <v>2.13</v>
+        <v>2.41</v>
       </c>
       <c r="AS35">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AT35">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="AU35">
         <v>2</v>
@@ -8193,25 +8193,25 @@
         <v>1.55</v>
       </c>
       <c r="AN36">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP36">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>2</v>
       </c>
       <c r="AR36">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AS36">
-        <v>1.7</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="AU36">
         <v>5</v>
@@ -8399,25 +8399,25 @@
         <v>1.3</v>
       </c>
       <c r="AN37">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO37">
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="AR37">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AS37">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AT37">
-        <v>3.07</v>
+        <v>2.9</v>
       </c>
       <c r="AU37">
         <v>9</v>
@@ -8605,25 +8605,25 @@
         <v>1.87</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>2</v>
       </c>
       <c r="AR38">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="AS38">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AT38">
-        <v>3.05</v>
+        <v>3.17</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -8811,25 +8811,25 @@
         <v>1.75</v>
       </c>
       <c r="AN39">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
-        <v>1.77</v>
+        <v>2.16</v>
       </c>
       <c r="AS39">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AT39">
-        <v>3.67</v>
+        <v>4.01</v>
       </c>
       <c r="AU39">
         <v>2</v>
@@ -9017,25 +9017,25 @@
         <v>2.3</v>
       </c>
       <c r="AN40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO40">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR40">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AS40">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AT40">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AU40">
         <v>7</v>
@@ -9223,25 +9223,25 @@
         <v>1.43</v>
       </c>
       <c r="AN41">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO41">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41">
         <v>2</v>
       </c>
       <c r="AR41">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AS41">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="AT41">
-        <v>3.13</v>
+        <v>2.9</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9429,25 +9429,25 @@
         <v>1.17</v>
       </c>
       <c r="AN42">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AS42">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="AT42">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9635,25 +9635,25 @@
         <v>1.77</v>
       </c>
       <c r="AN43">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO43">
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
       </c>
       <c r="AS43">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AT43">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -9841,25 +9841,25 @@
         <v>1.22</v>
       </c>
       <c r="AN44">
-        <v>0.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO44">
-        <v>1.86</v>
+        <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AR44">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AS44">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AT44">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10047,25 +10047,25 @@
         <v>1.9</v>
       </c>
       <c r="AN45">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AR45">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="AS45">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="AT45">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10253,25 +10253,25 @@
         <v>2.45</v>
       </c>
       <c r="AN46">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ46">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AR46">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="AS46">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="AT46">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="AU46">
         <v>5</v>
@@ -10459,25 +10459,25 @@
         <v>2.11</v>
       </c>
       <c r="AN47">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR47">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AS47">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT47">
-        <v>2.99</v>
+        <v>3.28</v>
       </c>
       <c r="AU47">
         <v>3</v>
@@ -10668,22 +10668,22 @@
         <v>2</v>
       </c>
       <c r="AO48">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AP48">
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AS48">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT48">
-        <v>3.11</v>
+        <v>2.96</v>
       </c>
       <c r="AU48">
         <v>11</v>
@@ -10871,25 +10871,25 @@
         <v>2.42</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO49">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AP49">
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AR49">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="AS49">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AT49">
-        <v>2.77</v>
+        <v>2.89</v>
       </c>
       <c r="AU49">
         <v>8</v>
@@ -11077,25 +11077,25 @@
         <v>1.65</v>
       </c>
       <c r="AN50">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AO50">
-        <v>0.88</v>
+        <v>0.25</v>
       </c>
       <c r="AP50">
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AR50">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11283,25 +11283,25 @@
         <v>2.3</v>
       </c>
       <c r="AN51">
+        <v>2</v>
+      </c>
+      <c r="AO51">
+        <v>0.25</v>
+      </c>
+      <c r="AP51">
+        <v>1.8</v>
+      </c>
+      <c r="AQ51">
+        <v>0.4</v>
+      </c>
+      <c r="AR51">
         <v>1.38</v>
       </c>
-      <c r="AO51">
-        <v>1</v>
-      </c>
-      <c r="AP51">
-        <v>1.33</v>
-      </c>
-      <c r="AQ51">
-        <v>1</v>
-      </c>
-      <c r="AR51">
-        <v>1.4</v>
-      </c>
       <c r="AS51">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="AT51">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="AU51">
         <v>7</v>
@@ -11489,25 +11489,25 @@
         <v>1.38</v>
       </c>
       <c r="AN52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AS52">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AT52">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="AU52">
         <v>7</v>
@@ -11695,25 +11695,25 @@
         <v>1.62</v>
       </c>
       <c r="AN53">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="AO53">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
         <v>2</v>
       </c>
       <c r="AR53">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="AT53">
-        <v>3.21</v>
+        <v>3.02</v>
       </c>
       <c r="AU53">
         <v>3</v>
@@ -11901,25 +11901,25 @@
         <v>1.5</v>
       </c>
       <c r="AN54">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AR54">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AS54">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="AT54">
-        <v>3.32</v>
+        <v>3.66</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12107,25 +12107,25 @@
         <v>1.65</v>
       </c>
       <c r="AN55">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="AO55">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="AT55">
-        <v>3.39</v>
+        <v>3.16</v>
       </c>
       <c r="AU55">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,12 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['47', '50']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -433,9 +439,6 @@
     <t>['25', '36', '58']</t>
   </si>
   <si>
-    <t>['61']</t>
-  </si>
-  <si>
     <t>['1', '20', '50', '70']</t>
   </si>
   <si>
@@ -497,6 +500,9 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['32', '38']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1123,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1323,7 +1329,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1404,7 +1410,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1735,7 +1741,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1813,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -1941,7 +1947,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2147,7 +2153,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2353,7 +2359,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2765,7 +2771,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2843,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2971,7 +2977,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3177,7 +3183,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3589,7 +3595,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3795,7 +3801,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3873,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.4</v>
@@ -4001,7 +4007,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>3.2</v>
@@ -4413,7 +4419,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4619,7 +4625,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4697,10 +4703,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5237,7 +5243,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5649,7 +5655,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5730,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -5855,7 +5861,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6473,7 +6479,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6551,7 +6557,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0.75</v>
@@ -6885,7 +6891,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7091,7 +7097,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7375,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>0.4</v>
@@ -7709,7 +7715,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7996,7 +8002,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -8121,7 +8127,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8327,7 +8333,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8405,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.6</v>
@@ -8533,7 +8539,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8614,7 +8620,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR38">
         <v>1.76</v>
@@ -8739,7 +8745,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8820,7 +8826,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -8945,7 +8951,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9357,7 +9363,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9563,7 +9569,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9644,7 +9650,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10181,7 +10187,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10259,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>0.6</v>
@@ -10799,7 +10805,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11005,7 +11011,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11211,7 +11217,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -12035,7 +12041,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12192,6 +12198,418 @@
       </c>
       <c r="BP55">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7467112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45584.54166666666</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>128</v>
+      </c>
+      <c r="P56" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q56">
+        <v>3.5</v>
+      </c>
+      <c r="R56">
+        <v>2.2</v>
+      </c>
+      <c r="S56">
+        <v>3</v>
+      </c>
+      <c r="T56">
+        <v>1.4</v>
+      </c>
+      <c r="U56">
+        <v>2.75</v>
+      </c>
+      <c r="V56">
+        <v>2.75</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56">
+        <v>1.08</v>
+      </c>
+      <c r="Z56">
+        <v>2.77</v>
+      </c>
+      <c r="AA56">
+        <v>3.24</v>
+      </c>
+      <c r="AB56">
+        <v>2.31</v>
+      </c>
+      <c r="AC56">
+        <v>1.06</v>
+      </c>
+      <c r="AD56">
+        <v>8.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.28</v>
+      </c>
+      <c r="AF56">
+        <v>3.5</v>
+      </c>
+      <c r="AG56">
+        <v>1.86</v>
+      </c>
+      <c r="AH56">
+        <v>1.98</v>
+      </c>
+      <c r="AI56">
+        <v>1.73</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>1.52</v>
+      </c>
+      <c r="AL56">
+        <v>1.25</v>
+      </c>
+      <c r="AM56">
+        <v>1.42</v>
+      </c>
+      <c r="AN56">
+        <v>1.25</v>
+      </c>
+      <c r="AO56">
+        <v>1.75</v>
+      </c>
+      <c r="AP56">
+        <v>1</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>1.56</v>
+      </c>
+      <c r="AS56">
+        <v>1.4</v>
+      </c>
+      <c r="AT56">
+        <v>2.96</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>4</v>
+      </c>
+      <c r="AY56">
+        <v>11</v>
+      </c>
+      <c r="AZ56">
+        <v>16</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>6</v>
+      </c>
+      <c r="BC56">
+        <v>10</v>
+      </c>
+      <c r="BD56">
+        <v>1.94</v>
+      </c>
+      <c r="BE56">
+        <v>6.65</v>
+      </c>
+      <c r="BF56">
+        <v>2.34</v>
+      </c>
+      <c r="BG56">
+        <v>1.15</v>
+      </c>
+      <c r="BH56">
+        <v>4.1</v>
+      </c>
+      <c r="BI56">
+        <v>1.32</v>
+      </c>
+      <c r="BJ56">
+        <v>2.78</v>
+      </c>
+      <c r="BK56">
+        <v>1.73</v>
+      </c>
+      <c r="BL56">
+        <v>2</v>
+      </c>
+      <c r="BM56">
+        <v>2.05</v>
+      </c>
+      <c r="BN56">
+        <v>1.72</v>
+      </c>
+      <c r="BO56">
+        <v>2.64</v>
+      </c>
+      <c r="BP56">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7467113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45584.54166666666</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P57" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q57">
+        <v>2.5</v>
+      </c>
+      <c r="R57">
+        <v>2.5</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>1.25</v>
+      </c>
+      <c r="U57">
+        <v>3.75</v>
+      </c>
+      <c r="V57">
+        <v>2.2</v>
+      </c>
+      <c r="W57">
+        <v>1.62</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+      <c r="Y57">
+        <v>1.17</v>
+      </c>
+      <c r="Z57">
+        <v>2.05</v>
+      </c>
+      <c r="AA57">
+        <v>3.55</v>
+      </c>
+      <c r="AB57">
+        <v>3.01</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>13</v>
+      </c>
+      <c r="AE57">
+        <v>1.15</v>
+      </c>
+      <c r="AF57">
+        <v>5.25</v>
+      </c>
+      <c r="AG57">
+        <v>1.45</v>
+      </c>
+      <c r="AH57">
+        <v>2.55</v>
+      </c>
+      <c r="AI57">
+        <v>1.44</v>
+      </c>
+      <c r="AJ57">
+        <v>2.63</v>
+      </c>
+      <c r="AK57">
+        <v>1.3</v>
+      </c>
+      <c r="AL57">
+        <v>1.2</v>
+      </c>
+      <c r="AM57">
+        <v>1.83</v>
+      </c>
+      <c r="AN57">
+        <v>0.5</v>
+      </c>
+      <c r="AO57">
+        <v>2</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1.6</v>
+      </c>
+      <c r="AR57">
+        <v>1.51</v>
+      </c>
+      <c r="AS57">
+        <v>1.51</v>
+      </c>
+      <c r="AT57">
+        <v>3.02</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>5</v>
+      </c>
+      <c r="AW57">
+        <v>7</v>
+      </c>
+      <c r="AX57">
+        <v>9</v>
+      </c>
+      <c r="AY57">
+        <v>18</v>
+      </c>
+      <c r="AZ57">
+        <v>16</v>
+      </c>
+      <c r="BA57">
+        <v>7</v>
+      </c>
+      <c r="BB57">
+        <v>7</v>
+      </c>
+      <c r="BC57">
+        <v>14</v>
+      </c>
+      <c r="BD57">
+        <v>1.67</v>
+      </c>
+      <c r="BE57">
+        <v>9</v>
+      </c>
+      <c r="BF57">
+        <v>2.4</v>
+      </c>
+      <c r="BG57">
+        <v>1.09</v>
+      </c>
+      <c r="BH57">
+        <v>5</v>
+      </c>
+      <c r="BI57">
+        <v>1.22</v>
+      </c>
+      <c r="BJ57">
+        <v>3.35</v>
+      </c>
+      <c r="BK57">
+        <v>1.44</v>
+      </c>
+      <c r="BL57">
+        <v>2.5</v>
+      </c>
+      <c r="BM57">
+        <v>1.9</v>
+      </c>
+      <c r="BN57">
+        <v>1.8</v>
+      </c>
+      <c r="BO57">
+        <v>2.21</v>
+      </c>
+      <c r="BP57">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,18 @@
     <t>['47', '50']</t>
   </si>
   <si>
+    <t>['5', '50', '85']</t>
+  </si>
+  <si>
+    <t>['31', '90+5']</t>
+  </si>
+  <si>
+    <t>['8', '23']</t>
+  </si>
+  <si>
+    <t>['45+4', '58']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -503,6 +515,9 @@
   </si>
   <si>
     <t>['32', '38']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1138,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1329,7 +1344,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1407,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1616,7 +1631,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1741,7 +1756,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1822,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1947,7 +1962,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2025,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>1.4</v>
@@ -2153,7 +2168,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2359,7 +2374,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2437,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
         <v>0.8</v>
@@ -2771,7 +2786,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2977,7 +2992,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3055,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3183,7 +3198,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3261,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12">
         <v>0.4</v>
@@ -3595,7 +3610,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3801,7 +3816,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4294,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4419,7 +4434,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4497,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4625,7 +4640,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5243,7 +5258,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5321,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.8</v>
@@ -5655,7 +5670,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5861,7 +5876,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -5939,7 +5954,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25">
         <v>1.4</v>
@@ -6479,7 +6494,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6560,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -6763,7 +6778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29">
         <v>0.4</v>
@@ -6891,7 +6906,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6969,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7097,7 +7112,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7715,7 +7730,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7796,7 +7811,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8127,7 +8142,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8205,10 +8220,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8333,7 +8348,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8539,7 +8554,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8745,7 +8760,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8823,7 +8838,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -8951,7 +8966,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9029,7 +9044,7 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
         <v>0.4</v>
@@ -9238,7 +9253,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9363,7 +9378,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9569,7 +9584,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9853,10 +9868,10 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10059,7 +10074,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ45">
         <v>0.4</v>
@@ -10187,7 +10202,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10474,7 +10489,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -10805,7 +10820,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11011,7 +11026,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11217,7 +11232,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11710,7 +11725,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -11913,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54">
         <v>0.8</v>
@@ -12041,7 +12056,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12247,7 +12262,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12610,6 +12625,830 @@
       </c>
       <c r="BP57">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7467114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45584.64583333334</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>130</v>
+      </c>
+      <c r="P58" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q58">
+        <v>2.3</v>
+      </c>
+      <c r="R58">
+        <v>2.3</v>
+      </c>
+      <c r="S58">
+        <v>4.5</v>
+      </c>
+      <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>2.5</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
+        <v>6.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.11</v>
+      </c>
+      <c r="Z58">
+        <v>1.79</v>
+      </c>
+      <c r="AA58">
+        <v>3.8</v>
+      </c>
+      <c r="AB58">
+        <v>4.11</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.22</v>
+      </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>1.7</v>
+      </c>
+      <c r="AH58">
+        <v>2.08</v>
+      </c>
+      <c r="AI58">
+        <v>1.67</v>
+      </c>
+      <c r="AJ58">
+        <v>2.1</v>
+      </c>
+      <c r="AK58">
+        <v>1.18</v>
+      </c>
+      <c r="AL58">
+        <v>1.2</v>
+      </c>
+      <c r="AM58">
+        <v>1.95</v>
+      </c>
+      <c r="AN58">
+        <v>2.25</v>
+      </c>
+      <c r="AO58">
+        <v>0.75</v>
+      </c>
+      <c r="AP58">
+        <v>2.4</v>
+      </c>
+      <c r="AQ58">
+        <v>0.6</v>
+      </c>
+      <c r="AR58">
+        <v>1.97</v>
+      </c>
+      <c r="AS58">
+        <v>1.41</v>
+      </c>
+      <c r="AT58">
+        <v>3.38</v>
+      </c>
+      <c r="AU58">
+        <v>7</v>
+      </c>
+      <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>4</v>
+      </c>
+      <c r="AY58">
+        <v>14</v>
+      </c>
+      <c r="AZ58">
+        <v>9</v>
+      </c>
+      <c r="BA58">
+        <v>2</v>
+      </c>
+      <c r="BB58">
+        <v>13</v>
+      </c>
+      <c r="BC58">
+        <v>15</v>
+      </c>
+      <c r="BD58">
+        <v>1.44</v>
+      </c>
+      <c r="BE58">
+        <v>9.5</v>
+      </c>
+      <c r="BF58">
+        <v>3</v>
+      </c>
+      <c r="BG58">
+        <v>1.16</v>
+      </c>
+      <c r="BH58">
+        <v>3.95</v>
+      </c>
+      <c r="BI58">
+        <v>1.36</v>
+      </c>
+      <c r="BJ58">
+        <v>2.79</v>
+      </c>
+      <c r="BK58">
+        <v>1.66</v>
+      </c>
+      <c r="BL58">
+        <v>2.14</v>
+      </c>
+      <c r="BM58">
+        <v>2</v>
+      </c>
+      <c r="BN58">
+        <v>1.73</v>
+      </c>
+      <c r="BO58">
+        <v>2.61</v>
+      </c>
+      <c r="BP58">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7467115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45585.47916666666</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>131</v>
+      </c>
+      <c r="P59" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q59">
+        <v>2.63</v>
+      </c>
+      <c r="R59">
+        <v>2.38</v>
+      </c>
+      <c r="S59">
+        <v>3.5</v>
+      </c>
+      <c r="T59">
+        <v>1.29</v>
+      </c>
+      <c r="U59">
+        <v>3.5</v>
+      </c>
+      <c r="V59">
+        <v>2.38</v>
+      </c>
+      <c r="W59">
+        <v>1.53</v>
+      </c>
+      <c r="X59">
+        <v>5.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.14</v>
+      </c>
+      <c r="Z59">
+        <v>2.26</v>
+      </c>
+      <c r="AA59">
+        <v>3.66</v>
+      </c>
+      <c r="AB59">
+        <v>2.97</v>
+      </c>
+      <c r="AC59">
+        <v>1.04</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.18</v>
+      </c>
+      <c r="AF59">
+        <v>4.5</v>
+      </c>
+      <c r="AG59">
+        <v>1.57</v>
+      </c>
+      <c r="AH59">
+        <v>2.31</v>
+      </c>
+      <c r="AI59">
+        <v>1.5</v>
+      </c>
+      <c r="AJ59">
+        <v>2.5</v>
+      </c>
+      <c r="AK59">
+        <v>1.35</v>
+      </c>
+      <c r="AL59">
+        <v>1.22</v>
+      </c>
+      <c r="AM59">
+        <v>1.7</v>
+      </c>
+      <c r="AN59">
+        <v>1.5</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1.8</v>
+      </c>
+      <c r="AQ59">
+        <v>0.8</v>
+      </c>
+      <c r="AR59">
+        <v>1.76</v>
+      </c>
+      <c r="AS59">
+        <v>1.65</v>
+      </c>
+      <c r="AT59">
+        <v>3.41</v>
+      </c>
+      <c r="AU59">
+        <v>6</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>11</v>
+      </c>
+      <c r="AX59">
+        <v>8</v>
+      </c>
+      <c r="AY59">
+        <v>22</v>
+      </c>
+      <c r="AZ59">
+        <v>16</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>9</v>
+      </c>
+      <c r="BC59">
+        <v>13</v>
+      </c>
+      <c r="BD59">
+        <v>1.66</v>
+      </c>
+      <c r="BE59">
+        <v>7.1</v>
+      </c>
+      <c r="BF59">
+        <v>2.86</v>
+      </c>
+      <c r="BG59">
+        <v>1.1</v>
+      </c>
+      <c r="BH59">
+        <v>4.85</v>
+      </c>
+      <c r="BI59">
+        <v>1.23</v>
+      </c>
+      <c r="BJ59">
+        <v>3.28</v>
+      </c>
+      <c r="BK59">
+        <v>1.46</v>
+      </c>
+      <c r="BL59">
+        <v>2.45</v>
+      </c>
+      <c r="BM59">
+        <v>1.85</v>
+      </c>
+      <c r="BN59">
+        <v>1.85</v>
+      </c>
+      <c r="BO59">
+        <v>2.27</v>
+      </c>
+      <c r="BP59">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7467116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45585.47916666666</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q60">
+        <v>2.05</v>
+      </c>
+      <c r="R60">
+        <v>2.5</v>
+      </c>
+      <c r="S60">
+        <v>5.5</v>
+      </c>
+      <c r="T60">
+        <v>1.29</v>
+      </c>
+      <c r="U60">
+        <v>3.5</v>
+      </c>
+      <c r="V60">
+        <v>2.25</v>
+      </c>
+      <c r="W60">
+        <v>1.57</v>
+      </c>
+      <c r="X60">
+        <v>5.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.14</v>
+      </c>
+      <c r="Z60">
+        <v>1.55</v>
+      </c>
+      <c r="AA60">
+        <v>4.44</v>
+      </c>
+      <c r="AB60">
+        <v>5.35</v>
+      </c>
+      <c r="AC60">
+        <v>1.04</v>
+      </c>
+      <c r="AD60">
+        <v>10</v>
+      </c>
+      <c r="AE60">
+        <v>1.18</v>
+      </c>
+      <c r="AF60">
+        <v>4.5</v>
+      </c>
+      <c r="AG60">
+        <v>1.58</v>
+      </c>
+      <c r="AH60">
+        <v>2.38</v>
+      </c>
+      <c r="AI60">
+        <v>1.67</v>
+      </c>
+      <c r="AJ60">
+        <v>2.1</v>
+      </c>
+      <c r="AK60">
+        <v>1.1</v>
+      </c>
+      <c r="AL60">
+        <v>1.16</v>
+      </c>
+      <c r="AM60">
+        <v>2.5</v>
+      </c>
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>1.8</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>1.68</v>
+      </c>
+      <c r="AS60">
+        <v>1.01</v>
+      </c>
+      <c r="AT60">
+        <v>2.69</v>
+      </c>
+      <c r="AU60">
+        <v>11</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>10</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>24</v>
+      </c>
+      <c r="AZ60">
+        <v>11</v>
+      </c>
+      <c r="BA60">
+        <v>7</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>10</v>
+      </c>
+      <c r="BD60">
+        <v>1.32</v>
+      </c>
+      <c r="BE60">
+        <v>10.25</v>
+      </c>
+      <c r="BF60">
+        <v>4.2</v>
+      </c>
+      <c r="BG60">
+        <v>1.14</v>
+      </c>
+      <c r="BH60">
+        <v>4.2</v>
+      </c>
+      <c r="BI60">
+        <v>1.3</v>
+      </c>
+      <c r="BJ60">
+        <v>2.88</v>
+      </c>
+      <c r="BK60">
+        <v>1.58</v>
+      </c>
+      <c r="BL60">
+        <v>2.17</v>
+      </c>
+      <c r="BM60">
+        <v>2</v>
+      </c>
+      <c r="BN60">
+        <v>1.73</v>
+      </c>
+      <c r="BO60">
+        <v>2.54</v>
+      </c>
+      <c r="BP60">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7467117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45585.47916666666</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q61">
+        <v>4.75</v>
+      </c>
+      <c r="R61">
+        <v>2.38</v>
+      </c>
+      <c r="S61">
+        <v>2.25</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.5</v>
+      </c>
+      <c r="W61">
+        <v>1.5</v>
+      </c>
+      <c r="X61">
+        <v>6.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>4.76</v>
+      </c>
+      <c r="AA61">
+        <v>3.86</v>
+      </c>
+      <c r="AB61">
+        <v>1.71</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>10</v>
+      </c>
+      <c r="AE61">
+        <v>1.2</v>
+      </c>
+      <c r="AF61">
+        <v>4.2</v>
+      </c>
+      <c r="AG61">
+        <v>1.67</v>
+      </c>
+      <c r="AH61">
+        <v>2.2</v>
+      </c>
+      <c r="AI61">
+        <v>1.67</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>2.4</v>
+      </c>
+      <c r="AL61">
+        <v>1.17</v>
+      </c>
+      <c r="AM61">
+        <v>1.1</v>
+      </c>
+      <c r="AN61">
+        <v>1.75</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>2</v>
+      </c>
+      <c r="AQ61">
+        <v>1.6</v>
+      </c>
+      <c r="AR61">
+        <v>1.01</v>
+      </c>
+      <c r="AS61">
+        <v>1.43</v>
+      </c>
+      <c r="AT61">
+        <v>2.44</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>1</v>
+      </c>
+      <c r="AX61">
+        <v>11</v>
+      </c>
+      <c r="AY61">
+        <v>13</v>
+      </c>
+      <c r="AZ61">
+        <v>21</v>
+      </c>
+      <c r="BA61">
+        <v>5</v>
+      </c>
+      <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
+        <v>10</v>
+      </c>
+      <c r="BD61">
+        <v>3.64</v>
+      </c>
+      <c r="BE61">
+        <v>9.6</v>
+      </c>
+      <c r="BF61">
+        <v>1.4</v>
+      </c>
+      <c r="BG61">
+        <v>1.18</v>
+      </c>
+      <c r="BH61">
+        <v>3.7</v>
+      </c>
+      <c r="BI61">
+        <v>1.4</v>
+      </c>
+      <c r="BJ61">
+        <v>2.64</v>
+      </c>
+      <c r="BK61">
+        <v>1.8</v>
+      </c>
+      <c r="BL61">
+        <v>1.91</v>
+      </c>
+      <c r="BM61">
+        <v>2.14</v>
+      </c>
+      <c r="BN61">
+        <v>1.6</v>
+      </c>
+      <c r="BO61">
+        <v>2.78</v>
+      </c>
+      <c r="BP61">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -12373,13 +12373,13 @@
         <v>16</v>
       </c>
       <c r="BA56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB56">
         <v>6</v>
       </c>
       <c r="BC56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD56">
         <v>1.94</v>
@@ -12847,7 +12847,7 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45585.47916666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -13053,7 +13053,7 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45585.47916666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F60">
         <v>10</v>
@@ -13259,7 +13259,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45585.47916666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F61">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -12847,7 +12847,7 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45584.875</v>
+        <v>45585.47916666666</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -12973,22 +12973,22 @@
         <v>3.41</v>
       </c>
       <c r="AU59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>7</v>
+      </c>
+      <c r="AX59">
         <v>5</v>
       </c>
-      <c r="AW59">
+      <c r="AY59">
         <v>11</v>
       </c>
-      <c r="AX59">
-        <v>8</v>
-      </c>
-      <c r="AY59">
-        <v>22</v>
-      </c>
       <c r="AZ59">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13053,7 +13053,7 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45584.875</v>
+        <v>45585.47916666666</v>
       </c>
       <c r="F60">
         <v>10</v>
@@ -13179,22 +13179,22 @@
         <v>2.69</v>
       </c>
       <c r="AU60">
+        <v>9</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
         <v>11</v>
       </c>
-      <c r="AV60">
-        <v>3</v>
-      </c>
-      <c r="AW60">
-        <v>10</v>
-      </c>
       <c r="AX60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY60">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ60">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA60">
         <v>7</v>
@@ -13259,10 +13259,10 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45584.875</v>
+        <v>45585.47916666666</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>71</v>
@@ -13385,10 +13385,10 @@
         <v>2.44</v>
       </c>
       <c r="AU61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV61">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW61">
         <v>1</v>
@@ -13397,10 +13397,10 @@
         <v>11</v>
       </c>
       <c r="AY61">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AZ61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA61">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,15 @@
     <t>['45+4', '58']</t>
   </si>
   <si>
+    <t>['69', '90+1']</t>
+  </si>
+  <si>
+    <t>['2', '80', '87']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -518,6 +527,12 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['8', '11', '90+4']</t>
+  </si>
+  <si>
+    <t>['8', '25', '33', '48', '57', '72']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,7 +1153,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1219,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1344,7 +1359,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1628,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ4">
         <v>0.8</v>
@@ -1756,7 +1771,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1962,7 +1977,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2040,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2168,7 +2183,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2246,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1.6</v>
@@ -2374,7 +2389,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2786,7 +2801,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2992,7 +3007,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3198,7 +3213,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3279,7 +3294,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ12">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3610,7 +3625,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3816,7 +3831,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3897,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -4306,7 +4321,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>0.6</v>
@@ -4434,7 +4449,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4512,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>0.8</v>
@@ -4640,7 +4655,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4924,10 +4939,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5258,7 +5273,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5545,7 +5560,7 @@
         <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -5670,7 +5685,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5876,7 +5891,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -5957,7 +5972,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6366,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6494,7 +6509,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6781,7 +6796,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6906,7 +6921,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -6987,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.23</v>
@@ -7112,7 +7127,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7193,7 +7208,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7602,7 +7617,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33">
         <v>1.6</v>
@@ -7730,7 +7745,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8142,7 +8157,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8220,7 +8235,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.6</v>
@@ -8348,7 +8363,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8554,7 +8569,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8760,7 +8775,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8966,7 +8981,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9044,10 +9059,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR40">
         <v>1.54</v>
@@ -9378,7 +9393,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9456,7 +9471,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
         <v>0.8</v>
@@ -9584,7 +9599,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -10202,7 +10217,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10283,7 +10298,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.42</v>
@@ -10692,10 +10707,10 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -10820,7 +10835,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11026,7 +11041,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11104,7 +11119,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>0.4</v>
@@ -11232,7 +11247,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11313,7 +11328,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ51">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.38</v>
@@ -11516,10 +11531,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.22</v>
@@ -12056,7 +12071,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12262,7 +12277,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12880,7 +12895,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13164,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>0</v>
@@ -13449,6 +13464,624 @@
       </c>
       <c r="BP61">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7467120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45590.875</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q62">
+        <v>1.85</v>
+      </c>
+      <c r="R62">
+        <v>2.55</v>
+      </c>
+      <c r="S62">
+        <v>5.25</v>
+      </c>
+      <c r="T62">
+        <v>1.25</v>
+      </c>
+      <c r="U62">
+        <v>3.65</v>
+      </c>
+      <c r="V62">
+        <v>2.15</v>
+      </c>
+      <c r="W62">
+        <v>1.62</v>
+      </c>
+      <c r="X62">
+        <v>4.65</v>
+      </c>
+      <c r="Y62">
+        <v>1.16</v>
+      </c>
+      <c r="Z62">
+        <v>1.45</v>
+      </c>
+      <c r="AA62">
+        <v>4.5</v>
+      </c>
+      <c r="AB62">
+        <v>5.4</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>17</v>
+      </c>
+      <c r="AE62">
+        <v>1.14</v>
+      </c>
+      <c r="AF62">
+        <v>5.5</v>
+      </c>
+      <c r="AG62">
+        <v>1.47</v>
+      </c>
+      <c r="AH62">
+        <v>2.57</v>
+      </c>
+      <c r="AI62">
+        <v>1.6</v>
+      </c>
+      <c r="AJ62">
+        <v>2.15</v>
+      </c>
+      <c r="AK62">
+        <v>1.11</v>
+      </c>
+      <c r="AL62">
+        <v>1.13</v>
+      </c>
+      <c r="AM62">
+        <v>2.7</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>0.4</v>
+      </c>
+      <c r="AP62">
+        <v>1.67</v>
+      </c>
+      <c r="AQ62">
+        <v>0.83</v>
+      </c>
+      <c r="AR62">
+        <v>1.57</v>
+      </c>
+      <c r="AS62">
+        <v>1.16</v>
+      </c>
+      <c r="AT62">
+        <v>2.73</v>
+      </c>
+      <c r="AU62">
+        <v>10</v>
+      </c>
+      <c r="AV62">
+        <v>7</v>
+      </c>
+      <c r="AW62">
+        <v>8</v>
+      </c>
+      <c r="AX62">
+        <v>3</v>
+      </c>
+      <c r="AY62">
+        <v>27</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
+        <v>15</v>
+      </c>
+      <c r="BB62">
+        <v>3</v>
+      </c>
+      <c r="BC62">
+        <v>18</v>
+      </c>
+      <c r="BD62">
+        <v>1.26</v>
+      </c>
+      <c r="BE62">
+        <v>11</v>
+      </c>
+      <c r="BF62">
+        <v>4.8</v>
+      </c>
+      <c r="BG62">
+        <v>1.15</v>
+      </c>
+      <c r="BH62">
+        <v>4.8</v>
+      </c>
+      <c r="BI62">
+        <v>1.3</v>
+      </c>
+      <c r="BJ62">
+        <v>3.2</v>
+      </c>
+      <c r="BK62">
+        <v>1.51</v>
+      </c>
+      <c r="BL62">
+        <v>2.4</v>
+      </c>
+      <c r="BM62">
+        <v>1.83</v>
+      </c>
+      <c r="BN62">
+        <v>1.87</v>
+      </c>
+      <c r="BO62">
+        <v>2.28</v>
+      </c>
+      <c r="BP62">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7467118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45591.54166666666</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>135</v>
+      </c>
+      <c r="P63" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q63">
+        <v>2.45</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>3.95</v>
+      </c>
+      <c r="T63">
+        <v>1.33</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.45</v>
+      </c>
+      <c r="W63">
+        <v>1.48</v>
+      </c>
+      <c r="X63">
+        <v>5.7</v>
+      </c>
+      <c r="Y63">
+        <v>1.1</v>
+      </c>
+      <c r="Z63">
+        <v>1.85</v>
+      </c>
+      <c r="AA63">
+        <v>3.75</v>
+      </c>
+      <c r="AB63">
+        <v>3.7</v>
+      </c>
+      <c r="AC63">
+        <v>1.04</v>
+      </c>
+      <c r="AD63">
+        <v>10</v>
+      </c>
+      <c r="AE63">
+        <v>1.22</v>
+      </c>
+      <c r="AF63">
+        <v>4.2</v>
+      </c>
+      <c r="AG63">
+        <v>1.63</v>
+      </c>
+      <c r="AH63">
+        <v>2.1</v>
+      </c>
+      <c r="AI63">
+        <v>1.55</v>
+      </c>
+      <c r="AJ63">
+        <v>2.25</v>
+      </c>
+      <c r="AK63">
+        <v>1.25</v>
+      </c>
+      <c r="AL63">
+        <v>1.22</v>
+      </c>
+      <c r="AM63">
+        <v>1.83</v>
+      </c>
+      <c r="AN63">
+        <v>1.8</v>
+      </c>
+      <c r="AO63">
+        <v>0.6</v>
+      </c>
+      <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>0.5</v>
+      </c>
+      <c r="AR63">
+        <v>1.68</v>
+      </c>
+      <c r="AS63">
+        <v>1.44</v>
+      </c>
+      <c r="AT63">
+        <v>3.12</v>
+      </c>
+      <c r="AU63">
+        <v>9</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
+        <v>16</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>4</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>1.68</v>
+      </c>
+      <c r="BE63">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF63">
+        <v>2.6</v>
+      </c>
+      <c r="BG63">
+        <v>1.23</v>
+      </c>
+      <c r="BH63">
+        <v>3.72</v>
+      </c>
+      <c r="BI63">
+        <v>1.41</v>
+      </c>
+      <c r="BJ63">
+        <v>2.7</v>
+      </c>
+      <c r="BK63">
+        <v>1.82</v>
+      </c>
+      <c r="BL63">
+        <v>1.98</v>
+      </c>
+      <c r="BM63">
+        <v>2.11</v>
+      </c>
+      <c r="BN63">
+        <v>1.65</v>
+      </c>
+      <c r="BO63">
+        <v>2.73</v>
+      </c>
+      <c r="BP63">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7467119</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45591.54166666666</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>6</v>
+      </c>
+      <c r="N64">
+        <v>7</v>
+      </c>
+      <c r="O64" t="s">
+        <v>136</v>
+      </c>
+      <c r="P64" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q64">
+        <v>4.2</v>
+      </c>
+      <c r="R64">
+        <v>2.25</v>
+      </c>
+      <c r="S64">
+        <v>2.3</v>
+      </c>
+      <c r="T64">
+        <v>1.3</v>
+      </c>
+      <c r="U64">
+        <v>3.2</v>
+      </c>
+      <c r="V64">
+        <v>2.4</v>
+      </c>
+      <c r="W64">
+        <v>1.5</v>
+      </c>
+      <c r="X64">
+        <v>5.5</v>
+      </c>
+      <c r="Y64">
+        <v>1.11</v>
+      </c>
+      <c r="Z64">
+        <v>3.75</v>
+      </c>
+      <c r="AA64">
+        <v>3.8</v>
+      </c>
+      <c r="AB64">
+        <v>1.83</v>
+      </c>
+      <c r="AC64">
+        <v>1.04</v>
+      </c>
+      <c r="AD64">
+        <v>10</v>
+      </c>
+      <c r="AE64">
+        <v>1.22</v>
+      </c>
+      <c r="AF64">
+        <v>4.2</v>
+      </c>
+      <c r="AG64">
+        <v>1.6</v>
+      </c>
+      <c r="AH64">
+        <v>2.2</v>
+      </c>
+      <c r="AI64">
+        <v>1.57</v>
+      </c>
+      <c r="AJ64">
+        <v>2.2</v>
+      </c>
+      <c r="AK64">
+        <v>1.95</v>
+      </c>
+      <c r="AL64">
+        <v>1.2</v>
+      </c>
+      <c r="AM64">
+        <v>1.22</v>
+      </c>
+      <c r="AN64">
+        <v>1.4</v>
+      </c>
+      <c r="AO64">
+        <v>1.4</v>
+      </c>
+      <c r="AP64">
+        <v>1.17</v>
+      </c>
+      <c r="AQ64">
+        <v>1.67</v>
+      </c>
+      <c r="AR64">
+        <v>1.26</v>
+      </c>
+      <c r="AS64">
+        <v>1.51</v>
+      </c>
+      <c r="AT64">
+        <v>2.77</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>11</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>7</v>
+      </c>
+      <c r="AY64">
+        <v>16</v>
+      </c>
+      <c r="AZ64">
+        <v>23</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
+        <v>13</v>
+      </c>
+      <c r="BD64">
+        <v>2.59</v>
+      </c>
+      <c r="BE64">
+        <v>8.9</v>
+      </c>
+      <c r="BF64">
+        <v>1.68</v>
+      </c>
+      <c r="BG64">
+        <v>1.14</v>
+      </c>
+      <c r="BH64">
+        <v>4.15</v>
+      </c>
+      <c r="BI64">
+        <v>1.37</v>
+      </c>
+      <c r="BJ64">
+        <v>2.85</v>
+      </c>
+      <c r="BK64">
+        <v>1.63</v>
+      </c>
+      <c r="BL64">
+        <v>2.14</v>
+      </c>
+      <c r="BM64">
+        <v>2.02</v>
+      </c>
+      <c r="BN64">
+        <v>1.71</v>
+      </c>
+      <c r="BO64">
+        <v>2.6</v>
+      </c>
+      <c r="BP64">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,13 +418,19 @@
     <t>['45+4', '58']</t>
   </si>
   <si>
+    <t>['2', '80', '87']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['69', '90+1']</t>
   </si>
   <si>
-    <t>['2', '80', '87']</t>
-  </si>
-  <si>
-    <t>['90']</t>
+    <t>['9', '29']</t>
+  </si>
+  <si>
+    <t>['18', '33']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -529,10 +535,16 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['8', '25', '33', '48', '57', '72']</t>
+  </si>
+  <si>
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
-    <t>['8', '25', '33', '48', '57', '72']</t>
+    <t>['15', '84']</t>
+  </si>
+  <si>
+    <t>['32', '51', '65']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1165,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1231,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1359,7 +1371,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1646,7 +1658,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ4">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1771,7 +1783,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1977,7 +1989,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2183,7 +2195,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2264,7 +2276,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2389,7 +2401,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2470,7 +2482,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2673,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.4</v>
@@ -2801,7 +2813,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3007,7 +3019,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3213,7 +3225,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3500,7 +3512,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3625,7 +3637,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3703,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -3831,7 +3843,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4115,10 +4127,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ16">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4449,7 +4461,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4530,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4655,7 +4667,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5145,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5273,7 +5285,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5354,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -5685,7 +5697,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5763,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ24">
         <v>1.6</v>
@@ -5891,7 +5903,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6175,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ26">
         <v>0.4</v>
@@ -6509,7 +6521,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6921,7 +6933,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7127,7 +7139,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7205,7 +7217,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>1.67</v>
@@ -7620,7 +7632,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -7745,7 +7757,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7823,10 +7835,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8029,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
         <v>1.6</v>
@@ -8157,7 +8169,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8363,7 +8375,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8444,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR37">
         <v>1.38</v>
@@ -8569,7 +8581,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8775,7 +8787,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8981,7 +8993,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9265,7 +9277,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>1.6</v>
@@ -9393,7 +9405,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9474,7 +9486,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>1.16</v>
@@ -9599,7 +9611,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9886,7 +9898,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10217,7 +10229,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10501,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47">
         <v>0.6</v>
@@ -10835,7 +10847,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -10913,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -11041,7 +11053,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11247,7 +11259,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11325,7 +11337,7 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11737,7 +11749,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -11946,7 +11958,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ54">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12071,7 +12083,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12152,7 +12164,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12277,7 +12289,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12895,7 +12907,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -12976,7 +12988,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ59">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR59">
         <v>1.76</v>
@@ -13471,7 +13483,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7467120</v>
+        <v>7467118</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13480,196 +13492,196 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45590.875</v>
+        <v>45591.54166666666</v>
       </c>
       <c r="F62">
         <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
         <v>3</v>
-      </c>
-      <c r="N62">
-        <v>5</v>
       </c>
       <c r="O62" t="s">
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="Q62">
+        <v>2.45</v>
+      </c>
+      <c r="R62">
+        <v>2.2</v>
+      </c>
+      <c r="S62">
+        <v>3.95</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3</v>
+      </c>
+      <c r="V62">
+        <v>2.45</v>
+      </c>
+      <c r="W62">
+        <v>1.48</v>
+      </c>
+      <c r="X62">
+        <v>5.7</v>
+      </c>
+      <c r="Y62">
+        <v>1.1</v>
+      </c>
+      <c r="Z62">
         <v>1.85</v>
       </c>
-      <c r="R62">
-        <v>2.55</v>
-      </c>
-      <c r="S62">
-        <v>5.25</v>
-      </c>
-      <c r="T62">
+      <c r="AA62">
+        <v>3.75</v>
+      </c>
+      <c r="AB62">
+        <v>3.7</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>10</v>
+      </c>
+      <c r="AE62">
+        <v>1.22</v>
+      </c>
+      <c r="AF62">
+        <v>4.2</v>
+      </c>
+      <c r="AG62">
+        <v>1.63</v>
+      </c>
+      <c r="AH62">
+        <v>2.1</v>
+      </c>
+      <c r="AI62">
+        <v>1.55</v>
+      </c>
+      <c r="AJ62">
+        <v>2.25</v>
+      </c>
+      <c r="AK62">
         <v>1.25</v>
       </c>
-      <c r="U62">
-        <v>3.65</v>
-      </c>
-      <c r="V62">
-        <v>2.15</v>
-      </c>
-      <c r="W62">
-        <v>1.62</v>
-      </c>
-      <c r="X62">
-        <v>4.65</v>
-      </c>
-      <c r="Y62">
-        <v>1.16</v>
-      </c>
-      <c r="Z62">
-        <v>1.45</v>
-      </c>
-      <c r="AA62">
-        <v>4.5</v>
-      </c>
-      <c r="AB62">
-        <v>5.4</v>
-      </c>
-      <c r="AC62">
-        <v>1.01</v>
-      </c>
-      <c r="AD62">
-        <v>17</v>
-      </c>
-      <c r="AE62">
-        <v>1.14</v>
-      </c>
-      <c r="AF62">
-        <v>5.5</v>
-      </c>
-      <c r="AG62">
-        <v>1.47</v>
-      </c>
-      <c r="AH62">
-        <v>2.57</v>
-      </c>
-      <c r="AI62">
-        <v>1.6</v>
-      </c>
-      <c r="AJ62">
-        <v>2.15</v>
-      </c>
-      <c r="AK62">
-        <v>1.11</v>
-      </c>
       <c r="AL62">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AM62">
-        <v>2.7</v>
+        <v>1.83</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO62">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AS62">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>2.73</v>
+        <v>3.26</v>
       </c>
       <c r="AU62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY62">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AZ62">
         <v>11</v>
       </c>
       <c r="BA62">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BB62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC62">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BD62">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="BE62">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF62">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="BG62">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="BH62">
-        <v>4.8</v>
+        <v>3.72</v>
       </c>
       <c r="BI62">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="BJ62">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="BK62">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="BL62">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="BM62">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="BN62">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="BO62">
-        <v>2.28</v>
+        <v>2.73</v>
       </c>
       <c r="BP62">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13677,7 +13689,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7467118</v>
+        <v>7467119</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -13689,73 +13701,73 @@
         <v>45591.54166666666</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O63" t="s">
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="Q63">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="R63">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S63">
-        <v>3.95</v>
+        <v>2.3</v>
       </c>
       <c r="T63">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U63">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V63">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="W63">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X63">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z63">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="AA63">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AB63">
-        <v>3.7</v>
+        <v>1.83</v>
       </c>
       <c r="AC63">
         <v>1.04</v>
@@ -13770,112 +13782,112 @@
         <v>4.2</v>
       </c>
       <c r="AG63">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AH63">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI63">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AJ63">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK63">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="AL63">
+        <v>1.2</v>
+      </c>
+      <c r="AM63">
         <v>1.22</v>
       </c>
-      <c r="AM63">
-        <v>1.83</v>
-      </c>
       <c r="AN63">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO63">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
-        <v>1.68</v>
+        <v>1.26</v>
       </c>
       <c r="AS63">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="AT63">
-        <v>3.12</v>
+        <v>2.77</v>
       </c>
       <c r="AU63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV63">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AW63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY63">
         <v>16</v>
       </c>
       <c r="AZ63">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="BA63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC63">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD63">
+        <v>2.59</v>
+      </c>
+      <c r="BE63">
+        <v>8.9</v>
+      </c>
+      <c r="BF63">
         <v>1.68</v>
       </c>
-      <c r="BE63">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF63">
+      <c r="BG63">
+        <v>1.14</v>
+      </c>
+      <c r="BH63">
+        <v>4.15</v>
+      </c>
+      <c r="BI63">
+        <v>1.37</v>
+      </c>
+      <c r="BJ63">
+        <v>2.85</v>
+      </c>
+      <c r="BK63">
+        <v>1.63</v>
+      </c>
+      <c r="BL63">
+        <v>2.14</v>
+      </c>
+      <c r="BM63">
+        <v>2.02</v>
+      </c>
+      <c r="BN63">
+        <v>1.71</v>
+      </c>
+      <c r="BO63">
         <v>2.6</v>
       </c>
-      <c r="BG63">
-        <v>1.23</v>
-      </c>
-      <c r="BH63">
-        <v>3.72</v>
-      </c>
-      <c r="BI63">
-        <v>1.41</v>
-      </c>
-      <c r="BJ63">
-        <v>2.7</v>
-      </c>
-      <c r="BK63">
-        <v>1.82</v>
-      </c>
-      <c r="BL63">
-        <v>1.98</v>
-      </c>
-      <c r="BM63">
-        <v>2.11</v>
-      </c>
-      <c r="BN63">
-        <v>1.65</v>
-      </c>
-      <c r="BO63">
-        <v>2.73</v>
-      </c>
       <c r="BP63">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -13883,7 +13895,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7467119</v>
+        <v>7467120</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13892,196 +13904,814 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45591.54166666666</v>
+        <v>45591.64583333334</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
         <v>3</v>
       </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>6</v>
-      </c>
       <c r="N64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O64" t="s">
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q64">
+        <v>1.85</v>
+      </c>
+      <c r="R64">
+        <v>2.55</v>
+      </c>
+      <c r="S64">
+        <v>5.25</v>
+      </c>
+      <c r="T64">
+        <v>1.25</v>
+      </c>
+      <c r="U64">
+        <v>3.65</v>
+      </c>
+      <c r="V64">
+        <v>2.15</v>
+      </c>
+      <c r="W64">
+        <v>1.62</v>
+      </c>
+      <c r="X64">
+        <v>4.65</v>
+      </c>
+      <c r="Y64">
+        <v>1.16</v>
+      </c>
+      <c r="Z64">
+        <v>1.45</v>
+      </c>
+      <c r="AA64">
+        <v>4.5</v>
+      </c>
+      <c r="AB64">
+        <v>5.4</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>17</v>
+      </c>
+      <c r="AE64">
+        <v>1.14</v>
+      </c>
+      <c r="AF64">
+        <v>5.5</v>
+      </c>
+      <c r="AG64">
+        <v>1.47</v>
+      </c>
+      <c r="AH64">
+        <v>2.57</v>
+      </c>
+      <c r="AI64">
+        <v>1.6</v>
+      </c>
+      <c r="AJ64">
+        <v>2.15</v>
+      </c>
+      <c r="AK64">
+        <v>1.11</v>
+      </c>
+      <c r="AL64">
+        <v>1.13</v>
+      </c>
+      <c r="AM64">
+        <v>2.7</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>0.4</v>
+      </c>
+      <c r="AP64">
+        <v>1.67</v>
+      </c>
+      <c r="AQ64">
+        <v>0.83</v>
+      </c>
+      <c r="AR64">
+        <v>1.57</v>
+      </c>
+      <c r="AS64">
+        <v>1.16</v>
+      </c>
+      <c r="AT64">
+        <v>2.73</v>
+      </c>
+      <c r="AU64">
+        <v>10</v>
+      </c>
+      <c r="AV64">
+        <v>7</v>
+      </c>
+      <c r="AW64">
+        <v>8</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>27</v>
+      </c>
+      <c r="AZ64">
+        <v>11</v>
+      </c>
+      <c r="BA64">
+        <v>15</v>
+      </c>
+      <c r="BB64">
+        <v>3</v>
+      </c>
+      <c r="BC64">
+        <v>18</v>
+      </c>
+      <c r="BD64">
+        <v>1.26</v>
+      </c>
+      <c r="BE64">
+        <v>11</v>
+      </c>
+      <c r="BF64">
+        <v>4.8</v>
+      </c>
+      <c r="BG64">
+        <v>1.15</v>
+      </c>
+      <c r="BH64">
+        <v>4.8</v>
+      </c>
+      <c r="BI64">
+        <v>1.3</v>
+      </c>
+      <c r="BJ64">
+        <v>3.2</v>
+      </c>
+      <c r="BK64">
+        <v>1.51</v>
+      </c>
+      <c r="BL64">
+        <v>2.4</v>
+      </c>
+      <c r="BM64">
+        <v>1.83</v>
+      </c>
+      <c r="BN64">
+        <v>1.87</v>
+      </c>
+      <c r="BO64">
+        <v>2.28</v>
+      </c>
+      <c r="BP64">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7467121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45592.42708333334</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P65" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q65">
+        <v>2.88</v>
+      </c>
+      <c r="R65">
+        <v>2.3</v>
+      </c>
+      <c r="S65">
+        <v>3.25</v>
+      </c>
+      <c r="T65">
+        <v>1.3</v>
+      </c>
+      <c r="U65">
+        <v>3.4</v>
+      </c>
+      <c r="V65">
+        <v>2.5</v>
+      </c>
+      <c r="W65">
+        <v>1.5</v>
+      </c>
+      <c r="X65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>1.13</v>
+      </c>
+      <c r="Z65">
+        <v>2.29</v>
+      </c>
+      <c r="AA65">
+        <v>3.4</v>
+      </c>
+      <c r="AB65">
+        <v>2.7</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>10</v>
+      </c>
+      <c r="AE65">
+        <v>1.2</v>
+      </c>
+      <c r="AF65">
+        <v>4.33</v>
+      </c>
+      <c r="AG65">
+        <v>1.54</v>
+      </c>
+      <c r="AH65">
+        <v>2.35</v>
+      </c>
+      <c r="AI65">
+        <v>1.53</v>
+      </c>
+      <c r="AJ65">
+        <v>2.38</v>
+      </c>
+      <c r="AK65">
+        <v>1.4</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.6</v>
+      </c>
+      <c r="AN65">
+        <v>1.8</v>
+      </c>
+      <c r="AO65">
+        <v>0.8</v>
+      </c>
+      <c r="AP65">
+        <v>1.67</v>
+      </c>
+      <c r="AQ65">
+        <v>0.83</v>
+      </c>
+      <c r="AR65">
+        <v>1.56</v>
+      </c>
+      <c r="AS65">
+        <v>1.59</v>
+      </c>
+      <c r="AT65">
+        <v>3.15</v>
+      </c>
+      <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>10</v>
+      </c>
+      <c r="BA65">
+        <v>1</v>
+      </c>
+      <c r="BB65">
+        <v>3</v>
+      </c>
+      <c r="BC65">
+        <v>4</v>
+      </c>
+      <c r="BD65">
+        <v>1.72</v>
+      </c>
+      <c r="BE65">
+        <v>8.9</v>
+      </c>
+      <c r="BF65">
+        <v>2.5</v>
+      </c>
+      <c r="BG65">
+        <v>1.13</v>
+      </c>
+      <c r="BH65">
+        <v>4.25</v>
+      </c>
+      <c r="BI65">
+        <v>1.29</v>
+      </c>
+      <c r="BJ65">
+        <v>2.92</v>
+      </c>
+      <c r="BK65">
+        <v>1.73</v>
+      </c>
+      <c r="BL65">
+        <v>2</v>
+      </c>
+      <c r="BM65">
+        <v>1.98</v>
+      </c>
+      <c r="BN65">
+        <v>1.77</v>
+      </c>
+      <c r="BO65">
+        <v>2.51</v>
+      </c>
+      <c r="BP65">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7467122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45592.52083333334</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>138</v>
+      </c>
+      <c r="P66" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q66">
+        <v>2.88</v>
+      </c>
+      <c r="R66">
+        <v>2.3</v>
+      </c>
+      <c r="S66">
+        <v>3.4</v>
+      </c>
+      <c r="T66">
+        <v>1.3</v>
+      </c>
+      <c r="U66">
+        <v>3.4</v>
+      </c>
+      <c r="V66">
+        <v>2.5</v>
+      </c>
+      <c r="W66">
+        <v>1.5</v>
+      </c>
+      <c r="X66">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>1.13</v>
+      </c>
+      <c r="Z66">
+        <v>2.29</v>
+      </c>
+      <c r="AA66">
+        <v>3.57</v>
+      </c>
+      <c r="AB66">
+        <v>3.01</v>
+      </c>
+      <c r="AC66">
+        <v>1.04</v>
+      </c>
+      <c r="AD66">
+        <v>10</v>
+      </c>
+      <c r="AE66">
+        <v>1.22</v>
+      </c>
+      <c r="AF66">
         <v>4.2</v>
       </c>
-      <c r="R64">
-        <v>2.25</v>
-      </c>
-      <c r="S64">
-        <v>2.3</v>
-      </c>
-      <c r="T64">
-        <v>1.3</v>
-      </c>
-      <c r="U64">
-        <v>3.2</v>
-      </c>
-      <c r="V64">
-        <v>2.4</v>
-      </c>
-      <c r="W64">
-        <v>1.5</v>
-      </c>
-      <c r="X64">
-        <v>5.5</v>
-      </c>
-      <c r="Y64">
-        <v>1.11</v>
-      </c>
-      <c r="Z64">
-        <v>3.75</v>
-      </c>
-      <c r="AA64">
-        <v>3.8</v>
-      </c>
-      <c r="AB64">
+      <c r="AG66">
+        <v>1.64</v>
+      </c>
+      <c r="AH66">
+        <v>2.18</v>
+      </c>
+      <c r="AI66">
+        <v>1.53</v>
+      </c>
+      <c r="AJ66">
+        <v>2.38</v>
+      </c>
+      <c r="AK66">
+        <v>1.38</v>
+      </c>
+      <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
+        <v>1.62</v>
+      </c>
+      <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <v>0.8</v>
+      </c>
+      <c r="AP66">
+        <v>2.17</v>
+      </c>
+      <c r="AQ66">
+        <v>0.67</v>
+      </c>
+      <c r="AR66">
+        <v>1.86</v>
+      </c>
+      <c r="AS66">
+        <v>1.73</v>
+      </c>
+      <c r="AT66">
+        <v>3.59</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>3</v>
+      </c>
+      <c r="AX66">
+        <v>6</v>
+      </c>
+      <c r="AY66">
+        <v>8</v>
+      </c>
+      <c r="AZ66">
+        <v>19</v>
+      </c>
+      <c r="BA66">
+        <v>1</v>
+      </c>
+      <c r="BB66">
+        <v>9</v>
+      </c>
+      <c r="BC66">
+        <v>10</v>
+      </c>
+      <c r="BD66">
+        <v>1.73</v>
+      </c>
+      <c r="BE66">
+        <v>8.9</v>
+      </c>
+      <c r="BF66">
+        <v>2.49</v>
+      </c>
+      <c r="BG66">
+        <v>1.14</v>
+      </c>
+      <c r="BH66">
+        <v>4.15</v>
+      </c>
+      <c r="BI66">
+        <v>1.31</v>
+      </c>
+      <c r="BJ66">
+        <v>2.82</v>
+      </c>
+      <c r="BK66">
+        <v>1.59</v>
+      </c>
+      <c r="BL66">
+        <v>2.16</v>
+      </c>
+      <c r="BM66">
+        <v>2</v>
+      </c>
+      <c r="BN66">
+        <v>1.73</v>
+      </c>
+      <c r="BO66">
+        <v>2.57</v>
+      </c>
+      <c r="BP66">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7467123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45592.52083333334</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>135</v>
+      </c>
+      <c r="P67" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q67">
+        <v>3.1</v>
+      </c>
+      <c r="R67">
+        <v>2.2</v>
+      </c>
+      <c r="S67">
+        <v>3.4</v>
+      </c>
+      <c r="T67">
+        <v>1.36</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>2.75</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67">
+        <v>1.1</v>
+      </c>
+      <c r="Z67">
+        <v>2.49</v>
+      </c>
+      <c r="AA67">
+        <v>2.5</v>
+      </c>
+      <c r="AB67">
+        <v>3.26</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>9.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.28</v>
+      </c>
+      <c r="AF67">
+        <v>3.65</v>
+      </c>
+      <c r="AG67">
+        <v>1.8</v>
+      </c>
+      <c r="AH67">
+        <v>1.95</v>
+      </c>
+      <c r="AI67">
+        <v>1.67</v>
+      </c>
+      <c r="AJ67">
+        <v>2.1</v>
+      </c>
+      <c r="AK67">
+        <v>1.44</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.53</v>
+      </c>
+      <c r="AN67">
+        <v>2.2</v>
+      </c>
+      <c r="AO67">
+        <v>1.6</v>
+      </c>
+      <c r="AP67">
         <v>1.83</v>
       </c>
-      <c r="AC64">
-        <v>1.04</v>
-      </c>
-      <c r="AD64">
+      <c r="AQ67">
+        <v>1.83</v>
+      </c>
+      <c r="AR67">
+        <v>1.55</v>
+      </c>
+      <c r="AS67">
+        <v>1.62</v>
+      </c>
+      <c r="AT67">
+        <v>3.17</v>
+      </c>
+      <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>8</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>16</v>
+      </c>
+      <c r="AZ67">
+        <v>16</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
+        <v>4</v>
+      </c>
+      <c r="BC67">
         <v>10</v>
       </c>
-      <c r="AE64">
-        <v>1.22</v>
-      </c>
-      <c r="AF64">
-        <v>4.2</v>
-      </c>
-      <c r="AG64">
-        <v>1.6</v>
-      </c>
-      <c r="AH64">
-        <v>2.2</v>
-      </c>
-      <c r="AI64">
-        <v>1.57</v>
-      </c>
-      <c r="AJ64">
-        <v>2.2</v>
-      </c>
-      <c r="AK64">
-        <v>1.95</v>
-      </c>
-      <c r="AL64">
-        <v>1.2</v>
-      </c>
-      <c r="AM64">
-        <v>1.22</v>
-      </c>
-      <c r="AN64">
-        <v>1.4</v>
-      </c>
-      <c r="AO64">
-        <v>1.4</v>
-      </c>
-      <c r="AP64">
-        <v>1.17</v>
-      </c>
-      <c r="AQ64">
-        <v>1.67</v>
-      </c>
-      <c r="AR64">
-        <v>1.26</v>
-      </c>
-      <c r="AS64">
-        <v>1.51</v>
-      </c>
-      <c r="AT64">
-        <v>2.77</v>
-      </c>
-      <c r="AU64">
-        <v>7</v>
-      </c>
-      <c r="AV64">
-        <v>11</v>
-      </c>
-      <c r="AW64">
-        <v>6</v>
-      </c>
-      <c r="AX64">
-        <v>7</v>
-      </c>
-      <c r="AY64">
-        <v>16</v>
-      </c>
-      <c r="AZ64">
-        <v>23</v>
-      </c>
-      <c r="BA64">
-        <v>6</v>
-      </c>
-      <c r="BB64">
-        <v>7</v>
-      </c>
-      <c r="BC64">
-        <v>13</v>
-      </c>
-      <c r="BD64">
-        <v>2.59</v>
-      </c>
-      <c r="BE64">
-        <v>8.9</v>
-      </c>
-      <c r="BF64">
-        <v>1.68</v>
-      </c>
-      <c r="BG64">
+      <c r="BD67">
+        <v>2.02</v>
+      </c>
+      <c r="BE67">
+        <v>6.65</v>
+      </c>
+      <c r="BF67">
+        <v>2.23</v>
+      </c>
+      <c r="BG67">
         <v>1.14</v>
       </c>
-      <c r="BH64">
+      <c r="BH67">
         <v>4.15</v>
       </c>
-      <c r="BI64">
-        <v>1.37</v>
-      </c>
-      <c r="BJ64">
-        <v>2.85</v>
-      </c>
-      <c r="BK64">
-        <v>1.63</v>
-      </c>
-      <c r="BL64">
-        <v>2.14</v>
-      </c>
-      <c r="BM64">
+      <c r="BI67">
+        <v>1.31</v>
+      </c>
+      <c r="BJ67">
+        <v>2.82</v>
+      </c>
+      <c r="BK67">
+        <v>1.73</v>
+      </c>
+      <c r="BL67">
+        <v>2</v>
+      </c>
+      <c r="BM67">
         <v>2.02</v>
       </c>
-      <c r="BN64">
-        <v>1.71</v>
-      </c>
-      <c r="BO64">
-        <v>2.6</v>
-      </c>
-      <c r="BP64">
-        <v>1.44</v>
+      <c r="BN67">
+        <v>1.74</v>
+      </c>
+      <c r="BO67">
+        <v>2.57</v>
+      </c>
+      <c r="BP67">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -427,12 +427,12 @@
     <t>['69', '90+1']</t>
   </si>
   <si>
+    <t>['18', '33']</t>
+  </si>
+  <si>
     <t>['9', '29']</t>
   </si>
   <si>
-    <t>['18', '33']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -541,10 +541,10 @@
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
+    <t>['32', '51', '65']</t>
+  </si>
+  <si>
     <t>['15', '84']</t>
-  </si>
-  <si>
-    <t>['32', '51', '65']</t>
   </si>
 </sst>
 </file>
@@ -14101,7 +14101,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7467121</v>
+        <v>7467122</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14110,40 +14110,40 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45592.42708333334</v>
+        <v>45591.875</v>
       </c>
       <c r="F65">
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L65">
         <v>2</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O65" t="s">
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14152,7 +14152,7 @@
         <v>2.3</v>
       </c>
       <c r="S65">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T65">
         <v>1.3</v>
@@ -14176,10 +14176,10 @@
         <v>2.29</v>
       </c>
       <c r="AA65">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="AB65">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="AC65">
         <v>1.04</v>
@@ -14188,16 +14188,16 @@
         <v>10</v>
       </c>
       <c r="AE65">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF65">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="AG65">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AH65">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="AI65">
         <v>1.53</v>
@@ -14206,100 +14206,100 @@
         <v>2.38</v>
       </c>
       <c r="AK65">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AL65">
         <v>1.25</v>
       </c>
       <c r="AM65">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AN65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO65">
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="AS65">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AT65">
-        <v>3.15</v>
+        <v>3.59</v>
       </c>
       <c r="AU65">
         <v>4</v>
       </c>
       <c r="AV65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW65">
+        <v>3</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>8</v>
+      </c>
+      <c r="AZ65">
+        <v>19</v>
+      </c>
+      <c r="BA65">
+        <v>1</v>
+      </c>
+      <c r="BB65">
         <v>9</v>
       </c>
-      <c r="AX65">
-        <v>4</v>
-      </c>
-      <c r="AY65">
-        <v>14</v>
-      </c>
-      <c r="AZ65">
+      <c r="BC65">
         <v>10</v>
       </c>
-      <c r="BA65">
-        <v>1</v>
-      </c>
-      <c r="BB65">
-        <v>3</v>
-      </c>
-      <c r="BC65">
-        <v>4</v>
-      </c>
       <c r="BD65">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="BE65">
         <v>8.9</v>
       </c>
       <c r="BF65">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="BG65">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BH65">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="BI65">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="BJ65">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="BK65">
+        <v>1.59</v>
+      </c>
+      <c r="BL65">
+        <v>2.16</v>
+      </c>
+      <c r="BM65">
+        <v>2</v>
+      </c>
+      <c r="BN65">
         <v>1.73</v>
       </c>
-      <c r="BL65">
-        <v>2</v>
-      </c>
-      <c r="BM65">
-        <v>1.98</v>
-      </c>
-      <c r="BN65">
-        <v>1.77</v>
-      </c>
       <c r="BO65">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="BP65">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14307,7 +14307,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7467122</v>
+        <v>7467123</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14316,166 +14316,166 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45592.52083333334</v>
+        <v>45591.875</v>
       </c>
       <c r="F66">
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="Q66">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R66">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S66">
         <v>3.4</v>
       </c>
       <c r="T66">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U66">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V66">
+        <v>2.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>7</v>
+      </c>
+      <c r="Y66">
+        <v>1.1</v>
+      </c>
+      <c r="Z66">
+        <v>2.49</v>
+      </c>
+      <c r="AA66">
         <v>2.5</v>
       </c>
-      <c r="W66">
-        <v>1.5</v>
-      </c>
-      <c r="X66">
-        <v>6</v>
-      </c>
-      <c r="Y66">
-        <v>1.13</v>
-      </c>
-      <c r="Z66">
-        <v>2.29</v>
-      </c>
-      <c r="AA66">
-        <v>3.57</v>
-      </c>
       <c r="AB66">
-        <v>3.01</v>
+        <v>3.26</v>
       </c>
       <c r="AC66">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE66">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF66">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="AG66">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AH66">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="AI66">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AJ66">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK66">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AL66">
         <v>1.25</v>
       </c>
       <c r="AM66">
+        <v>1.53</v>
+      </c>
+      <c r="AN66">
+        <v>2.2</v>
+      </c>
+      <c r="AO66">
+        <v>1.6</v>
+      </c>
+      <c r="AP66">
+        <v>1.83</v>
+      </c>
+      <c r="AQ66">
+        <v>1.83</v>
+      </c>
+      <c r="AR66">
+        <v>1.55</v>
+      </c>
+      <c r="AS66">
         <v>1.62</v>
       </c>
-      <c r="AN66">
-        <v>2</v>
-      </c>
-      <c r="AO66">
-        <v>0.8</v>
-      </c>
-      <c r="AP66">
-        <v>2.17</v>
-      </c>
-      <c r="AQ66">
-        <v>0.67</v>
-      </c>
-      <c r="AR66">
-        <v>1.86</v>
-      </c>
-      <c r="AS66">
-        <v>1.73</v>
-      </c>
       <c r="AT66">
-        <v>3.59</v>
+        <v>3.17</v>
       </c>
       <c r="AU66">
+        <v>3</v>
+      </c>
+      <c r="AV66">
+        <v>8</v>
+      </c>
+      <c r="AW66">
+        <v>6</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>16</v>
+      </c>
+      <c r="AZ66">
+        <v>16</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
         <v>4</v>
-      </c>
-      <c r="AV66">
-        <v>5</v>
-      </c>
-      <c r="AW66">
-        <v>3</v>
-      </c>
-      <c r="AX66">
-        <v>6</v>
-      </c>
-      <c r="AY66">
-        <v>8</v>
-      </c>
-      <c r="AZ66">
-        <v>19</v>
-      </c>
-      <c r="BA66">
-        <v>1</v>
-      </c>
-      <c r="BB66">
-        <v>9</v>
       </c>
       <c r="BC66">
         <v>10</v>
       </c>
       <c r="BD66">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="BE66">
-        <v>8.9</v>
+        <v>6.65</v>
       </c>
       <c r="BF66">
-        <v>2.49</v>
+        <v>2.23</v>
       </c>
       <c r="BG66">
         <v>1.14</v>
@@ -14490,16 +14490,16 @@
         <v>2.82</v>
       </c>
       <c r="BK66">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="BL66">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="BM66">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="BN66">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="BO66">
         <v>2.57</v>
@@ -14513,7 +14513,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7467123</v>
+        <v>7467121</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14522,178 +14522,178 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45592.52083333334</v>
+        <v>45592.42708333334</v>
       </c>
       <c r="F67">
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N67">
         <v>4</v>
       </c>
       <c r="O67" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P67" t="s">
         <v>176</v>
       </c>
       <c r="Q67">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R67">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S67">
+        <v>3.25</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
         <v>3.4</v>
       </c>
-      <c r="T67">
-        <v>1.36</v>
-      </c>
-      <c r="U67">
-        <v>3</v>
-      </c>
       <c r="V67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W67">
+        <v>1.5</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>2.29</v>
+      </c>
+      <c r="AA67">
+        <v>3.4</v>
+      </c>
+      <c r="AB67">
+        <v>2.7</v>
+      </c>
+      <c r="AC67">
+        <v>1.04</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.2</v>
+      </c>
+      <c r="AF67">
+        <v>4.33</v>
+      </c>
+      <c r="AG67">
+        <v>1.54</v>
+      </c>
+      <c r="AH67">
+        <v>2.35</v>
+      </c>
+      <c r="AI67">
+        <v>1.53</v>
+      </c>
+      <c r="AJ67">
+        <v>2.38</v>
+      </c>
+      <c r="AK67">
         <v>1.4</v>
-      </c>
-      <c r="X67">
-        <v>7</v>
-      </c>
-      <c r="Y67">
-        <v>1.1</v>
-      </c>
-      <c r="Z67">
-        <v>2.49</v>
-      </c>
-      <c r="AA67">
-        <v>2.5</v>
-      </c>
-      <c r="AB67">
-        <v>3.26</v>
-      </c>
-      <c r="AC67">
-        <v>1.05</v>
-      </c>
-      <c r="AD67">
-        <v>9.5</v>
-      </c>
-      <c r="AE67">
-        <v>1.28</v>
-      </c>
-      <c r="AF67">
-        <v>3.65</v>
-      </c>
-      <c r="AG67">
-        <v>1.8</v>
-      </c>
-      <c r="AH67">
-        <v>1.95</v>
-      </c>
-      <c r="AI67">
-        <v>1.67</v>
-      </c>
-      <c r="AJ67">
-        <v>2.1</v>
-      </c>
-      <c r="AK67">
-        <v>1.44</v>
       </c>
       <c r="AL67">
         <v>1.25</v>
       </c>
       <c r="AM67">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AN67">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AO67">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
-        <v>1.83</v>
+        <v>0.83</v>
       </c>
       <c r="AR67">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AS67">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AT67">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>9</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>14</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>1</v>
+      </c>
+      <c r="BB67">
         <v>3</v>
       </c>
-      <c r="AV67">
-        <v>8</v>
-      </c>
-      <c r="AW67">
-        <v>6</v>
-      </c>
-      <c r="AX67">
-        <v>5</v>
-      </c>
-      <c r="AY67">
-        <v>16</v>
-      </c>
-      <c r="AZ67">
-        <v>16</v>
-      </c>
-      <c r="BA67">
-        <v>6</v>
-      </c>
-      <c r="BB67">
+      <c r="BC67">
         <v>4</v>
       </c>
-      <c r="BC67">
-        <v>10</v>
-      </c>
       <c r="BD67">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="BE67">
-        <v>6.65</v>
+        <v>8.9</v>
       </c>
       <c r="BF67">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BG67">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BH67">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="BI67">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BJ67">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="BK67">
         <v>1.73</v>
@@ -14702,16 +14702,16 @@
         <v>2</v>
       </c>
       <c r="BM67">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BN67">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BO67">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="BP67">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -427,12 +427,12 @@
     <t>['69', '90+1']</t>
   </si>
   <si>
+    <t>['9', '29']</t>
+  </si>
+  <si>
     <t>['18', '33']</t>
   </si>
   <si>
-    <t>['9', '29']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -541,10 +541,10 @@
     <t>['8', '11', '90+4']</t>
   </si>
   <si>
+    <t>['15', '84']</t>
+  </si>
+  <si>
     <t>['32', '51', '65']</t>
-  </si>
-  <si>
-    <t>['15', '84']</t>
   </si>
 </sst>
 </file>
@@ -14101,7 +14101,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7467122</v>
+        <v>7467121</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14110,40 +14110,40 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45591.875</v>
+        <v>45592.42708333334</v>
       </c>
       <c r="F65">
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L65">
         <v>2</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O65" t="s">
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14152,7 +14152,7 @@
         <v>2.3</v>
       </c>
       <c r="S65">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T65">
         <v>1.3</v>
@@ -14176,10 +14176,10 @@
         <v>2.29</v>
       </c>
       <c r="AA65">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="AB65">
-        <v>3.01</v>
+        <v>2.7</v>
       </c>
       <c r="AC65">
         <v>1.04</v>
@@ -14188,16 +14188,16 @@
         <v>10</v>
       </c>
       <c r="AE65">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF65">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AG65">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="AH65">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="AI65">
         <v>1.53</v>
@@ -14206,100 +14206,100 @@
         <v>2.38</v>
       </c>
       <c r="AK65">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AL65">
         <v>1.25</v>
       </c>
       <c r="AM65">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO65">
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="AS65">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AT65">
-        <v>3.59</v>
+        <v>3.15</v>
       </c>
       <c r="AU65">
         <v>4</v>
       </c>
       <c r="AV65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>14</v>
+      </c>
+      <c r="AZ65">
+        <v>10</v>
+      </c>
+      <c r="BA65">
+        <v>1</v>
+      </c>
+      <c r="BB65">
         <v>3</v>
       </c>
-      <c r="AX65">
-        <v>6</v>
-      </c>
-      <c r="AY65">
-        <v>8</v>
-      </c>
-      <c r="AZ65">
-        <v>19</v>
-      </c>
-      <c r="BA65">
-        <v>1</v>
-      </c>
-      <c r="BB65">
-        <v>9</v>
-      </c>
       <c r="BC65">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD65">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BE65">
         <v>8.9</v>
       </c>
       <c r="BF65">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="BG65">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="BH65">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="BI65">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BJ65">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="BK65">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="BL65">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="BM65">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN65">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="BO65">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="BP65">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14307,7 +14307,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7467123</v>
+        <v>7467122</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14316,166 +14316,166 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45591.875</v>
+        <v>45592.52083333334</v>
       </c>
       <c r="F66">
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="Q66">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R66">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S66">
         <v>3.4</v>
       </c>
       <c r="T66">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U66">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W66">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y66">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z66">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="AA66">
-        <v>2.5</v>
+        <v>3.57</v>
       </c>
       <c r="AB66">
-        <v>3.26</v>
+        <v>3.01</v>
       </c>
       <c r="AC66">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD66">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE66">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AF66">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="AG66">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AH66">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="AI66">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AJ66">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="AK66">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AL66">
         <v>1.25</v>
       </c>
       <c r="AM66">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AN66">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AQ66">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="AS66">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AT66">
-        <v>3.17</v>
+        <v>3.59</v>
       </c>
       <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
         <v>3</v>
       </c>
-      <c r="AV66">
+      <c r="AX66">
+        <v>6</v>
+      </c>
+      <c r="AY66">
         <v>8</v>
       </c>
-      <c r="AW66">
-        <v>6</v>
-      </c>
-      <c r="AX66">
-        <v>5</v>
-      </c>
-      <c r="AY66">
-        <v>16</v>
-      </c>
       <c r="AZ66">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB66">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC66">
         <v>10</v>
       </c>
       <c r="BD66">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="BE66">
-        <v>6.65</v>
+        <v>8.9</v>
       </c>
       <c r="BF66">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="BG66">
         <v>1.14</v>
@@ -14490,16 +14490,16 @@
         <v>2.82</v>
       </c>
       <c r="BK66">
+        <v>1.59</v>
+      </c>
+      <c r="BL66">
+        <v>2.16</v>
+      </c>
+      <c r="BM66">
+        <v>2</v>
+      </c>
+      <c r="BN66">
         <v>1.73</v>
-      </c>
-      <c r="BL66">
-        <v>2</v>
-      </c>
-      <c r="BM66">
-        <v>2.02</v>
-      </c>
-      <c r="BN66">
-        <v>1.74</v>
       </c>
       <c r="BO66">
         <v>2.57</v>
@@ -14513,7 +14513,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7467121</v>
+        <v>7467123</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14522,178 +14522,178 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45592.42708333334</v>
+        <v>45592.52083333334</v>
       </c>
       <c r="F67">
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>1</v>
       </c>
       <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
         <v>3</v>
-      </c>
-      <c r="L67">
-        <v>2</v>
-      </c>
-      <c r="M67">
-        <v>2</v>
       </c>
       <c r="N67">
         <v>4</v>
       </c>
       <c r="O67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P67" t="s">
         <v>176</v>
       </c>
       <c r="Q67">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R67">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S67">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T67">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U67">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V67">
+        <v>2.75</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67">
+        <v>1.1</v>
+      </c>
+      <c r="Z67">
+        <v>2.49</v>
+      </c>
+      <c r="AA67">
         <v>2.5</v>
       </c>
-      <c r="W67">
-        <v>1.5</v>
-      </c>
-      <c r="X67">
-        <v>6</v>
-      </c>
-      <c r="Y67">
-        <v>1.13</v>
-      </c>
-      <c r="Z67">
-        <v>2.29</v>
-      </c>
-      <c r="AA67">
-        <v>3.4</v>
-      </c>
       <c r="AB67">
-        <v>2.7</v>
+        <v>3.26</v>
       </c>
       <c r="AC67">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD67">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE67">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AF67">
-        <v>4.33</v>
+        <v>3.65</v>
       </c>
       <c r="AG67">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="AH67">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="AI67">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AJ67">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK67">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AL67">
         <v>1.25</v>
       </c>
       <c r="AM67">
+        <v>1.53</v>
+      </c>
+      <c r="AN67">
+        <v>2.2</v>
+      </c>
+      <c r="AO67">
         <v>1.6</v>
       </c>
-      <c r="AN67">
-        <v>1.8</v>
-      </c>
-      <c r="AO67">
-        <v>0.8</v>
-      </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
-        <v>0.83</v>
+        <v>1.83</v>
       </c>
       <c r="AR67">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AS67">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT67">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>8</v>
+      </c>
+      <c r="AW67">
+        <v>6</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>16</v>
+      </c>
+      <c r="AZ67">
+        <v>16</v>
+      </c>
+      <c r="BA67">
+        <v>6</v>
+      </c>
+      <c r="BB67">
         <v>4</v>
       </c>
-      <c r="AV67">
-        <v>4</v>
-      </c>
-      <c r="AW67">
-        <v>9</v>
-      </c>
-      <c r="AX67">
-        <v>4</v>
-      </c>
-      <c r="AY67">
-        <v>14</v>
-      </c>
-      <c r="AZ67">
+      <c r="BC67">
         <v>10</v>
       </c>
-      <c r="BA67">
-        <v>1</v>
-      </c>
-      <c r="BB67">
-        <v>3</v>
-      </c>
-      <c r="BC67">
-        <v>4</v>
-      </c>
       <c r="BD67">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="BE67">
-        <v>8.9</v>
+        <v>6.65</v>
       </c>
       <c r="BF67">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="BG67">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="BH67">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="BI67">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="BJ67">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="BK67">
         <v>1.73</v>
@@ -14702,16 +14702,16 @@
         <v>2</v>
       </c>
       <c r="BM67">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BN67">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BO67">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="BP67">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>['32', '51', '65']</t>
+  </si>
+  <si>
+    <t>['51', '57', '66']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -2688,7 +2691,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -5363,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -6190,7 +6193,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ26">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>3.42</v>
@@ -7011,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7426,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -9895,7 +9898,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
         <v>0.83</v>
@@ -10104,7 +10107,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ45">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR45">
         <v>2.03</v>
@@ -11134,7 +11137,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.66</v>
@@ -13397,7 +13400,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>1.6</v>
@@ -14712,6 +14715,212 @@
       </c>
       <c r="BP67">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7487096</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45594.6875</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>83</v>
+      </c>
+      <c r="P68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>2.35</v>
+      </c>
+      <c r="S68">
+        <v>2.3</v>
+      </c>
+      <c r="T68">
+        <v>1.28</v>
+      </c>
+      <c r="U68">
+        <v>3.4</v>
+      </c>
+      <c r="V68">
+        <v>2.29</v>
+      </c>
+      <c r="W68">
+        <v>1.56</v>
+      </c>
+      <c r="X68">
+        <v>4.95</v>
+      </c>
+      <c r="Y68">
+        <v>1.14</v>
+      </c>
+      <c r="Z68">
+        <v>3.55</v>
+      </c>
+      <c r="AA68">
+        <v>3.55</v>
+      </c>
+      <c r="AB68">
+        <v>2.05</v>
+      </c>
+      <c r="AC68">
+        <v>1.04</v>
+      </c>
+      <c r="AD68">
+        <v>10</v>
+      </c>
+      <c r="AE68">
+        <v>1.18</v>
+      </c>
+      <c r="AF68">
+        <v>4.5</v>
+      </c>
+      <c r="AG68">
+        <v>1.53</v>
+      </c>
+      <c r="AH68">
+        <v>2.25</v>
+      </c>
+      <c r="AI68">
+        <v>1.55</v>
+      </c>
+      <c r="AJ68">
+        <v>2.4</v>
+      </c>
+      <c r="AK68">
+        <v>1.95</v>
+      </c>
+      <c r="AL68">
+        <v>1.2</v>
+      </c>
+      <c r="AM68">
+        <v>1.2</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
+      <c r="AO68">
+        <v>0.4</v>
+      </c>
+      <c r="AP68">
+        <v>1.67</v>
+      </c>
+      <c r="AQ68">
+        <v>0.83</v>
+      </c>
+      <c r="AR68">
+        <v>1.02</v>
+      </c>
+      <c r="AS68">
+        <v>1.46</v>
+      </c>
+      <c r="AT68">
+        <v>2.48</v>
+      </c>
+      <c r="AU68">
+        <v>2</v>
+      </c>
+      <c r="AV68">
+        <v>11</v>
+      </c>
+      <c r="AW68">
+        <v>6</v>
+      </c>
+      <c r="AX68">
+        <v>5</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>24</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>19</v>
+      </c>
+      <c r="BC68">
+        <v>20</v>
+      </c>
+      <c r="BD68">
+        <v>3.4</v>
+      </c>
+      <c r="BE68">
+        <v>7.3</v>
+      </c>
+      <c r="BF68">
+        <v>1.51</v>
+      </c>
+      <c r="BG68">
+        <v>1.14</v>
+      </c>
+      <c r="BH68">
+        <v>4.2</v>
+      </c>
+      <c r="BI68">
+        <v>1.3</v>
+      </c>
+      <c r="BJ68">
+        <v>2.88</v>
+      </c>
+      <c r="BK68">
+        <v>1.63</v>
+      </c>
+      <c r="BL68">
+        <v>2.23</v>
+      </c>
+      <c r="BM68">
+        <v>2.01</v>
+      </c>
+      <c r="BN68">
+        <v>1.78</v>
+      </c>
+      <c r="BO68">
+        <v>2.48</v>
+      </c>
+      <c r="BP68">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,18 @@
     <t>['18', '33']</t>
   </si>
   <si>
+    <t>['45+1', '65']</t>
+  </si>
+  <si>
+    <t>['64', '81', '87']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['29', '79']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -548,6 +560,18 @@
   </si>
   <si>
     <t>['51', '57', '66']</t>
+  </si>
+  <si>
+    <t>['53', '77']</t>
+  </si>
+  <si>
+    <t>['20', '70']</t>
+  </si>
+  <si>
+    <t>['19', '89']</t>
+  </si>
+  <si>
+    <t>['37', '77']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1192,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1374,7 +1398,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1455,7 +1479,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1786,7 +1810,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1864,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>0.6</v>
@@ -1992,7 +2016,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2073,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2198,7 +2222,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2404,7 +2428,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2482,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2688,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -2816,7 +2840,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2897,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3022,7 +3046,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3103,7 +3127,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3228,7 +3252,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3306,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12">
         <v>0.83</v>
@@ -3512,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ13">
         <v>0.67</v>
@@ -3640,7 +3664,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3721,7 +3745,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3846,7 +3870,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3927,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -4464,7 +4488,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4670,7 +4694,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4748,10 +4772,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5160,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR21">
         <v>1.73</v>
@@ -5288,7 +5312,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5572,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -5700,7 +5724,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5781,7 +5805,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -5906,7 +5930,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -5984,10 +6008,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6399,7 +6423,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6524,7 +6548,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6936,7 +6960,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7142,7 +7166,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7220,10 +7244,10 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7426,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>0.83</v>
@@ -7760,7 +7784,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8047,7 +8071,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -8172,7 +8196,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8253,7 +8277,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8378,7 +8402,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8584,7 +8608,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8662,10 +8686,10 @@
         <v>1.67</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.76</v>
@@ -8790,7 +8814,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8871,7 +8895,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -8996,7 +9020,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9280,10 +9304,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9408,7 +9432,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9614,7 +9638,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9692,10 +9716,10 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -10104,7 +10128,7 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ45">
         <v>0.83</v>
@@ -10232,7 +10256,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10310,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
         <v>0.5</v>
@@ -10725,7 +10749,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -10850,7 +10874,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -10931,7 +10955,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR49">
         <v>1.86</v>
@@ -11056,7 +11080,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11262,7 +11286,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11340,7 +11364,7 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11755,7 +11779,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12086,7 +12110,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12164,7 +12188,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55">
         <v>1.83</v>
@@ -12292,7 +12316,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12373,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12576,10 +12600,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -12782,7 +12806,7 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58">
         <v>0.6</v>
@@ -12910,7 +12934,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13197,7 +13221,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -13403,7 +13427,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.01</v>
@@ -13734,7 +13758,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -13815,7 +13839,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ63">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -13940,7 +13964,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14146,7 +14170,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14224,7 +14248,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14558,7 +14582,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14764,7 +14788,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14921,6 +14945,1036 @@
       </c>
       <c r="BP68">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7487093</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45595.6875</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q69">
+        <v>2.95</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>3.4</v>
+      </c>
+      <c r="T69">
+        <v>1.4</v>
+      </c>
+      <c r="U69">
+        <v>2.7</v>
+      </c>
+      <c r="V69">
+        <v>2.8</v>
+      </c>
+      <c r="W69">
+        <v>1.38</v>
+      </c>
+      <c r="X69">
+        <v>6.9</v>
+      </c>
+      <c r="Y69">
+        <v>1.07</v>
+      </c>
+      <c r="Z69">
+        <v>3.18</v>
+      </c>
+      <c r="AA69">
+        <v>5.18</v>
+      </c>
+      <c r="AB69">
+        <v>1.66</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>8.5</v>
+      </c>
+      <c r="AE69">
+        <v>1.3</v>
+      </c>
+      <c r="AF69">
+        <v>3.4</v>
+      </c>
+      <c r="AG69">
+        <v>1.92</v>
+      </c>
+      <c r="AH69">
+        <v>1.82</v>
+      </c>
+      <c r="AI69">
+        <v>1.67</v>
+      </c>
+      <c r="AJ69">
+        <v>2.05</v>
+      </c>
+      <c r="AK69">
+        <v>1.4</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.55</v>
+      </c>
+      <c r="AN69">
+        <v>1.67</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>1.43</v>
+      </c>
+      <c r="AQ69">
+        <v>2.17</v>
+      </c>
+      <c r="AR69">
+        <v>1.54</v>
+      </c>
+      <c r="AS69">
+        <v>1.45</v>
+      </c>
+      <c r="AT69">
+        <v>2.99</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>10</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>12</v>
+      </c>
+      <c r="AY69">
+        <v>8</v>
+      </c>
+      <c r="AZ69">
+        <v>31</v>
+      </c>
+      <c r="BA69">
+        <v>2</v>
+      </c>
+      <c r="BB69">
+        <v>13</v>
+      </c>
+      <c r="BC69">
+        <v>15</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>1.43</v>
+      </c>
+      <c r="BJ69">
+        <v>2.62</v>
+      </c>
+      <c r="BK69">
+        <v>1.78</v>
+      </c>
+      <c r="BL69">
+        <v>2.02</v>
+      </c>
+      <c r="BM69">
+        <v>2.24</v>
+      </c>
+      <c r="BN69">
+        <v>1.64</v>
+      </c>
+      <c r="BO69">
+        <v>3</v>
+      </c>
+      <c r="BP69">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7487094</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45595.6875</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>139</v>
+      </c>
+      <c r="P70" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q70">
+        <v>1.85</v>
+      </c>
+      <c r="R70">
+        <v>2.7</v>
+      </c>
+      <c r="S70">
+        <v>5</v>
+      </c>
+      <c r="T70">
+        <v>1.21</v>
+      </c>
+      <c r="U70">
+        <v>3.95</v>
+      </c>
+      <c r="V70">
+        <v>2.04</v>
+      </c>
+      <c r="W70">
+        <v>1.71</v>
+      </c>
+      <c r="X70">
+        <v>4.25</v>
+      </c>
+      <c r="Y70">
+        <v>1.19</v>
+      </c>
+      <c r="Z70">
+        <v>1.16</v>
+      </c>
+      <c r="AA70">
+        <v>8.23</v>
+      </c>
+      <c r="AB70">
+        <v>7.49</v>
+      </c>
+      <c r="AC70">
+        <v>1.02</v>
+      </c>
+      <c r="AD70">
+        <v>22</v>
+      </c>
+      <c r="AE70">
+        <v>1.12</v>
+      </c>
+      <c r="AF70">
+        <v>5.75</v>
+      </c>
+      <c r="AG70">
+        <v>1.44</v>
+      </c>
+      <c r="AH70">
+        <v>2.67</v>
+      </c>
+      <c r="AI70">
+        <v>1.57</v>
+      </c>
+      <c r="AJ70">
+        <v>2.3</v>
+      </c>
+      <c r="AK70">
+        <v>1.08</v>
+      </c>
+      <c r="AL70">
+        <v>1.12</v>
+      </c>
+      <c r="AM70">
+        <v>2.8</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>1.83</v>
+      </c>
+      <c r="AQ70">
+        <v>0.17</v>
+      </c>
+      <c r="AR70">
+        <v>1.6</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>2.6</v>
+      </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
+      <c r="AV70">
+        <v>8</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
+        <v>1</v>
+      </c>
+      <c r="AY70">
+        <v>19</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>4</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>6</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>1.28</v>
+      </c>
+      <c r="BJ70">
+        <v>3.35</v>
+      </c>
+      <c r="BK70">
+        <v>1.57</v>
+      </c>
+      <c r="BL70">
+        <v>2.32</v>
+      </c>
+      <c r="BM70">
+        <v>1.96</v>
+      </c>
+      <c r="BN70">
+        <v>1.84</v>
+      </c>
+      <c r="BO70">
+        <v>2.43</v>
+      </c>
+      <c r="BP70">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7487095</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45595.6875</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>5</v>
+      </c>
+      <c r="O71" t="s">
+        <v>140</v>
+      </c>
+      <c r="P71" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q71">
+        <v>2.5</v>
+      </c>
+      <c r="R71">
+        <v>2.25</v>
+      </c>
+      <c r="S71">
+        <v>3.6</v>
+      </c>
+      <c r="T71">
+        <v>1.28</v>
+      </c>
+      <c r="U71">
+        <v>3.3</v>
+      </c>
+      <c r="V71">
+        <v>2.3</v>
+      </c>
+      <c r="W71">
+        <v>1.55</v>
+      </c>
+      <c r="X71">
+        <v>5.2</v>
+      </c>
+      <c r="Y71">
+        <v>1.12</v>
+      </c>
+      <c r="Z71">
+        <v>1.97</v>
+      </c>
+      <c r="AA71">
+        <v>4.37</v>
+      </c>
+      <c r="AB71">
+        <v>2.69</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.18</v>
+      </c>
+      <c r="AF71">
+        <v>4.75</v>
+      </c>
+      <c r="AG71">
+        <v>1.56</v>
+      </c>
+      <c r="AH71">
+        <v>2.35</v>
+      </c>
+      <c r="AI71">
+        <v>1.48</v>
+      </c>
+      <c r="AJ71">
+        <v>2.45</v>
+      </c>
+      <c r="AK71">
+        <v>1.3</v>
+      </c>
+      <c r="AL71">
+        <v>1.22</v>
+      </c>
+      <c r="AM71">
+        <v>1.75</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <v>1.67</v>
+      </c>
+      <c r="AP71">
+        <v>1.33</v>
+      </c>
+      <c r="AQ71">
+        <v>1.43</v>
+      </c>
+      <c r="AR71">
+        <v>1.55</v>
+      </c>
+      <c r="AS71">
+        <v>1.68</v>
+      </c>
+      <c r="AT71">
+        <v>3.23</v>
+      </c>
+      <c r="AU71">
+        <v>9</v>
+      </c>
+      <c r="AV71">
+        <v>7</v>
+      </c>
+      <c r="AW71">
+        <v>9</v>
+      </c>
+      <c r="AX71">
+        <v>6</v>
+      </c>
+      <c r="AY71">
+        <v>28</v>
+      </c>
+      <c r="AZ71">
+        <v>17</v>
+      </c>
+      <c r="BA71">
+        <v>9</v>
+      </c>
+      <c r="BB71">
+        <v>7</v>
+      </c>
+      <c r="BC71">
+        <v>16</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>1.49</v>
+      </c>
+      <c r="BL71">
+        <v>2.54</v>
+      </c>
+      <c r="BM71">
+        <v>1.81</v>
+      </c>
+      <c r="BN71">
+        <v>1.99</v>
+      </c>
+      <c r="BO71">
+        <v>2.24</v>
+      </c>
+      <c r="BP71">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7487091</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45595.875</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>141</v>
+      </c>
+      <c r="P72" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q72">
+        <v>3.55</v>
+      </c>
+      <c r="R72">
+        <v>2.15</v>
+      </c>
+      <c r="S72">
+        <v>2.7</v>
+      </c>
+      <c r="T72">
+        <v>1.35</v>
+      </c>
+      <c r="U72">
+        <v>2.95</v>
+      </c>
+      <c r="V72">
+        <v>2.55</v>
+      </c>
+      <c r="W72">
+        <v>1.45</v>
+      </c>
+      <c r="X72">
+        <v>6.05</v>
+      </c>
+      <c r="Y72">
+        <v>1.09</v>
+      </c>
+      <c r="Z72">
+        <v>3.25</v>
+      </c>
+      <c r="AA72">
+        <v>3.35</v>
+      </c>
+      <c r="AB72">
+        <v>2.1</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>9.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.25</v>
+      </c>
+      <c r="AF72">
+        <v>3.7</v>
+      </c>
+      <c r="AG72">
+        <v>1.73</v>
+      </c>
+      <c r="AH72">
+        <v>2.04</v>
+      </c>
+      <c r="AI72">
+        <v>1.6</v>
+      </c>
+      <c r="AJ72">
+        <v>2.15</v>
+      </c>
+      <c r="AK72">
+        <v>1.67</v>
+      </c>
+      <c r="AL72">
+        <v>1.25</v>
+      </c>
+      <c r="AM72">
+        <v>1.35</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
+        <v>1.6</v>
+      </c>
+      <c r="AP72">
+        <v>1</v>
+      </c>
+      <c r="AQ72">
+        <v>1.5</v>
+      </c>
+      <c r="AR72">
+        <v>1.54</v>
+      </c>
+      <c r="AS72">
+        <v>1.71</v>
+      </c>
+      <c r="AT72">
+        <v>3.25</v>
+      </c>
+      <c r="AU72">
+        <v>8</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>17</v>
+      </c>
+      <c r="AZ72">
+        <v>18</v>
+      </c>
+      <c r="BA72">
+        <v>6</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7487092</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45595.875</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q73">
+        <v>2.35</v>
+      </c>
+      <c r="R73">
+        <v>2.3</v>
+      </c>
+      <c r="S73">
+        <v>3.9</v>
+      </c>
+      <c r="T73">
+        <v>1.28</v>
+      </c>
+      <c r="U73">
+        <v>3.3</v>
+      </c>
+      <c r="V73">
+        <v>2.25</v>
+      </c>
+      <c r="W73">
+        <v>1.57</v>
+      </c>
+      <c r="X73">
+        <v>4.95</v>
+      </c>
+      <c r="Y73">
+        <v>1.14</v>
+      </c>
+      <c r="Z73">
+        <v>1.8</v>
+      </c>
+      <c r="AA73">
+        <v>3.7</v>
+      </c>
+      <c r="AB73">
+        <v>3.8</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.18</v>
+      </c>
+      <c r="AF73">
+        <v>4.75</v>
+      </c>
+      <c r="AG73">
+        <v>1.53</v>
+      </c>
+      <c r="AH73">
+        <v>2.35</v>
+      </c>
+      <c r="AI73">
+        <v>1.48</v>
+      </c>
+      <c r="AJ73">
+        <v>2.4</v>
+      </c>
+      <c r="AK73">
+        <v>1.25</v>
+      </c>
+      <c r="AL73">
+        <v>1.2</v>
+      </c>
+      <c r="AM73">
+        <v>1.9</v>
+      </c>
+      <c r="AN73">
+        <v>2.4</v>
+      </c>
+      <c r="AO73">
+        <v>1.6</v>
+      </c>
+      <c r="AP73">
+        <v>2.17</v>
+      </c>
+      <c r="AQ73">
+        <v>1.5</v>
+      </c>
+      <c r="AR73">
+        <v>1.87</v>
+      </c>
+      <c r="AS73">
+        <v>1.53</v>
+      </c>
+      <c r="AT73">
+        <v>3.4</v>
+      </c>
+      <c r="AU73">
+        <v>11</v>
+      </c>
+      <c r="AV73">
+        <v>5</v>
+      </c>
+      <c r="AW73">
+        <v>9</v>
+      </c>
+      <c r="AX73">
+        <v>5</v>
+      </c>
+      <c r="AY73">
+        <v>24</v>
+      </c>
+      <c r="AZ73">
+        <v>12</v>
+      </c>
+      <c r="BA73">
+        <v>5</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>8</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,18 @@
     <t>['29', '79']</t>
   </si>
   <si>
+    <t>['14', '28', '39', '55', '81']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['36', '72']</t>
+  </si>
+  <si>
+    <t>['8', '59']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -572,6 +584,9 @@
   </si>
   <si>
     <t>['37', '77']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1207,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1270,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1398,7 +1413,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1810,7 +1825,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1891,7 +1906,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2016,7 +2031,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2094,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
         <v>1.43</v>
@@ -2222,7 +2237,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2300,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2428,7 +2443,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2509,7 +2524,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2840,7 +2855,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3046,7 +3061,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3124,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3252,7 +3267,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3333,7 +3348,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ12">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR12">
         <v>2.07</v>
@@ -3536,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3664,7 +3679,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3742,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ14">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3870,7 +3885,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -4154,10 +4169,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ16">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR16">
         <v>2.11</v>
@@ -4360,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>1.15</v>
@@ -4488,7 +4503,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4566,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18">
         <v>0.83</v>
@@ -4694,7 +4709,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4981,7 +4996,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.02</v>
@@ -5187,7 +5202,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ21">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR21">
         <v>1.73</v>
@@ -5312,7 +5327,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5393,7 +5408,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR22">
         <v>0.55</v>
@@ -5596,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR23">
         <v>1.97</v>
@@ -5724,7 +5739,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5802,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -5930,7 +5945,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6214,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ26">
         <v>0.83</v>
@@ -6420,10 +6435,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ27">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6548,7 +6563,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6629,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>1.22</v>
@@ -6832,10 +6847,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -6960,7 +6975,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7041,7 +7056,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR30">
         <v>1.23</v>
@@ -7166,7 +7181,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7659,7 +7674,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR33">
         <v>1.17</v>
@@ -7784,7 +7799,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7862,7 +7877,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34">
         <v>0.83</v>
@@ -8068,7 +8083,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8196,7 +8211,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8274,7 +8289,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8402,7 +8417,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8483,7 +8498,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR37">
         <v>1.38</v>
@@ -8608,7 +8623,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8686,7 +8701,7 @@
         <v>1.67</v>
       </c>
       <c r="AP38">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8814,7 +8829,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8892,7 +8907,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>2.17</v>
@@ -9020,7 +9035,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9098,10 +9113,10 @@
         <v>0.33</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>1.54</v>
@@ -9432,7 +9447,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9513,7 +9528,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR42">
         <v>1.16</v>
@@ -9638,7 +9653,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9716,7 +9731,7 @@
         <v>2.33</v>
       </c>
       <c r="AP43">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
         <v>2.17</v>
@@ -10256,7 +10271,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10337,7 +10352,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR46">
         <v>1.42</v>
@@ -10540,10 +10555,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.94</v>
@@ -10746,7 +10761,7 @@
         <v>1.75</v>
       </c>
       <c r="AP48">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ48">
         <v>1.43</v>
@@ -10874,7 +10889,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -10952,10 +10967,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ49">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR49">
         <v>1.86</v>
@@ -11080,7 +11095,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11158,7 +11173,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ50">
         <v>0.83</v>
@@ -11286,7 +11301,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11367,7 +11382,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.38</v>
@@ -11573,7 +11588,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR52">
         <v>1.22</v>
@@ -11776,7 +11791,7 @@
         <v>2.33</v>
       </c>
       <c r="AP53">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
         <v>1.5</v>
@@ -11982,10 +11997,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR54">
         <v>1.74</v>
@@ -12110,7 +12125,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12188,10 +12203,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR55">
         <v>1.62</v>
@@ -12316,7 +12331,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12809,7 +12824,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.97</v>
@@ -12934,7 +12949,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13012,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ59">
         <v>0.83</v>
@@ -13218,10 +13233,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ60">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR60">
         <v>1.68</v>
@@ -13630,10 +13645,10 @@
         <v>0.6</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13758,7 +13773,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -13964,7 +13979,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14042,10 +14057,10 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ64">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14170,7 +14185,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14454,10 +14469,10 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.86</v>
@@ -14582,7 +14597,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14660,10 +14675,10 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ67">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR67">
         <v>1.55</v>
@@ -14788,7 +14803,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14994,7 +15009,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15200,7 +15215,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15278,10 +15293,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15406,7 +15421,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15579,10 +15594,10 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45595.875</v>
+        <v>45596.6875</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
         <v>78</v>
@@ -15705,7 +15720,7 @@
         <v>3.25</v>
       </c>
       <c r="AU72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV72">
         <v>5</v>
@@ -15714,13 +15729,13 @@
         <v>4</v>
       </c>
       <c r="AX72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY72">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ72">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BA72">
         <v>6</v>
@@ -15785,7 +15800,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45595.875</v>
+        <v>45596.6875</v>
       </c>
       <c r="F73">
         <v>12</v>
@@ -15818,7 +15833,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -15911,22 +15926,22 @@
         <v>3.4</v>
       </c>
       <c r="AU73">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV73">
+        <v>3</v>
+      </c>
+      <c r="AW73">
         <v>5</v>
       </c>
-      <c r="AW73">
-        <v>9</v>
-      </c>
       <c r="AX73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY73">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="AZ73">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -15975,6 +15990,1242 @@
       </c>
       <c r="BP73">
         <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7487102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45598.58333333334</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>83</v>
+      </c>
+      <c r="P74" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q74">
+        <v>2.63</v>
+      </c>
+      <c r="R74">
+        <v>2.38</v>
+      </c>
+      <c r="S74">
+        <v>3.6</v>
+      </c>
+      <c r="T74">
+        <v>1.3</v>
+      </c>
+      <c r="U74">
+        <v>3.4</v>
+      </c>
+      <c r="V74">
+        <v>2.5</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1.13</v>
+      </c>
+      <c r="Z74">
+        <v>2.36</v>
+      </c>
+      <c r="AA74">
+        <v>3.47</v>
+      </c>
+      <c r="AB74">
+        <v>2.73</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>9.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.25</v>
+      </c>
+      <c r="AF74">
+        <v>3.75</v>
+      </c>
+      <c r="AG74">
+        <v>1.62</v>
+      </c>
+      <c r="AH74">
+        <v>2.17</v>
+      </c>
+      <c r="AI74">
+        <v>1.53</v>
+      </c>
+      <c r="AJ74">
+        <v>2.38</v>
+      </c>
+      <c r="AK74">
+        <v>1.42</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.55</v>
+      </c>
+      <c r="AN74">
+        <v>1.83</v>
+      </c>
+      <c r="AO74">
+        <v>0.67</v>
+      </c>
+      <c r="AP74">
+        <v>1.71</v>
+      </c>
+      <c r="AQ74">
+        <v>0.71</v>
+      </c>
+      <c r="AR74">
+        <v>1.51</v>
+      </c>
+      <c r="AS74">
+        <v>1.72</v>
+      </c>
+      <c r="AT74">
+        <v>3.23</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>4</v>
+      </c>
+      <c r="AX74">
+        <v>7</v>
+      </c>
+      <c r="AY74">
+        <v>10</v>
+      </c>
+      <c r="AZ74">
+        <v>14</v>
+      </c>
+      <c r="BA74">
+        <v>2</v>
+      </c>
+      <c r="BB74">
+        <v>5</v>
+      </c>
+      <c r="BC74">
+        <v>7</v>
+      </c>
+      <c r="BD74">
+        <v>1.84</v>
+      </c>
+      <c r="BE74">
+        <v>6.8</v>
+      </c>
+      <c r="BF74">
+        <v>2.48</v>
+      </c>
+      <c r="BG74">
+        <v>1.12</v>
+      </c>
+      <c r="BH74">
+        <v>4.5</v>
+      </c>
+      <c r="BI74">
+        <v>1.26</v>
+      </c>
+      <c r="BJ74">
+        <v>3.08</v>
+      </c>
+      <c r="BK74">
+        <v>1.52</v>
+      </c>
+      <c r="BL74">
+        <v>2.3</v>
+      </c>
+      <c r="BM74">
+        <v>1.91</v>
+      </c>
+      <c r="BN74">
+        <v>1.83</v>
+      </c>
+      <c r="BO74">
+        <v>2.4</v>
+      </c>
+      <c r="BP74">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7487097</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45598.58333333334</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>143</v>
+      </c>
+      <c r="P75" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q75">
+        <v>1.95</v>
+      </c>
+      <c r="R75">
+        <v>2.5</v>
+      </c>
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <v>1.29</v>
+      </c>
+      <c r="U75">
+        <v>3.5</v>
+      </c>
+      <c r="V75">
+        <v>2.25</v>
+      </c>
+      <c r="W75">
+        <v>1.57</v>
+      </c>
+      <c r="X75">
+        <v>5.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.14</v>
+      </c>
+      <c r="Z75">
+        <v>1.43</v>
+      </c>
+      <c r="AA75">
+        <v>4.7</v>
+      </c>
+      <c r="AB75">
+        <v>6</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>1.16</v>
+      </c>
+      <c r="AF75">
+        <v>4.75</v>
+      </c>
+      <c r="AG75">
+        <v>1.54</v>
+      </c>
+      <c r="AH75">
+        <v>2.33</v>
+      </c>
+      <c r="AI75">
+        <v>1.73</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>1.06</v>
+      </c>
+      <c r="AL75">
+        <v>1.12</v>
+      </c>
+      <c r="AM75">
+        <v>2.85</v>
+      </c>
+      <c r="AN75">
+        <v>1.8</v>
+      </c>
+      <c r="AO75">
+        <v>0.17</v>
+      </c>
+      <c r="AP75">
+        <v>2</v>
+      </c>
+      <c r="AQ75">
+        <v>0.14</v>
+      </c>
+      <c r="AR75">
+        <v>1.69</v>
+      </c>
+      <c r="AS75">
+        <v>1.08</v>
+      </c>
+      <c r="AT75">
+        <v>2.77</v>
+      </c>
+      <c r="AU75">
+        <v>10</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>9</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>24</v>
+      </c>
+      <c r="AZ75">
+        <v>14</v>
+      </c>
+      <c r="BA75">
+        <v>4</v>
+      </c>
+      <c r="BB75">
+        <v>9</v>
+      </c>
+      <c r="BC75">
+        <v>13</v>
+      </c>
+      <c r="BD75">
+        <v>1.25</v>
+      </c>
+      <c r="BE75">
+        <v>10.75</v>
+      </c>
+      <c r="BF75">
+        <v>5</v>
+      </c>
+      <c r="BG75">
+        <v>1.18</v>
+      </c>
+      <c r="BH75">
+        <v>3.72</v>
+      </c>
+      <c r="BI75">
+        <v>1.36</v>
+      </c>
+      <c r="BJ75">
+        <v>2.6</v>
+      </c>
+      <c r="BK75">
+        <v>1.69</v>
+      </c>
+      <c r="BL75">
+        <v>2</v>
+      </c>
+      <c r="BM75">
+        <v>2.17</v>
+      </c>
+      <c r="BN75">
+        <v>1.64</v>
+      </c>
+      <c r="BO75">
+        <v>2.84</v>
+      </c>
+      <c r="BP75">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7487101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45598.6875</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>144</v>
+      </c>
+      <c r="P76" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q76">
+        <v>2.75</v>
+      </c>
+      <c r="R76">
+        <v>2.4</v>
+      </c>
+      <c r="S76">
+        <v>3.4</v>
+      </c>
+      <c r="T76">
+        <v>1.29</v>
+      </c>
+      <c r="U76">
+        <v>3.5</v>
+      </c>
+      <c r="V76">
+        <v>2.25</v>
+      </c>
+      <c r="W76">
+        <v>1.57</v>
+      </c>
+      <c r="X76">
+        <v>5.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.14</v>
+      </c>
+      <c r="Z76">
+        <v>2.09</v>
+      </c>
+      <c r="AA76">
+        <v>3.62</v>
+      </c>
+      <c r="AB76">
+        <v>2.99</v>
+      </c>
+      <c r="AC76">
+        <v>1.04</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>1.18</v>
+      </c>
+      <c r="AF76">
+        <v>4.5</v>
+      </c>
+      <c r="AG76">
+        <v>1.58</v>
+      </c>
+      <c r="AH76">
+        <v>2.3</v>
+      </c>
+      <c r="AI76">
+        <v>1.5</v>
+      </c>
+      <c r="AJ76">
+        <v>2.5</v>
+      </c>
+      <c r="AK76">
+        <v>1.35</v>
+      </c>
+      <c r="AL76">
+        <v>1.22</v>
+      </c>
+      <c r="AM76">
+        <v>1.72</v>
+      </c>
+      <c r="AN76">
+        <v>1.83</v>
+      </c>
+      <c r="AO76">
+        <v>0.6</v>
+      </c>
+      <c r="AP76">
+        <v>1.71</v>
+      </c>
+      <c r="AQ76">
+        <v>0.67</v>
+      </c>
+      <c r="AR76">
+        <v>1.67</v>
+      </c>
+      <c r="AS76">
+        <v>1.38</v>
+      </c>
+      <c r="AT76">
+        <v>3.05</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>9</v>
+      </c>
+      <c r="AX76">
+        <v>5</v>
+      </c>
+      <c r="AY76">
+        <v>15</v>
+      </c>
+      <c r="AZ76">
+        <v>11</v>
+      </c>
+      <c r="BA76">
+        <v>8</v>
+      </c>
+      <c r="BB76">
+        <v>3</v>
+      </c>
+      <c r="BC76">
+        <v>11</v>
+      </c>
+      <c r="BD76">
+        <v>1.52</v>
+      </c>
+      <c r="BE76">
+        <v>7.2</v>
+      </c>
+      <c r="BF76">
+        <v>3</v>
+      </c>
+      <c r="BG76">
+        <v>1.26</v>
+      </c>
+      <c r="BH76">
+        <v>3.45</v>
+      </c>
+      <c r="BI76">
+        <v>1.5</v>
+      </c>
+      <c r="BJ76">
+        <v>2.35</v>
+      </c>
+      <c r="BK76">
+        <v>1.92</v>
+      </c>
+      <c r="BL76">
+        <v>1.78</v>
+      </c>
+      <c r="BM76">
+        <v>2.58</v>
+      </c>
+      <c r="BN76">
+        <v>1.43</v>
+      </c>
+      <c r="BO76">
+        <v>3.65</v>
+      </c>
+      <c r="BP76">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7487098</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45599.42708333334</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>119</v>
+      </c>
+      <c r="P77" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q77">
+        <v>3.2</v>
+      </c>
+      <c r="R77">
+        <v>2.3</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>1.33</v>
+      </c>
+      <c r="U77">
+        <v>3.25</v>
+      </c>
+      <c r="V77">
+        <v>2.5</v>
+      </c>
+      <c r="W77">
+        <v>1.5</v>
+      </c>
+      <c r="X77">
+        <v>6</v>
+      </c>
+      <c r="Y77">
+        <v>1.13</v>
+      </c>
+      <c r="Z77">
+        <v>2.55</v>
+      </c>
+      <c r="AA77">
+        <v>3.5</v>
+      </c>
+      <c r="AB77">
+        <v>2.55</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>10</v>
+      </c>
+      <c r="AE77">
+        <v>1.2</v>
+      </c>
+      <c r="AF77">
+        <v>4.2</v>
+      </c>
+      <c r="AG77">
+        <v>1.57</v>
+      </c>
+      <c r="AH77">
+        <v>2.2</v>
+      </c>
+      <c r="AI77">
+        <v>1.57</v>
+      </c>
+      <c r="AJ77">
+        <v>2.25</v>
+      </c>
+      <c r="AK77">
+        <v>1.55</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.45</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>1.83</v>
+      </c>
+      <c r="AP77">
+        <v>2.14</v>
+      </c>
+      <c r="AQ77">
+        <v>1.57</v>
+      </c>
+      <c r="AR77">
+        <v>1.84</v>
+      </c>
+      <c r="AS77">
+        <v>1.65</v>
+      </c>
+      <c r="AT77">
+        <v>3.49</v>
+      </c>
+      <c r="AU77">
+        <v>4</v>
+      </c>
+      <c r="AV77">
+        <v>4</v>
+      </c>
+      <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>15</v>
+      </c>
+      <c r="AZ77">
+        <v>14</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>12</v>
+      </c>
+      <c r="BC77">
+        <v>14</v>
+      </c>
+      <c r="BD77">
+        <v>1.93</v>
+      </c>
+      <c r="BE77">
+        <v>7.2</v>
+      </c>
+      <c r="BF77">
+        <v>2.29</v>
+      </c>
+      <c r="BG77">
+        <v>1.11</v>
+      </c>
+      <c r="BH77">
+        <v>4.65</v>
+      </c>
+      <c r="BI77">
+        <v>1.25</v>
+      </c>
+      <c r="BJ77">
+        <v>3.14</v>
+      </c>
+      <c r="BK77">
+        <v>1.5</v>
+      </c>
+      <c r="BL77">
+        <v>2.35</v>
+      </c>
+      <c r="BM77">
+        <v>1.88</v>
+      </c>
+      <c r="BN77">
+        <v>1.86</v>
+      </c>
+      <c r="BO77">
+        <v>2.38</v>
+      </c>
+      <c r="BP77">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7487099</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45599.52083333334</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>145</v>
+      </c>
+      <c r="P78" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q78">
+        <v>1.83</v>
+      </c>
+      <c r="R78">
+        <v>2.6</v>
+      </c>
+      <c r="S78">
+        <v>6.5</v>
+      </c>
+      <c r="T78">
+        <v>1.25</v>
+      </c>
+      <c r="U78">
+        <v>3.75</v>
+      </c>
+      <c r="V78">
+        <v>2.25</v>
+      </c>
+      <c r="W78">
+        <v>1.57</v>
+      </c>
+      <c r="X78">
+        <v>5.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.14</v>
+      </c>
+      <c r="Z78">
+        <v>1.39</v>
+      </c>
+      <c r="AA78">
+        <v>5</v>
+      </c>
+      <c r="AB78">
+        <v>6.5</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>17</v>
+      </c>
+      <c r="AE78">
+        <v>1.18</v>
+      </c>
+      <c r="AF78">
+        <v>4.75</v>
+      </c>
+      <c r="AG78">
+        <v>1.53</v>
+      </c>
+      <c r="AH78">
+        <v>2.4</v>
+      </c>
+      <c r="AI78">
+        <v>1.8</v>
+      </c>
+      <c r="AJ78">
+        <v>1.91</v>
+      </c>
+      <c r="AK78">
+        <v>1.05</v>
+      </c>
+      <c r="AL78">
+        <v>1.12</v>
+      </c>
+      <c r="AM78">
+        <v>3</v>
+      </c>
+      <c r="AN78">
+        <v>2.17</v>
+      </c>
+      <c r="AO78">
+        <v>0.83</v>
+      </c>
+      <c r="AP78">
+        <v>2.29</v>
+      </c>
+      <c r="AQ78">
+        <v>0.71</v>
+      </c>
+      <c r="AR78">
+        <v>1.74</v>
+      </c>
+      <c r="AS78">
+        <v>1.21</v>
+      </c>
+      <c r="AT78">
+        <v>2.95</v>
+      </c>
+      <c r="AU78">
+        <v>9</v>
+      </c>
+      <c r="AV78">
+        <v>2</v>
+      </c>
+      <c r="AW78">
+        <v>7</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>20</v>
+      </c>
+      <c r="AZ78">
+        <v>9</v>
+      </c>
+      <c r="BA78">
+        <v>2</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>4</v>
+      </c>
+      <c r="BD78">
+        <v>1.16</v>
+      </c>
+      <c r="BE78">
+        <v>12.5</v>
+      </c>
+      <c r="BF78">
+        <v>6.75</v>
+      </c>
+      <c r="BG78">
+        <v>1.16</v>
+      </c>
+      <c r="BH78">
+        <v>3.94</v>
+      </c>
+      <c r="BI78">
+        <v>1.33</v>
+      </c>
+      <c r="BJ78">
+        <v>2.73</v>
+      </c>
+      <c r="BK78">
+        <v>1.62</v>
+      </c>
+      <c r="BL78">
+        <v>2.1</v>
+      </c>
+      <c r="BM78">
+        <v>2.08</v>
+      </c>
+      <c r="BN78">
+        <v>1.7</v>
+      </c>
+      <c r="BO78">
+        <v>2.64</v>
+      </c>
+      <c r="BP78">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7487100</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45599.52083333334</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s">
+        <v>78</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>146</v>
+      </c>
+      <c r="P79" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q79">
+        <v>2.5</v>
+      </c>
+      <c r="R79">
+        <v>2.3</v>
+      </c>
+      <c r="S79">
+        <v>4</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.25</v>
+      </c>
+      <c r="V79">
+        <v>2.5</v>
+      </c>
+      <c r="W79">
+        <v>1.5</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.11</v>
+      </c>
+      <c r="Z79">
+        <v>1.85</v>
+      </c>
+      <c r="AA79">
+        <v>3.7</v>
+      </c>
+      <c r="AB79">
+        <v>3.8</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>10</v>
+      </c>
+      <c r="AE79">
+        <v>1.22</v>
+      </c>
+      <c r="AF79">
+        <v>4</v>
+      </c>
+      <c r="AG79">
+        <v>1.6</v>
+      </c>
+      <c r="AH79">
+        <v>2.2</v>
+      </c>
+      <c r="AI79">
+        <v>1.62</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.22</v>
+      </c>
+      <c r="AL79">
+        <v>1.2</v>
+      </c>
+      <c r="AM79">
+        <v>1.87</v>
+      </c>
+      <c r="AN79">
+        <v>1.67</v>
+      </c>
+      <c r="AO79">
+        <v>0.5</v>
+      </c>
+      <c r="AP79">
+        <v>1.86</v>
+      </c>
+      <c r="AQ79">
+        <v>0.43</v>
+      </c>
+      <c r="AR79">
+        <v>1.77</v>
+      </c>
+      <c r="AS79">
+        <v>1.37</v>
+      </c>
+      <c r="AT79">
+        <v>3.14</v>
+      </c>
+      <c r="AU79">
+        <v>7</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>1</v>
+      </c>
+      <c r="AX79">
+        <v>7</v>
+      </c>
+      <c r="AY79">
+        <v>10</v>
+      </c>
+      <c r="AZ79">
+        <v>15</v>
+      </c>
+      <c r="BA79">
+        <v>2</v>
+      </c>
+      <c r="BB79">
+        <v>6</v>
+      </c>
+      <c r="BC79">
+        <v>8</v>
+      </c>
+      <c r="BD79">
+        <v>1.64</v>
+      </c>
+      <c r="BE79">
+        <v>8.9</v>
+      </c>
+      <c r="BF79">
+        <v>2.69</v>
+      </c>
+      <c r="BG79">
+        <v>1.1</v>
+      </c>
+      <c r="BH79">
+        <v>4.8</v>
+      </c>
+      <c r="BI79">
+        <v>1.24</v>
+      </c>
+      <c r="BJ79">
+        <v>3.22</v>
+      </c>
+      <c r="BK79">
+        <v>1.47</v>
+      </c>
+      <c r="BL79">
+        <v>2.42</v>
+      </c>
+      <c r="BM79">
+        <v>1.83</v>
+      </c>
+      <c r="BN79">
+        <v>1.91</v>
+      </c>
+      <c r="BO79">
+        <v>2.27</v>
+      </c>
+      <c r="BP79">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,12 @@
     <t>['8', '59']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -587,6 +593,12 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['32', '45+1', '51', '60']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1219,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1413,7 +1425,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1491,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ3">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1697,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ4">
         <v>0.83</v>
@@ -1825,7 +1837,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -2031,7 +2043,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2112,7 +2124,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2237,7 +2249,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2443,7 +2455,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2521,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.71</v>
@@ -2730,7 +2742,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2855,7 +2867,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -3061,7 +3073,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3267,7 +3279,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3345,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.71</v>
@@ -3679,7 +3691,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3885,7 +3897,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3966,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>1.44</v>
@@ -4503,7 +4515,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4709,7 +4721,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4790,7 +4802,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -4993,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5327,7 +5339,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5405,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22">
         <v>0.71</v>
@@ -5739,7 +5751,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5945,7 +5957,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6023,10 +6035,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR25">
         <v>1.85</v>
@@ -6232,7 +6244,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR26">
         <v>3.42</v>
@@ -6563,7 +6575,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6975,7 +6987,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7053,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30">
         <v>0.43</v>
@@ -7181,7 +7193,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7262,7 +7274,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7468,7 +7480,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR32">
         <v>1.68</v>
@@ -7671,7 +7683,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
         <v>1.57</v>
@@ -7799,7 +7811,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8211,7 +8223,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8417,7 +8429,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8623,7 +8635,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8829,7 +8841,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -8910,7 +8922,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.16</v>
@@ -9035,7 +9047,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9447,7 +9459,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9525,7 +9537,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ42">
         <v>0.71</v>
@@ -9653,7 +9665,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9734,7 +9746,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.61</v>
@@ -9937,7 +9949,7 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
         <v>0.83</v>
@@ -10143,10 +10155,10 @@
         <v>0.33</v>
       </c>
       <c r="AP45">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR45">
         <v>2.03</v>
@@ -10271,7 +10283,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10764,7 +10776,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ48">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR48">
         <v>1.38</v>
@@ -10889,7 +10901,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11095,7 +11107,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11176,7 +11188,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR50">
         <v>1.66</v>
@@ -11301,7 +11313,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11585,7 +11597,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
         <v>0.43</v>
@@ -12125,7 +12137,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12331,7 +12343,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12412,7 +12424,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.56</v>
@@ -12821,7 +12833,7 @@
         <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -12949,7 +12961,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13439,7 +13451,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13773,7 +13785,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -13851,10 +13863,10 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.26</v>
@@ -13979,7 +13991,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14185,7 +14197,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14597,7 +14609,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14803,7 +14815,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14881,10 +14893,10 @@
         <v>0.4</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR68">
         <v>1.02</v>
@@ -15009,7 +15021,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15090,7 +15102,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ69">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
@@ -15215,7 +15227,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15421,7 +15433,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15502,7 +15514,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.55</v>
@@ -15833,7 +15845,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -15911,7 +15923,7 @@
         <v>1.6</v>
       </c>
       <c r="AP73">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1.5</v>
@@ -16451,7 +16463,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17226,6 +17238,624 @@
       </c>
       <c r="BP79">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7487106</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45605.58333333334</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>147</v>
+      </c>
+      <c r="P80" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q80">
+        <v>4.2</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>2.25</v>
+      </c>
+      <c r="T80">
+        <v>1.28</v>
+      </c>
+      <c r="U80">
+        <v>3.3</v>
+      </c>
+      <c r="V80">
+        <v>2.25</v>
+      </c>
+      <c r="W80">
+        <v>1.57</v>
+      </c>
+      <c r="X80">
+        <v>4.85</v>
+      </c>
+      <c r="Y80">
+        <v>1.14</v>
+      </c>
+      <c r="Z80">
+        <v>3.95</v>
+      </c>
+      <c r="AA80">
+        <v>4</v>
+      </c>
+      <c r="AB80">
+        <v>1.83</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>10</v>
+      </c>
+      <c r="AE80">
+        <v>1.18</v>
+      </c>
+      <c r="AF80">
+        <v>4.75</v>
+      </c>
+      <c r="AG80">
+        <v>1.62</v>
+      </c>
+      <c r="AH80">
+        <v>2.25</v>
+      </c>
+      <c r="AI80">
+        <v>1.5</v>
+      </c>
+      <c r="AJ80">
+        <v>2.35</v>
+      </c>
+      <c r="AK80">
+        <v>1.95</v>
+      </c>
+      <c r="AL80">
+        <v>1.2</v>
+      </c>
+      <c r="AM80">
+        <v>1.22</v>
+      </c>
+      <c r="AN80">
+        <v>1.17</v>
+      </c>
+      <c r="AO80">
+        <v>0.83</v>
+      </c>
+      <c r="AP80">
+        <v>1.43</v>
+      </c>
+      <c r="AQ80">
+        <v>0.71</v>
+      </c>
+      <c r="AR80">
+        <v>1.35</v>
+      </c>
+      <c r="AS80">
+        <v>1.66</v>
+      </c>
+      <c r="AT80">
+        <v>3.01</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>3</v>
+      </c>
+      <c r="AW80">
+        <v>1</v>
+      </c>
+      <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
+        <v>9</v>
+      </c>
+      <c r="AZ80">
+        <v>12</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>2</v>
+      </c>
+      <c r="BC80">
+        <v>7</v>
+      </c>
+      <c r="BD80">
+        <v>3</v>
+      </c>
+      <c r="BE80">
+        <v>9.5</v>
+      </c>
+      <c r="BF80">
+        <v>1.44</v>
+      </c>
+      <c r="BG80">
+        <v>1.13</v>
+      </c>
+      <c r="BH80">
+        <v>4.25</v>
+      </c>
+      <c r="BI80">
+        <v>1.37</v>
+      </c>
+      <c r="BJ80">
+        <v>2.83</v>
+      </c>
+      <c r="BK80">
+        <v>1.59</v>
+      </c>
+      <c r="BL80">
+        <v>2.28</v>
+      </c>
+      <c r="BM80">
+        <v>1.97</v>
+      </c>
+      <c r="BN80">
+        <v>1.83</v>
+      </c>
+      <c r="BO80">
+        <v>2.46</v>
+      </c>
+      <c r="BP80">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7487108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45605.58333333334</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>71</v>
+      </c>
+      <c r="H81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>148</v>
+      </c>
+      <c r="P81" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q81">
+        <v>4.5</v>
+      </c>
+      <c r="R81">
+        <v>2.38</v>
+      </c>
+      <c r="S81">
+        <v>2.1</v>
+      </c>
+      <c r="T81">
+        <v>1.28</v>
+      </c>
+      <c r="U81">
+        <v>3.35</v>
+      </c>
+      <c r="V81">
+        <v>2.3</v>
+      </c>
+      <c r="W81">
+        <v>1.55</v>
+      </c>
+      <c r="X81">
+        <v>5.35</v>
+      </c>
+      <c r="Y81">
+        <v>1.12</v>
+      </c>
+      <c r="Z81">
+        <v>4.99</v>
+      </c>
+      <c r="AA81">
+        <v>4.33</v>
+      </c>
+      <c r="AB81">
+        <v>1.61</v>
+      </c>
+      <c r="AC81">
+        <v>1.03</v>
+      </c>
+      <c r="AD81">
+        <v>11</v>
+      </c>
+      <c r="AE81">
+        <v>1.18</v>
+      </c>
+      <c r="AF81">
+        <v>4.75</v>
+      </c>
+      <c r="AG81">
+        <v>1.57</v>
+      </c>
+      <c r="AH81">
+        <v>2.35</v>
+      </c>
+      <c r="AI81">
+        <v>1.6</v>
+      </c>
+      <c r="AJ81">
+        <v>2.15</v>
+      </c>
+      <c r="AK81">
+        <v>2.25</v>
+      </c>
+      <c r="AL81">
+        <v>1.17</v>
+      </c>
+      <c r="AM81">
+        <v>1.17</v>
+      </c>
+      <c r="AN81">
+        <v>1.67</v>
+      </c>
+      <c r="AO81">
+        <v>1.43</v>
+      </c>
+      <c r="AP81">
+        <v>1.43</v>
+      </c>
+      <c r="AQ81">
+        <v>1.63</v>
+      </c>
+      <c r="AR81">
+        <v>0.99</v>
+      </c>
+      <c r="AS81">
+        <v>1.68</v>
+      </c>
+      <c r="AT81">
+        <v>2.67</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>8</v>
+      </c>
+      <c r="AW81">
+        <v>1</v>
+      </c>
+      <c r="AX81">
+        <v>8</v>
+      </c>
+      <c r="AY81">
+        <v>6</v>
+      </c>
+      <c r="AZ81">
+        <v>21</v>
+      </c>
+      <c r="BA81">
+        <v>1</v>
+      </c>
+      <c r="BB81">
+        <v>10</v>
+      </c>
+      <c r="BC81">
+        <v>11</v>
+      </c>
+      <c r="BD81">
+        <v>3.1</v>
+      </c>
+      <c r="BE81">
+        <v>9.5</v>
+      </c>
+      <c r="BF81">
+        <v>1.44</v>
+      </c>
+      <c r="BG81">
+        <v>1.14</v>
+      </c>
+      <c r="BH81">
+        <v>4.9</v>
+      </c>
+      <c r="BI81">
+        <v>1.28</v>
+      </c>
+      <c r="BJ81">
+        <v>3.3</v>
+      </c>
+      <c r="BK81">
+        <v>1.5</v>
+      </c>
+      <c r="BL81">
+        <v>2.49</v>
+      </c>
+      <c r="BM81">
+        <v>1.83</v>
+      </c>
+      <c r="BN81">
+        <v>1.96</v>
+      </c>
+      <c r="BO81">
+        <v>2.24</v>
+      </c>
+      <c r="BP81">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7487104</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45605.6875</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s">
+        <v>81</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>109</v>
+      </c>
+      <c r="P82" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q82">
+        <v>2.5</v>
+      </c>
+      <c r="R82">
+        <v>2.15</v>
+      </c>
+      <c r="S82">
+        <v>3.85</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3</v>
+      </c>
+      <c r="V82">
+        <v>2.55</v>
+      </c>
+      <c r="W82">
+        <v>1.45</v>
+      </c>
+      <c r="X82">
+        <v>5.6</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>1.92</v>
+      </c>
+      <c r="AA82">
+        <v>3.76</v>
+      </c>
+      <c r="AB82">
+        <v>3.76</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>10</v>
+      </c>
+      <c r="AE82">
+        <v>1.25</v>
+      </c>
+      <c r="AF82">
+        <v>3.95</v>
+      </c>
+      <c r="AG82">
+        <v>1.7</v>
+      </c>
+      <c r="AH82">
+        <v>2.05</v>
+      </c>
+      <c r="AI82">
+        <v>1.6</v>
+      </c>
+      <c r="AJ82">
+        <v>2.15</v>
+      </c>
+      <c r="AK82">
+        <v>1.28</v>
+      </c>
+      <c r="AL82">
+        <v>1.22</v>
+      </c>
+      <c r="AM82">
+        <v>1.8</v>
+      </c>
+      <c r="AN82">
+        <v>2.17</v>
+      </c>
+      <c r="AO82">
+        <v>2.17</v>
+      </c>
+      <c r="AP82">
+        <v>2</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>1.87</v>
+      </c>
+      <c r="AS82">
+        <v>1.66</v>
+      </c>
+      <c r="AT82">
+        <v>3.53</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>9</v>
+      </c>
+      <c r="AX82">
+        <v>5</v>
+      </c>
+      <c r="AY82">
+        <v>22</v>
+      </c>
+      <c r="AZ82">
+        <v>10</v>
+      </c>
+      <c r="BA82">
+        <v>8</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>11</v>
+      </c>
+      <c r="BD82">
+        <v>1.55</v>
+      </c>
+      <c r="BE82">
+        <v>8.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.75</v>
+      </c>
+      <c r="BG82">
+        <v>1.25</v>
+      </c>
+      <c r="BH82">
+        <v>3.58</v>
+      </c>
+      <c r="BI82">
+        <v>1.39</v>
+      </c>
+      <c r="BJ82">
+        <v>2.75</v>
+      </c>
+      <c r="BK82">
+        <v>1.85</v>
+      </c>
+      <c r="BL82">
+        <v>1.95</v>
+      </c>
+      <c r="BM82">
+        <v>2.11</v>
+      </c>
+      <c r="BN82">
+        <v>1.7</v>
+      </c>
+      <c r="BO82">
+        <v>2.49</v>
+      </c>
+      <c r="BP82">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,15 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['2', '18', '61', '89']</t>
+  </si>
+  <si>
+    <t>['19', '76']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -599,6 +608,15 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['26', '60']</t>
+  </si>
+  <si>
+    <t>['49', '59']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1237,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1425,7 +1443,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1712,7 +1730,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1837,7 +1855,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>1.91</v>
@@ -1915,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2043,7 +2061,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2249,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2455,7 +2473,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>2.45</v>
@@ -2739,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ9">
         <v>0.71</v>
@@ -2867,7 +2885,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>2.85</v>
@@ -2945,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3073,7 +3091,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>2.9</v>
@@ -3154,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3279,7 +3297,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.05</v>
@@ -3691,7 +3709,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3897,7 +3915,7 @@
         <v>83</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>3.05</v>
@@ -3975,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
         <v>1.63</v>
@@ -4515,7 +4533,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4596,7 +4614,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR18">
         <v>1.45</v>
@@ -4721,7 +4739,7 @@
         <v>98</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4799,7 +4817,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5211,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
         <v>0.14</v>
@@ -5339,7 +5357,7 @@
         <v>100</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5751,7 +5769,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5832,7 +5850,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.94</v>
@@ -5957,7 +5975,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>2.3</v>
@@ -6575,7 +6593,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6653,7 +6671,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -6987,7 +7005,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>3.3</v>
@@ -7193,7 +7211,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>3.25</v>
@@ -7271,7 +7289,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>1.63</v>
@@ -7477,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32">
         <v>0.71</v>
@@ -7811,7 +7829,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7892,7 +7910,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ34">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>1.92</v>
@@ -8098,7 +8116,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>2.41</v>
@@ -8223,7 +8241,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8304,7 +8322,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
         <v>1.64</v>
@@ -8429,7 +8447,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8507,7 +8525,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37">
         <v>1.57</v>
@@ -8635,7 +8653,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>2.4</v>
@@ -8716,7 +8734,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>1.76</v>
@@ -8841,7 +8859,7 @@
         <v>83</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>2.6</v>
@@ -9047,7 +9065,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>2.2</v>
@@ -9331,10 +9349,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9459,7 +9477,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>4.33</v>
@@ -9665,7 +9683,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>2.45</v>
@@ -9952,7 +9970,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>1.17</v>
@@ -10283,7 +10301,7 @@
         <v>83</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>1.95</v>
@@ -10361,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ46">
         <v>0.43</v>
@@ -10901,7 +10919,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11107,7 +11125,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>2.64</v>
@@ -11313,7 +11331,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>2.09</v>
@@ -11391,7 +11409,7 @@
         <v>0.25</v>
       </c>
       <c r="AP51">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ51">
         <v>0.71</v>
@@ -11806,7 +11824,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12137,7 +12155,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>2.65</v>
@@ -12343,7 +12361,7 @@
         <v>128</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>3.5</v>
@@ -12421,7 +12439,7 @@
         <v>1.75</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12627,10 +12645,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -12961,7 +12979,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13042,7 +13060,7 @@
         <v>2</v>
       </c>
       <c r="AQ59">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
         <v>1.76</v>
@@ -13454,7 +13472,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR61">
         <v>1.01</v>
@@ -13785,7 +13803,7 @@
         <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>4.2</v>
@@ -13991,7 +14009,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>1.85</v>
@@ -14197,7 +14215,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.88</v>
@@ -14275,10 +14293,10 @@
         <v>0.8</v>
       </c>
       <c r="AP65">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -14609,7 +14627,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14815,7 +14833,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15021,7 +15039,7 @@
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>2.95</v>
@@ -15099,7 +15117,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>2</v>
@@ -15227,7 +15245,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>1.85</v>
@@ -15433,7 +15451,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15511,7 +15529,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71">
         <v>1.63</v>
@@ -15717,10 +15735,10 @@
         <v>1.6</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
         <v>1.54</v>
@@ -15845,7 +15863,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>2.35</v>
@@ -15926,7 +15944,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16463,7 +16481,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -17493,7 +17511,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17669,7 +17687,7 @@
         <v>45605.6875</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
         <v>76</v>
@@ -17699,7 +17717,7 @@
         <v>109</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>2.5</v>
@@ -17856,6 +17874,624 @@
       </c>
       <c r="BP82">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7487103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>149</v>
+      </c>
+      <c r="P83" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q83">
+        <v>3.1</v>
+      </c>
+      <c r="R83">
+        <v>2.2</v>
+      </c>
+      <c r="S83">
+        <v>2.95</v>
+      </c>
+      <c r="T83">
+        <v>1.3</v>
+      </c>
+      <c r="U83">
+        <v>3.2</v>
+      </c>
+      <c r="V83">
+        <v>2.4</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>5.15</v>
+      </c>
+      <c r="Y83">
+        <v>1.13</v>
+      </c>
+      <c r="Z83">
+        <v>2.63</v>
+      </c>
+      <c r="AA83">
+        <v>3.5</v>
+      </c>
+      <c r="AB83">
+        <v>2.35</v>
+      </c>
+      <c r="AC83">
+        <v>1.04</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
+        <v>1.2</v>
+      </c>
+      <c r="AF83">
+        <v>4.33</v>
+      </c>
+      <c r="AG83">
+        <v>1.59</v>
+      </c>
+      <c r="AH83">
+        <v>2.35</v>
+      </c>
+      <c r="AI83">
+        <v>1.48</v>
+      </c>
+      <c r="AJ83">
+        <v>2.4</v>
+      </c>
+      <c r="AK83">
+        <v>1.53</v>
+      </c>
+      <c r="AL83">
+        <v>1.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.45</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>0.83</v>
+      </c>
+      <c r="AP83">
+        <v>0.86</v>
+      </c>
+      <c r="AQ83">
+        <v>1.14</v>
+      </c>
+      <c r="AR83">
+        <v>1.54</v>
+      </c>
+      <c r="AS83">
+        <v>1.53</v>
+      </c>
+      <c r="AT83">
+        <v>3.07</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>4</v>
+      </c>
+      <c r="AX83">
+        <v>5</v>
+      </c>
+      <c r="AY83">
+        <v>11</v>
+      </c>
+      <c r="AZ83">
+        <v>15</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>9</v>
+      </c>
+      <c r="BD83">
+        <v>1.85</v>
+      </c>
+      <c r="BE83">
+        <v>8.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.15</v>
+      </c>
+      <c r="BG83">
+        <v>1.1</v>
+      </c>
+      <c r="BH83">
+        <v>4.7</v>
+      </c>
+      <c r="BI83">
+        <v>1.31</v>
+      </c>
+      <c r="BJ83">
+        <v>3.2</v>
+      </c>
+      <c r="BK83">
+        <v>1.51</v>
+      </c>
+      <c r="BL83">
+        <v>2.47</v>
+      </c>
+      <c r="BM83">
+        <v>2</v>
+      </c>
+      <c r="BN83">
+        <v>1.8</v>
+      </c>
+      <c r="BO83">
+        <v>2.29</v>
+      </c>
+      <c r="BP83">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7487105</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s">
+        <v>75</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>6</v>
+      </c>
+      <c r="O84" t="s">
+        <v>150</v>
+      </c>
+      <c r="P84" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q84">
+        <v>2.8</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>3.5</v>
+      </c>
+      <c r="T84">
+        <v>1.36</v>
+      </c>
+      <c r="U84">
+        <v>2.9</v>
+      </c>
+      <c r="V84">
+        <v>2.6</v>
+      </c>
+      <c r="W84">
+        <v>1.44</v>
+      </c>
+      <c r="X84">
+        <v>5.75</v>
+      </c>
+      <c r="Y84">
+        <v>1.1</v>
+      </c>
+      <c r="Z84">
+        <v>1.25</v>
+      </c>
+      <c r="AA84">
+        <v>8.19</v>
+      </c>
+      <c r="AB84">
+        <v>5.23</v>
+      </c>
+      <c r="AC84">
+        <v>1.05</v>
+      </c>
+      <c r="AD84">
+        <v>9.5</v>
+      </c>
+      <c r="AE84">
+        <v>1.25</v>
+      </c>
+      <c r="AF84">
+        <v>3.75</v>
+      </c>
+      <c r="AG84">
+        <v>1.73</v>
+      </c>
+      <c r="AH84">
+        <v>2</v>
+      </c>
+      <c r="AI84">
+        <v>1.6</v>
+      </c>
+      <c r="AJ84">
+        <v>2.15</v>
+      </c>
+      <c r="AK84">
+        <v>1.35</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.65</v>
+      </c>
+      <c r="AN84">
+        <v>1.43</v>
+      </c>
+      <c r="AO84">
+        <v>1.5</v>
+      </c>
+      <c r="AP84">
+        <v>1.63</v>
+      </c>
+      <c r="AQ84">
+        <v>1.29</v>
+      </c>
+      <c r="AR84">
+        <v>1.44</v>
+      </c>
+      <c r="AS84">
+        <v>1.53</v>
+      </c>
+      <c r="AT84">
+        <v>2.97</v>
+      </c>
+      <c r="AU84">
+        <v>11</v>
+      </c>
+      <c r="AV84">
+        <v>6</v>
+      </c>
+      <c r="AW84">
+        <v>7</v>
+      </c>
+      <c r="AX84">
+        <v>2</v>
+      </c>
+      <c r="AY84">
+        <v>20</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>6</v>
+      </c>
+      <c r="BD84">
+        <v>1.67</v>
+      </c>
+      <c r="BE84">
+        <v>8.5</v>
+      </c>
+      <c r="BF84">
+        <v>2.45</v>
+      </c>
+      <c r="BG84">
+        <v>1.16</v>
+      </c>
+      <c r="BH84">
+        <v>3.96</v>
+      </c>
+      <c r="BI84">
+        <v>1.38</v>
+      </c>
+      <c r="BJ84">
+        <v>2.82</v>
+      </c>
+      <c r="BK84">
+        <v>1.63</v>
+      </c>
+      <c r="BL84">
+        <v>2.23</v>
+      </c>
+      <c r="BM84">
+        <v>2.07</v>
+      </c>
+      <c r="BN84">
+        <v>1.72</v>
+      </c>
+      <c r="BO84">
+        <v>2.44</v>
+      </c>
+      <c r="BP84">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7487107</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>151</v>
+      </c>
+      <c r="P85" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q85">
+        <v>2.7</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>3.4</v>
+      </c>
+      <c r="T85">
+        <v>1.3</v>
+      </c>
+      <c r="U85">
+        <v>3.2</v>
+      </c>
+      <c r="V85">
+        <v>2.3</v>
+      </c>
+      <c r="W85">
+        <v>1.55</v>
+      </c>
+      <c r="X85">
+        <v>5.1</v>
+      </c>
+      <c r="Y85">
+        <v>1.13</v>
+      </c>
+      <c r="Z85">
+        <v>2.12</v>
+      </c>
+      <c r="AA85">
+        <v>4</v>
+      </c>
+      <c r="AB85">
+        <v>2.91</v>
+      </c>
+      <c r="AC85">
+        <v>1.04</v>
+      </c>
+      <c r="AD85">
+        <v>10</v>
+      </c>
+      <c r="AE85">
+        <v>1.2</v>
+      </c>
+      <c r="AF85">
+        <v>4.33</v>
+      </c>
+      <c r="AG85">
+        <v>1.52</v>
+      </c>
+      <c r="AH85">
+        <v>2.43</v>
+      </c>
+      <c r="AI85">
+        <v>1.48</v>
+      </c>
+      <c r="AJ85">
+        <v>2.4</v>
+      </c>
+      <c r="AK85">
+        <v>1.35</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.67</v>
+      </c>
+      <c r="AN85">
+        <v>1.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.5</v>
+      </c>
+      <c r="AP85">
+        <v>1.57</v>
+      </c>
+      <c r="AQ85">
+        <v>1.29</v>
+      </c>
+      <c r="AR85">
+        <v>1.7</v>
+      </c>
+      <c r="AS85">
+        <v>1.71</v>
+      </c>
+      <c r="AT85">
+        <v>3.41</v>
+      </c>
+      <c r="AU85">
+        <v>7</v>
+      </c>
+      <c r="AV85">
+        <v>5</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>4</v>
+      </c>
+      <c r="AY85">
+        <v>18</v>
+      </c>
+      <c r="AZ85">
+        <v>13</v>
+      </c>
+      <c r="BA85">
+        <v>8</v>
+      </c>
+      <c r="BB85">
+        <v>1</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>1.67</v>
+      </c>
+      <c r="BE85">
+        <v>8.5</v>
+      </c>
+      <c r="BF85">
+        <v>2.45</v>
+      </c>
+      <c r="BG85">
+        <v>1.14</v>
+      </c>
+      <c r="BH85">
+        <v>4.2</v>
+      </c>
+      <c r="BI85">
+        <v>1.36</v>
+      </c>
+      <c r="BJ85">
+        <v>2.88</v>
+      </c>
+      <c r="BK85">
+        <v>1.62</v>
+      </c>
+      <c r="BL85">
+        <v>2.23</v>
+      </c>
+      <c r="BM85">
+        <v>2.01</v>
+      </c>
+      <c r="BN85">
+        <v>1.79</v>
+      </c>
+      <c r="BO85">
+        <v>2.55</v>
+      </c>
+      <c r="BP85">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20242025.xlsx
@@ -463,12 +463,12 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['2', '18', '61', '89']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
-    <t>['2', '18', '61', '89']</t>
-  </si>
-  <si>
     <t>['19', '76']</t>
   </si>
   <si>
@@ -610,10 +610,10 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['49', '59']</t>
+  </si>
+  <si>
     <t>['26', '60']</t>
-  </si>
-  <si>
-    <t>['49', '59']</t>
   </si>
   <si>
     <t>['33']</t>
@@ -17881,7 +17881,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7487103</v>
+        <v>7487105</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17890,34 +17890,34 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45605.875</v>
+        <v>45606.42708333334</v>
       </c>
       <c r="F83">
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M83">
         <v>2</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O83" t="s">
         <v>149</v>
@@ -17926,160 +17926,160 @@
         <v>198</v>
       </c>
       <c r="Q83">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="R83">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S83">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="T83">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U83">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="V83">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X83">
-        <v>5.15</v>
+        <v>5.75</v>
       </c>
       <c r="Y83">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z83">
-        <v>2.63</v>
+        <v>1.25</v>
       </c>
       <c r="AA83">
-        <v>3.5</v>
+        <v>8.19</v>
       </c>
       <c r="AB83">
-        <v>2.35</v>
+        <v>5.23</v>
       </c>
       <c r="AC83">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD83">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE83">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF83">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AG83">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AH83">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="AI83">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AJ83">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="AK83">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AL83">
         <v>1.25</v>
       </c>
       <c r="AM83">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO83">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>0.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR83">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS83">
         <v>1.53</v>
       </c>
       <c r="AT83">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="AU83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV83">
         <v>6</v>
       </c>
       <c r="AW83">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY83">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ83">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC83">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD83">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BE83">
         <v>8.5</v>
       </c>
       <c r="BF83">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="BG83">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="BH83">
-        <v>4.7</v>
+        <v>3.96</v>
       </c>
       <c r="BI83">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="BJ83">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="BK83">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="BL83">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="BM83">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN83">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="BO83">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="BP83">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18087,7 +18087,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7487105</v>
+        <v>7487103</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18096,34 +18096,34 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45605.875</v>
+        <v>45606.52083333334</v>
       </c>
       <c r="F84">
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>2</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O84" t="s">
         <v>150</v>
@@ -18132,160 +18132,160 @@
         <v>199</v>
       </c>
       <c r="Q84">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="R84">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S84">
+        <v>2.95</v>
+      </c>
+      <c r="T84">
+        <v>1.3</v>
+      </c>
+      <c r="U84">
+        <v>3.2</v>
+      </c>
+      <c r="V84">
+        <v>2.4</v>
+      </c>
+      <c r="W84">
+        <v>1.5</v>
+      </c>
+      <c r="X84">
+        <v>5.15</v>
+      </c>
+      <c r="Y84">
+        <v>1.13</v>
+      </c>
+      <c r="Z84">
+        <v>2.63</v>
+      </c>
+      <c r="AA84">
         <v>3.5</v>
       </c>
-      <c r="T84">
-        <v>1.36</v>
-      </c>
-      <c r="U84">
-        <v>2.9</v>
-      </c>
-      <c r="V84">
-        <v>2.6</v>
-      </c>
-      <c r="W84">
-        <v>1.44</v>
-      </c>
-      <c r="X84">
-        <v>5.75</v>
-      </c>
-      <c r="Y84">
-        <v>1.1</v>
-      </c>
-      <c r="Z84">
-        <v>1.25</v>
-      </c>
-      <c r="AA84">
-        <v>8.19</v>
-      </c>
       <c r="AB84">
-        <v>5.23</v>
+        <v>2.35</v>
       </c>
       <c r="AC84">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD84">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE84">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF84">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AG84">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AH84">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AI84">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AJ84">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="AK84">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AL84">
         <v>1.25</v>
       </c>
       <c r="AM84">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AN84">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AO84">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR84">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AS84">
         <v>1.53</v>
       </c>
       <c r="AT84">
-        <v>2.97</v>
+        <v>3.07</v>
       </c>
       <c r="AU84">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AV84">
         <v>6</v>
       </c>
       <c r="AW84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY84">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ84">
+        <v>15</v>
+      </c>
+      <c r="BA84">
+        <v>4</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
         <v>9</v>
       </c>
-      <c r="BA84">
-        <v>3</v>
-      </c>
-      <c r="BB84">
-        <v>3</v>
-      </c>
-      <c r="BC84">
-        <v>6</v>
-      </c>
       <c r="BD84">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BE84">
         <v>8.5</v>
       </c>
       <c r="BF84">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="BG84">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="BH84">
-        <v>3.96</v>
+        <v>4.7</v>
       </c>
       <c r="BI84">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="BJ84">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="BK84">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="BL84">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="BM84">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BN84">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BO84">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="BP84">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18302,7 +18302,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45605.875</v>
+        <v>45606.52083333334</v>
       </c>
       <c r="F85">
         <v>14</v>
